--- a/excel/producten.xlsx
+++ b/excel/producten.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
   <si>
     <t>productnaam</t>
   </si>
@@ -316,6 +316,24 @@
   </si>
   <si>
     <t>/luckies-gadget-smart-phone-projector-2h41c52060?id_colour=4123</t>
+  </si>
+  <si>
+    <t>Travelset</t>
+  </si>
+  <si>
+    <t>Care Plus</t>
+  </si>
+  <si>
+    <t>Led Day Light</t>
+  </si>
+  <si>
+    <t>Varta</t>
+  </si>
+  <si>
+    <t>Minispray 8ml</t>
+  </si>
+  <si>
+    <t>Zaklamp</t>
   </si>
 </sst>
 </file>
@@ -712,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24:W27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1420,6 +1438,40 @@
         <v>87</v>
       </c>
     </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/excel/producten.xlsx
+++ b/excel/producten.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="26740" tabRatio="500"/>
+    <workbookView xWindow="25596" yWindow="0" windowWidth="25596" windowHeight="13176" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -399,12 +399,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -733,31 +738,32 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" customWidth="1"/>
+    <col min="4" max="4" width="3.796875" customWidth="1"/>
+    <col min="5" max="5" width="4.296875" customWidth="1"/>
+    <col min="8" max="8" width="4.296875" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+    <col min="10" max="10" width="5.796875" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.69921875" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" customWidth="1"/>
+    <col min="21" max="21" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1">
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -850,11 +856,17 @@
       <c r="P2" s="2">
         <v>1</v>
       </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
       <c r="W2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -876,11 +888,17 @@
       <c r="P3">
         <v>1</v>
       </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
       <c r="W3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -908,11 +926,17 @@
       <c r="P4">
         <v>1</v>
       </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
       <c r="W4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -937,11 +961,14 @@
       <c r="P5">
         <v>1</v>
       </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
       <c r="W5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -957,11 +984,20 @@
       <c r="G6">
         <v>19</v>
       </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
       <c r="W6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -974,11 +1010,20 @@
       <c r="G7">
         <v>29.95</v>
       </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
       <c r="W7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -991,11 +1036,20 @@
       <c r="G8">
         <v>44.95</v>
       </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
       <c r="W8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1014,11 +1068,20 @@
       <c r="I9" t="s">
         <v>48</v>
       </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
       <c r="W9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1034,11 +1097,20 @@
       <c r="I10" t="s">
         <v>52</v>
       </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
       <c r="W10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1">
+    <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -1051,11 +1123,17 @@
       <c r="I11" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
       <c r="W11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -1084,7 +1162,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1100,14 +1178,20 @@
       <c r="G13">
         <v>99</v>
       </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
       <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
         <v>1</v>
       </c>
       <c r="W13" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1123,14 +1207,20 @@
       <c r="G14">
         <v>29</v>
       </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
       <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
         <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1153,7 +1243,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1176,7 +1266,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1199,7 +1289,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1225,7 +1315,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1241,11 +1331,20 @@
       <c r="G19">
         <v>15</v>
       </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
       <c r="W19" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -1277,7 +1376,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -1309,7 +1408,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -1328,11 +1427,14 @@
       <c r="K22">
         <v>1</v>
       </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
       <c r="W22" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -1345,11 +1447,14 @@
       <c r="G23">
         <v>19.95</v>
       </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
       <c r="W23" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1365,14 +1470,26 @@
       <c r="G24">
         <v>19</v>
       </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
       <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
         <v>1</v>
       </c>
       <c r="W24" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -1385,6 +1502,21 @@
       <c r="G25">
         <v>29.95</v>
       </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
       <c r="S25">
         <v>1</v>
       </c>
@@ -1392,7 +1524,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -1405,6 +1537,15 @@
       <c r="G26">
         <v>49.95</v>
       </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
       <c r="S26">
         <v>1</v>
       </c>
@@ -1412,7 +1553,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -1431,6 +1572,15 @@
       <c r="I27" t="s">
         <v>96</v>
       </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
       <c r="S27">
         <v>1</v>
       </c>
@@ -1438,7 +1588,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -1451,8 +1601,17 @@
       <c r="G28">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -1470,6 +1629,15 @@
       </c>
       <c r="I29" t="s">
         <v>52</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel/producten.xlsx
+++ b/excel/producten.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25596" yWindow="0" windowWidth="25596" windowHeight="13176" tabRatio="500"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="13180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="163">
   <si>
     <t>productnaam</t>
   </si>
@@ -156,15 +156,9 @@
     <t>Wide angle lens</t>
   </si>
   <si>
-    <t>3-personen tent</t>
-  </si>
-  <si>
     <t>Coleman</t>
   </si>
   <si>
-    <t>Tent + maxi comfort luchtmatras</t>
-  </si>
-  <si>
     <t>Setprijs</t>
   </si>
   <si>
@@ -334,6 +328,186 @@
   </si>
   <si>
     <t>Zaklamp</t>
+  </si>
+  <si>
+    <t>Darwin 2</t>
+  </si>
+  <si>
+    <t>Tent</t>
+  </si>
+  <si>
+    <t>SEO 3</t>
+  </si>
+  <si>
+    <t>Hoofdlamp</t>
+  </si>
+  <si>
+    <t>Led Lenser</t>
+  </si>
+  <si>
+    <t>Palm tree en Flowers</t>
+  </si>
+  <si>
+    <t>Zwemshort jongens</t>
+  </si>
+  <si>
+    <t>Rumbl</t>
+  </si>
+  <si>
+    <t>Beach kids</t>
+  </si>
+  <si>
+    <t>Happy Hippie</t>
+  </si>
+  <si>
+    <t>Bikini meisjes</t>
+  </si>
+  <si>
+    <t>Lingadore</t>
+  </si>
+  <si>
+    <t>Flamingo</t>
+  </si>
+  <si>
+    <t>UV-shirt meisjes</t>
+  </si>
+  <si>
+    <t>Molo kids</t>
+  </si>
+  <si>
+    <t>Shark</t>
+  </si>
+  <si>
+    <t>UV-shirt jongens</t>
+  </si>
+  <si>
+    <t>Vigga</t>
+  </si>
+  <si>
+    <t>Jumpsuit meisjes</t>
+  </si>
+  <si>
+    <t>Name it</t>
+  </si>
+  <si>
+    <t>Assortiment zonnebrillen</t>
+  </si>
+  <si>
+    <t>met gratis zonnebescherming</t>
+  </si>
+  <si>
+    <t>Julbo</t>
+  </si>
+  <si>
+    <t>Vanaf</t>
+  </si>
+  <si>
+    <t>Snorkelset</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Speedo</t>
+  </si>
+  <si>
+    <t>Strandspeelgoed</t>
+  </si>
+  <si>
+    <t>Assortiment</t>
+  </si>
+  <si>
+    <t>Quut</t>
+  </si>
+  <si>
+    <t>Assortiment slippers</t>
+  </si>
+  <si>
+    <t>Cozumel</t>
+  </si>
+  <si>
+    <t>Hoed</t>
+  </si>
+  <si>
+    <t>Barts</t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t>Ivy Jade</t>
+  </si>
+  <si>
+    <t>Bikini</t>
+  </si>
+  <si>
+    <t>Beachlife</t>
+  </si>
+  <si>
+    <t>Kachon Tee</t>
+  </si>
+  <si>
+    <t>T-shirt Heren</t>
+  </si>
+  <si>
+    <t>J&amp;J Tech</t>
+  </si>
+  <si>
+    <t>Happie Hippie</t>
+  </si>
+  <si>
+    <t>Halterneck Bikini</t>
+  </si>
+  <si>
+    <t>Mahalo</t>
+  </si>
+  <si>
+    <t>Halterneck strandjurks</t>
+  </si>
+  <si>
+    <t>Boltana</t>
+  </si>
+  <si>
+    <t>Strandjurk</t>
+  </si>
+  <si>
+    <t>Protest</t>
+  </si>
+  <si>
+    <t>Yolt</t>
+  </si>
+  <si>
+    <t>Zwemshort Heren</t>
+  </si>
+  <si>
+    <t>Assortiment teenslippers</t>
+  </si>
+  <si>
+    <t>Assortiment zonnebescherming</t>
+  </si>
+  <si>
+    <t>Skomer</t>
+  </si>
+  <si>
+    <t>T-shirt Dames</t>
+  </si>
+  <si>
+    <t>Vaude</t>
+  </si>
+  <si>
+    <t>Trekking 2+1</t>
+  </si>
+  <si>
+    <t>Masai Mara</t>
+  </si>
+  <si>
+    <t>Zambezi</t>
+  </si>
+  <si>
+    <t>Darwin 3</t>
+  </si>
+  <si>
+    <t>en Maxi Comfort Luchtmatras</t>
   </si>
 </sst>
 </file>
@@ -399,9 +573,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -735,35 +909,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.296875" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" customWidth="1"/>
-    <col min="4" max="4" width="3.796875" customWidth="1"/>
-    <col min="5" max="5" width="4.296875" customWidth="1"/>
-    <col min="8" max="8" width="4.296875" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="5.796875" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.796875" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +1008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -866,7 +1040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -898,7 +1072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -936,7 +1110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -968,7 +1142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -997,7 +1171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1023,7 +1197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1049,15 +1223,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
       </c>
       <c r="F9">
         <v>159.9</v>
@@ -1066,7 +1240,7 @@
         <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1081,21 +1255,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
       </c>
       <c r="G10">
         <v>19.95</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -1110,18 +1284,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="Q11" s="1">
         <v>1</v>
@@ -1133,15 +1307,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
       </c>
       <c r="F12">
         <v>64.95</v>
@@ -1159,18 +1333,18 @@
         <v>1</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13">
         <v>164.95</v>
@@ -1188,18 +1362,18 @@
         <v>1</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>44.95</v>
@@ -1217,18 +1391,18 @@
         <v>1</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
       </c>
       <c r="F15">
         <v>135</v>
@@ -1240,18 +1414,18 @@
         <v>1</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
         <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
       </c>
       <c r="F16">
         <v>165</v>
@@ -1263,18 +1437,18 @@
         <v>1</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
         <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
       </c>
       <c r="F17">
         <v>185</v>
@@ -1286,18 +1460,18 @@
         <v>1</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
         <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>67</v>
       </c>
       <c r="F18">
         <v>485</v>
@@ -1306,24 +1480,24 @@
         <v>229</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
         <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
       </c>
       <c r="F19">
         <v>24.95</v>
@@ -1341,18 +1515,18 @@
         <v>1</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
         <v>74</v>
-      </c>
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
       </c>
       <c r="F20">
         <v>79.95</v>
@@ -1373,18 +1547,18 @@
         <v>1</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F21">
         <v>79</v>
@@ -1405,15 +1579,15 @@
         <v>1</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F22">
         <v>39.950000000000003</v>
@@ -1431,18 +1605,18 @@
         <v>1</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G23">
         <v>19.95</v>
@@ -1451,18 +1625,18 @@
         <v>1</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
         <v>84</v>
-      </c>
-      <c r="B24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" t="s">
-        <v>86</v>
       </c>
       <c r="F24">
         <v>29.95</v>
@@ -1486,18 +1660,18 @@
         <v>1</v>
       </c>
       <c r="W24" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
         <v>88</v>
-      </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
       </c>
       <c r="G25">
         <v>29.95</v>
@@ -1521,18 +1695,18 @@
         <v>1</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G26">
         <v>49.95</v>
@@ -1550,27 +1724,27 @@
         <v>1</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
         <v>95</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" t="s">
-        <v>97</v>
       </c>
       <c r="G27">
         <v>94.95</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -1585,18 +1759,18 @@
         <v>1</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G28">
         <v>9.9499999999999993</v>
@@ -1610,16 +1784,19 @@
       <c r="S28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W28" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F29">
         <v>9.9499999999999993</v>
@@ -1628,7 +1805,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -1637,6 +1814,529 @@
         <v>1</v>
       </c>
       <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="2" customFormat="1">
+      <c r="A30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="2">
+        <v>74.95</v>
+      </c>
+      <c r="G30" s="2">
+        <v>49</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="G32">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="W32" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33">
+        <v>24.95</v>
+      </c>
+      <c r="G33">
+        <v>19</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34">
+        <v>27.95</v>
+      </c>
+      <c r="G34">
+        <v>19</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35">
+        <v>27.95</v>
+      </c>
+      <c r="G35">
+        <v>19</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36">
+        <v>10.95</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37">
+        <v>29.95</v>
+      </c>
+      <c r="I37" t="s">
+        <v>126</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38">
+        <v>21</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39">
+        <v>7.5</v>
+      </c>
+      <c r="I39" t="s">
+        <v>126</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" s="1" customFormat="1">
+      <c r="A40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+      <c r="U40" s="1">
+        <v>1</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41">
+        <v>34.99</v>
+      </c>
+      <c r="G41">
+        <v>25</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="G42">
+        <v>49</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="W42" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43">
+        <v>19.95</v>
+      </c>
+      <c r="G43">
+        <v>14</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="W43" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44">
+        <v>69.95</v>
+      </c>
+      <c r="G44">
+        <v>49</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="W44" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I45" t="s">
+        <v>25</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46">
+        <v>49.95</v>
+      </c>
+      <c r="G46">
+        <v>35</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47">
+        <v>49.95</v>
+      </c>
+      <c r="G47">
+        <v>35</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" s="1" customFormat="1">
+      <c r="A48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" s="1" customFormat="1">
+      <c r="A49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G52">
+        <v>29.95</v>
+      </c>
+      <c r="L52">
         <v>1</v>
       </c>
     </row>

--- a/excel/producten.xlsx
+++ b/excel/producten.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="13180" tabRatio="500"/>
+    <workbookView xWindow="25596" yWindow="0" windowWidth="25596" windowHeight="13176" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="164">
   <si>
     <t>productnaam</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>en Maxi Comfort Luchtmatras</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -573,9 +576,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -909,35 +912,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X51" sqref="X51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" customWidth="1"/>
+    <col min="2" max="2" width="28.3984375" customWidth="1"/>
+    <col min="4" max="4" width="3.796875" customWidth="1"/>
+    <col min="5" max="5" width="4.296875" customWidth="1"/>
+    <col min="8" max="8" width="4.296875" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+    <col min="10" max="10" width="5.796875" customWidth="1"/>
     <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.69921875" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" customWidth="1"/>
+    <col min="21" max="21" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1">
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1033,14 +1036,14 @@
       <c r="Q2" s="2">
         <v>1</v>
       </c>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
       <c r="W2" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1065,14 +1068,14 @@
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
       <c r="W3" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1103,14 +1106,14 @@
       <c r="Q4">
         <v>1</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
       <c r="W4" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1141,8 +1144,11 @@
       <c r="W5" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1158,20 +1164,17 @@
       <c r="G6">
         <v>19</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
       <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
         <v>1</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1190,14 +1193,14 @@
       <c r="R7">
         <v>1</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1216,14 +1219,14 @@
       <c r="R8">
         <v>1</v>
       </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
       <c r="W8" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -1254,8 +1257,11 @@
       <c r="W9" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1283,8 +1289,11 @@
       <c r="W10" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" s="1" customFormat="1">
+      <c r="X10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -1306,8 +1315,11 @@
       <c r="W11" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1335,8 +1347,11 @@
       <c r="W12" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1364,8 +1379,11 @@
       <c r="W13" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -1393,8 +1411,11 @@
       <c r="W14" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -1416,8 +1437,11 @@
       <c r="W15" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1439,8 +1463,11 @@
       <c r="W16" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1462,8 +1489,11 @@
       <c r="W17" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -1488,8 +1518,11 @@
       <c r="W18" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1517,8 +1550,11 @@
       <c r="W19" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -1549,8 +1585,11 @@
       <c r="W20" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -1581,8 +1620,11 @@
       <c r="W21" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -1607,8 +1649,11 @@
       <c r="W22" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1627,8 +1672,11 @@
       <c r="W23" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -1662,8 +1710,11 @@
       <c r="W24" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -1697,8 +1748,11 @@
       <c r="W25" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -1726,8 +1780,11 @@
       <c r="W26" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -1761,8 +1818,11 @@
       <c r="W27" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -1787,8 +1847,11 @@
       <c r="W28" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -1819,8 +1882,11 @@
       <c r="W29" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" s="2" customFormat="1">
+      <c r="X29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>103</v>
       </c>
@@ -1836,11 +1902,23 @@
       <c r="G30" s="2">
         <v>49</v>
       </c>
+      <c r="Q30" s="2">
+        <v>1</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1</v>
+      </c>
+      <c r="S30" s="2">
+        <v>1</v>
+      </c>
       <c r="W30" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -1859,8 +1937,11 @@
       <c r="W31" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -1888,8 +1969,11 @@
       <c r="W32" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -1917,8 +2001,11 @@
       <c r="W33" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -1946,8 +2033,11 @@
       <c r="W34" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -1975,8 +2065,11 @@
       <c r="W35" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -1998,8 +2091,11 @@
       <c r="W36" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -2024,8 +2120,11 @@
       <c r="W37" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -2050,8 +2149,11 @@
       <c r="W38" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -2076,8 +2178,11 @@
       <c r="W39" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" s="1" customFormat="1">
+      <c r="X39" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>133</v>
       </c>
@@ -2090,8 +2195,11 @@
       <c r="W40" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -2116,8 +2224,11 @@
       <c r="W41" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -2136,11 +2247,17 @@
       <c r="K42">
         <v>1</v>
       </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
       <c r="W42" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -2168,8 +2285,11 @@
       <c r="W43" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -2197,8 +2317,11 @@
       <c r="W44" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -2214,11 +2337,17 @@
       <c r="I45" t="s">
         <v>25</v>
       </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
       <c r="W45" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>148</v>
       </c>
@@ -2240,11 +2369,17 @@
       <c r="M46">
         <v>1</v>
       </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
       <c r="W46" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -2266,27 +2401,45 @@
       <c r="N47">
         <v>1</v>
       </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
       <c r="W47" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" s="1" customFormat="1">
+      <c r="X47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="T48" s="1">
+        <v>1</v>
+      </c>
       <c r="W48" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" s="1" customFormat="1">
+      <c r="X48" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="T49" s="1">
+        <v>1</v>
+      </c>
       <c r="W49" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>155</v>
       </c>
@@ -2302,11 +2455,17 @@
       <c r="L50">
         <v>1</v>
       </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
       <c r="W50" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>159</v>
       </c>
@@ -2322,8 +2481,14 @@
       <c r="L51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="X51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>160</v>
       </c>
@@ -2338,6 +2503,12 @@
       </c>
       <c r="L52">
         <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="X52" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/excel/producten.xlsx
+++ b/excel/producten.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25596" yWindow="0" windowWidth="25596" windowHeight="13176" tabRatio="500"/>
+    <workbookView xWindow="25500" yWindow="0" windowWidth="25600" windowHeight="26740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="278">
   <si>
     <t>productnaam</t>
   </si>
@@ -511,6 +511,348 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Simona</t>
+  </si>
+  <si>
+    <t>Betty Polo</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Sprayway</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>Zero Rules</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Mountain Tech III</t>
+  </si>
+  <si>
+    <t>Dome</t>
+  </si>
+  <si>
+    <t>Company Car</t>
+  </si>
+  <si>
+    <t>Mountaineering</t>
+  </si>
+  <si>
+    <t>Tumi SS</t>
+  </si>
+  <si>
+    <t>Beat The Mountain</t>
+  </si>
+  <si>
+    <t>Rhino SS</t>
+  </si>
+  <si>
+    <t>Hummingbird QD</t>
+  </si>
+  <si>
+    <t>Fish QD</t>
+  </si>
+  <si>
+    <t>Dots QD</t>
+  </si>
+  <si>
+    <t>Owl QD</t>
+  </si>
+  <si>
+    <t>Mud Racer QD</t>
+  </si>
+  <si>
+    <t>Benny</t>
+  </si>
+  <si>
+    <t>Polo Heren</t>
+  </si>
+  <si>
+    <t>Bikerrace</t>
+  </si>
+  <si>
+    <t>Recycle</t>
+  </si>
+  <si>
+    <t>You Decide</t>
+  </si>
+  <si>
+    <t>Deer</t>
+  </si>
+  <si>
+    <t>UAX</t>
+  </si>
+  <si>
+    <t>Scubahuba</t>
+  </si>
+  <si>
+    <t>Ecologica</t>
+  </si>
+  <si>
+    <t>Re-cycle</t>
+  </si>
+  <si>
+    <t>Fast Bike</t>
+  </si>
+  <si>
+    <t>Trekking jurken</t>
+  </si>
+  <si>
+    <t>Margot</t>
+  </si>
+  <si>
+    <t>Patagonia</t>
+  </si>
+  <si>
+    <t>Wahia</t>
+  </si>
+  <si>
+    <t>Jack Wolfskin</t>
+  </si>
+  <si>
+    <t>Sookie</t>
+  </si>
+  <si>
+    <t>Royal Robbins</t>
+  </si>
+  <si>
+    <t>Flora</t>
+  </si>
+  <si>
+    <t>TEVA DAMES</t>
+  </si>
+  <si>
+    <t>TEVA HEREN</t>
+  </si>
+  <si>
+    <t>Prime</t>
+  </si>
+  <si>
+    <t>Zonnebril</t>
+  </si>
+  <si>
+    <t>Sinner</t>
+  </si>
+  <si>
+    <t>Rotorua</t>
+  </si>
+  <si>
+    <t>Trekking Algemeen</t>
+  </si>
+  <si>
+    <t>Bridgeton Low WP</t>
+  </si>
+  <si>
+    <t>Herenschoen</t>
+  </si>
+  <si>
+    <t>Timberland</t>
+  </si>
+  <si>
+    <t>Corliss Gore-Tex®</t>
+  </si>
+  <si>
+    <t>Caucasus</t>
+  </si>
+  <si>
+    <t>Millet</t>
+  </si>
+  <si>
+    <t>Caucasus long</t>
+  </si>
+  <si>
+    <t>Futura 22</t>
+  </si>
+  <si>
+    <t>Dagrugzak</t>
+  </si>
+  <si>
+    <t>Gel 3-pack</t>
+  </si>
+  <si>
+    <t>Voeding</t>
+  </si>
+  <si>
+    <t>Overstims</t>
+  </si>
+  <si>
+    <t>Tek Towel</t>
+  </si>
+  <si>
+    <t>Wash Kit</t>
+  </si>
+  <si>
+    <t>Sea to Summit</t>
+  </si>
+  <si>
+    <t>Compact 8x25</t>
+  </si>
+  <si>
+    <t>Verrekijker</t>
+  </si>
+  <si>
+    <t>Kite Optics</t>
+  </si>
+  <si>
+    <t>Poco Plus</t>
+  </si>
+  <si>
+    <t>Babydrager</t>
+  </si>
+  <si>
+    <t>Osprey</t>
+  </si>
+  <si>
+    <t>Ambit 2S Graphite</t>
+  </si>
+  <si>
+    <t>Hoogtemeter</t>
+  </si>
+  <si>
+    <t>Suunto</t>
+  </si>
+  <si>
+    <t>Inclusief hartslagmeter</t>
+  </si>
+  <si>
+    <t>Ugrip Chain 585-5</t>
+  </si>
+  <si>
+    <t>Kabelslot</t>
+  </si>
+  <si>
+    <t>Abus</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>Vybe D7</t>
+  </si>
+  <si>
+    <t>Vouwfiets</t>
+  </si>
+  <si>
+    <t>Dahon</t>
+  </si>
+  <si>
+    <t>Cluster 10+3</t>
+  </si>
+  <si>
+    <t>Rugzak</t>
+  </si>
+  <si>
+    <t>Activ TC</t>
+  </si>
+  <si>
+    <t>Helm</t>
+  </si>
+  <si>
+    <t>Casco</t>
+  </si>
+  <si>
+    <t>Dinsdag comfort 7V</t>
+  </si>
+  <si>
+    <t>Batavus</t>
+  </si>
+  <si>
+    <t>Fietstas</t>
+  </si>
+  <si>
+    <t>Stadsfiets</t>
+  </si>
+  <si>
+    <t>Clarijs</t>
+  </si>
+  <si>
+    <t>Vintage</t>
+  </si>
+  <si>
+    <t>Fietsbel</t>
+  </si>
+  <si>
+    <t>Liix</t>
+  </si>
+  <si>
+    <t>Transport U4 Jeans</t>
+  </si>
+  <si>
+    <t>Citybike</t>
+  </si>
+  <si>
+    <t>Cortina</t>
+  </si>
+  <si>
+    <t>Ride</t>
+  </si>
+  <si>
+    <t>Odlo</t>
+  </si>
+  <si>
+    <t>Aircontact Pro 60+15</t>
+  </si>
+  <si>
+    <t>Aircontact Pro 55+15 SL</t>
+  </si>
+  <si>
+    <t>Rugzak Heren</t>
+  </si>
+  <si>
+    <t>Rugzak Dames</t>
+  </si>
+  <si>
+    <t>Camping</t>
+  </si>
+  <si>
+    <t>Vespucci 4</t>
+  </si>
+  <si>
+    <t>Vespucci 6</t>
+  </si>
+  <si>
+    <t>Met gratis Campingaz Party Grill twv € 54,95</t>
+  </si>
+  <si>
+    <t>Met gratis Campingaz Party Grill twv € 54,96</t>
+  </si>
+  <si>
+    <t>Bandit</t>
+  </si>
+  <si>
+    <t>Actiecamera</t>
+  </si>
+  <si>
+    <t>TomTom</t>
+  </si>
+  <si>
+    <t>Toilettas</t>
+  </si>
+  <si>
+    <t>Duffel</t>
+  </si>
+  <si>
+    <t>Camel</t>
+  </si>
+  <si>
+    <t>Picknickdeken</t>
+  </si>
+  <si>
+    <t>Lalay</t>
+  </si>
+  <si>
+    <t>Smoozip +3°C</t>
   </si>
 </sst>
 </file>
@@ -542,7 +884,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +894,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE062"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,15 +924,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -912,35 +1268,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:X116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X51" sqref="X51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.296875" customWidth="1"/>
-    <col min="2" max="2" width="28.3984375" customWidth="1"/>
-    <col min="4" max="4" width="3.796875" customWidth="1"/>
-    <col min="5" max="5" width="4.296875" customWidth="1"/>
-    <col min="8" max="8" width="4.296875" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="5.796875" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
-    <col min="12" max="12" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+    <col min="11" max="11" width="6" style="3" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.796875" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,10 +1327,10 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -1011,7 +1367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1027,6 +1383,8 @@
       <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
       <c r="N2" s="2">
         <v>1</v>
       </c>
@@ -1043,7 +1401,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1075,7 +1433,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +1452,7 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>1</v>
       </c>
       <c r="M4">
@@ -1113,7 +1471,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1148,7 +1506,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1174,7 +1532,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1200,7 +1558,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1226,7 +1584,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -1261,7 +1619,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1293,7 +1651,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -1306,6 +1664,8 @@
       <c r="I11" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
       <c r="Q11" s="1">
         <v>1</v>
       </c>
@@ -1319,7 +1679,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1335,7 +1695,7 @@
       <c r="G12">
         <v>39</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <v>1</v>
       </c>
       <c r="N12">
@@ -1351,7 +1711,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1383,7 +1743,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
         <v>61</v>
       </c>
@@ -1415,7 +1775,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -1441,7 +1801,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1467,7 +1827,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1493,7 +1853,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -1522,7 +1882,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -1554,7 +1914,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -1573,7 +1933,7 @@
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>1</v>
       </c>
       <c r="M20">
@@ -1589,7 +1949,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -1608,7 +1968,7 @@
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <v>1</v>
       </c>
       <c r="M21">
@@ -1624,7 +1984,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -1640,7 +2000,7 @@
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>1</v>
       </c>
       <c r="P22">
@@ -1653,7 +2013,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1676,7 +2036,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -1714,7 +2074,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -1752,7 +2112,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -1784,7 +2144,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -1822,7 +2182,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -1851,7 +2211,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -1886,7 +2246,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
         <v>103</v>
       </c>
@@ -1902,6 +2262,8 @@
       <c r="G30" s="2">
         <v>49</v>
       </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="4"/>
       <c r="Q30" s="2">
         <v>1</v>
       </c>
@@ -1918,7 +2280,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -1941,7 +2303,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -1957,7 +2319,7 @@
       <c r="G32">
         <v>25</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <v>1</v>
       </c>
       <c r="O32">
@@ -1973,7 +2335,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -1989,7 +2351,7 @@
       <c r="G33">
         <v>19</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <v>1</v>
       </c>
       <c r="O33">
@@ -2005,7 +2367,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -2021,7 +2383,7 @@
       <c r="G34">
         <v>19</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <v>1</v>
       </c>
       <c r="O34">
@@ -2037,7 +2399,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -2053,7 +2415,7 @@
       <c r="G35">
         <v>19</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <v>1</v>
       </c>
       <c r="O35">
@@ -2069,7 +2431,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -2095,7 +2457,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -2124,7 +2486,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -2153,7 +2515,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
         <v>130</v>
       </c>
@@ -2182,10 +2544,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" s="1" customFormat="1">
       <c r="A40" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="4"/>
       <c r="O40" s="1">
         <v>1</v>
       </c>
@@ -2199,7 +2563,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -2215,7 +2579,7 @@
       <c r="G41">
         <v>25</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="3">
         <v>1</v>
       </c>
       <c r="T41">
@@ -2228,7 +2592,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -2244,7 +2608,7 @@
       <c r="G42">
         <v>49</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <v>1</v>
       </c>
       <c r="T42">
@@ -2257,7 +2621,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
         <v>141</v>
       </c>
@@ -2273,7 +2637,7 @@
       <c r="G43">
         <v>14</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <v>1</v>
       </c>
       <c r="N43">
@@ -2289,7 +2653,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
         <v>144</v>
       </c>
@@ -2305,7 +2669,7 @@
       <c r="G44">
         <v>49</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
         <v>1</v>
       </c>
       <c r="M44">
@@ -2321,7 +2685,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -2347,7 +2711,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
         <v>148</v>
       </c>
@@ -2363,7 +2727,7 @@
       <c r="G46">
         <v>35</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="3">
         <v>1</v>
       </c>
       <c r="M46">
@@ -2379,7 +2743,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
         <v>151</v>
       </c>
@@ -2395,7 +2759,7 @@
       <c r="G47">
         <v>35</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <v>1</v>
       </c>
       <c r="N47">
@@ -2411,10 +2775,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" s="1" customFormat="1">
       <c r="A48" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="4"/>
       <c r="T48" s="1">
         <v>1</v>
       </c>
@@ -2425,10 +2791,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" s="1" customFormat="1">
       <c r="A49" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="4"/>
       <c r="T49" s="1">
         <v>1</v>
       </c>
@@ -2439,7 +2807,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
         <v>155</v>
       </c>
@@ -2452,7 +2820,10 @@
       <c r="G50">
         <v>36.950000000000003</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="4">
+        <v>1</v>
+      </c>
+      <c r="M50">
         <v>1</v>
       </c>
       <c r="Q50">
@@ -2465,7 +2836,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
         <v>159</v>
       </c>
@@ -2478,17 +2849,23 @@
       <c r="G51">
         <v>34.950000000000003</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="4">
+        <v>1</v>
+      </c>
+      <c r="M51">
         <v>1</v>
       </c>
       <c r="Q51">
         <v>1</v>
       </c>
+      <c r="W51" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="X51" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
         <v>160</v>
       </c>
@@ -2501,14 +2878,1527 @@
       <c r="G52">
         <v>29.95</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="4">
+        <v>1</v>
+      </c>
+      <c r="M52">
         <v>1</v>
       </c>
       <c r="Q52">
         <v>1</v>
       </c>
+      <c r="W52" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="X52" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="G53">
+        <v>24.95</v>
+      </c>
+      <c r="L53" s="4">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54">
+        <v>29.95</v>
+      </c>
+      <c r="L54" s="4">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55">
+        <v>29.95</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="W55" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56">
+        <v>44.95</v>
+      </c>
+      <c r="L56" s="4">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+      <c r="G57">
+        <v>44.95</v>
+      </c>
+      <c r="L57" s="4">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="L58" s="4">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59">
+        <v>30</v>
+      </c>
+      <c r="L59" s="4">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60">
+        <v>29.95</v>
+      </c>
+      <c r="L60" s="4">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="W60" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61">
+        <v>29.95</v>
+      </c>
+      <c r="L61" s="4">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62">
+        <v>29.95</v>
+      </c>
+      <c r="L62" s="4">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="L63" s="4">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="W63" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="L64" s="4">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" t="s">
+        <v>178</v>
+      </c>
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="L65" s="4">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="W65" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66">
+        <v>29.95</v>
+      </c>
+      <c r="L66" s="4">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="W66" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+      <c r="G67">
+        <v>29.95</v>
+      </c>
+      <c r="L67" s="4">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68">
+        <v>29.95</v>
+      </c>
+      <c r="L68" s="4">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="W68" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69">
+        <v>29.95</v>
+      </c>
+      <c r="L69" s="4">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="W69" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="G70">
+        <v>29.95</v>
+      </c>
+      <c r="L70" s="4">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="W70" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" t="s">
+        <v>88</v>
+      </c>
+      <c r="G71">
+        <v>29.95</v>
+      </c>
+      <c r="L71" s="4">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="W71" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G72">
+        <v>29.95</v>
+      </c>
+      <c r="L72" s="4">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="W72" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" t="s">
+        <v>190</v>
+      </c>
+      <c r="G73">
+        <v>29.95</v>
+      </c>
+      <c r="L73" s="4">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="W73" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" t="s">
+        <v>190</v>
+      </c>
+      <c r="G74">
+        <v>29.95</v>
+      </c>
+      <c r="L74" s="4">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="W74" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>190</v>
+      </c>
+      <c r="G75">
+        <v>29.95</v>
+      </c>
+      <c r="L75" s="4">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="W75" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" t="s">
+        <v>190</v>
+      </c>
+      <c r="G76">
+        <v>29.95</v>
+      </c>
+      <c r="L76" s="4">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="W76" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" t="s">
+        <v>190</v>
+      </c>
+      <c r="G77">
+        <v>29.95</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="W77" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B78" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" t="s">
+        <v>190</v>
+      </c>
+      <c r="G78">
+        <v>29.95</v>
+      </c>
+      <c r="L78" s="4">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" t="s">
+        <v>190</v>
+      </c>
+      <c r="G79">
+        <v>29.95</v>
+      </c>
+      <c r="L79" s="4">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="W79" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" t="s">
+        <v>197</v>
+      </c>
+      <c r="F80">
+        <v>54.95</v>
+      </c>
+      <c r="G80">
+        <v>39</v>
+      </c>
+      <c r="K80" s="3">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" t="s">
+        <v>198</v>
+      </c>
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" t="s">
+        <v>199</v>
+      </c>
+      <c r="F81">
+        <v>65.95</v>
+      </c>
+      <c r="G81">
+        <v>45</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="W81" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+      <c r="F82">
+        <v>59.95</v>
+      </c>
+      <c r="G82">
+        <v>39</v>
+      </c>
+      <c r="K82" s="3">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="W82" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="G83">
+        <v>49.95</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="W83" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" s="1" customFormat="1">
+      <c r="A84" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M84" s="1">
+        <v>1</v>
+      </c>
+      <c r="O84"/>
+      <c r="W84" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" s="1" customFormat="1">
+      <c r="A85" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N85" s="1">
+        <v>1</v>
+      </c>
+      <c r="O85"/>
+      <c r="W85" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86" t="s">
+        <v>205</v>
+      </c>
+      <c r="B86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" t="s">
+        <v>207</v>
+      </c>
+      <c r="F86">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="G86">
+        <v>25</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="W86" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" t="s">
+        <v>199</v>
+      </c>
+      <c r="F87">
+        <v>55</v>
+      </c>
+      <c r="G87">
+        <v>39</v>
+      </c>
+      <c r="K87" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="W87" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88" t="s">
+        <v>208</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" t="s">
+        <v>199</v>
+      </c>
+      <c r="F88">
+        <v>55</v>
+      </c>
+      <c r="G88">
+        <v>39</v>
+      </c>
+      <c r="K88" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="W88" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" t="s">
+        <v>212</v>
+      </c>
+      <c r="F89">
+        <v>109.95</v>
+      </c>
+      <c r="G89">
+        <v>79</v>
+      </c>
+      <c r="K89" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="W89" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90" t="s">
+        <v>213</v>
+      </c>
+      <c r="B90" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" t="s">
+        <v>212</v>
+      </c>
+      <c r="F90">
+        <v>119.95</v>
+      </c>
+      <c r="G90">
+        <v>79</v>
+      </c>
+      <c r="K90" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="W90" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91" t="s">
+        <v>214</v>
+      </c>
+      <c r="B91" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" t="s">
+        <v>215</v>
+      </c>
+      <c r="F91">
+        <v>124.95</v>
+      </c>
+      <c r="G91">
+        <v>85</v>
+      </c>
+      <c r="W91" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92" t="s">
+        <v>216</v>
+      </c>
+      <c r="B92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" t="s">
+        <v>215</v>
+      </c>
+      <c r="F92">
+        <v>129.94999999999999</v>
+      </c>
+      <c r="G92">
+        <v>89</v>
+      </c>
+      <c r="W92" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" t="s">
+        <v>91</v>
+      </c>
+      <c r="F93">
+        <v>99.95</v>
+      </c>
+      <c r="G93">
+        <v>69</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="W93" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="A94" t="s">
+        <v>219</v>
+      </c>
+      <c r="B94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" t="s">
+        <v>221</v>
+      </c>
+      <c r="F94">
+        <v>6.9</v>
+      </c>
+      <c r="G94">
+        <v>5</v>
+      </c>
+      <c r="W94" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95" t="s">
+        <v>222</v>
+      </c>
+      <c r="B95" t="s">
+        <v>223</v>
+      </c>
+      <c r="C95" t="s">
+        <v>224</v>
+      </c>
+      <c r="F95">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="G95">
+        <v>25</v>
+      </c>
+      <c r="W95" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="A96" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" t="s">
+        <v>226</v>
+      </c>
+      <c r="C96" t="s">
+        <v>227</v>
+      </c>
+      <c r="F96">
+        <v>173</v>
+      </c>
+      <c r="G96">
+        <v>119</v>
+      </c>
+      <c r="W96" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
+      <c r="A97" t="s">
+        <v>228</v>
+      </c>
+      <c r="B97" t="s">
+        <v>229</v>
+      </c>
+      <c r="C97" t="s">
+        <v>230</v>
+      </c>
+      <c r="G97">
+        <v>199</v>
+      </c>
+      <c r="I97" t="s">
+        <v>25</v>
+      </c>
+      <c r="W97" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
+      <c r="A98" t="s">
+        <v>231</v>
+      </c>
+      <c r="B98" t="s">
+        <v>232</v>
+      </c>
+      <c r="C98" t="s">
+        <v>233</v>
+      </c>
+      <c r="F98">
+        <v>399</v>
+      </c>
+      <c r="G98">
+        <v>249</v>
+      </c>
+      <c r="I98" t="s">
+        <v>234</v>
+      </c>
+      <c r="W98" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
+      <c r="A99" t="s">
+        <v>235</v>
+      </c>
+      <c r="B99" t="s">
+        <v>236</v>
+      </c>
+      <c r="C99" t="s">
+        <v>237</v>
+      </c>
+      <c r="F99">
+        <v>27.95</v>
+      </c>
+      <c r="G99">
+        <v>19</v>
+      </c>
+      <c r="V99">
+        <v>1</v>
+      </c>
+      <c r="W99" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
+      <c r="A100" t="s">
+        <v>239</v>
+      </c>
+      <c r="B100" t="s">
+        <v>240</v>
+      </c>
+      <c r="C100" t="s">
+        <v>241</v>
+      </c>
+      <c r="F100">
+        <v>499</v>
+      </c>
+      <c r="G100">
+        <v>349</v>
+      </c>
+      <c r="V100">
+        <v>1</v>
+      </c>
+      <c r="W100" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
+      <c r="A101" t="s">
+        <v>242</v>
+      </c>
+      <c r="B101" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101" t="s">
+        <v>157</v>
+      </c>
+      <c r="F101">
+        <v>59.95</v>
+      </c>
+      <c r="G101">
+        <v>39</v>
+      </c>
+      <c r="V101">
+        <v>1</v>
+      </c>
+      <c r="W101" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
+      <c r="A102" t="s">
+        <v>244</v>
+      </c>
+      <c r="B102" t="s">
+        <v>245</v>
+      </c>
+      <c r="C102" t="s">
+        <v>246</v>
+      </c>
+      <c r="G102">
+        <v>69.95</v>
+      </c>
+      <c r="V102">
+        <v>1</v>
+      </c>
+      <c r="W102" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
+      <c r="A103" t="s">
+        <v>247</v>
+      </c>
+      <c r="B103" t="s">
+        <v>250</v>
+      </c>
+      <c r="C103" t="s">
+        <v>248</v>
+      </c>
+      <c r="G103">
+        <v>799</v>
+      </c>
+      <c r="V103">
+        <v>1</v>
+      </c>
+      <c r="W103" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" t="s">
+        <v>249</v>
+      </c>
+      <c r="C104" t="s">
+        <v>251</v>
+      </c>
+      <c r="G104">
+        <v>69.95</v>
+      </c>
+      <c r="V104">
+        <v>1</v>
+      </c>
+      <c r="W104" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="A105" t="s">
+        <v>252</v>
+      </c>
+      <c r="B105" t="s">
+        <v>253</v>
+      </c>
+      <c r="C105" t="s">
+        <v>254</v>
+      </c>
+      <c r="G105">
+        <v>6.95</v>
+      </c>
+      <c r="I105" t="s">
+        <v>126</v>
+      </c>
+      <c r="V105">
+        <v>1</v>
+      </c>
+      <c r="W105" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
+      <c r="A106" t="s">
+        <v>255</v>
+      </c>
+      <c r="B106" t="s">
+        <v>256</v>
+      </c>
+      <c r="C106" t="s">
+        <v>257</v>
+      </c>
+      <c r="G106">
+        <v>599</v>
+      </c>
+      <c r="V106">
+        <v>1</v>
+      </c>
+      <c r="W106" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107" t="s">
+        <v>258</v>
+      </c>
+      <c r="B107" t="s">
+        <v>156</v>
+      </c>
+      <c r="C107" t="s">
+        <v>259</v>
+      </c>
+      <c r="G107">
+        <v>69.95</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="V107">
+        <v>1</v>
+      </c>
+      <c r="W107" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108" t="s">
+        <v>260</v>
+      </c>
+      <c r="B108" t="s">
+        <v>262</v>
+      </c>
+      <c r="C108" t="s">
+        <v>91</v>
+      </c>
+      <c r="F108">
+        <v>259.95</v>
+      </c>
+      <c r="G108">
+        <v>179</v>
+      </c>
+      <c r="W108" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
+      <c r="A109" t="s">
+        <v>261</v>
+      </c>
+      <c r="B109" t="s">
+        <v>263</v>
+      </c>
+      <c r="C109" t="s">
+        <v>91</v>
+      </c>
+      <c r="F109">
+        <v>249.95</v>
+      </c>
+      <c r="G109">
+        <v>175</v>
+      </c>
+      <c r="W109" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
+      <c r="A110" t="s">
+        <v>265</v>
+      </c>
+      <c r="B110" t="s">
+        <v>104</v>
+      </c>
+      <c r="C110" t="s">
+        <v>45</v>
+      </c>
+      <c r="F110">
+        <v>349.95</v>
+      </c>
+      <c r="G110">
+        <v>249</v>
+      </c>
+      <c r="I110" t="s">
+        <v>267</v>
+      </c>
+      <c r="W110" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
+      <c r="A111" t="s">
+        <v>266</v>
+      </c>
+      <c r="B111" t="s">
+        <v>104</v>
+      </c>
+      <c r="C111" t="s">
+        <v>45</v>
+      </c>
+      <c r="F111">
+        <v>449.95</v>
+      </c>
+      <c r="G111">
+        <v>299</v>
+      </c>
+      <c r="I111" t="s">
+        <v>268</v>
+      </c>
+      <c r="W111" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
+      <c r="A112" t="s">
+        <v>269</v>
+      </c>
+      <c r="B112" t="s">
+        <v>270</v>
+      </c>
+      <c r="C112" t="s">
+        <v>271</v>
+      </c>
+      <c r="G112">
+        <v>399</v>
+      </c>
+      <c r="W112" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
+      <c r="A113" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113">
+        <v>19644</v>
+      </c>
+      <c r="C113" t="s">
+        <v>274</v>
+      </c>
+      <c r="F113">
+        <v>59.95</v>
+      </c>
+      <c r="G113">
+        <v>45</v>
+      </c>
+      <c r="W113" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
+      <c r="A114" t="s">
+        <v>272</v>
+      </c>
+      <c r="B114">
+        <v>19743</v>
+      </c>
+      <c r="C114" t="s">
+        <v>274</v>
+      </c>
+      <c r="F114">
+        <v>24.95</v>
+      </c>
+      <c r="G114">
+        <v>19</v>
+      </c>
+      <c r="W114" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
+      <c r="A115" t="s">
+        <v>275</v>
+      </c>
+      <c r="C115" t="s">
+        <v>276</v>
+      </c>
+      <c r="G115">
+        <v>19.95</v>
+      </c>
+      <c r="W115" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
+      <c r="A116" t="s">
+        <v>277</v>
+      </c>
+      <c r="B116" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" t="s">
+        <v>199</v>
+      </c>
+      <c r="F116">
+        <v>99.95</v>
+      </c>
+      <c r="G116">
+        <v>69</v>
+      </c>
+      <c r="W116" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/excel/producten.xlsx
+++ b/excel/producten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25500" yWindow="0" windowWidth="25600" windowHeight="26740" tabRatio="500"/>
+    <workbookView xWindow="2700" yWindow="0" windowWidth="25380" windowHeight="26500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="370">
   <si>
     <t>productnaam</t>
   </si>
@@ -54,9 +54,6 @@
     <t>groeneprijs</t>
   </si>
   <si>
-    <t>2+1</t>
-  </si>
-  <si>
     <t>dames</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Playsuit dames</t>
   </si>
   <si>
-    <t>thema</t>
-  </si>
-  <si>
     <t>festival</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>Berot</t>
   </si>
   <si>
-    <t>2 voor €25</t>
-  </si>
-  <si>
     <t>Selfiestick</t>
   </si>
   <si>
@@ -183,9 +174,6 @@
     <t>GoPro</t>
   </si>
   <si>
-    <t>Gratis bundle t.w.v. €59,95</t>
-  </si>
-  <si>
     <t>Moore</t>
   </si>
   <si>
@@ -303,9 +291,6 @@
     <t>Fox 30</t>
   </si>
   <si>
-    <t>Gratis Camlebak Eddy Kids 0,4l t.w.v. €15,95</t>
-  </si>
-  <si>
     <t>/deuter-rugzak-fox-30-1213c30001?id_colour=1595</t>
   </si>
   <si>
@@ -822,12 +807,6 @@
     <t>Vespucci 6</t>
   </si>
   <si>
-    <t>Met gratis Campingaz Party Grill twv € 54,95</t>
-  </si>
-  <si>
-    <t>Met gratis Campingaz Party Grill twv € 54,96</t>
-  </si>
-  <si>
     <t>Bandit</t>
   </si>
   <si>
@@ -853,6 +832,303 @@
   </si>
   <si>
     <t>Smoozip +3°C</t>
+  </si>
+  <si>
+    <t>uitverkocht</t>
+  </si>
+  <si>
+    <t>2plus1</t>
+  </si>
+  <si>
+    <t>categorie</t>
+  </si>
+  <si>
+    <t>volgorde</t>
+  </si>
+  <si>
+    <t>actie</t>
+  </si>
+  <si>
+    <t>BLACK-DIAMOND_MOJI_2541c50002_4040_01.jpg_be-copy.jpg</t>
+  </si>
+  <si>
+    <t>2 voor &amp;euro;25</t>
+  </si>
+  <si>
+    <t>Gratis bundle t.w.v. &amp;euro;59,95</t>
+  </si>
+  <si>
+    <t>Gratis Camlebak Eddy Kids 0,4l t.w.v. &amp;euro;15,95</t>
+  </si>
+  <si>
+    <t>Met gratis Campingaz Party Grill twv &amp;euro; 54,95</t>
+  </si>
+  <si>
+    <t>Met gratis Campingaz Party Grill twv &amp;euro; 54,96</t>
+  </si>
+  <si>
+    <t>J&amp;J_OR-CREW-NECK_4312C52207_1010.jpg</t>
+  </si>
+  <si>
+    <t>J&amp;J_CAMO_4365C52002_5507.jpg</t>
+  </si>
+  <si>
+    <t>ICHI_BINNO-JUMPSUIT_4185C52005_4106.jpg</t>
+  </si>
+  <si>
+    <t>ONLY_BEROT_4181C52025_1149.jpg</t>
+  </si>
+  <si>
+    <t>BLACK-EYE_CLIPPER-WIDE-ANGLE_2g52c50008_0101_02_be_Ver1-copy.jpg</t>
+  </si>
+  <si>
+    <t>BLACK-EYE_UNIVERSAL-FISH-EYE_2g52c50007_0101_01_be_Ver1.jpg</t>
+  </si>
+  <si>
+    <t>EIDER_MOORE_3315C52049_6161.jpg</t>
+  </si>
+  <si>
+    <t>THE-NORTH-FACE_REFRACTOR-DUFFEL-PACK_2146c50001_7070_01_be-copy.jpg</t>
+  </si>
+  <si>
+    <t>THE-NORTH-FACE_FLYWEIGHT-PACK_2111c10013_7071_53.jpg</t>
+  </si>
+  <si>
+    <t>EAGLE-CREEK_FLATBED20_2261D42006_7070.jpg</t>
+  </si>
+  <si>
+    <t>EAGLE-CREEK_FLATBED28_2231D42027_3232.jpg</t>
+  </si>
+  <si>
+    <t>EAGLE-CREEK_FLATBED32_2231D42028_4242.jpg</t>
+  </si>
+  <si>
+    <t>OUTDOOR-TECH_KODIAK-OPLADER_2G32C52001_Vertical.jpg</t>
+  </si>
+  <si>
+    <t>KING-LOUIE_GINGER-DRESS_4163C52076_4904.jpg</t>
+  </si>
+  <si>
+    <t>YAYA_BLOUSE_4132C52068_5353.jpg</t>
+  </si>
+  <si>
+    <t>LUCKIES_SMARTPHONE-PROJECTOR_2g31c50012_7015_02_be.jpg</t>
+  </si>
+  <si>
+    <t>Amazonas_Lazy-Afternoon_1311C30001_3040_01.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_WOODSTOCK_1322c40002_0303_01-copy.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_JUNIOR-VARIO_1321c20001_4040_02.jpg</t>
+  </si>
+  <si>
+    <t>CARE-PLUS_TRAVELSET_262zc30001_0101_02.jpg</t>
+  </si>
+  <si>
+    <t>VARTA_ZAKLAMP_2921C32017_0101_02.jpg</t>
+  </si>
+  <si>
+    <t>COLEMAN_DARWIN-2_1121c50013_5050_01_be.jpg</t>
+  </si>
+  <si>
+    <t>LED-LENSER_SEO3_2511C30006.jpg</t>
+  </si>
+  <si>
+    <t>BARTS_COZUMEL_8634C52008_6464.jpg</t>
+  </si>
+  <si>
+    <t>J&amp;J-TECH_KACHON-TEE_8231C52015_7373.jpg</t>
+  </si>
+  <si>
+    <t>PROTEST_YOLT_8222C52003_4110.jpg</t>
+  </si>
+  <si>
+    <t>VAUDE_CLUSTER_7511c20015_7070_51.jpg</t>
+  </si>
+  <si>
+    <t>VAUDE_SKOMER_3112C50002_5353.jpg</t>
+  </si>
+  <si>
+    <t>2+1_AYACUCHO_MASAI-MARA_-3112C50044_3232.jpg</t>
+  </si>
+  <si>
+    <t>2+1_AYACUCHO_ZAMBEZI_3114C50024_0450.jpg</t>
+  </si>
+  <si>
+    <t>2+1_AYACUCHO_ELENA_-3112C32001_4030.jpg</t>
+  </si>
+  <si>
+    <t>2+1_AYACUCHO_SIMONA_-3114C30012_3535.jpg</t>
+  </si>
+  <si>
+    <t>2+1_AYACUCHO_BETTY-POLO_3119C42002_7272.jpg</t>
+  </si>
+  <si>
+    <t>2+1_AYACUCHO_BEATTHEMOUNTAIN_3312C50064_5555.jpg</t>
+  </si>
+  <si>
+    <t>2+1_AYACUCHO_BENNY-POLO_3318C42011_5555.jpg</t>
+  </si>
+  <si>
+    <t>2+1_AYACUCHO_DOTS_3312C40035_4242.jpg</t>
+  </si>
+  <si>
+    <t>2+1_AYACUCHO_FISH_3312C40036_5353.jpg</t>
+  </si>
+  <si>
+    <t>2+1_AYACUCHO_HUMMINGBIRD_3312C30023_3232.jpg</t>
+  </si>
+  <si>
+    <t>2+1_AYACUCHO_MUD-RACER_3312C50066_7272.jpg</t>
+  </si>
+  <si>
+    <t>2+1_AYACUCHO_OWL_3312C50065_3232.jpg</t>
+  </si>
+  <si>
+    <t>2+1_AYACUCHO_RHINO_3312C50069_3131.jpg</t>
+  </si>
+  <si>
+    <t>2+1_AYACUCHO_TUMI_3312C50063_5555.jpg</t>
+  </si>
+  <si>
+    <t>2+1_COLUMBIA_MOUNTAIN-TECH_3312C30044_4444.jpg</t>
+  </si>
+  <si>
+    <t>2+1_COLUMBIA_ZERO-RULES_3312C40087_7272.jpg</t>
+  </si>
+  <si>
+    <t>2+1_SPRAYWAY_CITY_3312C50053_2020.jpg</t>
+  </si>
+  <si>
+    <t>2+1_SPRAYWAY_RIDGE_3312C40002_4040.jpg</t>
+  </si>
+  <si>
+    <t>2+1_THE-NORTH-FACE_COMPANY-CAR_3312C40018_7373.jpg</t>
+  </si>
+  <si>
+    <t>2+1_THE-NORTH-FACE_DOME-BIKER_3312C40005_4040.jpg</t>
+  </si>
+  <si>
+    <t>2+1_THE-NORTH-FACE_MOUNTAINEERING_3312C50037_5656.jpg</t>
+  </si>
+  <si>
+    <t>2+1_UAX_DEER-SHIRT_3312C40047_4141.jpg</t>
+  </si>
+  <si>
+    <t>2+1_UAX_BIKERACE_3312A90032_5757.jpg</t>
+  </si>
+  <si>
+    <t>2+1_UAX_ECOLOGICA_3312C50074_7575.jpg</t>
+  </si>
+  <si>
+    <t>2+1_UAX_FAST-BIKE_3318C52008_7171.jpg</t>
+  </si>
+  <si>
+    <t>2+1_UAX_RE-CYCLE_3312C50075_3131.jpg</t>
+  </si>
+  <si>
+    <t>2+1_UAX_SCUBAHUBA_3312C00023_4040.jpg</t>
+  </si>
+  <si>
+    <t>2+1_UAX_RECYCLE_3312C40043_7171.jpg</t>
+  </si>
+  <si>
+    <t>2+1_UAX_YOU-DECIDE_3312C50073_5555.jpg</t>
+  </si>
+  <si>
+    <t>PATAGONIA_MARGOT_3136C32002_9003.jpg</t>
+  </si>
+  <si>
+    <t>JACK-WOLFSKIN_WAHIA_3136C52021_5252.jpg</t>
+  </si>
+  <si>
+    <t>ROYAL-ROBBINS_SOOKIE_3193c50013_4141_01_be.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_FLORA_3136C52012_0412.jpg</t>
+  </si>
+  <si>
+    <t>SINNER_PRIME_2212a80013_1571_01.jpg</t>
+  </si>
+  <si>
+    <t>JACK-WOLFSKIN_ROTORUA-SHORT_3133C12003_4747.jpg</t>
+  </si>
+  <si>
+    <t>JACK-WOLFSKIN_ROTORUA_3372c10008_7272_01_Ver1.jpg</t>
+  </si>
+  <si>
+    <t>TIMBERLAND_BRIDGETON-LOW-WP_3d12c50016_6060_01_be.jpg</t>
+  </si>
+  <si>
+    <t>TIMBERLAND-CORLISS-GORETEX_3b12c50015_6040_01_be.jpg</t>
+  </si>
+  <si>
+    <t>MILLET_CAUCASUS_1325C40002.jpg</t>
+  </si>
+  <si>
+    <t>DEUTER_FUTURA-22_1212c50015_5071_01_be.jpg</t>
+  </si>
+  <si>
+    <t>OVERSTIMS_VOEDING_2913c40009_0101_01.jpg</t>
+  </si>
+  <si>
+    <t>SEA-TO-SUMMIT_TECH-TOWEL-WASH_261zc50001_5252_01_be.jpg</t>
+  </si>
+  <si>
+    <t>KITE-OPTICS_COMPACT-8X25_2713d30044_0070_01.jpg</t>
+  </si>
+  <si>
+    <t>OSPREY_POCO-PLUS_1251c20002_7272_01.jpg</t>
+  </si>
+  <si>
+    <t>SUUNTO_AMBIT-25-GRAPHIT_2421c30008_7015_02.jpg</t>
+  </si>
+  <si>
+    <t>ABUS_UGRIP-CHAIN_7272c50008_7070_01_be.jpg</t>
+  </si>
+  <si>
+    <t>DAHON_VYBE_7116c30001_1010_02_be.jpg</t>
+  </si>
+  <si>
+    <t>Casco_Activ-TC_Black_left_0802.jpg</t>
+  </si>
+  <si>
+    <t>BATAVUS_DINSDAG_7113c50060_7070_01_be.jpg</t>
+  </si>
+  <si>
+    <t>CLARIJS_FIETSTAS_A513C52013_5203_01.jpg</t>
+  </si>
+  <si>
+    <t>LIIX_VINTAGE-FIETSBAL_721ac50008_2424_01_be_Ver1.jpg</t>
+  </si>
+  <si>
+    <t>CORTINA_TRANSPORT-U4_7119c50050_4545_01_be.jpg</t>
+  </si>
+  <si>
+    <t>ODLO_RIDE_7612c50005_3210_01_be.jpg</t>
+  </si>
+  <si>
+    <t>DEUTER_ACT-PRO-60+15_1232C50010.jpg</t>
+  </si>
+  <si>
+    <t>DEUTER_ACT-PRO-55+15SL_1231C50006.jpg</t>
+  </si>
+  <si>
+    <t>TOMTOM_BANDIT_.jpg</t>
+  </si>
+  <si>
+    <t>CAMEL-ACTIVE_DUFFEL_2141c50010_5555_01_be.jpg</t>
+  </si>
+  <si>
+    <t>CAMEL-ACTIVE_TOILETTAS_2171c50007_5555_01_be.jpg</t>
+  </si>
+  <si>
+    <t>LALAY_PICNIC_1475C52004_3737.jpg</t>
+  </si>
+  <si>
+    <t>JACK-WOLFSKIN_SMOOZIP_1324c50006_4040_01_be.jpg</t>
   </si>
 </sst>
 </file>
@@ -1268,35 +1544,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X116"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="4" max="4" width="62.83203125" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" customWidth="1"/>
     <col min="8" max="8" width="4.33203125" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" customWidth="1"/>
-    <col min="11" max="11" width="6" style="3" customWidth="1"/>
-    <col min="12" max="12" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" customWidth="1"/>
+    <col min="10" max="11" width="5.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6" style="3" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1327,121 +1603,147 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="2" customFormat="1">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
+      <c r="D2" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="G2" s="2">
         <v>17.95</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>283</v>
       </c>
       <c r="G3">
         <v>39.950000000000003</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="P3">
+        <v>24</v>
+      </c>
+      <c r="O3">
         <v>1</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>Y2+3</f>
+        <v>4</v>
+      </c>
+      <c r="Z3" s="2"/>
+      <c r="AA3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>284</v>
       </c>
       <c r="F4">
         <v>59.95</v>
@@ -1452,69 +1754,82 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="P4">
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>Y3+3</f>
+        <v>7</v>
+      </c>
+      <c r="Z4" s="2"/>
+      <c r="AA4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="X4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
+      <c r="D5" t="s">
+        <v>285</v>
       </c>
       <c r="G5">
         <v>16.95</v>
       </c>
       <c r="I5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>Y4+3</f>
+        <v>10</v>
+      </c>
+      <c r="Z5" s="2"/>
+      <c r="AA5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
       </c>
       <c r="F6">
         <v>24.95</v>
@@ -1522,77 +1837,98 @@
       <c r="G6">
         <v>19</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>Y5+3</f>
+        <v>13</v>
+      </c>
+      <c r="Z6" s="2"/>
+      <c r="AA6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>287</v>
       </c>
       <c r="G7">
         <v>29.95</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
       <c r="R7">
         <v>1</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="2">
+        <f>Y6+3</f>
+        <v>16</v>
+      </c>
+      <c r="Z7" s="2"/>
+      <c r="AA7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>286</v>
       </c>
       <c r="G8">
         <v>44.95</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
       <c r="R8">
         <v>1</v>
       </c>
-      <c r="W8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="2">
+        <f>Y7+3</f>
+        <v>19</v>
+      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F9">
         <v>159.9</v>
@@ -1601,93 +1937,114 @@
         <v>99</v>
       </c>
       <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="2">
+        <f>Y8+3</f>
+        <v>22</v>
+      </c>
+      <c r="Z9" s="2"/>
+      <c r="AA9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
+      <c r="D10" t="s">
+        <v>276</v>
       </c>
       <c r="G10">
         <v>19.95</v>
       </c>
       <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y10" s="2">
+        <f>Y9+3</f>
+        <v>25</v>
+      </c>
+      <c r="Z10" s="2"/>
+      <c r="AA10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="1" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="1" customFormat="1">
-      <c r="A11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y11" s="2">
+        <f>Y10+3</f>
+        <v>28</v>
+      </c>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
-      <c r="V11" s="1">
-        <v>1</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
+      <c r="D12" t="s">
+        <v>288</v>
       </c>
       <c r="F12">
         <v>64.95</v>
@@ -1695,31 +2052,39 @@
       <c r="G12">
         <v>39</v>
       </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y12" s="2">
+        <f>Y11+3</f>
+        <v>31</v>
+      </c>
+      <c r="Z12" s="2"/>
+      <c r="AA12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>289</v>
       </c>
       <c r="F13">
         <v>164.95</v>
@@ -1727,31 +2092,39 @@
       <c r="G13">
         <v>99</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
       <c r="R13">
         <v>1</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
-      <c r="W13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y13" s="2">
+        <f>Y12+3</f>
+        <v>34</v>
+      </c>
+      <c r="Z13" s="2"/>
+      <c r="AA13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>290</v>
       </c>
       <c r="F14">
         <v>44.95</v>
@@ -1759,31 +2132,39 @@
       <c r="G14">
         <v>29</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
       <c r="R14">
         <v>1</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
-      <c r="W14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y14" s="2">
+        <f>Y13+3</f>
+        <v>37</v>
+      </c>
+      <c r="Z14" s="2"/>
+      <c r="AA14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>291</v>
       </c>
       <c r="F15">
         <v>135</v>
@@ -1791,25 +2172,33 @@
       <c r="G15">
         <v>85</v>
       </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>Y14+3</f>
+        <v>40</v>
+      </c>
+      <c r="Z15" s="2"/>
+      <c r="AA15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>292</v>
       </c>
       <c r="F16">
         <v>165</v>
@@ -1817,25 +2206,33 @@
       <c r="G16">
         <v>105</v>
       </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y16" s="2">
+        <f>Y15+3</f>
+        <v>43</v>
+      </c>
+      <c r="Z16" s="2"/>
+      <c r="AA16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>293</v>
       </c>
       <c r="F17">
         <v>185</v>
@@ -1843,25 +2240,30 @@
       <c r="G17">
         <v>115</v>
       </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y17" s="2">
+        <f>Y16+3</f>
+        <v>46</v>
+      </c>
+      <c r="Z17" s="2"/>
+      <c r="AA17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F18">
         <v>485</v>
@@ -1870,27 +2272,35 @@
         <v>229</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
-      </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+        <v>43</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y18" s="2">
+        <f>Y17+3</f>
+        <v>49</v>
+      </c>
+      <c r="Z18" s="2"/>
+      <c r="AA18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>294</v>
       </c>
       <c r="F19">
         <v>24.95</v>
@@ -1898,31 +2308,39 @@
       <c r="G19">
         <v>15</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
       <c r="R19">
         <v>1</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
-      <c r="W19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y19" s="2">
+        <f>Y18+3</f>
+        <v>52</v>
+      </c>
+      <c r="Z19" s="2"/>
+      <c r="AA19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>295</v>
       </c>
       <c r="F20">
         <v>79.95</v>
@@ -1933,31 +2351,36 @@
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y20" s="2">
+        <f>Y19+3</f>
+        <v>55</v>
+      </c>
+      <c r="Z20" s="2"/>
+      <c r="AA20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F21">
         <v>79</v>
@@ -1968,28 +2391,36 @@
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="W21" s="2" t="s">
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y21" s="2">
+        <f>Y20+3</f>
+        <v>58</v>
+      </c>
+      <c r="Z21" s="2"/>
+      <c r="AA21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
         <v>75</v>
       </c>
-      <c r="X21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
-      <c r="A22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
+      <c r="D22" t="s">
+        <v>296</v>
       </c>
       <c r="F22">
         <v>39.950000000000003</v>
@@ -2000,51 +2431,67 @@
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y22" s="2">
+        <f>Y21+3</f>
+        <v>61</v>
+      </c>
+      <c r="Z22" s="2"/>
+      <c r="AA22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>297</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G23">
         <v>19.95</v>
       </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="W23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y23" s="2">
+        <f>Y22+3</f>
+        <v>64</v>
+      </c>
+      <c r="Z23" s="2"/>
+      <c r="AA23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>298</v>
       </c>
       <c r="F24">
         <v>29.95</v>
@@ -2052,9 +2499,6 @@
       <c r="G24">
         <v>19</v>
       </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
       <c r="R24">
         <v>1</v>
       </c>
@@ -2067,36 +2511,44 @@
       <c r="U24">
         <v>1</v>
       </c>
-      <c r="W24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="X24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y24" s="2">
+        <f>Y23+3</f>
+        <v>67</v>
+      </c>
+      <c r="Z24" s="2"/>
+      <c r="AA24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>299</v>
       </c>
       <c r="G25">
         <v>29.95</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25">
         <v>1</v>
       </c>
-      <c r="Q25">
+      <c r="P25">
         <v>1</v>
       </c>
       <c r="R25">
@@ -2105,30 +2557,38 @@
       <c r="S25">
         <v>1</v>
       </c>
-      <c r="W25" s="2" t="s">
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y25" s="2">
+        <f>Y24+3</f>
+        <v>70</v>
+      </c>
+      <c r="Z25" s="2"/>
+      <c r="AA25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
         <v>85</v>
       </c>
-      <c r="X25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
-      <c r="A26" t="s">
-        <v>89</v>
-      </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>300</v>
       </c>
       <c r="G26">
         <v>49.95</v>
       </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
+      <c r="P26">
         <v>1</v>
       </c>
       <c r="R26">
@@ -2137,36 +2597,41 @@
       <c r="S26">
         <v>1</v>
       </c>
-      <c r="W26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="X26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y26" s="2">
+        <f>Y25+3</f>
+        <v>73</v>
+      </c>
+      <c r="Z26" s="2"/>
+      <c r="AA26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G27">
         <v>94.95</v>
       </c>
       <c r="I27" t="s">
-        <v>94</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
+        <v>279</v>
+      </c>
+      <c r="P27">
         <v>1</v>
       </c>
       <c r="R27">
@@ -2175,51 +2640,70 @@
       <c r="S27">
         <v>1</v>
       </c>
-      <c r="W27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="X27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y27" s="2">
+        <f>Y26+3</f>
+        <v>76</v>
+      </c>
+      <c r="Z27" s="2"/>
+      <c r="AA27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>301</v>
       </c>
       <c r="G28">
         <v>9.9499999999999993</v>
       </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
       <c r="R28">
         <v>1</v>
       </c>
       <c r="S28">
         <v>1</v>
       </c>
-      <c r="W28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="X28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y28" s="2">
+        <f>Y27+3</f>
+        <v>79</v>
+      </c>
+      <c r="Z28" s="2"/>
+      <c r="AA28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>302</v>
       </c>
       <c r="F29">
         <v>9.9499999999999993</v>
@@ -2228,10 +2712,7 @@
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="R29">
         <v>1</v>
@@ -2239,22 +2720,33 @@
       <c r="S29">
         <v>1</v>
       </c>
-      <c r="W29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="X29" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" s="2" customFormat="1">
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y29" s="2">
+        <f>Y28+3</f>
+        <v>82</v>
+      </c>
+      <c r="Z29" s="2"/>
+      <c r="AA29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="F30" s="2">
         <v>74.95</v>
@@ -2262,33 +2754,40 @@
       <c r="G30" s="2">
         <v>49</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="4"/>
-      <c r="Q30" s="2">
-        <v>1</v>
-      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4"/>
       <c r="R30" s="2">
         <v>1</v>
       </c>
       <c r="S30" s="2">
         <v>1</v>
       </c>
-      <c r="W30" s="2" t="s">
+      <c r="T30" s="2">
+        <v>1</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y30" s="2">
+        <f>Y29+3</f>
         <v>85</v>
       </c>
-      <c r="X30" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="AA30" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>304</v>
       </c>
       <c r="F31">
         <v>39.950000000000003</v>
@@ -2296,22 +2795,27 @@
       <c r="G31">
         <v>25</v>
       </c>
-      <c r="W31" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="X31" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+        <v>81</v>
+      </c>
+      <c r="Y31" s="2">
+        <f>Y30+3</f>
+        <v>88</v>
+      </c>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F32">
         <v>34.950000000000003</v>
@@ -2319,31 +2823,36 @@
       <c r="G32">
         <v>25</v>
       </c>
-      <c r="K32" s="3">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="W32" s="2" t="s">
-        <v>111</v>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+        <v>106</v>
+      </c>
+      <c r="Y32" s="2">
+        <f>Y31+3</f>
+        <v>91</v>
+      </c>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F33">
         <v>24.95</v>
@@ -2351,31 +2860,36 @@
       <c r="G33">
         <v>19</v>
       </c>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="W33" s="2" t="s">
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y33" s="2">
+        <f>Y32+3</f>
+        <v>94</v>
+      </c>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
         <v>111</v>
       </c>
-      <c r="X33" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="A34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>116</v>
-      </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F34">
         <v>27.95</v>
@@ -2383,31 +2897,36 @@
       <c r="G34">
         <v>19</v>
       </c>
-      <c r="K34" s="3">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="W34" s="2" t="s">
-        <v>111</v>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+        <v>106</v>
+      </c>
+      <c r="Y34" s="2">
+        <f>Y33+3</f>
+        <v>97</v>
+      </c>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F35">
         <v>27.95</v>
@@ -2415,86 +2934,101 @@
       <c r="G35">
         <v>19</v>
       </c>
-      <c r="K35" s="3">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>1</v>
-      </c>
-      <c r="U35">
-        <v>1</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>111</v>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+        <v>106</v>
+      </c>
+      <c r="Y35" s="2">
+        <f>Y34+3</f>
+        <v>100</v>
+      </c>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G36">
         <v>10.95</v>
       </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>111</v>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+        <v>106</v>
+      </c>
+      <c r="Y36" s="2">
+        <f>Y35+3</f>
+        <v>103</v>
+      </c>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G37">
         <v>29.95</v>
       </c>
       <c r="I37" t="s">
-        <v>126</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="W37" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+        <v>106</v>
+      </c>
+      <c r="Y37" s="2">
+        <f>Y36+3</f>
+        <v>106</v>
+      </c>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F38">
         <v>21</v>
@@ -2502,76 +3036,94 @@
       <c r="G38">
         <v>15</v>
       </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="U38">
-        <v>1</v>
-      </c>
-      <c r="W38" s="2" t="s">
-        <v>111</v>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+        <v>106</v>
+      </c>
+      <c r="Y38" s="2">
+        <f>Y37+3</f>
+        <v>109</v>
+      </c>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G39">
         <v>7.5</v>
       </c>
       <c r="I39" t="s">
-        <v>126</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="U39">
-        <v>1</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" s="1" customFormat="1">
+        <v>106</v>
+      </c>
+      <c r="Y39" s="2">
+        <f>Y38+3</f>
+        <v>112</v>
+      </c>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="1" customFormat="1">
       <c r="A40" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="4"/>
-      <c r="O40" s="1">
-        <v>1</v>
-      </c>
-      <c r="U40" s="1">
-        <v>1</v>
-      </c>
-      <c r="W40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+        <v>128</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="4"/>
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
+      <c r="V40" s="1">
+        <v>1</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y40" s="2">
+        <f>Y39+3</f>
+        <v>115</v>
+      </c>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>305</v>
       </c>
       <c r="F41">
         <v>34.99</v>
@@ -2579,28 +3131,33 @@
       <c r="G41">
         <v>25</v>
       </c>
-      <c r="K41" s="3">
-        <v>1</v>
-      </c>
-      <c r="T41">
-        <v>1</v>
-      </c>
-      <c r="W41" s="2" t="s">
-        <v>137</v>
+      <c r="L41" s="3">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+        <v>132</v>
+      </c>
+      <c r="Y41" s="2">
+        <f>Y40+3</f>
+        <v>118</v>
+      </c>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F42">
         <v>74.900000000000006</v>
@@ -2608,28 +3165,36 @@
       <c r="G42">
         <v>49</v>
       </c>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
-      <c r="T42">
-        <v>1</v>
-      </c>
-      <c r="W42" s="2" t="s">
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y42" s="2">
+        <f>Y41+3</f>
+        <v>121</v>
+      </c>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" t="s">
         <v>137</v>
       </c>
-      <c r="X42" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
-      <c r="A43" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" t="s">
-        <v>142</v>
-      </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>138</v>
+      </c>
+      <c r="D43" t="s">
+        <v>306</v>
       </c>
       <c r="F43">
         <v>19.95</v>
@@ -2637,31 +3202,36 @@
       <c r="G43">
         <v>14</v>
       </c>
-      <c r="K43" s="3">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="T43">
-        <v>1</v>
-      </c>
-      <c r="W43" s="2" t="s">
-        <v>137</v>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+        <v>132</v>
+      </c>
+      <c r="Y43" s="2">
+        <f>Y42+3</f>
+        <v>124</v>
+      </c>
+      <c r="Z43" s="2"/>
+      <c r="AA43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F44">
         <v>69.95</v>
@@ -2669,57 +3239,67 @@
       <c r="G44">
         <v>49</v>
       </c>
-      <c r="K44" s="3">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-      <c r="T44">
-        <v>1</v>
-      </c>
-      <c r="W44" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X44" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y44" s="2">
+        <f>Y43+3</f>
+        <v>127</v>
+      </c>
+      <c r="Z44" s="2"/>
+      <c r="AA44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G45">
         <v>39.950000000000003</v>
       </c>
       <c r="I45" t="s">
-        <v>25</v>
-      </c>
-      <c r="T45">
-        <v>1</v>
-      </c>
-      <c r="W45" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X45" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+        <v>24</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y45" s="2">
+        <f>Y44+3</f>
+        <v>130</v>
+      </c>
+      <c r="Z45" s="2"/>
+      <c r="AA45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F46">
         <v>49.95</v>
@@ -2727,31 +3307,39 @@
       <c r="G46">
         <v>35</v>
       </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="T46">
-        <v>1</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X46" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+      <c r="L46" s="3">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y46" s="2">
+        <f>Y45+3</f>
+        <v>133</v>
+      </c>
+      <c r="Z46" s="2"/>
+      <c r="AA46" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>307</v>
       </c>
       <c r="F47">
         <v>49.95</v>
@@ -2759,852 +3347,1101 @@
       <c r="G47">
         <v>35</v>
       </c>
-      <c r="K47" s="3">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="T47">
-        <v>1</v>
-      </c>
-      <c r="W47" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" s="1" customFormat="1">
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y47" s="2">
+        <f>Y46+3</f>
+        <v>136</v>
+      </c>
+      <c r="Z47" s="2"/>
+      <c r="AA47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="1" customFormat="1">
       <c r="A48" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="4"/>
-      <c r="T48" s="1">
-        <v>1</v>
-      </c>
-      <c r="W48" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X48" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" s="1" customFormat="1">
+        <v>148</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="4"/>
+      <c r="U48" s="1">
+        <v>1</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y48" s="2">
+        <f>Y47+3</f>
+        <v>139</v>
+      </c>
+      <c r="Z48" s="2"/>
+      <c r="AA48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="1" customFormat="1">
       <c r="A49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K49" s="3"/>
-      <c r="L49" s="4"/>
-      <c r="T49" s="1">
-        <v>1</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="X49" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+        <v>149</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="4"/>
+      <c r="U49" s="1">
+        <v>1</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y49" s="2">
+        <f>Y48+3</f>
+        <v>142</v>
+      </c>
+      <c r="Z49" s="2"/>
+      <c r="AA49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="D50" t="s">
+        <v>309</v>
       </c>
       <c r="G50">
         <v>36.950000000000003</v>
       </c>
-      <c r="L50" s="4">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-      <c r="W50" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="X50" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="M50" s="4">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y50" s="2">
+        <f>Y49+3</f>
+        <v>145</v>
+      </c>
+      <c r="Z50" s="2"/>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>310</v>
       </c>
       <c r="G51">
         <v>34.950000000000003</v>
       </c>
-      <c r="L51" s="4">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-      <c r="W51" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="X51" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="M51" s="4">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y51" s="2">
+        <f>Y50+3</f>
+        <v>148</v>
+      </c>
+      <c r="Z51" s="2"/>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D52" t="s">
+        <v>311</v>
       </c>
       <c r="G52">
         <v>29.95</v>
       </c>
-      <c r="L52" s="4">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-      <c r="W52" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="X52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="M52" s="4">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y52" s="2">
+        <f>Y51+3</f>
+        <v>151</v>
+      </c>
+      <c r="Z52" s="2"/>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D53" t="s">
+        <v>312</v>
       </c>
       <c r="G53">
         <v>24.95</v>
       </c>
-      <c r="L53" s="4">
-        <v>1</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>1</v>
-      </c>
-      <c r="W53" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="M53" s="4">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y53" s="2">
+        <f>Y52+3</f>
+        <v>154</v>
+      </c>
+      <c r="Z53" s="2"/>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
+        <v>313</v>
       </c>
       <c r="G54">
         <v>29.95</v>
       </c>
-      <c r="L54" s="4">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="M54" s="4">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y54" s="2">
+        <f>Y53+3</f>
+        <v>157</v>
+      </c>
+      <c r="Z54" s="2"/>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D55" t="s">
+        <v>314</v>
       </c>
       <c r="G55">
         <v>29.95</v>
       </c>
-      <c r="L55" s="4">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-      <c r="W55" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="M55" s="4">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y55" s="2">
+        <f>Y54+3</f>
+        <v>160</v>
+      </c>
+      <c r="Z55" s="2"/>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>163</v>
+      </c>
+      <c r="D56" t="s">
+        <v>326</v>
       </c>
       <c r="G56">
         <v>44.95</v>
       </c>
-      <c r="L56" s="4">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="M56" s="4">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y56" s="2">
+        <f>Y55+3</f>
+        <v>163</v>
+      </c>
+      <c r="Z56" s="2"/>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>163</v>
+      </c>
+      <c r="D57" t="s">
+        <v>327</v>
       </c>
       <c r="G57">
         <v>44.95</v>
       </c>
-      <c r="L57" s="4">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>1</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="M57" s="4">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y57" s="2">
+        <f>Y56+3</f>
+        <v>166</v>
+      </c>
+      <c r="Z57" s="2"/>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="D58" t="s">
+        <v>325</v>
       </c>
       <c r="G58">
         <v>34.950000000000003</v>
       </c>
-      <c r="L58" s="4">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>1</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="M58" s="4">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y58" s="2">
+        <f>Y57+3</f>
+        <v>169</v>
+      </c>
+      <c r="Z58" s="2"/>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>166</v>
+      </c>
+      <c r="D59" t="s">
+        <v>324</v>
       </c>
       <c r="G59">
         <v>30</v>
       </c>
-      <c r="L59" s="4">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>1</v>
-      </c>
-      <c r="W59" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="M59" s="4">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y59" s="2">
+        <f>Y58+3</f>
+        <v>172</v>
+      </c>
+      <c r="Z59" s="2"/>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D60" t="s">
+        <v>329</v>
       </c>
       <c r="G60">
         <v>29.95</v>
       </c>
-      <c r="L60" s="4">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>1</v>
-      </c>
-      <c r="W60" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="M60" s="4">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y60" s="2">
+        <f>Y59+3</f>
+        <v>175</v>
+      </c>
+      <c r="Z60" s="2"/>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D61" t="s">
+        <v>328</v>
       </c>
       <c r="G61">
         <v>29.95</v>
       </c>
-      <c r="L61" s="4">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>1</v>
-      </c>
-      <c r="W61" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="M61" s="4">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="X61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y61" s="2">
+        <f>Y60+3</f>
+        <v>178</v>
+      </c>
+      <c r="Z61" s="2"/>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D62" t="s">
+        <v>330</v>
       </c>
       <c r="G62">
         <v>29.95</v>
       </c>
-      <c r="L62" s="4">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-      <c r="W62" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="M62" s="4">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="X62" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y62" s="2">
+        <f>Y61+3</f>
+        <v>181</v>
+      </c>
+      <c r="Z62" s="2"/>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D63" t="s">
+        <v>323</v>
       </c>
       <c r="G63">
         <v>34.950000000000003</v>
       </c>
-      <c r="L63" s="4">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>1</v>
-      </c>
-      <c r="W63" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="M63" s="4">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="X63" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y63" s="2">
+        <f>Y62+3</f>
+        <v>184</v>
+      </c>
+      <c r="Z63" s="2"/>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D64" t="s">
+        <v>315</v>
       </c>
       <c r="G64">
         <v>34.950000000000003</v>
       </c>
-      <c r="L64" s="4">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-      <c r="W64" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="M64" s="4">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y64" s="2">
+        <f>Y63+3</f>
+        <v>187</v>
+      </c>
+      <c r="Z64" s="2"/>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
+        <v>322</v>
       </c>
       <c r="G65">
         <v>34.950000000000003</v>
       </c>
-      <c r="L65" s="4">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>1</v>
-      </c>
-      <c r="W65" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="M65" s="4">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="X65" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y65" s="2">
+        <f>Y64+3</f>
+        <v>190</v>
+      </c>
+      <c r="Z65" s="2"/>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D66" t="s">
+        <v>319</v>
       </c>
       <c r="G66">
         <v>29.95</v>
       </c>
-      <c r="L66" s="4">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>1</v>
-      </c>
-      <c r="W66" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="M66" s="4">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="X66" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y66" s="2">
+        <f>Y65+3</f>
+        <v>193</v>
+      </c>
+      <c r="Z66" s="2"/>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D67" t="s">
+        <v>318</v>
       </c>
       <c r="G67">
         <v>29.95</v>
       </c>
-      <c r="L67" s="4">
-        <v>1</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>1</v>
-      </c>
-      <c r="W67" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="M67" s="4">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="X67" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y67" s="2">
+        <f>Y66+3</f>
+        <v>196</v>
+      </c>
+      <c r="Z67" s="2"/>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D68" t="s">
+        <v>317</v>
       </c>
       <c r="G68">
         <v>29.95</v>
       </c>
-      <c r="L68" s="4">
-        <v>1</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>1</v>
-      </c>
-      <c r="W68" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="M68" s="4">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="X68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y68" s="2">
+        <f>Y67+3</f>
+        <v>199</v>
+      </c>
+      <c r="Z68" s="2"/>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D69" t="s">
+        <v>321</v>
       </c>
       <c r="G69">
         <v>29.95</v>
       </c>
-      <c r="L69" s="4">
-        <v>1</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>1</v>
-      </c>
-      <c r="W69" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="M69" s="4">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y69" s="2">
+        <f>Y68+3</f>
+        <v>202</v>
+      </c>
+      <c r="Z69" s="2"/>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D70" t="s">
+        <v>320</v>
       </c>
       <c r="G70">
         <v>29.95</v>
       </c>
-      <c r="L70" s="4">
-        <v>1</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>1</v>
-      </c>
-      <c r="W70" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="M70" s="4">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="X70" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y70" s="2">
+        <f>Y69+3</f>
+        <v>205</v>
+      </c>
+      <c r="Z70" s="2"/>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D71" t="s">
+        <v>316</v>
       </c>
       <c r="G71">
         <v>29.95</v>
       </c>
-      <c r="L71" s="4">
-        <v>1</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>1</v>
-      </c>
-      <c r="W71" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="M71" s="4">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="X71" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y71" s="2">
+        <f>Y70+3</f>
+        <v>208</v>
+      </c>
+      <c r="Z71" s="2"/>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="D72" t="s">
+        <v>332</v>
       </c>
       <c r="G72">
         <v>29.95</v>
       </c>
-      <c r="L72" s="4">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
-      <c r="W72" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="M72" s="4">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="X72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y72" s="2">
+        <f>Y71+3</f>
+        <v>211</v>
+      </c>
+      <c r="Z72" s="2"/>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="D73" t="s">
+        <v>337</v>
       </c>
       <c r="G73">
         <v>29.95</v>
       </c>
-      <c r="L73" s="4">
-        <v>1</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>1</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="M73" s="4">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="X73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y73" s="2">
+        <f>Y72+3</f>
+        <v>214</v>
+      </c>
+      <c r="Z73" s="2"/>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C74" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="D74" t="s">
+        <v>338</v>
       </c>
       <c r="G74">
         <v>29.95</v>
       </c>
-      <c r="L74" s="4">
-        <v>1</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>1</v>
-      </c>
-      <c r="W74" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="M74" s="4">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="X74" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y74" s="2">
+        <f>Y73+3</f>
+        <v>217</v>
+      </c>
+      <c r="Z74" s="2"/>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="D75" t="s">
+        <v>331</v>
       </c>
       <c r="G75">
         <v>29.95</v>
       </c>
-      <c r="L75" s="4">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="Q75">
-        <v>1</v>
-      </c>
-      <c r="W75" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="M75" s="4">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="X75" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y75" s="2">
+        <f>Y74+3</f>
+        <v>220</v>
+      </c>
+      <c r="Z75" s="2"/>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="D76" t="s">
+        <v>336</v>
       </c>
       <c r="G76">
         <v>29.95</v>
       </c>
-      <c r="L76" s="4">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="Q76">
-        <v>1</v>
-      </c>
-      <c r="W76" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="M76" s="4">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="X76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y76" s="2">
+        <f>Y75+3</f>
+        <v>223</v>
+      </c>
+      <c r="Z76" s="2"/>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="D77" t="s">
+        <v>333</v>
       </c>
       <c r="G77">
         <v>29.95</v>
       </c>
-      <c r="L77" s="4">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="Q77">
-        <v>1</v>
-      </c>
-      <c r="W77" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="M77" s="4">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="X77" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y77" s="2">
+        <f>Y76+3</f>
+        <v>226</v>
+      </c>
+      <c r="Z77" s="2"/>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C78" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="D78" t="s">
+        <v>335</v>
       </c>
       <c r="G78">
         <v>29.95</v>
       </c>
-      <c r="L78" s="4">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>1</v>
-      </c>
-      <c r="W78" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="M78" s="4">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="X78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y78" s="2">
+        <f>Y77+3</f>
+        <v>229</v>
+      </c>
+      <c r="Z78" s="2"/>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="D79" t="s">
+        <v>334</v>
       </c>
       <c r="G79">
         <v>29.95</v>
       </c>
-      <c r="L79" s="4">
-        <v>1</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="Q79">
-        <v>1</v>
-      </c>
-      <c r="W79" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="M79" s="4">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="X79" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y79" s="2">
+        <f>Y78+3</f>
+        <v>232</v>
+      </c>
+      <c r="Z79" s="2"/>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>197</v>
+        <v>192</v>
+      </c>
+      <c r="D80" t="s">
+        <v>339</v>
       </c>
       <c r="F80">
         <v>54.95</v>
@@ -3612,28 +4449,36 @@
       <c r="G80">
         <v>39</v>
       </c>
-      <c r="K80" s="3">
-        <v>1</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>1</v>
-      </c>
-      <c r="W80" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="L80" s="3">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y80" s="2">
+        <f>Y79+3</f>
+        <v>235</v>
+      </c>
+      <c r="Z80" s="2"/>
+    </row>
+    <row r="81" spans="1:27">
       <c r="A81" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>194</v>
+      </c>
+      <c r="D81" t="s">
+        <v>340</v>
       </c>
       <c r="F81">
         <v>65.95</v>
@@ -3641,28 +4486,36 @@
       <c r="G81">
         <v>45</v>
       </c>
-      <c r="K81" s="3">
-        <v>1</v>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>1</v>
-      </c>
-      <c r="W81" s="2" t="s">
+      <c r="L81" s="3">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="X81" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y81" s="2">
+        <f>Y80+3</f>
+        <v>238</v>
+      </c>
+      <c r="Z81" s="2"/>
+    </row>
+    <row r="82" spans="1:27">
+      <c r="A82" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="82" spans="1:23">
-      <c r="A82" t="s">
-        <v>200</v>
-      </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>196</v>
+      </c>
+      <c r="D82" t="s">
+        <v>341</v>
       </c>
       <c r="F82">
         <v>59.95</v>
@@ -3670,78 +4523,106 @@
       <c r="G82">
         <v>39</v>
       </c>
-      <c r="K82" s="3">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>1</v>
-      </c>
-      <c r="W82" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="L82" s="3">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="X82" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y82" s="2">
+        <f>Y81+3</f>
+        <v>241</v>
+      </c>
+      <c r="Z82" s="2"/>
+    </row>
+    <row r="83" spans="1:27">
       <c r="A83" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="D83" t="s">
+        <v>342</v>
       </c>
       <c r="G83">
         <v>49.95</v>
       </c>
-      <c r="K83" s="3">
-        <v>1</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>1</v>
-      </c>
-      <c r="W83" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" s="1" customFormat="1">
+      <c r="L83" s="3">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="X83" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y83" s="2">
+        <f>Y82+3</f>
+        <v>244</v>
+      </c>
+      <c r="Z83" s="2"/>
+    </row>
+    <row r="84" spans="1:27" s="1" customFormat="1">
       <c r="A84" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M84" s="1">
-        <v>1</v>
-      </c>
-      <c r="O84"/>
-      <c r="W84" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" s="1" customFormat="1">
+        <v>198</v>
+      </c>
+      <c r="N84" s="1">
+        <v>1</v>
+      </c>
+      <c r="P84"/>
+      <c r="X84" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y84" s="2">
+        <f>Y83+3</f>
+        <v>247</v>
+      </c>
+      <c r="Z84" s="2"/>
+      <c r="AA84"/>
+    </row>
+    <row r="85" spans="1:27" s="1" customFormat="1">
       <c r="A85" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N85" s="1">
-        <v>1</v>
-      </c>
-      <c r="O85"/>
-      <c r="W85" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23">
+        <v>199</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1</v>
+      </c>
+      <c r="P85"/>
+      <c r="X85" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y85" s="2">
+        <f>Y84+3</f>
+        <v>250</v>
+      </c>
+      <c r="Z85" s="2"/>
+      <c r="AA85"/>
+    </row>
+    <row r="86" spans="1:27">
       <c r="A86" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B86" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>207</v>
+        <v>202</v>
+      </c>
+      <c r="D86" t="s">
+        <v>343</v>
       </c>
       <c r="F86">
         <v>34.950000000000003</v>
@@ -3749,25 +4630,33 @@
       <c r="G86">
         <v>25</v>
       </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
       <c r="N86">
         <v>1</v>
       </c>
-      <c r="W86" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23">
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="X86" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y86" s="2">
+        <f>Y85+3</f>
+        <v>253</v>
+      </c>
+      <c r="Z86" s="2"/>
+    </row>
+    <row r="87" spans="1:27">
       <c r="A87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C87" t="s">
-        <v>199</v>
+        <v>194</v>
+      </c>
+      <c r="D87" t="s">
+        <v>344</v>
       </c>
       <c r="F87">
         <v>55</v>
@@ -3775,25 +4664,33 @@
       <c r="G87">
         <v>39</v>
       </c>
-      <c r="K87" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>1</v>
-      </c>
-      <c r="W87" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="L87" s="3">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="X87" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y87" s="2">
+        <f>Y86+3</f>
+        <v>256</v>
+      </c>
+      <c r="Z87" s="2"/>
+    </row>
+    <row r="88" spans="1:27">
       <c r="A88" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C88" t="s">
-        <v>199</v>
+        <v>194</v>
+      </c>
+      <c r="D88" t="s">
+        <v>345</v>
       </c>
       <c r="F88">
         <v>55</v>
@@ -3801,25 +4698,33 @@
       <c r="G88">
         <v>39</v>
       </c>
-      <c r="K88" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>1</v>
-      </c>
-      <c r="W88" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="L88" s="3">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="X88" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y88" s="2">
+        <f>Y87+3</f>
+        <v>259</v>
+      </c>
+      <c r="Z88" s="2"/>
+    </row>
+    <row r="89" spans="1:27">
       <c r="A89" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B89" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="D89" t="s">
+        <v>346</v>
       </c>
       <c r="F89">
         <v>109.95</v>
@@ -3827,25 +4732,33 @@
       <c r="G89">
         <v>79</v>
       </c>
-      <c r="K89" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>1</v>
-      </c>
-      <c r="W89" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="L89" s="3">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="X89" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y89" s="2">
+        <f>Y88+3</f>
+        <v>262</v>
+      </c>
+      <c r="Z89" s="2"/>
+    </row>
+    <row r="90" spans="1:27">
       <c r="A90" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B90" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C90" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="D90" t="s">
+        <v>347</v>
       </c>
       <c r="F90">
         <v>119.95</v>
@@ -3853,25 +4766,33 @@
       <c r="G90">
         <v>79</v>
       </c>
-      <c r="K90" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>1</v>
-      </c>
-      <c r="W90" s="2" t="s">
+      <c r="L90" s="3">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="X90" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y90" s="2">
+        <f>Y89+3</f>
+        <v>265</v>
+      </c>
+      <c r="Z90" s="2"/>
+    </row>
+    <row r="91" spans="1:27">
+      <c r="A91" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="91" spans="1:23">
-      <c r="A91" t="s">
-        <v>214</v>
-      </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C91" t="s">
-        <v>215</v>
+        <v>210</v>
+      </c>
+      <c r="D91" t="s">
+        <v>348</v>
       </c>
       <c r="F91">
         <v>124.95</v>
@@ -3879,19 +4800,24 @@
       <c r="G91">
         <v>85</v>
       </c>
-      <c r="W91" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y91" s="2">
+        <f>Y90+3</f>
+        <v>268</v>
+      </c>
+      <c r="Z91" s="2"/>
+    </row>
+    <row r="92" spans="1:27">
       <c r="A92" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C92" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F92">
         <v>129.94999999999999</v>
@@ -3899,19 +4825,27 @@
       <c r="G92">
         <v>89</v>
       </c>
-      <c r="W92" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="X92" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y92" s="2">
+        <f>Y91+3</f>
+        <v>271</v>
+      </c>
+      <c r="Z92" s="2"/>
+    </row>
+    <row r="93" spans="1:27">
       <c r="A93" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B93" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C93" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="D93" t="s">
+        <v>349</v>
       </c>
       <c r="F93">
         <v>99.95</v>
@@ -3919,22 +4853,30 @@
       <c r="G93">
         <v>69</v>
       </c>
-      <c r="R93">
-        <v>1</v>
-      </c>
-      <c r="W93" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="X93" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y93" s="2">
+        <f>Y92+3</f>
+        <v>274</v>
+      </c>
+      <c r="Z93" s="2"/>
+    </row>
+    <row r="94" spans="1:27">
       <c r="A94" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B94" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="D94" t="s">
+        <v>350</v>
       </c>
       <c r="F94">
         <v>6.9</v>
@@ -3942,19 +4884,27 @@
       <c r="G94">
         <v>5</v>
       </c>
-      <c r="W94" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="X94" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y94" s="2">
+        <f>Y93+3</f>
+        <v>277</v>
+      </c>
+      <c r="Z94" s="2"/>
+    </row>
+    <row r="95" spans="1:27">
       <c r="A95" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B95" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C95" t="s">
-        <v>224</v>
+        <v>219</v>
+      </c>
+      <c r="D95" t="s">
+        <v>351</v>
       </c>
       <c r="F95">
         <v>34.950000000000003</v>
@@ -3962,19 +4912,27 @@
       <c r="G95">
         <v>25</v>
       </c>
-      <c r="W95" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="X95" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y95" s="2">
+        <f>Y94+3</f>
+        <v>280</v>
+      </c>
+      <c r="Z95" s="2"/>
+    </row>
+    <row r="96" spans="1:27">
       <c r="A96" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B96" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>227</v>
+        <v>222</v>
+      </c>
+      <c r="D96" t="s">
+        <v>352</v>
       </c>
       <c r="F96">
         <v>173</v>
@@ -3982,39 +4940,55 @@
       <c r="G96">
         <v>119</v>
       </c>
-      <c r="W96" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="X96" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y96" s="2">
+        <f>Y95+3</f>
+        <v>283</v>
+      </c>
+      <c r="Z96" s="2"/>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B97" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C97" t="s">
-        <v>230</v>
+        <v>225</v>
+      </c>
+      <c r="D97" t="s">
+        <v>353</v>
       </c>
       <c r="G97">
         <v>199</v>
       </c>
       <c r="I97" t="s">
-        <v>25</v>
-      </c>
-      <c r="W97" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23">
+        <v>24</v>
+      </c>
+      <c r="X97" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y97" s="2">
+        <f>Y96+3</f>
+        <v>286</v>
+      </c>
+      <c r="Z97" s="2"/>
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C98" t="s">
-        <v>233</v>
+        <v>228</v>
+      </c>
+      <c r="D98" t="s">
+        <v>354</v>
       </c>
       <c r="F98">
         <v>399</v>
@@ -4023,21 +4997,29 @@
         <v>249</v>
       </c>
       <c r="I98" t="s">
-        <v>234</v>
-      </c>
-      <c r="W98" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23">
+        <v>229</v>
+      </c>
+      <c r="X98" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y98" s="2">
+        <f>Y97+3</f>
+        <v>289</v>
+      </c>
+      <c r="Z98" s="2"/>
+    </row>
+    <row r="99" spans="1:26">
       <c r="A99" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C99" t="s">
-        <v>237</v>
+        <v>232</v>
+      </c>
+      <c r="D99" t="s">
+        <v>355</v>
       </c>
       <c r="F99">
         <v>27.95</v>
@@ -4045,22 +5027,30 @@
       <c r="G99">
         <v>19</v>
       </c>
-      <c r="V99">
-        <v>1</v>
-      </c>
-      <c r="W99" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23">
+      <c r="W99">
+        <v>1</v>
+      </c>
+      <c r="X99" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y99" s="2">
+        <f>Y98+3</f>
+        <v>292</v>
+      </c>
+      <c r="Z99" s="2"/>
+    </row>
+    <row r="100" spans="1:26">
       <c r="A100" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B100" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C100" t="s">
-        <v>241</v>
+        <v>236</v>
+      </c>
+      <c r="D100" t="s">
+        <v>356</v>
       </c>
       <c r="F100">
         <v>499</v>
@@ -4068,22 +5058,30 @@
       <c r="G100">
         <v>349</v>
       </c>
-      <c r="V100">
-        <v>1</v>
-      </c>
-      <c r="W100" t="s">
+      <c r="W100">
+        <v>1</v>
+      </c>
+      <c r="X100" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y100" s="2">
+        <f>Y99+3</f>
+        <v>295</v>
+      </c>
+      <c r="Z100" s="2"/>
+    </row>
+    <row r="101" spans="1:26">
+      <c r="A101" t="s">
+        <v>237</v>
+      </c>
+      <c r="B101" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="101" spans="1:23">
-      <c r="A101" t="s">
-        <v>242</v>
-      </c>
-      <c r="B101" t="s">
-        <v>243</v>
-      </c>
       <c r="C101" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="D101" t="s">
+        <v>308</v>
       </c>
       <c r="F101">
         <v>59.95</v>
@@ -4091,148 +5089,204 @@
       <c r="G101">
         <v>39</v>
       </c>
-      <c r="V101">
-        <v>1</v>
-      </c>
-      <c r="W101" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23">
+      <c r="W101">
+        <v>1</v>
+      </c>
+      <c r="X101" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y101" s="2">
+        <f>Y100+3</f>
+        <v>298</v>
+      </c>
+      <c r="Z101" s="2"/>
+    </row>
+    <row r="102" spans="1:26">
       <c r="A102" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
-        <v>246</v>
+        <v>241</v>
+      </c>
+      <c r="D102" t="s">
+        <v>357</v>
       </c>
       <c r="G102">
         <v>69.95</v>
       </c>
-      <c r="V102">
-        <v>1</v>
-      </c>
-      <c r="W102" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23">
+      <c r="W102">
+        <v>1</v>
+      </c>
+      <c r="X102" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y102" s="2">
+        <f>Y101+3</f>
+        <v>301</v>
+      </c>
+      <c r="Z102" s="2"/>
+    </row>
+    <row r="103" spans="1:26">
       <c r="A103" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C103" t="s">
-        <v>248</v>
+        <v>243</v>
+      </c>
+      <c r="D103" t="s">
+        <v>358</v>
       </c>
       <c r="G103">
         <v>799</v>
       </c>
-      <c r="V103">
-        <v>1</v>
-      </c>
-      <c r="W103" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23">
+      <c r="W103">
+        <v>1</v>
+      </c>
+      <c r="X103" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y103" s="2">
+        <f>Y102+3</f>
+        <v>304</v>
+      </c>
+      <c r="Z103" s="2"/>
+    </row>
+    <row r="104" spans="1:26">
       <c r="A104" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B104" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C104" t="s">
-        <v>251</v>
+        <v>246</v>
+      </c>
+      <c r="D104" t="s">
+        <v>359</v>
       </c>
       <c r="G104">
         <v>69.95</v>
       </c>
-      <c r="V104">
-        <v>1</v>
-      </c>
-      <c r="W104" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23">
+      <c r="W104">
+        <v>1</v>
+      </c>
+      <c r="X104" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y104" s="2">
+        <f>Y103+3</f>
+        <v>307</v>
+      </c>
+      <c r="Z104" s="2"/>
+    </row>
+    <row r="105" spans="1:26">
       <c r="A105" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B105" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C105" t="s">
-        <v>254</v>
+        <v>249</v>
+      </c>
+      <c r="D105" t="s">
+        <v>360</v>
       </c>
       <c r="G105">
         <v>6.95</v>
       </c>
       <c r="I105" t="s">
-        <v>126</v>
-      </c>
-      <c r="V105">
-        <v>1</v>
-      </c>
-      <c r="W105" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23">
+        <v>121</v>
+      </c>
+      <c r="W105">
+        <v>1</v>
+      </c>
+      <c r="X105" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y105" s="2">
+        <f>Y104+3</f>
+        <v>310</v>
+      </c>
+      <c r="Z105" s="2"/>
+    </row>
+    <row r="106" spans="1:26">
       <c r="A106" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B106" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C106" t="s">
-        <v>257</v>
+        <v>252</v>
+      </c>
+      <c r="D106" t="s">
+        <v>361</v>
       </c>
       <c r="G106">
         <v>599</v>
       </c>
-      <c r="V106">
-        <v>1</v>
-      </c>
-      <c r="W106" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="W106">
+        <v>1</v>
+      </c>
+      <c r="X106" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y106" s="2">
+        <f>Y105+3</f>
+        <v>313</v>
+      </c>
+      <c r="Z106" s="2"/>
+    </row>
+    <row r="107" spans="1:26">
       <c r="A107" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B107" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C107" t="s">
-        <v>259</v>
+        <v>254</v>
+      </c>
+      <c r="D107" t="s">
+        <v>362</v>
       </c>
       <c r="G107">
         <v>69.95</v>
       </c>
-      <c r="M107">
-        <v>1</v>
-      </c>
-      <c r="V107">
-        <v>1</v>
-      </c>
-      <c r="W107" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23">
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="W107">
+        <v>1</v>
+      </c>
+      <c r="X107" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y107" s="2">
+        <f>Y106+3</f>
+        <v>316</v>
+      </c>
+      <c r="Z107" s="2"/>
+    </row>
+    <row r="108" spans="1:26">
       <c r="A108" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B108" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C108" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="D108" t="s">
+        <v>363</v>
       </c>
       <c r="F108">
         <v>259.95</v>
@@ -4240,19 +5294,27 @@
       <c r="G108">
         <v>179</v>
       </c>
-      <c r="W108" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="X108" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y108" s="2">
+        <f>Y107+3</f>
+        <v>319</v>
+      </c>
+      <c r="Z108" s="2"/>
+    </row>
+    <row r="109" spans="1:26">
       <c r="A109" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B109" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C109" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="D109" t="s">
+        <v>364</v>
       </c>
       <c r="F109">
         <v>249.95</v>
@@ -4260,19 +5322,24 @@
       <c r="G109">
         <v>175</v>
       </c>
-      <c r="W109" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="X109" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y109" s="2">
+        <f>Y108+3</f>
+        <v>322</v>
+      </c>
+      <c r="Z109" s="2"/>
+    </row>
+    <row r="110" spans="1:26">
       <c r="A110" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C110" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F110">
         <v>349.95</v>
@@ -4281,21 +5348,26 @@
         <v>249</v>
       </c>
       <c r="I110" t="s">
-        <v>267</v>
-      </c>
-      <c r="W110" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23">
+        <v>280</v>
+      </c>
+      <c r="X110" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y110" s="2">
+        <f>Y109+3</f>
+        <v>325</v>
+      </c>
+      <c r="Z110" s="2"/>
+    </row>
+    <row r="111" spans="1:26">
       <c r="A111" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B111" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C111" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F111">
         <v>449.95</v>
@@ -4304,38 +5376,49 @@
         <v>299</v>
       </c>
       <c r="I111" t="s">
-        <v>268</v>
-      </c>
-      <c r="W111" t="s">
+        <v>281</v>
+      </c>
+      <c r="X111" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y111" s="2">
+        <f>Y110+3</f>
+        <v>328</v>
+      </c>
+      <c r="Z111" s="2"/>
+    </row>
+    <row r="112" spans="1:26">
+      <c r="A112" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112" t="s">
+        <v>263</v>
+      </c>
+      <c r="C112" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="112" spans="1:23">
-      <c r="A112" t="s">
-        <v>269</v>
-      </c>
-      <c r="B112" t="s">
-        <v>270</v>
-      </c>
-      <c r="C112" t="s">
-        <v>271</v>
+      <c r="D112" t="s">
+        <v>365</v>
       </c>
       <c r="G112">
         <v>399</v>
       </c>
-      <c r="W112" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="X112" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B113">
         <v>19644</v>
       </c>
       <c r="C113" t="s">
-        <v>274</v>
+        <v>267</v>
+      </c>
+      <c r="D113" t="s">
+        <v>366</v>
       </c>
       <c r="F113">
         <v>59.95</v>
@@ -4343,19 +5426,22 @@
       <c r="G113">
         <v>45</v>
       </c>
-      <c r="W113" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="X113" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B114">
         <v>19743</v>
       </c>
       <c r="C114" t="s">
-        <v>274</v>
+        <v>267</v>
+      </c>
+      <c r="D114" t="s">
+        <v>367</v>
       </c>
       <c r="F114">
         <v>24.95</v>
@@ -4363,33 +5449,39 @@
       <c r="G114">
         <v>19</v>
       </c>
-      <c r="W114" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23">
+      <c r="X114" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C115" t="s">
-        <v>276</v>
+        <v>269</v>
+      </c>
+      <c r="D115" t="s">
+        <v>368</v>
       </c>
       <c r="G115">
         <v>19.95</v>
       </c>
-      <c r="W115" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="X115" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B116" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C116" t="s">
-        <v>199</v>
+        <v>194</v>
+      </c>
+      <c r="D116" t="s">
+        <v>369</v>
       </c>
       <c r="F116">
         <v>99.95</v>
@@ -4397,8 +5489,8 @@
       <c r="G116">
         <v>69</v>
       </c>
-      <c r="W116" t="s">
-        <v>264</v>
+      <c r="X116" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/excel/producten.xlsx
+++ b/excel/producten.xlsx
@@ -1547,8 +1547,8 @@
   <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y111" sqref="Y111:Y116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1724,7 +1724,7 @@
         <v>29</v>
       </c>
       <c r="Y3" s="2">
-        <f>Y2+3</f>
+        <f t="shared" ref="Y3:Y34" si="0">Y2+3</f>
         <v>4</v>
       </c>
       <c r="Z3" s="2"/>
@@ -1770,7 +1770,7 @@
         <v>29</v>
       </c>
       <c r="Y4" s="2">
-        <f>Y3+3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="Z4" s="2"/>
@@ -1813,7 +1813,7 @@
         <v>29</v>
       </c>
       <c r="Y5" s="2">
-        <f>Y4+3</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="Z5" s="2"/>
@@ -1844,7 +1844,7 @@
         <v>29</v>
       </c>
       <c r="Y6" s="2">
-        <f>Y5+3</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="Z6" s="2"/>
@@ -1878,7 +1878,7 @@
         <v>29</v>
       </c>
       <c r="Y7" s="2">
-        <f>Y6+3</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="Z7" s="2"/>
@@ -1912,7 +1912,7 @@
         <v>29</v>
       </c>
       <c r="Y8" s="2">
-        <f>Y7+3</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="Z8" s="2"/>
@@ -1952,7 +1952,7 @@
         <v>29</v>
       </c>
       <c r="Y9" s="2">
-        <f>Y8+3</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="Z9" s="2"/>
@@ -1992,7 +1992,7 @@
         <v>29</v>
       </c>
       <c r="Y10" s="2">
-        <f>Y9+3</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="Z10" s="2"/>
@@ -2025,7 +2025,7 @@
         <v>29</v>
       </c>
       <c r="Y11" s="2">
-        <f>Y10+3</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="Z11" s="2"/>
@@ -2065,7 +2065,7 @@
         <v>71</v>
       </c>
       <c r="Y12" s="2">
-        <f>Y11+3</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="Z12" s="2"/>
@@ -2105,7 +2105,7 @@
         <v>71</v>
       </c>
       <c r="Y13" s="2">
-        <f>Y12+3</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="Z13" s="2"/>
@@ -2145,7 +2145,7 @@
         <v>71</v>
       </c>
       <c r="Y14" s="2">
-        <f>Y13+3</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="Z14" s="2"/>
@@ -2179,7 +2179,7 @@
         <v>71</v>
       </c>
       <c r="Y15" s="2">
-        <f>Y14+3</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="Z15" s="2"/>
@@ -2213,7 +2213,7 @@
         <v>71</v>
       </c>
       <c r="Y16" s="2">
-        <f>Y15+3</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="Z16" s="2"/>
@@ -2247,7 +2247,7 @@
         <v>71</v>
       </c>
       <c r="Y17" s="2">
-        <f>Y16+3</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="Z17" s="2"/>
@@ -2281,7 +2281,7 @@
         <v>71</v>
       </c>
       <c r="Y18" s="2">
-        <f>Y17+3</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="Z18" s="2"/>
@@ -2321,7 +2321,7 @@
         <v>71</v>
       </c>
       <c r="Y19" s="2">
-        <f>Y18+3</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="Z19" s="2"/>
@@ -2364,7 +2364,7 @@
         <v>71</v>
       </c>
       <c r="Y20" s="2">
-        <f>Y19+3</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="Z20" s="2"/>
@@ -2404,7 +2404,7 @@
         <v>71</v>
       </c>
       <c r="Y21" s="2">
-        <f>Y20+3</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="Z21" s="2"/>
@@ -2441,7 +2441,7 @@
         <v>71</v>
       </c>
       <c r="Y22" s="2">
-        <f>Y21+3</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="Z22" s="2"/>
@@ -2472,7 +2472,7 @@
         <v>71</v>
       </c>
       <c r="Y23" s="2">
-        <f>Y22+3</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="Z23" s="2"/>
@@ -2518,7 +2518,7 @@
         <v>81</v>
       </c>
       <c r="Y24" s="2">
-        <f>Y23+3</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="Z24" s="2"/>
@@ -2564,7 +2564,7 @@
         <v>81</v>
       </c>
       <c r="Y25" s="2">
-        <f>Y24+3</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="Z25" s="2"/>
@@ -2604,7 +2604,7 @@
         <v>81</v>
       </c>
       <c r="Y26" s="2">
-        <f>Y25+3</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="Z26" s="2"/>
@@ -2647,7 +2647,7 @@
         <v>81</v>
       </c>
       <c r="Y27" s="2">
-        <f>Y26+3</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="Z27" s="2"/>
@@ -2684,7 +2684,7 @@
         <v>81</v>
       </c>
       <c r="Y28" s="2">
-        <f>Y27+3</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="Z28" s="2"/>
@@ -2727,7 +2727,7 @@
         <v>81</v>
       </c>
       <c r="Y29" s="2">
-        <f>Y28+3</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="Z29" s="2"/>
@@ -2769,7 +2769,7 @@
         <v>81</v>
       </c>
       <c r="Y30" s="2">
-        <f>Y29+3</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="AA30" s="2" t="s">
@@ -2799,7 +2799,7 @@
         <v>81</v>
       </c>
       <c r="Y31" s="2">
-        <f>Y30+3</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="Z31" s="2"/>
@@ -2836,7 +2836,7 @@
         <v>106</v>
       </c>
       <c r="Y32" s="2">
-        <f>Y31+3</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="Z32" s="2"/>
@@ -2873,7 +2873,7 @@
         <v>106</v>
       </c>
       <c r="Y33" s="2">
-        <f>Y32+3</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="Z33" s="2"/>
@@ -2910,7 +2910,7 @@
         <v>106</v>
       </c>
       <c r="Y34" s="2">
-        <f>Y33+3</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="Z34" s="2"/>
@@ -2947,7 +2947,7 @@
         <v>106</v>
       </c>
       <c r="Y35" s="2">
-        <f>Y34+3</f>
+        <f t="shared" ref="Y35:Y66" si="1">Y34+3</f>
         <v>100</v>
       </c>
       <c r="Z35" s="2"/>
@@ -2978,7 +2978,7 @@
         <v>106</v>
       </c>
       <c r="Y36" s="2">
-        <f>Y35+3</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="Z36" s="2"/>
@@ -3012,7 +3012,7 @@
         <v>106</v>
       </c>
       <c r="Y37" s="2">
-        <f>Y36+3</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="Z37" s="2"/>
@@ -3046,7 +3046,7 @@
         <v>106</v>
       </c>
       <c r="Y38" s="2">
-        <f>Y37+3</f>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="Z38" s="2"/>
@@ -3080,7 +3080,7 @@
         <v>106</v>
       </c>
       <c r="Y39" s="2">
-        <f>Y38+3</f>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="Z39" s="2"/>
@@ -3104,7 +3104,7 @@
         <v>106</v>
       </c>
       <c r="Y40" s="2">
-        <f>Y39+3</f>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="Z40" s="2"/>
@@ -3141,7 +3141,7 @@
         <v>132</v>
       </c>
       <c r="Y41" s="2">
-        <f>Y40+3</f>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="Z41" s="2"/>
@@ -3175,7 +3175,7 @@
         <v>132</v>
       </c>
       <c r="Y42" s="2">
-        <f>Y41+3</f>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="Z42" s="2"/>
@@ -3215,7 +3215,7 @@
         <v>132</v>
       </c>
       <c r="Y43" s="2">
-        <f>Y42+3</f>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="Z43" s="2"/>
@@ -3252,7 +3252,7 @@
         <v>132</v>
       </c>
       <c r="Y44" s="2">
-        <f>Y43+3</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="Z44" s="2"/>
@@ -3283,7 +3283,7 @@
         <v>132</v>
       </c>
       <c r="Y45" s="2">
-        <f>Y44+3</f>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="Z45" s="2"/>
@@ -3320,7 +3320,7 @@
         <v>132</v>
       </c>
       <c r="Y46" s="2">
-        <f>Y45+3</f>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="Z46" s="2"/>
@@ -3360,7 +3360,7 @@
         <v>132</v>
       </c>
       <c r="Y47" s="2">
-        <f>Y46+3</f>
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
       <c r="Z47" s="2"/>
@@ -3381,7 +3381,7 @@
         <v>132</v>
       </c>
       <c r="Y48" s="2">
-        <f>Y47+3</f>
+        <f t="shared" si="1"/>
         <v>139</v>
       </c>
       <c r="Z48" s="2"/>
@@ -3402,7 +3402,7 @@
         <v>132</v>
       </c>
       <c r="Y49" s="2">
-        <f>Y48+3</f>
+        <f t="shared" si="1"/>
         <v>142</v>
       </c>
       <c r="Z49" s="2"/>
@@ -3439,7 +3439,7 @@
         <v>153</v>
       </c>
       <c r="Y50" s="2">
-        <f>Y49+3</f>
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
       <c r="Z50" s="2"/>
@@ -3473,7 +3473,7 @@
         <v>153</v>
       </c>
       <c r="Y51" s="2">
-        <f>Y50+3</f>
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="Z51" s="2"/>
@@ -3507,7 +3507,7 @@
         <v>153</v>
       </c>
       <c r="Y52" s="2">
-        <f>Y51+3</f>
+        <f t="shared" si="1"/>
         <v>151</v>
       </c>
       <c r="Z52" s="2"/>
@@ -3541,7 +3541,7 @@
         <v>153</v>
       </c>
       <c r="Y53" s="2">
-        <f>Y52+3</f>
+        <f t="shared" si="1"/>
         <v>154</v>
       </c>
       <c r="Z53" s="2"/>
@@ -3575,7 +3575,7 @@
         <v>153</v>
       </c>
       <c r="Y54" s="2">
-        <f>Y53+3</f>
+        <f t="shared" si="1"/>
         <v>157</v>
       </c>
       <c r="Z54" s="2"/>
@@ -3609,7 +3609,7 @@
         <v>153</v>
       </c>
       <c r="Y55" s="2">
-        <f>Y54+3</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="Z55" s="2"/>
@@ -3643,7 +3643,7 @@
         <v>153</v>
       </c>
       <c r="Y56" s="2">
-        <f>Y55+3</f>
+        <f t="shared" si="1"/>
         <v>163</v>
       </c>
       <c r="Z56" s="2"/>
@@ -3677,7 +3677,7 @@
         <v>153</v>
       </c>
       <c r="Y57" s="2">
-        <f>Y56+3</f>
+        <f t="shared" si="1"/>
         <v>166</v>
       </c>
       <c r="Z57" s="2"/>
@@ -3711,7 +3711,7 @@
         <v>153</v>
       </c>
       <c r="Y58" s="2">
-        <f>Y57+3</f>
+        <f t="shared" si="1"/>
         <v>169</v>
       </c>
       <c r="Z58" s="2"/>
@@ -3745,7 +3745,7 @@
         <v>153</v>
       </c>
       <c r="Y59" s="2">
-        <f>Y58+3</f>
+        <f t="shared" si="1"/>
         <v>172</v>
       </c>
       <c r="Z59" s="2"/>
@@ -3779,7 +3779,7 @@
         <v>153</v>
       </c>
       <c r="Y60" s="2">
-        <f>Y59+3</f>
+        <f t="shared" si="1"/>
         <v>175</v>
       </c>
       <c r="Z60" s="2"/>
@@ -3813,7 +3813,7 @@
         <v>153</v>
       </c>
       <c r="Y61" s="2">
-        <f>Y60+3</f>
+        <f t="shared" si="1"/>
         <v>178</v>
       </c>
       <c r="Z61" s="2"/>
@@ -3847,7 +3847,7 @@
         <v>153</v>
       </c>
       <c r="Y62" s="2">
-        <f>Y61+3</f>
+        <f t="shared" si="1"/>
         <v>181</v>
       </c>
       <c r="Z62" s="2"/>
@@ -3881,7 +3881,7 @@
         <v>153</v>
       </c>
       <c r="Y63" s="2">
-        <f>Y62+3</f>
+        <f t="shared" si="1"/>
         <v>184</v>
       </c>
       <c r="Z63" s="2"/>
@@ -3915,7 +3915,7 @@
         <v>153</v>
       </c>
       <c r="Y64" s="2">
-        <f>Y63+3</f>
+        <f t="shared" si="1"/>
         <v>187</v>
       </c>
       <c r="Z64" s="2"/>
@@ -3949,7 +3949,7 @@
         <v>153</v>
       </c>
       <c r="Y65" s="2">
-        <f>Y64+3</f>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="Z65" s="2"/>
@@ -3983,7 +3983,7 @@
         <v>153</v>
       </c>
       <c r="Y66" s="2">
-        <f>Y65+3</f>
+        <f t="shared" si="1"/>
         <v>193</v>
       </c>
       <c r="Z66" s="2"/>
@@ -4017,7 +4017,7 @@
         <v>153</v>
       </c>
       <c r="Y67" s="2">
-        <f>Y66+3</f>
+        <f t="shared" ref="Y67:Y98" si="2">Y66+3</f>
         <v>196</v>
       </c>
       <c r="Z67" s="2"/>
@@ -4051,7 +4051,7 @@
         <v>153</v>
       </c>
       <c r="Y68" s="2">
-        <f>Y67+3</f>
+        <f t="shared" si="2"/>
         <v>199</v>
       </c>
       <c r="Z68" s="2"/>
@@ -4085,7 +4085,7 @@
         <v>153</v>
       </c>
       <c r="Y69" s="2">
-        <f>Y68+3</f>
+        <f t="shared" si="2"/>
         <v>202</v>
       </c>
       <c r="Z69" s="2"/>
@@ -4119,7 +4119,7 @@
         <v>153</v>
       </c>
       <c r="Y70" s="2">
-        <f>Y69+3</f>
+        <f t="shared" si="2"/>
         <v>205</v>
       </c>
       <c r="Z70" s="2"/>
@@ -4153,7 +4153,7 @@
         <v>153</v>
       </c>
       <c r="Y71" s="2">
-        <f>Y70+3</f>
+        <f t="shared" si="2"/>
         <v>208</v>
       </c>
       <c r="Z71" s="2"/>
@@ -4187,7 +4187,7 @@
         <v>153</v>
       </c>
       <c r="Y72" s="2">
-        <f>Y71+3</f>
+        <f t="shared" si="2"/>
         <v>211</v>
       </c>
       <c r="Z72" s="2"/>
@@ -4221,7 +4221,7 @@
         <v>153</v>
       </c>
       <c r="Y73" s="2">
-        <f>Y72+3</f>
+        <f t="shared" si="2"/>
         <v>214</v>
       </c>
       <c r="Z73" s="2"/>
@@ -4255,7 +4255,7 @@
         <v>153</v>
       </c>
       <c r="Y74" s="2">
-        <f>Y73+3</f>
+        <f t="shared" si="2"/>
         <v>217</v>
       </c>
       <c r="Z74" s="2"/>
@@ -4289,7 +4289,7 @@
         <v>153</v>
       </c>
       <c r="Y75" s="2">
-        <f>Y74+3</f>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="Z75" s="2"/>
@@ -4323,7 +4323,7 @@
         <v>153</v>
       </c>
       <c r="Y76" s="2">
-        <f>Y75+3</f>
+        <f t="shared" si="2"/>
         <v>223</v>
       </c>
       <c r="Z76" s="2"/>
@@ -4357,7 +4357,7 @@
         <v>153</v>
       </c>
       <c r="Y77" s="2">
-        <f>Y76+3</f>
+        <f t="shared" si="2"/>
         <v>226</v>
       </c>
       <c r="Z77" s="2"/>
@@ -4391,7 +4391,7 @@
         <v>153</v>
       </c>
       <c r="Y78" s="2">
-        <f>Y77+3</f>
+        <f t="shared" si="2"/>
         <v>229</v>
       </c>
       <c r="Z78" s="2"/>
@@ -4425,7 +4425,7 @@
         <v>153</v>
       </c>
       <c r="Y79" s="2">
-        <f>Y78+3</f>
+        <f t="shared" si="2"/>
         <v>232</v>
       </c>
       <c r="Z79" s="2"/>
@@ -4462,7 +4462,7 @@
         <v>190</v>
       </c>
       <c r="Y80" s="2">
-        <f>Y79+3</f>
+        <f t="shared" si="2"/>
         <v>235</v>
       </c>
       <c r="Z80" s="2"/>
@@ -4499,7 +4499,7 @@
         <v>190</v>
       </c>
       <c r="Y81" s="2">
-        <f>Y80+3</f>
+        <f t="shared" si="2"/>
         <v>238</v>
       </c>
       <c r="Z81" s="2"/>
@@ -4536,7 +4536,7 @@
         <v>190</v>
       </c>
       <c r="Y82" s="2">
-        <f>Y81+3</f>
+        <f t="shared" si="2"/>
         <v>241</v>
       </c>
       <c r="Z82" s="2"/>
@@ -4570,7 +4570,7 @@
         <v>190</v>
       </c>
       <c r="Y83" s="2">
-        <f>Y82+3</f>
+        <f t="shared" si="2"/>
         <v>244</v>
       </c>
       <c r="Z83" s="2"/>
@@ -4587,7 +4587,7 @@
         <v>190</v>
       </c>
       <c r="Y84" s="2">
-        <f>Y83+3</f>
+        <f t="shared" si="2"/>
         <v>247</v>
       </c>
       <c r="Z84" s="2"/>
@@ -4605,7 +4605,7 @@
         <v>190</v>
       </c>
       <c r="Y85" s="2">
-        <f>Y84+3</f>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="Z85" s="2"/>
@@ -4640,7 +4640,7 @@
         <v>190</v>
       </c>
       <c r="Y86" s="2">
-        <f>Y85+3</f>
+        <f t="shared" si="2"/>
         <v>253</v>
       </c>
       <c r="Z86" s="2"/>
@@ -4674,7 +4674,7 @@
         <v>204</v>
       </c>
       <c r="Y87" s="2">
-        <f>Y86+3</f>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="Z87" s="2"/>
@@ -4708,7 +4708,7 @@
         <v>204</v>
       </c>
       <c r="Y88" s="2">
-        <f>Y87+3</f>
+        <f t="shared" si="2"/>
         <v>259</v>
       </c>
       <c r="Z88" s="2"/>
@@ -4742,7 +4742,7 @@
         <v>204</v>
       </c>
       <c r="Y89" s="2">
-        <f>Y88+3</f>
+        <f t="shared" si="2"/>
         <v>262</v>
       </c>
       <c r="Z89" s="2"/>
@@ -4776,7 +4776,7 @@
         <v>204</v>
       </c>
       <c r="Y90" s="2">
-        <f>Y89+3</f>
+        <f t="shared" si="2"/>
         <v>265</v>
       </c>
       <c r="Z90" s="2"/>
@@ -4804,7 +4804,7 @@
         <v>204</v>
       </c>
       <c r="Y91" s="2">
-        <f>Y90+3</f>
+        <f t="shared" si="2"/>
         <v>268</v>
       </c>
       <c r="Z91" s="2"/>
@@ -4829,7 +4829,7 @@
         <v>204</v>
       </c>
       <c r="Y92" s="2">
-        <f>Y91+3</f>
+        <f t="shared" si="2"/>
         <v>271</v>
       </c>
       <c r="Z92" s="2"/>
@@ -4860,7 +4860,7 @@
         <v>204</v>
       </c>
       <c r="Y93" s="2">
-        <f>Y92+3</f>
+        <f t="shared" si="2"/>
         <v>274</v>
       </c>
       <c r="Z93" s="2"/>
@@ -4888,7 +4888,7 @@
         <v>204</v>
       </c>
       <c r="Y94" s="2">
-        <f>Y93+3</f>
+        <f t="shared" si="2"/>
         <v>277</v>
       </c>
       <c r="Z94" s="2"/>
@@ -4916,7 +4916,7 @@
         <v>204</v>
       </c>
       <c r="Y95" s="2">
-        <f>Y94+3</f>
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
       <c r="Z95" s="2"/>
@@ -4944,7 +4944,7 @@
         <v>204</v>
       </c>
       <c r="Y96" s="2">
-        <f>Y95+3</f>
+        <f t="shared" si="2"/>
         <v>283</v>
       </c>
       <c r="Z96" s="2"/>
@@ -4972,7 +4972,7 @@
         <v>204</v>
       </c>
       <c r="Y97" s="2">
-        <f>Y96+3</f>
+        <f t="shared" si="2"/>
         <v>286</v>
       </c>
       <c r="Z97" s="2"/>
@@ -5003,7 +5003,7 @@
         <v>204</v>
       </c>
       <c r="Y98" s="2">
-        <f>Y97+3</f>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
       <c r="Z98" s="2"/>
@@ -5034,7 +5034,7 @@
         <v>233</v>
       </c>
       <c r="Y99" s="2">
-        <f>Y98+3</f>
+        <f t="shared" ref="Y99:Y116" si="3">Y98+3</f>
         <v>292</v>
       </c>
       <c r="Z99" s="2"/>
@@ -5065,7 +5065,7 @@
         <v>233</v>
       </c>
       <c r="Y100" s="2">
-        <f>Y99+3</f>
+        <f t="shared" si="3"/>
         <v>295</v>
       </c>
       <c r="Z100" s="2"/>
@@ -5096,7 +5096,7 @@
         <v>233</v>
       </c>
       <c r="Y101" s="2">
-        <f>Y100+3</f>
+        <f t="shared" si="3"/>
         <v>298</v>
       </c>
       <c r="Z101" s="2"/>
@@ -5124,7 +5124,7 @@
         <v>233</v>
       </c>
       <c r="Y102" s="2">
-        <f>Y101+3</f>
+        <f t="shared" si="3"/>
         <v>301</v>
       </c>
       <c r="Z102" s="2"/>
@@ -5152,7 +5152,7 @@
         <v>233</v>
       </c>
       <c r="Y103" s="2">
-        <f>Y102+3</f>
+        <f t="shared" si="3"/>
         <v>304</v>
       </c>
       <c r="Z103" s="2"/>
@@ -5180,7 +5180,7 @@
         <v>233</v>
       </c>
       <c r="Y104" s="2">
-        <f>Y103+3</f>
+        <f t="shared" si="3"/>
         <v>307</v>
       </c>
       <c r="Z104" s="2"/>
@@ -5211,7 +5211,7 @@
         <v>233</v>
       </c>
       <c r="Y105" s="2">
-        <f>Y104+3</f>
+        <f t="shared" si="3"/>
         <v>310</v>
       </c>
       <c r="Z105" s="2"/>
@@ -5239,7 +5239,7 @@
         <v>233</v>
       </c>
       <c r="Y106" s="2">
-        <f>Y105+3</f>
+        <f t="shared" si="3"/>
         <v>313</v>
       </c>
       <c r="Z106" s="2"/>
@@ -5270,7 +5270,7 @@
         <v>233</v>
       </c>
       <c r="Y107" s="2">
-        <f>Y106+3</f>
+        <f t="shared" si="3"/>
         <v>316</v>
       </c>
       <c r="Z107" s="2"/>
@@ -5298,7 +5298,7 @@
         <v>259</v>
       </c>
       <c r="Y108" s="2">
-        <f>Y107+3</f>
+        <f t="shared" si="3"/>
         <v>319</v>
       </c>
       <c r="Z108" s="2"/>
@@ -5326,7 +5326,7 @@
         <v>259</v>
       </c>
       <c r="Y109" s="2">
-        <f>Y108+3</f>
+        <f t="shared" si="3"/>
         <v>322</v>
       </c>
       <c r="Z109" s="2"/>
@@ -5354,7 +5354,7 @@
         <v>259</v>
       </c>
       <c r="Y110" s="2">
-        <f>Y109+3</f>
+        <f t="shared" si="3"/>
         <v>325</v>
       </c>
       <c r="Z110" s="2"/>
@@ -5382,7 +5382,7 @@
         <v>259</v>
       </c>
       <c r="Y111" s="2">
-        <f>Y110+3</f>
+        <f t="shared" si="3"/>
         <v>328</v>
       </c>
       <c r="Z111" s="2"/>
@@ -5406,8 +5406,12 @@
       <c r="X112" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="113" spans="1:24">
+      <c r="Y112" s="2">
+        <f t="shared" si="3"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
       <c r="A113" t="s">
         <v>266</v>
       </c>
@@ -5429,8 +5433,12 @@
       <c r="X113" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="114" spans="1:24">
+      <c r="Y113" s="2">
+        <f t="shared" si="3"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25">
       <c r="A114" t="s">
         <v>265</v>
       </c>
@@ -5452,8 +5460,12 @@
       <c r="X114" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="115" spans="1:24">
+      <c r="Y114" s="2">
+        <f t="shared" si="3"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
       <c r="A115" t="s">
         <v>268</v>
       </c>
@@ -5469,8 +5481,12 @@
       <c r="X115" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="116" spans="1:24">
+      <c r="Y115" s="2">
+        <f t="shared" si="3"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
       <c r="A116" t="s">
         <v>270</v>
       </c>
@@ -5491,6 +5507,10 @@
       </c>
       <c r="X116" t="s">
         <v>259</v>
+      </c>
+      <c r="Y116" s="2">
+        <f t="shared" si="3"/>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/excel/producten.xlsx
+++ b/excel/producten.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="0" windowWidth="25380" windowHeight="26500" tabRatio="500"/>
+    <workbookView xWindow="2700" yWindow="0" windowWidth="25380" windowHeight="13176" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="370">
   <si>
     <t>productnaam</t>
   </si>
@@ -1208,9 +1208,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1546,33 +1546,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y111" sqref="Y111:Y116"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA54" sqref="AA54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="62.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="11" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" customWidth="1"/>
+    <col min="2" max="2" width="28.296875" customWidth="1"/>
+    <col min="4" max="4" width="51.09765625" customWidth="1"/>
+    <col min="5" max="5" width="4.296875" customWidth="1"/>
+    <col min="8" max="8" width="4.296875" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" customWidth="1"/>
+    <col min="10" max="11" width="5.796875" customWidth="1"/>
     <col min="12" max="12" width="6" style="3" customWidth="1"/>
-    <col min="13" max="13" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.69921875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.83203125" customWidth="1"/>
+    <col min="17" max="17" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.09765625" customWidth="1"/>
+    <col min="22" max="22" width="11.19921875" customWidth="1"/>
+    <col min="23" max="23" width="6.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1">
+    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1688,11 +1689,8 @@
       <c r="Y2" s="2">
         <v>1</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1728,11 +1726,8 @@
         <v>4</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1774,11 +1769,8 @@
         <v>7</v>
       </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1817,11 +1809,8 @@
         <v>10</v>
       </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1836,6 +1825,12 @@
       </c>
       <c r="G6">
         <v>19</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -1848,11 +1843,8 @@
         <v>13</v>
       </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1867,6 +1859,12 @@
       </c>
       <c r="G7">
         <v>29.95</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
       </c>
       <c r="R7">
         <v>1</v>
@@ -1882,11 +1880,8 @@
         <v>16</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1901,6 +1896,12 @@
       </c>
       <c r="G8">
         <v>44.95</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
       </c>
       <c r="R8">
         <v>1</v>
@@ -1916,11 +1917,8 @@
         <v>19</v>
       </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -1938,6 +1936,12 @@
       </c>
       <c r="I9" t="s">
         <v>43</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1956,11 +1960,8 @@
         <v>22</v>
       </c>
       <c r="Z9" s="2"/>
-      <c r="AA9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1978,6 +1979,12 @@
       </c>
       <c r="I10" t="s">
         <v>47</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -1996,11 +2003,8 @@
         <v>25</v>
       </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="1" customFormat="1">
+    </row>
+    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -2015,6 +2019,12 @@
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
       <c r="R11" s="1">
         <v>1</v>
       </c>
@@ -2029,11 +2039,8 @@
         <v>28</v>
       </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2069,11 +2076,8 @@
         <v>31</v>
       </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -2091,6 +2095,12 @@
       </c>
       <c r="G13">
         <v>99</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -2109,11 +2119,8 @@
         <v>34</v>
       </c>
       <c r="Z13" s="2"/>
-      <c r="AA13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -2131,6 +2138,12 @@
       </c>
       <c r="G14">
         <v>29</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
       </c>
       <c r="R14">
         <v>1</v>
@@ -2149,11 +2162,8 @@
         <v>37</v>
       </c>
       <c r="Z14" s="2"/>
-      <c r="AA14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -2171,6 +2181,12 @@
       </c>
       <c r="G15">
         <v>85</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -2183,11 +2199,8 @@
         <v>40</v>
       </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -2205,6 +2218,12 @@
       </c>
       <c r="G16">
         <v>105</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -2217,11 +2236,8 @@
         <v>43</v>
       </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2239,6 +2255,12 @@
       </c>
       <c r="G17">
         <v>115</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -2251,11 +2273,8 @@
         <v>46</v>
       </c>
       <c r="Z17" s="2"/>
-      <c r="AA17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -2273,6 +2292,12 @@
       </c>
       <c r="I18" t="s">
         <v>43</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -2285,11 +2310,8 @@
         <v>49</v>
       </c>
       <c r="Z18" s="2"/>
-      <c r="AA18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2307,6 +2329,12 @@
       </c>
       <c r="G19">
         <v>15</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -2325,11 +2353,8 @@
         <v>52</v>
       </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -2368,11 +2393,8 @@
         <v>55</v>
       </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -2408,11 +2430,8 @@
         <v>58</v>
       </c>
       <c r="Z21" s="2"/>
-      <c r="AA21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -2432,6 +2451,9 @@
         <v>1</v>
       </c>
       <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>1</v>
       </c>
       <c r="Q22">
@@ -2445,11 +2467,8 @@
         <v>61</v>
       </c>
       <c r="Z22" s="2"/>
-      <c r="AA22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -2464,6 +2483,12 @@
       </c>
       <c r="G23">
         <v>19.95</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -2476,11 +2501,8 @@
         <v>64</v>
       </c>
       <c r="Z23" s="2"/>
-      <c r="AA23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -2498,6 +2520,15 @@
       </c>
       <c r="G24">
         <v>19</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
       </c>
       <c r="R24">
         <v>1</v>
@@ -2522,11 +2553,8 @@
         <v>67</v>
       </c>
       <c r="Z24" s="2"/>
-      <c r="AA24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -2546,9 +2574,6 @@
         <v>1</v>
       </c>
       <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
         <v>1</v>
       </c>
       <c r="R25">
@@ -2568,11 +2593,8 @@
         <v>70</v>
       </c>
       <c r="Z25" s="2"/>
-      <c r="AA25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -2608,11 +2630,8 @@
         <v>73</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -2651,11 +2670,8 @@
         <v>76</v>
       </c>
       <c r="Z27" s="2"/>
-      <c r="AA27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -2670,6 +2686,15 @@
       </c>
       <c r="G28">
         <v>9.9499999999999993</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
       </c>
       <c r="R28">
         <v>1</v>
@@ -2688,11 +2713,8 @@
         <v>79</v>
       </c>
       <c r="Z28" s="2"/>
-      <c r="AA28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -2713,6 +2735,15 @@
       </c>
       <c r="I29" t="s">
         <v>47</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
       </c>
       <c r="R29">
         <v>1</v>
@@ -2731,11 +2762,8 @@
         <v>82</v>
       </c>
       <c r="Z29" s="2"/>
-      <c r="AA29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" s="2" customFormat="1">
+    </row>
+    <row r="30" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>98</v>
       </c>
@@ -2756,6 +2784,15 @@
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="4"/>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+      <c r="P30" s="2">
+        <v>1</v>
+      </c>
       <c r="R30" s="2">
         <v>1</v>
       </c>
@@ -2772,11 +2809,8 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="AA30" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -2794,6 +2828,21 @@
       </c>
       <c r="G31">
         <v>25</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1</v>
+      </c>
+      <c r="T31" s="2">
+        <v>1</v>
       </c>
       <c r="X31" s="2" t="s">
         <v>81</v>
@@ -2803,11 +2852,9 @@
         <v>88</v>
       </c>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31" s="2"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -2840,11 +2887,9 @@
         <v>91</v>
       </c>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32" s="2"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>107</v>
       </c>
@@ -2877,11 +2922,9 @@
         <v>94</v>
       </c>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33" s="2"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -2914,11 +2957,9 @@
         <v>97</v>
       </c>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34" s="2"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -2951,11 +2992,9 @@
         <v>100</v>
       </c>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35" s="2"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -2982,11 +3021,9 @@
         <v>103</v>
       </c>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36" s="2"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -3016,11 +3053,9 @@
         <v>106</v>
       </c>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37" s="2"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -3050,11 +3085,9 @@
         <v>109</v>
       </c>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38" s="2"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -3084,11 +3117,9 @@
         <v>112</v>
       </c>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" s="1" customFormat="1">
+      <c r="AA39" s="2"/>
+    </row>
+    <row r="40" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>128</v>
       </c>
@@ -3108,11 +3139,9 @@
         <v>115</v>
       </c>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40" s="2"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>129</v>
       </c>
@@ -3145,11 +3174,9 @@
         <v>118</v>
       </c>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41" s="2"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>133</v>
       </c>
@@ -3179,11 +3206,9 @@
         <v>121</v>
       </c>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42" s="2"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -3219,11 +3244,8 @@
         <v>124</v>
       </c>
       <c r="Z43" s="2"/>
-      <c r="AA43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -3256,11 +3278,8 @@
         <v>127</v>
       </c>
       <c r="Z44" s="2"/>
-      <c r="AA44" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>141</v>
       </c>
@@ -3287,11 +3306,8 @@
         <v>130</v>
       </c>
       <c r="Z45" s="2"/>
-      <c r="AA45" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>143</v>
       </c>
@@ -3324,11 +3340,8 @@
         <v>133</v>
       </c>
       <c r="Z46" s="2"/>
-      <c r="AA46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>146</v>
       </c>
@@ -3364,11 +3377,8 @@
         <v>136</v>
       </c>
       <c r="Z47" s="2"/>
-      <c r="AA47" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" s="1" customFormat="1">
+    </row>
+    <row r="48" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
@@ -3385,11 +3395,9 @@
         <v>139</v>
       </c>
       <c r="Z48" s="2"/>
-      <c r="AA48" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" s="1" customFormat="1">
+      <c r="AA48"/>
+    </row>
+    <row r="49" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>149</v>
       </c>
@@ -3406,11 +3414,9 @@
         <v>142</v>
       </c>
       <c r="Z49" s="2"/>
-      <c r="AA49" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -3444,7 +3450,7 @@
       </c>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>154</v>
       </c>
@@ -3478,7 +3484,7 @@
       </c>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -3512,7 +3518,7 @@
       </c>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>159</v>
       </c>
@@ -3546,7 +3552,7 @@
       </c>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -3580,7 +3586,7 @@
       </c>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -3614,7 +3620,7 @@
       </c>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -3648,7 +3654,7 @@
       </c>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>164</v>
       </c>
@@ -3682,7 +3688,7 @@
       </c>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>165</v>
       </c>
@@ -3716,7 +3722,7 @@
       </c>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -3750,7 +3756,7 @@
       </c>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -3784,7 +3790,7 @@
       </c>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -3818,7 +3824,7 @@
       </c>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -3852,7 +3858,7 @@
       </c>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>171</v>
       </c>
@@ -3886,7 +3892,7 @@
       </c>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>172</v>
       </c>
@@ -3920,7 +3926,7 @@
       </c>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>173</v>
       </c>
@@ -3954,7 +3960,7 @@
       </c>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>174</v>
       </c>
@@ -3988,7 +3994,7 @@
       </c>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>175</v>
       </c>
@@ -4022,7 +4028,7 @@
       </c>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>176</v>
       </c>
@@ -4056,7 +4062,7 @@
       </c>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>177</v>
       </c>
@@ -4090,7 +4096,7 @@
       </c>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>178</v>
       </c>
@@ -4124,7 +4130,7 @@
       </c>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>179</v>
       </c>
@@ -4158,7 +4164,7 @@
       </c>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>181</v>
       </c>
@@ -4178,6 +4184,9 @@
         <v>1</v>
       </c>
       <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
         <v>1</v>
       </c>
       <c r="R72">
@@ -4192,7 +4201,7 @@
       </c>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>182</v>
       </c>
@@ -4212,6 +4221,9 @@
         <v>1</v>
       </c>
       <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73">
@@ -4226,7 +4238,7 @@
       </c>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>183</v>
       </c>
@@ -4246,6 +4258,9 @@
         <v>1</v>
       </c>
       <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
         <v>1</v>
       </c>
       <c r="R74">
@@ -4260,7 +4275,7 @@
       </c>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>184</v>
       </c>
@@ -4280,6 +4295,9 @@
         <v>1</v>
       </c>
       <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
         <v>1</v>
       </c>
       <c r="R75">
@@ -4294,7 +4312,7 @@
       </c>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>186</v>
       </c>
@@ -4314,6 +4332,9 @@
         <v>1</v>
       </c>
       <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
         <v>1</v>
       </c>
       <c r="R76">
@@ -4328,7 +4349,7 @@
       </c>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>187</v>
       </c>
@@ -4348,6 +4369,9 @@
         <v>1</v>
       </c>
       <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
         <v>1</v>
       </c>
       <c r="R77">
@@ -4362,7 +4386,7 @@
       </c>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>188</v>
       </c>
@@ -4382,6 +4406,9 @@
         <v>1</v>
       </c>
       <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
         <v>1</v>
       </c>
       <c r="R78">
@@ -4396,7 +4423,7 @@
       </c>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>189</v>
       </c>
@@ -4416,6 +4443,9 @@
         <v>1</v>
       </c>
       <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
         <v>1</v>
       </c>
       <c r="R79">
@@ -4430,7 +4460,7 @@
       </c>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>191</v>
       </c>
@@ -4456,6 +4486,9 @@
         <v>1</v>
       </c>
       <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="T80">
         <v>1</v>
       </c>
       <c r="X80" s="2" t="s">
@@ -4467,7 +4500,7 @@
       </c>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:27">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>193</v>
       </c>
@@ -4493,6 +4526,9 @@
         <v>1</v>
       </c>
       <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="T81">
         <v>1</v>
       </c>
       <c r="X81" s="2" t="s">
@@ -4504,7 +4540,7 @@
       </c>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:27">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>195</v>
       </c>
@@ -4530,6 +4566,9 @@
         <v>1</v>
       </c>
       <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="T82">
         <v>1</v>
       </c>
       <c r="X82" s="2" t="s">
@@ -4541,7 +4580,7 @@
       </c>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:27">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>197</v>
       </c>
@@ -4564,6 +4603,9 @@
         <v>1</v>
       </c>
       <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="T83">
         <v>1</v>
       </c>
       <c r="X83" s="2" t="s">
@@ -4575,7 +4617,7 @@
       </c>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:27" s="1" customFormat="1">
+    <row r="84" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>198</v>
       </c>
@@ -4583,6 +4625,15 @@
         <v>1</v>
       </c>
       <c r="P84"/>
+      <c r="R84" s="1">
+        <v>1</v>
+      </c>
+      <c r="T84" s="1">
+        <v>1</v>
+      </c>
+      <c r="U84" s="1">
+        <v>1</v>
+      </c>
       <c r="X84" s="2" t="s">
         <v>190</v>
       </c>
@@ -4593,7 +4644,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84"/>
     </row>
-    <row r="85" spans="1:27" s="1" customFormat="1">
+    <row r="85" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>199</v>
       </c>
@@ -4601,6 +4652,15 @@
         <v>1</v>
       </c>
       <c r="P85"/>
+      <c r="R85" s="1">
+        <v>1</v>
+      </c>
+      <c r="T85" s="1">
+        <v>1</v>
+      </c>
+      <c r="U85" s="1">
+        <v>1</v>
+      </c>
       <c r="X85" s="2" t="s">
         <v>190</v>
       </c>
@@ -4611,7 +4671,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85"/>
     </row>
-    <row r="86" spans="1:27">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>200</v>
       </c>
@@ -4634,6 +4694,18 @@
         <v>1</v>
       </c>
       <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86">
         <v>1</v>
       </c>
       <c r="X86" s="2" t="s">
@@ -4645,7 +4717,7 @@
       </c>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:27">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>203</v>
       </c>
@@ -4665,6 +4737,9 @@
         <v>39</v>
       </c>
       <c r="L87" s="3">
+        <v>1</v>
+      </c>
+      <c r="N87">
         <v>1</v>
       </c>
       <c r="R87">
@@ -4679,7 +4754,7 @@
       </c>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:27">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>203</v>
       </c>
@@ -4699,6 +4774,9 @@
         <v>39</v>
       </c>
       <c r="L88" s="3">
+        <v>1</v>
+      </c>
+      <c r="O88">
         <v>1</v>
       </c>
       <c r="R88">
@@ -4713,7 +4791,7 @@
       </c>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:27">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>205</v>
       </c>
@@ -4733,6 +4811,9 @@
         <v>79</v>
       </c>
       <c r="L89" s="3">
+        <v>1</v>
+      </c>
+      <c r="O89">
         <v>1</v>
       </c>
       <c r="R89">
@@ -4747,7 +4828,7 @@
       </c>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:27">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>208</v>
       </c>
@@ -4767,6 +4848,9 @@
         <v>79</v>
       </c>
       <c r="L90" s="3">
+        <v>1</v>
+      </c>
+      <c r="O90">
         <v>1</v>
       </c>
       <c r="R90">
@@ -4781,7 +4865,7 @@
       </c>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:27">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>209</v>
       </c>
@@ -4809,7 +4893,7 @@
       </c>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:27">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>211</v>
       </c>
@@ -4824,6 +4908,21 @@
       </c>
       <c r="G92">
         <v>89</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>1</v>
       </c>
       <c r="X92" s="2" t="s">
         <v>204</v>
@@ -4834,7 +4933,7 @@
       </c>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:27">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>212</v>
       </c>
@@ -4853,7 +4952,19 @@
       <c r="G93">
         <v>69</v>
       </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
       <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
         <v>1</v>
       </c>
       <c r="X93" s="2" t="s">
@@ -4865,7 +4976,7 @@
       </c>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:27">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>214</v>
       </c>
@@ -4883,6 +4994,15 @@
       </c>
       <c r="G94">
         <v>5</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
       </c>
       <c r="X94" s="2" t="s">
         <v>204</v>
@@ -4893,7 +5013,7 @@
       </c>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:27">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>217</v>
       </c>
@@ -4911,6 +5031,21 @@
       </c>
       <c r="G95">
         <v>25</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95">
+        <v>1</v>
       </c>
       <c r="X95" s="2" t="s">
         <v>204</v>
@@ -4921,7 +5056,7 @@
       </c>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:27">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -4939,6 +5074,18 @@
       </c>
       <c r="G96">
         <v>119</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
       </c>
       <c r="X96" s="2" t="s">
         <v>204</v>
@@ -4949,7 +5096,7 @@
       </c>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>223</v>
       </c>
@@ -4967,6 +5114,24 @@
       </c>
       <c r="I97" t="s">
         <v>24</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
       </c>
       <c r="X97" s="2" t="s">
         <v>204</v>
@@ -4977,7 +5142,7 @@
       </c>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>226</v>
       </c>
@@ -4998,6 +5163,18 @@
       </c>
       <c r="I98" t="s">
         <v>229</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
       </c>
       <c r="X98" s="2" t="s">
         <v>204</v>
@@ -5008,7 +5185,7 @@
       </c>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>230</v>
       </c>
@@ -5026,6 +5203,18 @@
       </c>
       <c r="G99">
         <v>19</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
       </c>
       <c r="W99">
         <v>1</v>
@@ -5039,7 +5228,7 @@
       </c>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>234</v>
       </c>
@@ -5057,6 +5246,12 @@
       </c>
       <c r="G100">
         <v>349</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
       </c>
       <c r="W100">
         <v>1</v>
@@ -5070,7 +5265,7 @@
       </c>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>237</v>
       </c>
@@ -5088,6 +5283,15 @@
       </c>
       <c r="G101">
         <v>39</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="S101">
+        <v>1</v>
       </c>
       <c r="W101">
         <v>1</v>
@@ -5101,7 +5305,7 @@
       </c>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>239</v>
       </c>
@@ -5116,6 +5320,15 @@
       </c>
       <c r="G102">
         <v>69.95</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
       </c>
       <c r="W102">
         <v>1</v>
@@ -5129,7 +5342,7 @@
       </c>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>242</v>
       </c>
@@ -5144,6 +5357,9 @@
       </c>
       <c r="G103">
         <v>799</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
       </c>
       <c r="W103">
         <v>1</v>
@@ -5157,7 +5373,7 @@
       </c>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -5172,6 +5388,12 @@
       </c>
       <c r="G104">
         <v>69.95</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="S104">
+        <v>1</v>
       </c>
       <c r="W104">
         <v>1</v>
@@ -5185,7 +5407,7 @@
       </c>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>247</v>
       </c>
@@ -5203,6 +5425,18 @@
       </c>
       <c r="I105" t="s">
         <v>121</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
       </c>
       <c r="W105">
         <v>1</v>
@@ -5216,7 +5450,7 @@
       </c>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>250</v>
       </c>
@@ -5231,6 +5465,9 @@
       </c>
       <c r="G106">
         <v>599</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
       </c>
       <c r="W106">
         <v>1</v>
@@ -5244,7 +5481,7 @@
       </c>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>253</v>
       </c>
@@ -5275,7 +5512,7 @@
       </c>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>255</v>
       </c>
@@ -5293,6 +5530,18 @@
       </c>
       <c r="G108">
         <v>179</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+      <c r="S108">
+        <v>1</v>
+      </c>
+      <c r="T108">
+        <v>1</v>
       </c>
       <c r="X108" t="s">
         <v>259</v>
@@ -5303,7 +5552,7 @@
       </c>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>256</v>
       </c>
@@ -5321,6 +5570,18 @@
       </c>
       <c r="G109">
         <v>175</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <v>1</v>
+      </c>
+      <c r="T109">
+        <v>1</v>
       </c>
       <c r="X109" t="s">
         <v>259</v>
@@ -5331,7 +5592,7 @@
       </c>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>260</v>
       </c>
@@ -5349,6 +5610,24 @@
       </c>
       <c r="I110" t="s">
         <v>280</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <v>1</v>
       </c>
       <c r="X110" t="s">
         <v>259</v>
@@ -5359,7 +5638,7 @@
       </c>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>261</v>
       </c>
@@ -5377,6 +5656,24 @@
       </c>
       <c r="I111" t="s">
         <v>281</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
+      <c r="S111">
+        <v>1</v>
+      </c>
+      <c r="T111">
+        <v>1</v>
       </c>
       <c r="X111" t="s">
         <v>259</v>
@@ -5387,7 +5684,7 @@
       </c>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>262</v>
       </c>
@@ -5402,6 +5699,9 @@
       </c>
       <c r="G112">
         <v>399</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
       </c>
       <c r="X112" t="s">
         <v>259</v>
@@ -5411,7 +5711,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>266</v>
       </c>
@@ -5429,6 +5729,21 @@
       </c>
       <c r="G113">
         <v>45</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>1</v>
+      </c>
+      <c r="S113">
+        <v>1</v>
+      </c>
+      <c r="T113">
+        <v>1</v>
       </c>
       <c r="X113" t="s">
         <v>259</v>
@@ -5438,7 +5753,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>265</v>
       </c>
@@ -5456,6 +5771,21 @@
       </c>
       <c r="G114">
         <v>19</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+      <c r="S114">
+        <v>1</v>
+      </c>
+      <c r="T114">
+        <v>1</v>
       </c>
       <c r="X114" t="s">
         <v>259</v>
@@ -5465,7 +5795,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>268</v>
       </c>
@@ -5477,6 +5807,21 @@
       </c>
       <c r="G115">
         <v>19.95</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+      <c r="S115">
+        <v>1</v>
+      </c>
+      <c r="T115">
+        <v>1</v>
       </c>
       <c r="X115" t="s">
         <v>259</v>
@@ -5486,7 +5831,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>270</v>
       </c>
@@ -5504,6 +5849,21 @@
       </c>
       <c r="G116">
         <v>69</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>1</v>
+      </c>
+      <c r="S116">
+        <v>1</v>
+      </c>
+      <c r="T116">
+        <v>1</v>
       </c>
       <c r="X116" t="s">
         <v>259</v>
@@ -5511,6 +5871,9 @@
       <c r="Y116" s="2">
         <f t="shared" si="3"/>
         <v>343</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/excel/producten.xlsx
+++ b/excel/producten.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="0" windowWidth="25380" windowHeight="13176" tabRatio="500"/>
+    <workbookView xWindow="11060" yWindow="420" windowWidth="29240" windowHeight="23600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="382">
   <si>
     <t>productnaam</t>
   </si>
@@ -330,9 +330,6 @@
     <t>Led Lenser</t>
   </si>
   <si>
-    <t>Palm tree en Flowers</t>
-  </si>
-  <si>
     <t>Zwemshort jongens</t>
   </si>
   <si>
@@ -951,93 +948,6 @@
     <t>VAUDE_SKOMER_3112C50002_5353.jpg</t>
   </si>
   <si>
-    <t>2+1_AYACUCHO_MASAI-MARA_-3112C50044_3232.jpg</t>
-  </si>
-  <si>
-    <t>2+1_AYACUCHO_ZAMBEZI_3114C50024_0450.jpg</t>
-  </si>
-  <si>
-    <t>2+1_AYACUCHO_ELENA_-3112C32001_4030.jpg</t>
-  </si>
-  <si>
-    <t>2+1_AYACUCHO_SIMONA_-3114C30012_3535.jpg</t>
-  </si>
-  <si>
-    <t>2+1_AYACUCHO_BETTY-POLO_3119C42002_7272.jpg</t>
-  </si>
-  <si>
-    <t>2+1_AYACUCHO_BEATTHEMOUNTAIN_3312C50064_5555.jpg</t>
-  </si>
-  <si>
-    <t>2+1_AYACUCHO_BENNY-POLO_3318C42011_5555.jpg</t>
-  </si>
-  <si>
-    <t>2+1_AYACUCHO_DOTS_3312C40035_4242.jpg</t>
-  </si>
-  <si>
-    <t>2+1_AYACUCHO_FISH_3312C40036_5353.jpg</t>
-  </si>
-  <si>
-    <t>2+1_AYACUCHO_HUMMINGBIRD_3312C30023_3232.jpg</t>
-  </si>
-  <si>
-    <t>2+1_AYACUCHO_MUD-RACER_3312C50066_7272.jpg</t>
-  </si>
-  <si>
-    <t>2+1_AYACUCHO_OWL_3312C50065_3232.jpg</t>
-  </si>
-  <si>
-    <t>2+1_AYACUCHO_RHINO_3312C50069_3131.jpg</t>
-  </si>
-  <si>
-    <t>2+1_AYACUCHO_TUMI_3312C50063_5555.jpg</t>
-  </si>
-  <si>
-    <t>2+1_COLUMBIA_MOUNTAIN-TECH_3312C30044_4444.jpg</t>
-  </si>
-  <si>
-    <t>2+1_COLUMBIA_ZERO-RULES_3312C40087_7272.jpg</t>
-  </si>
-  <si>
-    <t>2+1_SPRAYWAY_CITY_3312C50053_2020.jpg</t>
-  </si>
-  <si>
-    <t>2+1_SPRAYWAY_RIDGE_3312C40002_4040.jpg</t>
-  </si>
-  <si>
-    <t>2+1_THE-NORTH-FACE_COMPANY-CAR_3312C40018_7373.jpg</t>
-  </si>
-  <si>
-    <t>2+1_THE-NORTH-FACE_DOME-BIKER_3312C40005_4040.jpg</t>
-  </si>
-  <si>
-    <t>2+1_THE-NORTH-FACE_MOUNTAINEERING_3312C50037_5656.jpg</t>
-  </si>
-  <si>
-    <t>2+1_UAX_DEER-SHIRT_3312C40047_4141.jpg</t>
-  </si>
-  <si>
-    <t>2+1_UAX_BIKERACE_3312A90032_5757.jpg</t>
-  </si>
-  <si>
-    <t>2+1_UAX_ECOLOGICA_3312C50074_7575.jpg</t>
-  </si>
-  <si>
-    <t>2+1_UAX_FAST-BIKE_3318C52008_7171.jpg</t>
-  </si>
-  <si>
-    <t>2+1_UAX_RE-CYCLE_3312C50075_3131.jpg</t>
-  </si>
-  <si>
-    <t>2+1_UAX_SCUBAHUBA_3312C00023_4040.jpg</t>
-  </si>
-  <si>
-    <t>2+1_UAX_RECYCLE_3312C40043_7171.jpg</t>
-  </si>
-  <si>
-    <t>2+1_UAX_YOU-DECIDE_3312C50073_5555.jpg</t>
-  </si>
-  <si>
     <t>PATAGONIA_MARGOT_3136C32002_9003.jpg</t>
   </si>
   <si>
@@ -1129,6 +1039,132 @@
   </si>
   <si>
     <t>JACK-WOLFSKIN_SMOOZIP_1324c50006_4040_01_be.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_MASAI-MARA_-3112C50044_3232.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_ZAMBEZI_3114C50024_0450.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_ELENA_-3112C32001_4030.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_SIMONA_-3114C30012_3535.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_BETTY-POLO_3119C42002_7272.jpg</t>
+  </si>
+  <si>
+    <t>SPRAYWAY_CITY_3312C50053_2020.jpg</t>
+  </si>
+  <si>
+    <t>SPRAYWAY_RIDGE_3312C40002_4040.jpg</t>
+  </si>
+  <si>
+    <t>COLUMBIA_ZERO-RULES_3312C40087_7272.jpg</t>
+  </si>
+  <si>
+    <t>COLUMBIA_MOUNTAIN-TECH_3312C30044_4444.jpg</t>
+  </si>
+  <si>
+    <t>THE-NORTH-FACE_DOME-BIKER_3312C40005_4040.jpg</t>
+  </si>
+  <si>
+    <t>THE-NORTH-FACE_COMPANY-CAR_3312C40018_7373.jpg</t>
+  </si>
+  <si>
+    <t>THE-NORTH-FACE_MOUNTAINEERING_3312C50037_5656.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_TUMI_3312C50063_5555.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_BEATTHEMOUNTAIN_3312C50064_5555.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_RHINO_3312C50069_3131.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_HUMMINGBIRD_3312C30023_3232.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_FISH_3312C40036_5353.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_DOTS_3312C40035_4242.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_OWL_3312C50065_3232.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_MUD-RACER_3312C50066_7272.jpg</t>
+  </si>
+  <si>
+    <t>AYACUCHO_BENNY-POLO_3318C42011_5555.jpg</t>
+  </si>
+  <si>
+    <t>UAX_BIKERACE_3312A90032_5757.jpg</t>
+  </si>
+  <si>
+    <t>UAX_RECYCLE_3312C40043_7171.jpg</t>
+  </si>
+  <si>
+    <t>UAX_YOU-DECIDE_3312C50073_5555.jpg</t>
+  </si>
+  <si>
+    <t>UAX_DEER-SHIRT_3312C40047_4141.jpg</t>
+  </si>
+  <si>
+    <t>UAX_SCUBAHUBA_3312C00023_4040.jpg</t>
+  </si>
+  <si>
+    <t>UAX_ECOLOGICA_3312C50074_7575.jpg</t>
+  </si>
+  <si>
+    <t>UAX_RE-CYCLE_3312C50075_3131.jpg</t>
+  </si>
+  <si>
+    <t>UAX_FAST-BIKE_3318C52008_7171.jpg</t>
+  </si>
+  <si>
+    <t>4T7A0113.jpg</t>
+  </si>
+  <si>
+    <t>4T7A0164.jpg</t>
+  </si>
+  <si>
+    <t>4T7A0168.jpg</t>
+  </si>
+  <si>
+    <t>4T7A0170.jpg</t>
+  </si>
+  <si>
+    <t>4T7A0189.jpg</t>
+  </si>
+  <si>
+    <t>4T7A0187.jpg</t>
+  </si>
+  <si>
+    <t>4T7A0186.jpg</t>
+  </si>
+  <si>
+    <t>Palm tree</t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>4T7A0198.jpg</t>
+  </si>
+  <si>
+    <t>4T7A0200.jpg</t>
+  </si>
+  <si>
+    <t>4T7A0204.jpg</t>
+  </si>
+  <si>
+    <t>4T7A0172.jpg</t>
   </si>
 </sst>
 </file>
@@ -1195,8 +1231,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1207,10 +1245,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+  <cellStyles count="5">
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1544,36 +1584,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA54" sqref="AA54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.296875" customWidth="1"/>
-    <col min="2" max="2" width="28.296875" customWidth="1"/>
-    <col min="4" max="4" width="51.09765625" customWidth="1"/>
-    <col min="5" max="5" width="4.296875" customWidth="1"/>
-    <col min="8" max="8" width="4.296875" customWidth="1"/>
-    <col min="9" max="9" width="10.09765625" customWidth="1"/>
-    <col min="10" max="11" width="5.796875" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.1640625" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="11" width="5.83203125" customWidth="1"/>
     <col min="12" max="12" width="6" style="3" customWidth="1"/>
-    <col min="13" max="13" width="4.19921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.09765625" customWidth="1"/>
-    <col min="22" max="22" width="11.19921875" customWidth="1"/>
-    <col min="23" max="23" width="6.09765625" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" customWidth="1"/>
+    <col min="23" max="23" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1605,13 +1645,13 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -1644,16 +1684,16 @@
         <v>20</v>
       </c>
       <c r="X1" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y1" t="s">
         <v>273</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>274</v>
       </c>
-      <c r="Z1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -1664,7 +1704,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G2" s="2">
         <v>17.95</v>
@@ -1690,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1701,7 +1741,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G3">
         <v>39.950000000000003</v>
@@ -1722,12 +1762,12 @@
         <v>29</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" ref="Y3:Y34" si="0">Y2+3</f>
+        <f t="shared" ref="Y3:Y35" si="0">Y2+3</f>
         <v>4</v>
       </c>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1738,7 +1778,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F4">
         <v>59.95</v>
@@ -1770,7 +1810,7 @@
       </c>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1781,13 +1821,13 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G5">
         <v>16.95</v>
       </c>
       <c r="I5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1810,7 +1850,7 @@
       </c>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1819,6 +1859,9 @@
       </c>
       <c r="C6" t="s">
         <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>369</v>
       </c>
       <c r="F6">
         <v>24.95</v>
@@ -1844,7 +1887,7 @@
       </c>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1855,7 +1898,7 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G7">
         <v>29.95</v>
@@ -1881,7 +1924,7 @@
       </c>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1892,7 +1935,7 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G8">
         <v>44.95</v>
@@ -1918,12 +1961,12 @@
       </c>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
         <v>156</v>
-      </c>
-      <c r="B9" t="s">
-        <v>157</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -1961,7 +2004,7 @@
       </c>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1972,7 +2015,7 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G10">
         <v>19.95</v>
@@ -2004,7 +2047,7 @@
       </c>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -2015,7 +2058,7 @@
         <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
@@ -2040,7 +2083,7 @@
       </c>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2051,7 +2094,7 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F12">
         <v>64.95</v>
@@ -2077,7 +2120,7 @@
       </c>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -2088,7 +2131,7 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F13">
         <v>164.95</v>
@@ -2120,7 +2163,7 @@
       </c>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -2131,7 +2174,7 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F14">
         <v>44.95</v>
@@ -2163,7 +2206,7 @@
       </c>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -2174,7 +2217,7 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F15">
         <v>135</v>
@@ -2200,7 +2243,7 @@
       </c>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -2211,7 +2254,7 @@
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F16">
         <v>165</v>
@@ -2237,7 +2280,7 @@
       </c>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2248,7 +2291,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F17">
         <v>185</v>
@@ -2274,7 +2317,7 @@
       </c>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -2311,7 +2354,7 @@
       </c>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2322,7 +2365,7 @@
         <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F19">
         <v>24.95</v>
@@ -2354,7 +2397,7 @@
       </c>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -2365,7 +2408,7 @@
         <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F20">
         <v>79.95</v>
@@ -2394,7 +2437,7 @@
       </c>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -2403,6 +2446,9 @@
       </c>
       <c r="C21" t="s">
         <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>381</v>
       </c>
       <c r="F21">
         <v>79</v>
@@ -2431,7 +2477,7 @@
       </c>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -2439,7 +2485,7 @@
         <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F22">
         <v>39.950000000000003</v>
@@ -2468,7 +2514,7 @@
       </c>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -2476,7 +2522,7 @@
         <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E23" t="s">
         <v>91</v>
@@ -2502,7 +2548,7 @@
       </c>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -2513,7 +2559,7 @@
         <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F24">
         <v>29.95</v>
@@ -2554,7 +2600,7 @@
       </c>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -2565,7 +2611,7 @@
         <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G25">
         <v>29.95</v>
@@ -2594,7 +2640,7 @@
       </c>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -2605,7 +2651,7 @@
         <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G26">
         <v>49.95</v>
@@ -2631,7 +2677,7 @@
       </c>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -2648,7 +2694,7 @@
         <v>94.95</v>
       </c>
       <c r="I27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -2671,7 +2717,7 @@
       </c>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -2682,7 +2728,7 @@
         <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G28">
         <v>9.9499999999999993</v>
@@ -2714,7 +2760,7 @@
       </c>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -2725,7 +2771,7 @@
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F29">
         <v>9.9499999999999993</v>
@@ -2763,7 +2809,7 @@
       </c>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
         <v>98</v>
       </c>
@@ -2774,7 +2820,7 @@
         <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F30" s="2">
         <v>74.95</v>
@@ -2810,7 +2856,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -2821,7 +2867,7 @@
         <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F31">
         <v>39.950000000000003</v>
@@ -2854,15 +2900,18 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
+        <v>377</v>
+      </c>
+      <c r="B32" t="s">
         <v>103</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>104</v>
       </c>
-      <c r="C32" t="s">
-        <v>105</v>
+      <c r="D32" t="s">
+        <v>379</v>
       </c>
       <c r="F32">
         <v>34.950000000000003</v>
@@ -2880,30 +2929,33 @@
         <v>1</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y32" s="2">
-        <f t="shared" si="0"/>
+        <f>Y31+3</f>
         <v>91</v>
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>376</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>378</v>
       </c>
       <c r="F33">
-        <v>24.95</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="G33">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L33" s="3">
         <v>1</v>
@@ -2915,27 +2967,30 @@
         <v>1</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Y33:Y96" si="1">Y32+3</f>
         <v>94</v>
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>380</v>
       </c>
       <c r="F34">
-        <v>27.95</v>
+        <v>24.95</v>
       </c>
       <c r="G34">
         <v>19</v>
@@ -2950,24 +3005,27 @@
         <v>1</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
+        <v>374</v>
       </c>
       <c r="F35">
         <v>27.95</v>
@@ -2985,27 +3043,36 @@
         <v>1</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y35" s="2">
-        <f t="shared" ref="Y35:Y66" si="1">Y34+3</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>375</v>
+      </c>
+      <c r="F36">
+        <v>27.95</v>
       </c>
       <c r="G36">
-        <v>10.95</v>
+        <v>19</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -3014,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="1"/>
@@ -3023,21 +3090,21 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>373</v>
       </c>
       <c r="G37">
-        <v>29.95</v>
-      </c>
-      <c r="I37" t="s">
-        <v>121</v>
+        <v>10.95</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -3046,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" si="1"/>
@@ -3055,21 +3122,21 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="G38">
-        <v>15</v>
+        <v>29.95</v>
+      </c>
+      <c r="I38" t="s">
+        <v>120</v>
       </c>
       <c r="P38">
         <v>1</v>
@@ -3078,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y38" s="2">
         <f t="shared" si="1"/>
@@ -3087,21 +3154,21 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="F39">
+        <v>21</v>
       </c>
       <c r="G39">
-        <v>7.5</v>
-      </c>
-      <c r="I39" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="P39">
         <v>1</v>
@@ -3110,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="1"/>
@@ -3119,20 +3186,30 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="4"/>
-      <c r="P40" s="1">
-        <v>1</v>
-      </c>
-      <c r="V40" s="1">
+    <row r="40" spans="1:27">
+      <c r="A40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40">
+        <v>7.5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>120</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="V40">
         <v>1</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y40" s="2">
         <f t="shared" si="1"/>
@@ -3141,33 +3218,20 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" t="s">
-        <v>305</v>
-      </c>
-      <c r="F41">
-        <v>34.99</v>
-      </c>
-      <c r="G41">
-        <v>25</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
-      <c r="U41">
+    <row r="41" spans="1:27" s="1" customFormat="1">
+      <c r="A41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="4"/>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+      <c r="V41" s="1">
         <v>1</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="1"/>
@@ -3176,21 +3240,24 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="D42" t="s">
+        <v>304</v>
       </c>
       <c r="F42">
-        <v>74.900000000000006</v>
+        <v>34.99</v>
       </c>
       <c r="G42">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="L42" s="3">
         <v>1</v>
@@ -3199,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" si="1"/>
@@ -3208,151 +3275,155 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="G43">
+        <v>49</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y43" s="2">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" t="s">
         <v>136</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C44" t="s">
         <v>137</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D44" t="s">
+        <v>305</v>
+      </c>
+      <c r="F44">
+        <v>19.95</v>
+      </c>
+      <c r="G44">
+        <v>14</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y44" s="2">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="Z44" s="2"/>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" t="s">
         <v>138</v>
       </c>
-      <c r="D43" t="s">
-        <v>306</v>
-      </c>
-      <c r="F43">
-        <v>19.95</v>
-      </c>
-      <c r="G43">
-        <v>14</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="U43">
-        <v>1</v>
-      </c>
-      <c r="X43" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y43" s="2">
-        <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-      <c r="Z43" s="2"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B45" t="s">
         <v>139</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="s">
+        <v>372</v>
+      </c>
+      <c r="F45">
+        <v>69.95</v>
+      </c>
+      <c r="G45">
+        <v>49</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y45" s="2">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="Z45" s="2"/>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" t="s">
         <v>140</v>
       </c>
-      <c r="C44" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44">
-        <v>69.95</v>
-      </c>
-      <c r="G44">
-        <v>49</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="X44" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y44" s="2">
-        <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-      <c r="Z44" s="2"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B46" t="s">
         <v>141</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" t="s">
+        <v>371</v>
+      </c>
+      <c r="G46">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y46" s="2">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="Z46" s="2"/>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" t="s">
         <v>142</v>
       </c>
-      <c r="C45" t="s">
-        <v>109</v>
-      </c>
-      <c r="G45">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="I45" t="s">
-        <v>24</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="X45" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y45" s="2">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="Z45" s="2"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B47" t="s">
         <v>143</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C47" t="s">
         <v>144</v>
       </c>
-      <c r="C46" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46">
-        <v>49.95</v>
-      </c>
-      <c r="G46">
-        <v>35</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-      <c r="X46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y46" s="2">
-        <f t="shared" si="1"/>
-        <v>133</v>
-      </c>
-      <c r="Z46" s="2"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" t="s">
-        <v>145</v>
-      </c>
       <c r="D47" t="s">
-        <v>307</v>
+        <v>370</v>
       </c>
       <c r="F47">
         <v>49.95</v>
@@ -3363,14 +3434,14 @@
       <c r="L47" s="3">
         <v>1</v>
       </c>
-      <c r="O47">
+      <c r="N47">
         <v>1</v>
       </c>
       <c r="U47">
         <v>1</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y47" s="2">
         <f t="shared" si="1"/>
@@ -3378,28 +3449,46 @@
       </c>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="4"/>
-      <c r="U48" s="1">
+    <row r="48" spans="1:27">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" t="s">
+        <v>306</v>
+      </c>
+      <c r="F48">
+        <v>49.95</v>
+      </c>
+      <c r="G48">
+        <v>35</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="U48">
         <v>1</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y48" s="2">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
       <c r="Z48" s="2"/>
-      <c r="AA48"/>
-    </row>
-    <row r="49" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:27" s="1" customFormat="1">
       <c r="A49" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="4"/>
@@ -3407,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="X49" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y49" s="2">
         <f t="shared" si="1"/>
@@ -3416,89 +3505,74 @@
       <c r="Z49" s="2"/>
       <c r="AA49"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:27" s="1" customFormat="1">
+      <c r="A50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="4"/>
+      <c r="U50" s="1">
+        <v>1</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y50" s="2">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="Z50" s="2"/>
+      <c r="AA50"/>
+    </row>
+    <row r="51" spans="1:27">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
         <v>150</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C51" t="s">
         <v>151</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D51" t="s">
+        <v>308</v>
+      </c>
+      <c r="G51">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="M51" s="4">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="X51" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D50" t="s">
-        <v>309</v>
-      </c>
-      <c r="G50">
-        <v>36.950000000000003</v>
-      </c>
-      <c r="M50" s="4">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="R50">
-        <v>1</v>
-      </c>
-      <c r="X50" s="2" t="s">
+      <c r="Y51" s="2">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="Z51" s="2"/>
+    </row>
+    <row r="52" spans="1:27">
+      <c r="A52" t="s">
         <v>153</v>
       </c>
-      <c r="Y50" s="2">
-        <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
-      <c r="Z50" s="2"/>
-    </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" t="s">
-        <v>310</v>
-      </c>
-      <c r="G51">
-        <v>34.950000000000003</v>
-      </c>
-      <c r="M51" s="4">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="R51">
-        <v>1</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y51" s="2">
-        <f t="shared" si="1"/>
-        <v>148</v>
-      </c>
-      <c r="Z51" s="2"/>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>155</v>
-      </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
         <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="G52">
-        <v>29.95</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="M52" s="4">
         <v>1</v>
@@ -3510,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y52" s="2">
         <f t="shared" si="1"/>
@@ -3518,21 +3592,21 @@
       </c>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
         <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="G53">
-        <v>24.95</v>
+        <v>29.95</v>
       </c>
       <c r="M53" s="4">
         <v>1</v>
@@ -3544,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y53" s="2">
         <f t="shared" si="1"/>
@@ -3552,21 +3626,21 @@
       </c>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
         <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="G54">
-        <v>29.95</v>
+        <v>24.95</v>
       </c>
       <c r="M54" s="4">
         <v>1</v>
@@ -3578,7 +3652,7 @@
         <v>1</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y54" s="2">
         <f t="shared" si="1"/>
@@ -3586,18 +3660,18 @@
       </c>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
         <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="G55">
         <v>29.95</v>
@@ -3612,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y55" s="2">
         <f t="shared" si="1"/>
@@ -3620,52 +3694,52 @@
       </c>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>344</v>
+      </c>
+      <c r="G56">
+        <v>29.95</v>
+      </c>
+      <c r="M56" s="4">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y56" s="2">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+      <c r="Z56" s="2"/>
+    </row>
+    <row r="57" spans="1:27">
+      <c r="A57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
         <v>162</v>
       </c>
-      <c r="B56" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" t="s">
-        <v>163</v>
-      </c>
-      <c r="D56" t="s">
-        <v>326</v>
-      </c>
-      <c r="G56">
-        <v>44.95</v>
-      </c>
-      <c r="M56" s="4">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="R56">
-        <v>1</v>
-      </c>
-      <c r="X56" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y56" s="2">
-        <f t="shared" si="1"/>
-        <v>163</v>
-      </c>
-      <c r="Z56" s="2"/>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>164</v>
-      </c>
-      <c r="B57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" t="s">
-        <v>163</v>
-      </c>
       <c r="D57" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="G57">
         <v>44.95</v>
@@ -3680,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y57" s="2">
         <f t="shared" si="1"/>
@@ -3688,120 +3762,120 @@
       </c>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" t="s">
+        <v>346</v>
+      </c>
+      <c r="G58">
+        <v>44.95</v>
+      </c>
+      <c r="M58" s="4">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y58" s="2">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="Z58" s="2"/>
+    </row>
+    <row r="59" spans="1:27">
+      <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" t="s">
         <v>165</v>
       </c>
-      <c r="B58" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D59" t="s">
+        <v>347</v>
+      </c>
+      <c r="G59">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="M59" s="4">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y59" s="2">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="Z59" s="2"/>
+    </row>
+    <row r="60" spans="1:27">
+      <c r="A60" t="s">
         <v>166</v>
       </c>
-      <c r="D58" t="s">
-        <v>325</v>
-      </c>
-      <c r="G58">
-        <v>34.950000000000003</v>
-      </c>
-      <c r="M58" s="4">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="R58">
-        <v>1</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y58" s="2">
-        <f t="shared" si="1"/>
-        <v>169</v>
-      </c>
-      <c r="Z58" s="2"/>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" t="s">
+        <v>348</v>
+      </c>
+      <c r="G60">
+        <v>30</v>
+      </c>
+      <c r="M60" s="4">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y60" s="2">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="Z60" s="2"/>
+    </row>
+    <row r="61" spans="1:27">
+      <c r="A61" t="s">
         <v>167</v>
       </c>
-      <c r="B59" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" t="s">
-        <v>166</v>
-      </c>
-      <c r="D59" t="s">
-        <v>324</v>
-      </c>
-      <c r="G59">
-        <v>30</v>
-      </c>
-      <c r="M59" s="4">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="R59">
-        <v>1</v>
-      </c>
-      <c r="X59" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y59" s="2">
-        <f t="shared" si="1"/>
-        <v>172</v>
-      </c>
-      <c r="Z59" s="2"/>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>168</v>
-      </c>
-      <c r="B60" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" t="s">
-        <v>329</v>
-      </c>
-      <c r="G60">
-        <v>29.95</v>
-      </c>
-      <c r="M60" s="4">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="R60">
-        <v>1</v>
-      </c>
-      <c r="X60" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y60" s="2">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="Z60" s="2"/>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>169</v>
-      </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
         <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="G61">
         <v>29.95</v>
@@ -3816,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y61" s="2">
         <f t="shared" si="1"/>
@@ -3824,18 +3898,18 @@
       </c>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C62" t="s">
         <v>54</v>
       </c>
       <c r="D62" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="G62">
         <v>29.95</v>
@@ -3850,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y62" s="2">
         <f t="shared" si="1"/>
@@ -3858,21 +3932,21 @@
       </c>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="G63">
-        <v>34.950000000000003</v>
+        <v>29.95</v>
       </c>
       <c r="M63" s="4">
         <v>1</v>
@@ -3884,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y63" s="2">
         <f t="shared" si="1"/>
@@ -3892,18 +3966,18 @@
       </c>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
         <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="G64">
         <v>34.950000000000003</v>
@@ -3918,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y64" s="2">
         <f t="shared" si="1"/>
@@ -3926,18 +4000,18 @@
       </c>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" t="s">
         <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="G65">
         <v>34.950000000000003</v>
@@ -3952,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y65" s="2">
         <f t="shared" si="1"/>
@@ -3960,21 +4034,21 @@
       </c>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
         <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="G66">
-        <v>29.95</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="M66" s="4">
         <v>1</v>
@@ -3986,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y66" s="2">
         <f t="shared" si="1"/>
@@ -3994,18 +4068,18 @@
       </c>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
         <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="G67">
         <v>29.95</v>
@@ -4020,26 +4094,26 @@
         <v>1</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y67" s="2">
-        <f t="shared" ref="Y67:Y98" si="2">Y66+3</f>
+        <f t="shared" si="1"/>
         <v>196</v>
       </c>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
         <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="G68">
         <v>29.95</v>
@@ -4054,26 +4128,26 @@
         <v>1</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>199</v>
       </c>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="G69">
         <v>29.95</v>
@@ -4088,26 +4162,26 @@
         <v>1</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>202</v>
       </c>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
         <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="G70">
         <v>29.95</v>
@@ -4122,26 +4196,26 @@
         <v>1</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>205</v>
       </c>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="G71">
         <v>29.95</v>
@@ -4156,26 +4230,26 @@
         <v>1</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>208</v>
       </c>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="G72">
         <v>29.95</v>
@@ -4186,33 +4260,30 @@
       <c r="O72">
         <v>1</v>
       </c>
-      <c r="Q72">
-        <v>1</v>
-      </c>
       <c r="R72">
         <v>1</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>211</v>
       </c>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D73" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="G73">
         <v>29.95</v>
@@ -4230,26 +4301,26 @@
         <v>1</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>214</v>
       </c>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D74" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="G74">
         <v>29.95</v>
@@ -4267,26 +4338,26 @@
         <v>1</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>217</v>
       </c>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26">
       <c r="A75" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" t="s">
         <v>184</v>
       </c>
-      <c r="B75" t="s">
-        <v>137</v>
-      </c>
-      <c r="C75" t="s">
-        <v>185</v>
-      </c>
       <c r="D75" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="G75">
         <v>29.95</v>
@@ -4304,26 +4375,26 @@
         <v>1</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="G76">
         <v>29.95</v>
@@ -4341,26 +4412,26 @@
         <v>1</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>223</v>
       </c>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D77" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="G77">
         <v>29.95</v>
@@ -4378,26 +4449,26 @@
         <v>1</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>226</v>
       </c>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D78" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="G78">
         <v>29.95</v>
@@ -4415,26 +4486,26 @@
         <v>1</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>229</v>
       </c>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26">
       <c r="A79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D79" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="G79">
         <v>29.95</v>
@@ -4452,72 +4523,69 @@
         <v>1</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>232</v>
       </c>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26">
       <c r="A80" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="C80" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D80" t="s">
-        <v>339</v>
-      </c>
-      <c r="F80">
-        <v>54.95</v>
+        <v>368</v>
       </c>
       <c r="G80">
-        <v>39</v>
-      </c>
-      <c r="L80" s="3">
-        <v>1</v>
-      </c>
-      <c r="N80">
+        <v>29.95</v>
+      </c>
+      <c r="M80" s="4">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
         <v>1</v>
       </c>
       <c r="R80">
         <v>1</v>
       </c>
-      <c r="T80">
-        <v>1</v>
-      </c>
       <c r="X80" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y80" s="2">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="Z80" s="2"/>
+    </row>
+    <row r="81" spans="1:27">
+      <c r="A81" t="s">
         <v>190</v>
-      </c>
-      <c r="Y80" s="2">
-        <f t="shared" si="2"/>
-        <v>235</v>
-      </c>
-      <c r="Z80" s="2"/>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>193</v>
       </c>
       <c r="B81" t="s">
         <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D81" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="F81">
-        <v>65.95</v>
+        <v>54.95</v>
       </c>
       <c r="G81">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L81" s="3">
         <v>1</v>
@@ -4532,32 +4600,32 @@
         <v>1</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>238</v>
       </c>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27">
       <c r="A82" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B82" t="s">
         <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D82" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="F82">
-        <v>59.95</v>
+        <v>65.95</v>
       </c>
       <c r="G82">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L82" s="3">
         <v>1</v>
@@ -4572,83 +4640,96 @@
         <v>1</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>241</v>
       </c>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27">
       <c r="A83" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B83" t="s">
         <v>69</v>
       </c>
       <c r="C83" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83" t="s">
+        <v>311</v>
+      </c>
+      <c r="F83">
+        <v>59.95</v>
+      </c>
+      <c r="G83">
+        <v>39</v>
+      </c>
+      <c r="L83" s="3">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="X83" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y83" s="2">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="Z83" s="2"/>
+    </row>
+    <row r="84" spans="1:27">
+      <c r="A84" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" t="s">
         <v>84</v>
       </c>
-      <c r="D83" t="s">
-        <v>342</v>
-      </c>
-      <c r="G83">
+      <c r="D84" t="s">
+        <v>312</v>
+      </c>
+      <c r="G84">
         <v>49.95</v>
       </c>
-      <c r="L83" s="3">
-        <v>1</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="R83">
-        <v>1</v>
-      </c>
-      <c r="T83">
-        <v>1</v>
-      </c>
-      <c r="X83" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y83" s="2">
-        <f t="shared" si="2"/>
-        <v>244</v>
-      </c>
-      <c r="Z83" s="2"/>
-    </row>
-    <row r="84" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N84" s="1">
-        <v>1</v>
-      </c>
-      <c r="P84"/>
-      <c r="R84" s="1">
-        <v>1</v>
-      </c>
-      <c r="T84" s="1">
-        <v>1</v>
-      </c>
-      <c r="U84" s="1">
+      <c r="L84" s="3">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="T84">
         <v>1</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>247</v>
       </c>
       <c r="Z84" s="2"/>
-      <c r="AA84"/>
-    </row>
-    <row r="85" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:27" s="1" customFormat="1">
       <c r="A85" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="O85" s="1">
+        <v>197</v>
+      </c>
+      <c r="N85" s="1">
         <v>1</v>
       </c>
       <c r="P85"/>
@@ -4662,110 +4743,100 @@
         <v>1</v>
       </c>
       <c r="X85" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="Z85" s="2"/>
       <c r="AA85"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="86" spans="1:27" s="1" customFormat="1">
+      <c r="A86" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O86" s="1">
+        <v>1</v>
+      </c>
+      <c r="P86"/>
+      <c r="R86" s="1">
+        <v>1</v>
+      </c>
+      <c r="T86" s="1">
+        <v>1</v>
+      </c>
+      <c r="U86" s="1">
+        <v>1</v>
+      </c>
+      <c r="X86" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y86" s="2">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+      <c r="Z86" s="2"/>
+      <c r="AA86"/>
+    </row>
+    <row r="87" spans="1:27">
+      <c r="A87" t="s">
+        <v>199</v>
+      </c>
+      <c r="B87" t="s">
         <v>200</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C87" t="s">
         <v>201</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D87" t="s">
+        <v>313</v>
+      </c>
+      <c r="F87">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="G87">
+        <v>25</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>1</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
+      </c>
+      <c r="X87" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y87" s="2">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="Z87" s="2"/>
+    </row>
+    <row r="88" spans="1:27">
+      <c r="A88" t="s">
         <v>202</v>
       </c>
-      <c r="D86" t="s">
-        <v>343</v>
-      </c>
-      <c r="F86">
-        <v>34.950000000000003</v>
-      </c>
-      <c r="G86">
-        <v>25</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>1</v>
-      </c>
-      <c r="R86">
-        <v>1</v>
-      </c>
-      <c r="T86">
-        <v>1</v>
-      </c>
-      <c r="U86">
-        <v>1</v>
-      </c>
-      <c r="X86" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y86" s="2">
-        <f t="shared" si="2"/>
-        <v>253</v>
-      </c>
-      <c r="Z86" s="2"/>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>203</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>32</v>
       </c>
-      <c r="C87" t="s">
-        <v>194</v>
-      </c>
-      <c r="D87" t="s">
-        <v>344</v>
-      </c>
-      <c r="F87">
-        <v>55</v>
-      </c>
-      <c r="G87">
-        <v>39</v>
-      </c>
-      <c r="L87" s="3">
-        <v>1</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="R87">
-        <v>1</v>
-      </c>
-      <c r="X87" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y87" s="2">
-        <f t="shared" si="2"/>
-        <v>256</v>
-      </c>
-      <c r="Z87" s="2"/>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>203</v>
-      </c>
-      <c r="B88" t="s">
-        <v>26</v>
-      </c>
       <c r="C88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D88" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="F88">
         <v>55</v>
@@ -4776,73 +4847,73 @@
       <c r="L88" s="3">
         <v>1</v>
       </c>
-      <c r="O88">
+      <c r="N88">
         <v>1</v>
       </c>
       <c r="R88">
         <v>1</v>
       </c>
       <c r="X88" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y88" s="2">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+      <c r="Z88" s="2"/>
+    </row>
+    <row r="89" spans="1:27">
+      <c r="A89" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" t="s">
+        <v>315</v>
+      </c>
+      <c r="F89">
+        <v>55</v>
+      </c>
+      <c r="G89">
+        <v>39</v>
+      </c>
+      <c r="L89" s="3">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="X89" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y89" s="2">
+        <f t="shared" si="1"/>
+        <v>262</v>
+      </c>
+      <c r="Z89" s="2"/>
+    </row>
+    <row r="90" spans="1:27">
+      <c r="A90" t="s">
         <v>204</v>
       </c>
-      <c r="Y88" s="2">
-        <f t="shared" si="2"/>
-        <v>259</v>
-      </c>
-      <c r="Z88" s="2"/>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="B90" t="s">
         <v>205</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C90" t="s">
         <v>206</v>
       </c>
-      <c r="C89" t="s">
-        <v>207</v>
-      </c>
-      <c r="D89" t="s">
-        <v>346</v>
-      </c>
-      <c r="F89">
+      <c r="D90" t="s">
+        <v>316</v>
+      </c>
+      <c r="F90">
         <v>109.95</v>
-      </c>
-      <c r="G89">
-        <v>79</v>
-      </c>
-      <c r="L89" s="3">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="R89">
-        <v>1</v>
-      </c>
-      <c r="X89" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y89" s="2">
-        <f t="shared" si="2"/>
-        <v>262</v>
-      </c>
-      <c r="Z89" s="2"/>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>208</v>
-      </c>
-      <c r="B90" t="s">
-        <v>206</v>
-      </c>
-      <c r="C90" t="s">
-        <v>207</v>
-      </c>
-      <c r="D90" t="s">
-        <v>347</v>
-      </c>
-      <c r="F90">
-        <v>119.95</v>
       </c>
       <c r="G90">
         <v>79</v>
@@ -4857,327 +4928,321 @@
         <v>1</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>265</v>
       </c>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27">
       <c r="A91" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="C91" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D91" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="F91">
-        <v>124.95</v>
+        <v>119.95</v>
       </c>
       <c r="G91">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="L91" s="3">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>268</v>
       </c>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27">
       <c r="A92" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B92" t="s">
         <v>83</v>
       </c>
       <c r="C92" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" t="s">
+        <v>318</v>
+      </c>
+      <c r="F92">
+        <v>124.95</v>
+      </c>
+      <c r="G92">
+        <v>85</v>
+      </c>
+      <c r="X92" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y92" s="2">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+      <c r="Z92" s="2"/>
+    </row>
+    <row r="93" spans="1:27">
+      <c r="A93" t="s">
         <v>210</v>
       </c>
-      <c r="F92">
+      <c r="B93" t="s">
+        <v>83</v>
+      </c>
+      <c r="C93" t="s">
+        <v>209</v>
+      </c>
+      <c r="F93">
         <v>129.94999999999999</v>
       </c>
-      <c r="G92">
+      <c r="G93">
         <v>89</v>
       </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>1</v>
-      </c>
-      <c r="R92">
-        <v>1</v>
-      </c>
-      <c r="S92">
-        <v>1</v>
-      </c>
-      <c r="T92">
-        <v>1</v>
-      </c>
-      <c r="X92" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y92" s="2">
-        <f t="shared" si="2"/>
-        <v>271</v>
-      </c>
-      <c r="Z92" s="2"/>
-    </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
+      </c>
+      <c r="X93" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y93" s="2">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="Z93" s="2"/>
+    </row>
+    <row r="94" spans="1:27">
+      <c r="A94" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" t="s">
         <v>212</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C94" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" t="s">
+        <v>319</v>
+      </c>
+      <c r="F94">
+        <v>99.95</v>
+      </c>
+      <c r="G94">
+        <v>69</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94">
+        <v>1</v>
+      </c>
+      <c r="T94">
+        <v>1</v>
+      </c>
+      <c r="X94" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y94" s="2">
+        <f t="shared" si="1"/>
+        <v>277</v>
+      </c>
+      <c r="Z94" s="2"/>
+    </row>
+    <row r="95" spans="1:27">
+      <c r="A95" t="s">
         <v>213</v>
       </c>
-      <c r="C93" t="s">
-        <v>87</v>
-      </c>
-      <c r="D93" t="s">
-        <v>349</v>
-      </c>
-      <c r="F93">
-        <v>99.95</v>
-      </c>
-      <c r="G93">
-        <v>69</v>
-      </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="O93">
-        <v>1</v>
-      </c>
-      <c r="R93">
-        <v>1</v>
-      </c>
-      <c r="S93">
-        <v>1</v>
-      </c>
-      <c r="T93">
-        <v>1</v>
-      </c>
-      <c r="X93" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y93" s="2">
-        <f t="shared" si="2"/>
-        <v>274</v>
-      </c>
-      <c r="Z93" s="2"/>
-    </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="B95" t="s">
         <v>214</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C95" t="s">
         <v>215</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D95" t="s">
+        <v>320</v>
+      </c>
+      <c r="F95">
+        <v>6.9</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+      <c r="X95" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y95" s="2">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="Z95" s="2"/>
+    </row>
+    <row r="96" spans="1:27">
+      <c r="A96" t="s">
         <v>216</v>
       </c>
-      <c r="D94" t="s">
-        <v>350</v>
-      </c>
-      <c r="F94">
-        <v>6.9</v>
-      </c>
-      <c r="G94">
-        <v>5</v>
-      </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-      <c r="O94">
-        <v>1</v>
-      </c>
-      <c r="R94">
-        <v>1</v>
-      </c>
-      <c r="X94" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y94" s="2">
-        <f t="shared" si="2"/>
-        <v>277</v>
-      </c>
-      <c r="Z94" s="2"/>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="B96" t="s">
         <v>217</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C96" t="s">
         <v>218</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D96" t="s">
+        <v>321</v>
+      </c>
+      <c r="F96">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="G96">
+        <v>25</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
+      <c r="X96" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y96" s="2">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="Z96" s="2"/>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97" t="s">
         <v>219</v>
       </c>
-      <c r="D95" t="s">
-        <v>351</v>
-      </c>
-      <c r="F95">
-        <v>34.950000000000003</v>
-      </c>
-      <c r="G95">
-        <v>25</v>
-      </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-      <c r="O95">
-        <v>1</v>
-      </c>
-      <c r="R95">
-        <v>1</v>
-      </c>
-      <c r="S95">
-        <v>1</v>
-      </c>
-      <c r="T95">
-        <v>1</v>
-      </c>
-      <c r="X95" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y95" s="2">
-        <f t="shared" si="2"/>
-        <v>280</v>
-      </c>
-      <c r="Z95" s="2"/>
-    </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="B97" t="s">
         <v>220</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C97" t="s">
         <v>221</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D97" t="s">
+        <v>322</v>
+      </c>
+      <c r="F97">
+        <v>173</v>
+      </c>
+      <c r="G97">
+        <v>119</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="X97" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y97" s="2">
+        <f t="shared" ref="Y97:Y117" si="2">Y96+3</f>
+        <v>286</v>
+      </c>
+      <c r="Z97" s="2"/>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98" t="s">
         <v>222</v>
       </c>
-      <c r="D96" t="s">
-        <v>352</v>
-      </c>
-      <c r="F96">
-        <v>173</v>
-      </c>
-      <c r="G96">
-        <v>119</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96">
-        <v>1</v>
-      </c>
-      <c r="R96">
-        <v>1</v>
-      </c>
-      <c r="S96">
-        <v>1</v>
-      </c>
-      <c r="X96" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y96" s="2">
-        <f t="shared" si="2"/>
-        <v>283</v>
-      </c>
-      <c r="Z96" s="2"/>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="B98" t="s">
         <v>223</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C98" t="s">
         <v>224</v>
       </c>
-      <c r="C97" t="s">
-        <v>225</v>
-      </c>
-      <c r="D97" t="s">
-        <v>353</v>
-      </c>
-      <c r="G97">
+      <c r="D98" t="s">
+        <v>323</v>
+      </c>
+      <c r="G98">
         <v>199</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I98" t="s">
         <v>24</v>
       </c>
-      <c r="N97">
-        <v>1</v>
-      </c>
-      <c r="O97">
-        <v>1</v>
-      </c>
-      <c r="P97">
-        <v>1</v>
-      </c>
-      <c r="R97">
-        <v>1</v>
-      </c>
-      <c r="S97">
-        <v>1</v>
-      </c>
-      <c r="T97">
-        <v>1</v>
-      </c>
-      <c r="X97" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y97" s="2">
-        <f t="shared" si="2"/>
-        <v>286</v>
-      </c>
-      <c r="Z97" s="2"/>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>226</v>
-      </c>
-      <c r="B98" t="s">
-        <v>227</v>
-      </c>
-      <c r="C98" t="s">
-        <v>228</v>
-      </c>
-      <c r="D98" t="s">
-        <v>354</v>
-      </c>
-      <c r="F98">
-        <v>399</v>
-      </c>
-      <c r="G98">
-        <v>249</v>
-      </c>
-      <c r="I98" t="s">
-        <v>229</v>
-      </c>
       <c r="N98">
         <v>1</v>
       </c>
       <c r="O98">
         <v>1</v>
       </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
       <c r="R98">
         <v>1</v>
       </c>
       <c r="S98">
         <v>1</v>
       </c>
+      <c r="T98">
+        <v>1</v>
+      </c>
       <c r="X98" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y98" s="2">
         <f t="shared" si="2"/>
@@ -5185,462 +5250,459 @@
       </c>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26">
       <c r="A99" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" t="s">
+        <v>226</v>
+      </c>
+      <c r="C99" t="s">
+        <v>227</v>
+      </c>
+      <c r="D99" t="s">
+        <v>324</v>
+      </c>
+      <c r="F99">
+        <v>399</v>
+      </c>
+      <c r="G99">
+        <v>249</v>
+      </c>
+      <c r="I99" t="s">
+        <v>228</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="X99" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y99" s="2">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="Z99" s="2"/>
+    </row>
+    <row r="100" spans="1:26">
+      <c r="A100" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" t="s">
         <v>230</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C100" t="s">
         <v>231</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D100" t="s">
+        <v>325</v>
+      </c>
+      <c r="F100">
+        <v>27.95</v>
+      </c>
+      <c r="G100">
+        <v>19</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
+      </c>
+      <c r="W100">
+        <v>1</v>
+      </c>
+      <c r="X100" t="s">
         <v>232</v>
       </c>
-      <c r="D99" t="s">
-        <v>355</v>
-      </c>
-      <c r="F99">
-        <v>27.95</v>
-      </c>
-      <c r="G99">
-        <v>19</v>
-      </c>
-      <c r="N99">
-        <v>1</v>
-      </c>
-      <c r="O99">
-        <v>1</v>
-      </c>
-      <c r="P99">
-        <v>1</v>
-      </c>
-      <c r="S99">
-        <v>1</v>
-      </c>
-      <c r="W99">
-        <v>1</v>
-      </c>
-      <c r="X99" t="s">
+      <c r="Y100" s="2">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="Z100" s="2"/>
+    </row>
+    <row r="101" spans="1:26">
+      <c r="A101" t="s">
         <v>233</v>
       </c>
-      <c r="Y99" s="2">
-        <f t="shared" ref="Y99:Y116" si="3">Y98+3</f>
-        <v>292</v>
-      </c>
-      <c r="Z99" s="2"/>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="B101" t="s">
         <v>234</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C101" t="s">
         <v>235</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D101" t="s">
+        <v>326</v>
+      </c>
+      <c r="F101">
+        <v>499</v>
+      </c>
+      <c r="G101">
+        <v>349</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="W101">
+        <v>1</v>
+      </c>
+      <c r="X101" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y101" s="2">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="Z101" s="2"/>
+    </row>
+    <row r="102" spans="1:26">
+      <c r="A102" t="s">
         <v>236</v>
       </c>
-      <c r="D100" t="s">
-        <v>356</v>
-      </c>
-      <c r="F100">
-        <v>499</v>
-      </c>
-      <c r="G100">
-        <v>349</v>
-      </c>
-      <c r="N100">
-        <v>1</v>
-      </c>
-      <c r="O100">
-        <v>1</v>
-      </c>
-      <c r="W100">
-        <v>1</v>
-      </c>
-      <c r="X100" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y100" s="2">
-        <f t="shared" si="3"/>
-        <v>295</v>
-      </c>
-      <c r="Z100" s="2"/>
-    </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="B102" t="s">
         <v>237</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C102" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102" t="s">
+        <v>307</v>
+      </c>
+      <c r="F102">
+        <v>59.95</v>
+      </c>
+      <c r="G102">
+        <v>39</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+      <c r="W102">
+        <v>1</v>
+      </c>
+      <c r="X102" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y102" s="2">
+        <f t="shared" si="2"/>
+        <v>301</v>
+      </c>
+      <c r="Z102" s="2"/>
+    </row>
+    <row r="103" spans="1:26">
+      <c r="A103" t="s">
         <v>238</v>
       </c>
-      <c r="C101" t="s">
-        <v>152</v>
-      </c>
-      <c r="D101" t="s">
-        <v>308</v>
-      </c>
-      <c r="F101">
-        <v>59.95</v>
-      </c>
-      <c r="G101">
-        <v>39</v>
-      </c>
-      <c r="N101">
-        <v>1</v>
-      </c>
-      <c r="O101">
-        <v>1</v>
-      </c>
-      <c r="S101">
-        <v>1</v>
-      </c>
-      <c r="W101">
-        <v>1</v>
-      </c>
-      <c r="X101" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y101" s="2">
-        <f t="shared" si="3"/>
-        <v>298</v>
-      </c>
-      <c r="Z101" s="2"/>
-    </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="B103" t="s">
         <v>239</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C103" t="s">
         <v>240</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D103" t="s">
+        <v>327</v>
+      </c>
+      <c r="G103">
+        <v>69.95</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+      <c r="W103">
+        <v>1</v>
+      </c>
+      <c r="X103" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y103" s="2">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="Z103" s="2"/>
+    </row>
+    <row r="104" spans="1:26">
+      <c r="A104" t="s">
         <v>241</v>
-      </c>
-      <c r="D102" t="s">
-        <v>357</v>
-      </c>
-      <c r="G102">
-        <v>69.95</v>
-      </c>
-      <c r="N102">
-        <v>1</v>
-      </c>
-      <c r="O102">
-        <v>1</v>
-      </c>
-      <c r="S102">
-        <v>1</v>
-      </c>
-      <c r="W102">
-        <v>1</v>
-      </c>
-      <c r="X102" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y102" s="2">
-        <f t="shared" si="3"/>
-        <v>301</v>
-      </c>
-      <c r="Z102" s="2"/>
-    </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>242</v>
-      </c>
-      <c r="B103" t="s">
-        <v>245</v>
-      </c>
-      <c r="C103" t="s">
-        <v>243</v>
-      </c>
-      <c r="D103" t="s">
-        <v>358</v>
-      </c>
-      <c r="G103">
-        <v>799</v>
-      </c>
-      <c r="O103">
-        <v>1</v>
-      </c>
-      <c r="W103">
-        <v>1</v>
-      </c>
-      <c r="X103" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y103" s="2">
-        <f t="shared" si="3"/>
-        <v>304</v>
-      </c>
-      <c r="Z103" s="2"/>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>30</v>
       </c>
       <c r="B104" t="s">
         <v>244</v>
       </c>
       <c r="C104" t="s">
+        <v>242</v>
+      </c>
+      <c r="D104" t="s">
+        <v>328</v>
+      </c>
+      <c r="G104">
+        <v>799</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="W104">
+        <v>1</v>
+      </c>
+      <c r="X104" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y104" s="2">
+        <f t="shared" si="2"/>
+        <v>307</v>
+      </c>
+      <c r="Z104" s="2"/>
+    </row>
+    <row r="105" spans="1:26">
+      <c r="A105" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" t="s">
+        <v>243</v>
+      </c>
+      <c r="C105" t="s">
+        <v>245</v>
+      </c>
+      <c r="D105" t="s">
+        <v>329</v>
+      </c>
+      <c r="G105">
+        <v>69.95</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
+      <c r="W105">
+        <v>1</v>
+      </c>
+      <c r="X105" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y105" s="2">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="Z105" s="2"/>
+    </row>
+    <row r="106" spans="1:26">
+      <c r="A106" t="s">
         <v>246</v>
       </c>
-      <c r="D104" t="s">
-        <v>359</v>
-      </c>
-      <c r="G104">
+      <c r="B106" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" t="s">
+        <v>248</v>
+      </c>
+      <c r="D106" t="s">
+        <v>330</v>
+      </c>
+      <c r="G106">
+        <v>6.95</v>
+      </c>
+      <c r="I106" t="s">
+        <v>120</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+      <c r="W106">
+        <v>1</v>
+      </c>
+      <c r="X106" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y106" s="2">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="Z106" s="2"/>
+    </row>
+    <row r="107" spans="1:26">
+      <c r="A107" t="s">
+        <v>249</v>
+      </c>
+      <c r="B107" t="s">
+        <v>250</v>
+      </c>
+      <c r="C107" t="s">
+        <v>251</v>
+      </c>
+      <c r="D107" t="s">
+        <v>331</v>
+      </c>
+      <c r="G107">
+        <v>599</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="W107">
+        <v>1</v>
+      </c>
+      <c r="X107" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y107" s="2">
+        <f t="shared" si="2"/>
+        <v>316</v>
+      </c>
+      <c r="Z107" s="2"/>
+    </row>
+    <row r="108" spans="1:26" ht="17.5" customHeight="1">
+      <c r="A108" t="s">
+        <v>252</v>
+      </c>
+      <c r="B108" t="s">
+        <v>150</v>
+      </c>
+      <c r="C108" t="s">
+        <v>253</v>
+      </c>
+      <c r="D108" t="s">
+        <v>332</v>
+      </c>
+      <c r="G108">
         <v>69.95</v>
       </c>
-      <c r="N104">
-        <v>1</v>
-      </c>
-      <c r="S104">
-        <v>1</v>
-      </c>
-      <c r="W104">
-        <v>1</v>
-      </c>
-      <c r="X104" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y104" s="2">
-        <f t="shared" si="3"/>
-        <v>307</v>
-      </c>
-      <c r="Z104" s="2"/>
-    </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>247</v>
-      </c>
-      <c r="B105" t="s">
-        <v>248</v>
-      </c>
-      <c r="C105" t="s">
-        <v>249</v>
-      </c>
-      <c r="D105" t="s">
-        <v>360</v>
-      </c>
-      <c r="G105">
-        <v>6.95</v>
-      </c>
-      <c r="I105" t="s">
-        <v>121</v>
-      </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-      <c r="O105">
-        <v>1</v>
-      </c>
-      <c r="P105">
-        <v>1</v>
-      </c>
-      <c r="S105">
-        <v>1</v>
-      </c>
-      <c r="W105">
-        <v>1</v>
-      </c>
-      <c r="X105" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y105" s="2">
-        <f t="shared" si="3"/>
-        <v>310</v>
-      </c>
-      <c r="Z105" s="2"/>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>250</v>
-      </c>
-      <c r="B106" t="s">
-        <v>251</v>
-      </c>
-      <c r="C106" t="s">
-        <v>252</v>
-      </c>
-      <c r="D106" t="s">
-        <v>361</v>
-      </c>
-      <c r="G106">
-        <v>599</v>
-      </c>
-      <c r="N106">
-        <v>1</v>
-      </c>
-      <c r="W106">
-        <v>1</v>
-      </c>
-      <c r="X106" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y106" s="2">
-        <f t="shared" si="3"/>
-        <v>313</v>
-      </c>
-      <c r="Z106" s="2"/>
-    </row>
-    <row r="107" spans="1:26" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>253</v>
-      </c>
-      <c r="B107" t="s">
-        <v>151</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="W108">
+        <v>1</v>
+      </c>
+      <c r="X108" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y108" s="2">
+        <f t="shared" si="2"/>
+        <v>319</v>
+      </c>
+      <c r="Z108" s="2"/>
+    </row>
+    <row r="109" spans="1:26">
+      <c r="A109" t="s">
         <v>254</v>
       </c>
-      <c r="D107" t="s">
-        <v>362</v>
-      </c>
-      <c r="G107">
-        <v>69.95</v>
-      </c>
-      <c r="N107">
-        <v>1</v>
-      </c>
-      <c r="W107">
-        <v>1</v>
-      </c>
-      <c r="X107" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y107" s="2">
-        <f t="shared" si="3"/>
-        <v>316</v>
-      </c>
-      <c r="Z107" s="2"/>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>255</v>
-      </c>
-      <c r="B108" t="s">
-        <v>257</v>
-      </c>
-      <c r="C108" t="s">
-        <v>87</v>
-      </c>
-      <c r="D108" t="s">
-        <v>363</v>
-      </c>
-      <c r="F108">
-        <v>259.95</v>
-      </c>
-      <c r="G108">
-        <v>179</v>
-      </c>
-      <c r="N108">
-        <v>1</v>
-      </c>
-      <c r="R108">
-        <v>1</v>
-      </c>
-      <c r="S108">
-        <v>1</v>
-      </c>
-      <c r="T108">
-        <v>1</v>
-      </c>
-      <c r="X108" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y108" s="2">
-        <f t="shared" si="3"/>
-        <v>319</v>
-      </c>
-      <c r="Z108" s="2"/>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
         <v>256</v>
-      </c>
-      <c r="B109" t="s">
-        <v>258</v>
       </c>
       <c r="C109" t="s">
         <v>87</v>
       </c>
       <c r="D109" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="F109">
+        <v>259.95</v>
+      </c>
+      <c r="G109">
+        <v>179</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <v>1</v>
+      </c>
+      <c r="T109">
+        <v>1</v>
+      </c>
+      <c r="X109" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y109" s="2">
+        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="Z109" s="2"/>
+    </row>
+    <row r="110" spans="1:26">
+      <c r="A110" t="s">
+        <v>255</v>
+      </c>
+      <c r="B110" t="s">
+        <v>257</v>
+      </c>
+      <c r="C110" t="s">
+        <v>87</v>
+      </c>
+      <c r="D110" t="s">
+        <v>334</v>
+      </c>
+      <c r="F110">
         <v>249.95</v>
       </c>
-      <c r="G109">
+      <c r="G110">
         <v>175</v>
       </c>
-      <c r="N109">
-        <v>1</v>
-      </c>
-      <c r="R109">
-        <v>1</v>
-      </c>
-      <c r="S109">
-        <v>1</v>
-      </c>
-      <c r="T109">
-        <v>1</v>
-      </c>
-      <c r="X109" t="s">
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <v>1</v>
+      </c>
+      <c r="X110" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y110" s="2">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="Z110" s="2"/>
+    </row>
+    <row r="111" spans="1:26">
+      <c r="A111" t="s">
         <v>259</v>
-      </c>
-      <c r="Y109" s="2">
-        <f t="shared" si="3"/>
-        <v>322</v>
-      </c>
-      <c r="Z109" s="2"/>
-    </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>260</v>
-      </c>
-      <c r="B110" t="s">
-        <v>99</v>
-      </c>
-      <c r="C110" t="s">
-        <v>42</v>
-      </c>
-      <c r="F110">
-        <v>349.95</v>
-      </c>
-      <c r="G110">
-        <v>249</v>
-      </c>
-      <c r="I110" t="s">
-        <v>280</v>
-      </c>
-      <c r="N110">
-        <v>1</v>
-      </c>
-      <c r="O110">
-        <v>1</v>
-      </c>
-      <c r="P110">
-        <v>1</v>
-      </c>
-      <c r="R110">
-        <v>1</v>
-      </c>
-      <c r="S110">
-        <v>1</v>
-      </c>
-      <c r="T110">
-        <v>1</v>
-      </c>
-      <c r="X110" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y110" s="2">
-        <f t="shared" si="3"/>
-        <v>325</v>
-      </c>
-      <c r="Z110" s="2"/>
-    </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>261</v>
       </c>
       <c r="B111" t="s">
         <v>99</v>
@@ -5649,231 +5711,277 @@
         <v>42</v>
       </c>
       <c r="F111">
+        <v>349.95</v>
+      </c>
+      <c r="G111">
+        <v>249</v>
+      </c>
+      <c r="I111" t="s">
+        <v>279</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>1</v>
+      </c>
+      <c r="S111">
+        <v>1</v>
+      </c>
+      <c r="T111">
+        <v>1</v>
+      </c>
+      <c r="X111" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y111" s="2">
+        <f t="shared" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="Z111" s="2"/>
+    </row>
+    <row r="112" spans="1:26">
+      <c r="A112" t="s">
+        <v>260</v>
+      </c>
+      <c r="B112" t="s">
+        <v>99</v>
+      </c>
+      <c r="C112" t="s">
+        <v>42</v>
+      </c>
+      <c r="F112">
         <v>449.95</v>
       </c>
-      <c r="G111">
+      <c r="G112">
         <v>299</v>
       </c>
-      <c r="I111" t="s">
-        <v>281</v>
-      </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
-      <c r="O111">
-        <v>1</v>
-      </c>
-      <c r="P111">
-        <v>1</v>
-      </c>
-      <c r="R111">
-        <v>1</v>
-      </c>
-      <c r="S111">
-        <v>1</v>
-      </c>
-      <c r="T111">
-        <v>1</v>
-      </c>
-      <c r="X111" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y111" s="2">
-        <f t="shared" si="3"/>
-        <v>328</v>
-      </c>
-      <c r="Z111" s="2"/>
-    </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="I112" t="s">
+        <v>280</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+      <c r="R112">
+        <v>1</v>
+      </c>
+      <c r="S112">
+        <v>1</v>
+      </c>
+      <c r="T112">
+        <v>1</v>
+      </c>
+      <c r="X112" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y112" s="2">
+        <f t="shared" si="2"/>
+        <v>331</v>
+      </c>
+      <c r="Z112" s="2"/>
+    </row>
+    <row r="113" spans="1:26">
+      <c r="A113" t="s">
+        <v>261</v>
+      </c>
+      <c r="B113" t="s">
         <v>262</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C113" t="s">
         <v>263</v>
       </c>
-      <c r="C112" t="s">
-        <v>264</v>
-      </c>
-      <c r="D112" t="s">
-        <v>365</v>
-      </c>
-      <c r="G112">
+      <c r="D113" t="s">
+        <v>335</v>
+      </c>
+      <c r="G113">
         <v>399</v>
       </c>
-      <c r="N112">
-        <v>1</v>
-      </c>
-      <c r="X112" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y112" s="2">
-        <f t="shared" si="3"/>
-        <v>331</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>266</v>
-      </c>
-      <c r="B113">
-        <v>19644</v>
-      </c>
-      <c r="C113" t="s">
-        <v>267</v>
-      </c>
-      <c r="D113" t="s">
-        <v>366</v>
-      </c>
-      <c r="F113">
-        <v>59.95</v>
-      </c>
-      <c r="G113">
-        <v>45</v>
-      </c>
       <c r="N113">
         <v>1</v>
       </c>
-      <c r="O113">
-        <v>1</v>
-      </c>
-      <c r="R113">
-        <v>1</v>
-      </c>
-      <c r="S113">
-        <v>1</v>
-      </c>
-      <c r="T113">
-        <v>1</v>
-      </c>
       <c r="X113" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y113" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>334</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26">
       <c r="A114" t="s">
         <v>265</v>
       </c>
       <c r="B114">
+        <v>19644</v>
+      </c>
+      <c r="C114" t="s">
+        <v>266</v>
+      </c>
+      <c r="D114" t="s">
+        <v>336</v>
+      </c>
+      <c r="F114">
+        <v>59.95</v>
+      </c>
+      <c r="G114">
+        <v>45</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>1</v>
+      </c>
+      <c r="S114">
+        <v>1</v>
+      </c>
+      <c r="T114">
+        <v>1</v>
+      </c>
+      <c r="X114" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y114" s="2">
+        <f t="shared" si="2"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26">
+      <c r="A115" t="s">
+        <v>264</v>
+      </c>
+      <c r="B115">
         <v>19743</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
+        <v>266</v>
+      </c>
+      <c r="D115" t="s">
+        <v>337</v>
+      </c>
+      <c r="F115">
+        <v>24.95</v>
+      </c>
+      <c r="G115">
+        <v>19</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+      <c r="S115">
+        <v>1</v>
+      </c>
+      <c r="T115">
+        <v>1</v>
+      </c>
+      <c r="X115" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y115" s="2">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26">
+      <c r="A116" t="s">
         <v>267</v>
       </c>
-      <c r="D114" t="s">
-        <v>367</v>
-      </c>
-      <c r="F114">
-        <v>24.95</v>
-      </c>
-      <c r="G114">
-        <v>19</v>
-      </c>
-      <c r="N114">
-        <v>1</v>
-      </c>
-      <c r="O114">
-        <v>1</v>
-      </c>
-      <c r="P114">
-        <v>1</v>
-      </c>
-      <c r="S114">
-        <v>1</v>
-      </c>
-      <c r="T114">
-        <v>1</v>
-      </c>
-      <c r="X114" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y114" s="2">
-        <f t="shared" si="3"/>
-        <v>337</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="C116" t="s">
         <v>268</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D116" t="s">
+        <v>338</v>
+      </c>
+      <c r="G116">
+        <v>19.95</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="S116">
+        <v>1</v>
+      </c>
+      <c r="T116">
+        <v>1</v>
+      </c>
+      <c r="X116" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y116" s="2">
+        <f t="shared" si="2"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26">
+      <c r="A117" t="s">
         <v>269</v>
       </c>
-      <c r="D115" t="s">
-        <v>368</v>
-      </c>
-      <c r="G115">
-        <v>19.95</v>
-      </c>
-      <c r="N115">
-        <v>1</v>
-      </c>
-      <c r="O115">
-        <v>1</v>
-      </c>
-      <c r="P115">
-        <v>1</v>
-      </c>
-      <c r="S115">
-        <v>1</v>
-      </c>
-      <c r="T115">
-        <v>1</v>
-      </c>
-      <c r="X115" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y115" s="2">
-        <f t="shared" si="3"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>270</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>83</v>
       </c>
-      <c r="C116" t="s">
-        <v>194</v>
-      </c>
-      <c r="D116" t="s">
-        <v>369</v>
-      </c>
-      <c r="F116">
+      <c r="C117" t="s">
+        <v>193</v>
+      </c>
+      <c r="D117" t="s">
+        <v>339</v>
+      </c>
+      <c r="F117">
         <v>99.95</v>
       </c>
-      <c r="G116">
+      <c r="G117">
         <v>69</v>
       </c>
-      <c r="N116">
-        <v>1</v>
-      </c>
-      <c r="O116">
-        <v>1</v>
-      </c>
-      <c r="R116">
-        <v>1</v>
-      </c>
-      <c r="S116">
-        <v>1</v>
-      </c>
-      <c r="T116">
-        <v>1</v>
-      </c>
-      <c r="X116" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y116" s="2">
-        <f t="shared" si="3"/>
-        <v>343</v>
-      </c>
-      <c r="Z116" t="s">
-        <v>158</v>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="R117">
+        <v>1</v>
+      </c>
+      <c r="S117">
+        <v>1</v>
+      </c>
+      <c r="T117">
+        <v>1</v>
+      </c>
+      <c r="X117" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y117" s="2">
+        <f t="shared" si="2"/>
+        <v>346</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/excel/producten.xlsx
+++ b/excel/producten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11060" yWindow="420" windowWidth="29240" windowHeight="23600" tabRatio="500"/>
+    <workbookView xWindow="25580" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="409">
   <si>
     <t>productnaam</t>
   </si>
@@ -858,12 +858,6 @@
     <t>Gratis Camlebak Eddy Kids 0,4l t.w.v. &amp;euro;15,95</t>
   </si>
   <si>
-    <t>Met gratis Campingaz Party Grill twv &amp;euro; 54,95</t>
-  </si>
-  <si>
-    <t>Met gratis Campingaz Party Grill twv &amp;euro; 54,96</t>
-  </si>
-  <si>
     <t>J&amp;J_OR-CREW-NECK_4312C52207_1010.jpg</t>
   </si>
   <si>
@@ -1165,6 +1159,93 @@
   </si>
   <si>
     <t>4T7A0172.jpg</t>
+  </si>
+  <si>
+    <t>camo1.jpg camo2.jpg</t>
+  </si>
+  <si>
+    <t>#CCCCCC #4A6786</t>
+  </si>
+  <si>
+    <t>binno1.jpg binno2.jpg</t>
+  </si>
+  <si>
+    <t>berot1.jpg berot2.jpg berot3.jpg</t>
+  </si>
+  <si>
+    <t>Gratis Campingaz Party Grill twv &amp;euro; 54,95</t>
+  </si>
+  <si>
+    <t>Gratis Campingaz Party Grill twv &amp;euro; 54,96</t>
+  </si>
+  <si>
+    <t>#E6E546 #1A74B4</t>
+  </si>
+  <si>
+    <t>#BAB2AF moore.jpg</t>
+  </si>
+  <si>
+    <t>#323036</t>
+  </si>
+  <si>
+    <t>#302F33</t>
+  </si>
+  <si>
+    <t>#302E34 #B83249 #165FAF</t>
+  </si>
+  <si>
+    <t>king1.jpg king2.jpg</t>
+  </si>
+  <si>
+    <t>#959286 #E5C9C9</t>
+  </si>
+  <si>
+    <t>yaya1.jpg yaya2.jpg</t>
+  </si>
+  <si>
+    <t>hang1.jpg hang2.jpg hang3.jpg hang4.jpg</t>
+  </si>
+  <si>
+    <t>wood1.jpg wood2.jpg</t>
+  </si>
+  <si>
+    <t>#E2302F</t>
+  </si>
+  <si>
+    <t>js1.jpg js2.jpg js3.jpg js4.jpg</t>
+  </si>
+  <si>
+    <t>#C6CCCA #408DD6 #575E6E</t>
+  </si>
+  <si>
+    <t>#F24A95 #282325</t>
+  </si>
+  <si>
+    <t>#7B8755 #565D6C #A8403D</t>
+  </si>
+  <si>
+    <t>Polo Dames</t>
+  </si>
+  <si>
+    <t>polo1.jpg polo2.jpg polo3.jpg</t>
+  </si>
+  <si>
+    <t>#DC6A8B polo2.jpg polo3.jpg</t>
+  </si>
+  <si>
+    <t>#7C8759 #4D4E58</t>
+  </si>
+  <si>
+    <t>#D84845 #6F7C4D</t>
+  </si>
+  <si>
+    <t>#1CB3A0 zamb1.jpg zamb2.jpg</t>
+  </si>
+  <si>
+    <t>#425374 #6F9CBD</t>
+  </si>
+  <si>
+    <t>#524F56 #0F61A4</t>
   </si>
 </sst>
 </file>
@@ -1587,8 +1668,8 @@
   <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1597,7 +1678,7 @@
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="4" max="4" width="51.1640625" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="10" max="11" width="5.83203125" customWidth="1"/>
     <col min="12" max="12" width="6" style="3" customWidth="1"/>
@@ -1704,10 +1785,13 @@
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G2" s="2">
         <v>17.95</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -1741,11 +1825,14 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G3">
         <v>39.950000000000003</v>
       </c>
+      <c r="H3" t="s">
+        <v>380</v>
+      </c>
       <c r="I3" t="s">
         <v>24</v>
       </c>
@@ -1762,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" ref="Y3:Y35" si="0">Y2+3</f>
+        <f t="shared" ref="Y3:Y31" si="0">Y2+3</f>
         <v>4</v>
       </c>
       <c r="Z3" s="2"/>
@@ -1778,13 +1865,16 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F4">
         <v>59.95</v>
       </c>
       <c r="G4">
         <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>382</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1821,10 +1911,13 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G5">
         <v>16.95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>383</v>
       </c>
       <c r="I5" t="s">
         <v>276</v>
@@ -1861,7 +1954,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F6">
         <v>24.95</v>
@@ -1898,7 +1991,7 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G7">
         <v>29.95</v>
@@ -1935,7 +2028,7 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G8">
         <v>44.95</v>
@@ -2020,6 +2113,9 @@
       <c r="G10">
         <v>19.95</v>
       </c>
+      <c r="H10" t="s">
+        <v>386</v>
+      </c>
       <c r="I10" t="s">
         <v>47</v>
       </c>
@@ -2094,13 +2190,16 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F12">
         <v>64.95</v>
       </c>
       <c r="G12">
         <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>387</v>
       </c>
       <c r="L12" s="3">
         <v>1</v>
@@ -2131,13 +2230,16 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F13">
         <v>164.95</v>
       </c>
       <c r="G13">
         <v>99</v>
+      </c>
+      <c r="H13" t="s">
+        <v>388</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2174,13 +2276,16 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F14">
         <v>44.95</v>
       </c>
       <c r="G14">
         <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>389</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2217,13 +2322,16 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F15">
         <v>135</v>
       </c>
       <c r="G15">
         <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>390</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -2254,13 +2362,16 @@
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F16">
         <v>165</v>
       </c>
       <c r="G16">
         <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>390</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -2291,13 +2402,16 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F17">
         <v>185</v>
       </c>
       <c r="G17">
         <v>115</v>
+      </c>
+      <c r="H17" t="s">
+        <v>390</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -2333,6 +2447,9 @@
       <c r="G18">
         <v>229</v>
       </c>
+      <c r="H18" t="s">
+        <v>390</v>
+      </c>
       <c r="I18" t="s">
         <v>43</v>
       </c>
@@ -2365,7 +2482,7 @@
         <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F19">
         <v>24.95</v>
@@ -2408,13 +2525,16 @@
         <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F20">
         <v>79.95</v>
       </c>
       <c r="G20">
         <v>55</v>
+      </c>
+      <c r="H20" t="s">
+        <v>391</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2448,13 +2568,16 @@
         <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F21">
         <v>79</v>
       </c>
       <c r="G21">
         <v>55</v>
+      </c>
+      <c r="H21" t="s">
+        <v>392</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2485,13 +2608,16 @@
         <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F22">
         <v>39.950000000000003</v>
       </c>
       <c r="G22">
         <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>393</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2522,7 +2648,7 @@
         <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E23" t="s">
         <v>91</v>
@@ -2559,13 +2685,16 @@
         <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F24">
         <v>29.95</v>
       </c>
       <c r="G24">
         <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>394</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2611,10 +2740,13 @@
         <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G25">
         <v>29.95</v>
+      </c>
+      <c r="H25" t="s">
+        <v>395</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2651,7 +2783,7 @@
         <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G26">
         <v>49.95</v>
@@ -2693,6 +2825,9 @@
       <c r="G27">
         <v>94.95</v>
       </c>
+      <c r="H27" t="s">
+        <v>396</v>
+      </c>
       <c r="I27" t="s">
         <v>278</v>
       </c>
@@ -2728,7 +2863,7 @@
         <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G28">
         <v>9.9499999999999993</v>
@@ -2771,7 +2906,7 @@
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F29">
         <v>9.9499999999999993</v>
@@ -2820,7 +2955,7 @@
         <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F30" s="2">
         <v>74.95</v>
@@ -2867,7 +3002,7 @@
         <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F31">
         <v>39.950000000000003</v>
@@ -2902,7 +3037,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B32" t="s">
         <v>103</v>
@@ -2911,7 +3046,7 @@
         <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F32">
         <v>34.950000000000003</v>
@@ -2940,7 +3075,7 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B33" t="s">
         <v>103</v>
@@ -2949,7 +3084,7 @@
         <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F33">
         <v>34.950000000000003</v>
@@ -2987,7 +3122,7 @@
         <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F34">
         <v>24.95</v>
@@ -3025,7 +3160,7 @@
         <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F35">
         <v>27.95</v>
@@ -3063,7 +3198,7 @@
         <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F36">
         <v>27.95</v>
@@ -3101,10 +3236,13 @@
         <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G37">
         <v>10.95</v>
+      </c>
+      <c r="H37" t="s">
+        <v>397</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -3251,7 +3389,7 @@
         <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F42">
         <v>34.99</v>
@@ -3260,6 +3398,12 @@
         <v>25</v>
       </c>
       <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
         <v>1</v>
       </c>
       <c r="U42">
@@ -3318,13 +3462,16 @@
         <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F44">
         <v>19.95</v>
       </c>
       <c r="G44">
         <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>398</v>
       </c>
       <c r="L44" s="3">
         <v>1</v>
@@ -3355,7 +3502,7 @@
         <v>108</v>
       </c>
       <c r="D45" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F45">
         <v>69.95</v>
@@ -3392,10 +3539,13 @@
         <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G46">
         <v>39.950000000000003</v>
+      </c>
+      <c r="H46" t="s">
+        <v>399</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
@@ -3423,7 +3573,7 @@
         <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F47">
         <v>49.95</v>
@@ -3460,7 +3610,7 @@
         <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F48">
         <v>49.95</v>
@@ -3535,7 +3685,7 @@
         <v>151</v>
       </c>
       <c r="D51" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G51">
         <v>36.950000000000003</v>
@@ -3569,7 +3719,7 @@
         <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G52">
         <v>34.950000000000003</v>
@@ -3603,10 +3753,13 @@
         <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G53">
         <v>29.95</v>
+      </c>
+      <c r="H53" t="s">
+        <v>406</v>
       </c>
       <c r="M53" s="4">
         <v>1</v>
@@ -3637,10 +3790,13 @@
         <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G54">
         <v>24.95</v>
+      </c>
+      <c r="H54" t="s">
+        <v>403</v>
       </c>
       <c r="M54" s="4">
         <v>1</v>
@@ -3671,10 +3827,13 @@
         <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G55">
         <v>29.95</v>
+      </c>
+      <c r="H55" t="s">
+        <v>403</v>
       </c>
       <c r="M55" s="4">
         <v>1</v>
@@ -3699,16 +3858,19 @@
         <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>401</v>
       </c>
       <c r="C56" t="s">
         <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G56">
         <v>29.95</v>
+      </c>
+      <c r="H56" t="s">
+        <v>402</v>
       </c>
       <c r="M56" s="4">
         <v>1</v>
@@ -3739,7 +3901,7 @@
         <v>162</v>
       </c>
       <c r="D57" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G57">
         <v>44.95</v>
@@ -3773,7 +3935,7 @@
         <v>162</v>
       </c>
       <c r="D58" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G58">
         <v>44.95</v>
@@ -3807,10 +3969,13 @@
         <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G59">
         <v>34.950000000000003</v>
+      </c>
+      <c r="H59" t="s">
+        <v>408</v>
       </c>
       <c r="M59" s="4">
         <v>1</v>
@@ -3841,10 +4006,13 @@
         <v>165</v>
       </c>
       <c r="D60" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G60">
         <v>30</v>
+      </c>
+      <c r="H60" t="s">
+        <v>407</v>
       </c>
       <c r="M60" s="4">
         <v>1</v>
@@ -3875,7 +4043,7 @@
         <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G61">
         <v>29.95</v>
@@ -3909,7 +4077,7 @@
         <v>54</v>
       </c>
       <c r="D62" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G62">
         <v>29.95</v>
@@ -3943,7 +4111,7 @@
         <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G63">
         <v>29.95</v>
@@ -3977,7 +4145,7 @@
         <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G64">
         <v>34.950000000000003</v>
@@ -4011,10 +4179,13 @@
         <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G65">
         <v>34.950000000000003</v>
+      </c>
+      <c r="H65" t="s">
+        <v>400</v>
       </c>
       <c r="M65" s="4">
         <v>1</v>
@@ -4045,7 +4216,7 @@
         <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G66">
         <v>34.950000000000003</v>
@@ -4079,7 +4250,7 @@
         <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G67">
         <v>29.95</v>
@@ -4113,7 +4284,7 @@
         <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G68">
         <v>29.95</v>
@@ -4147,7 +4318,7 @@
         <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G69">
         <v>29.95</v>
@@ -4181,10 +4352,13 @@
         <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G70">
         <v>29.95</v>
+      </c>
+      <c r="H70" t="s">
+        <v>405</v>
       </c>
       <c r="M70" s="4">
         <v>1</v>
@@ -4215,10 +4389,13 @@
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G71">
         <v>29.95</v>
+      </c>
+      <c r="H71" t="s">
+        <v>404</v>
       </c>
       <c r="M71" s="4">
         <v>1</v>
@@ -4249,7 +4426,7 @@
         <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G72">
         <v>29.95</v>
@@ -4283,7 +4460,7 @@
         <v>184</v>
       </c>
       <c r="D73" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G73">
         <v>29.95</v>
@@ -4320,7 +4497,7 @@
         <v>184</v>
       </c>
       <c r="D74" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G74">
         <v>29.95</v>
@@ -4357,7 +4534,7 @@
         <v>184</v>
       </c>
       <c r="D75" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G75">
         <v>29.95</v>
@@ -4394,7 +4571,7 @@
         <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G76">
         <v>29.95</v>
@@ -4431,7 +4608,7 @@
         <v>184</v>
       </c>
       <c r="D77" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G77">
         <v>29.95</v>
@@ -4468,7 +4645,7 @@
         <v>184</v>
       </c>
       <c r="D78" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G78">
         <v>29.95</v>
@@ -4505,7 +4682,7 @@
         <v>184</v>
       </c>
       <c r="D79" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G79">
         <v>29.95</v>
@@ -4542,7 +4719,7 @@
         <v>184</v>
       </c>
       <c r="D80" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G80">
         <v>29.95</v>
@@ -4579,7 +4756,7 @@
         <v>191</v>
       </c>
       <c r="D81" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F81">
         <v>54.95</v>
@@ -4619,7 +4796,7 @@
         <v>193</v>
       </c>
       <c r="D82" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F82">
         <v>65.95</v>
@@ -4659,7 +4836,7 @@
         <v>195</v>
       </c>
       <c r="D83" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F83">
         <v>59.95</v>
@@ -4699,7 +4876,7 @@
         <v>84</v>
       </c>
       <c r="D84" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G84">
         <v>49.95</v>
@@ -4790,7 +4967,7 @@
         <v>201</v>
       </c>
       <c r="D87" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F87">
         <v>34.950000000000003</v>
@@ -4836,7 +5013,7 @@
         <v>193</v>
       </c>
       <c r="D88" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F88">
         <v>55</v>
@@ -4873,7 +5050,7 @@
         <v>193</v>
       </c>
       <c r="D89" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F89">
         <v>55</v>
@@ -4910,7 +5087,7 @@
         <v>206</v>
       </c>
       <c r="D90" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F90">
         <v>109.95</v>
@@ -4947,7 +5124,7 @@
         <v>206</v>
       </c>
       <c r="D91" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F91">
         <v>119.95</v>
@@ -4984,7 +5161,7 @@
         <v>209</v>
       </c>
       <c r="D92" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F92">
         <v>124.95</v>
@@ -5052,7 +5229,7 @@
         <v>87</v>
       </c>
       <c r="D94" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F94">
         <v>99.95</v>
@@ -5095,7 +5272,7 @@
         <v>215</v>
       </c>
       <c r="D95" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F95">
         <v>6.9</v>
@@ -5132,7 +5309,7 @@
         <v>218</v>
       </c>
       <c r="D96" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F96">
         <v>34.950000000000003</v>
@@ -5175,7 +5352,7 @@
         <v>221</v>
       </c>
       <c r="D97" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F97">
         <v>173</v>
@@ -5215,7 +5392,7 @@
         <v>224</v>
       </c>
       <c r="D98" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G98">
         <v>199</v>
@@ -5261,7 +5438,7 @@
         <v>227</v>
       </c>
       <c r="D99" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F99">
         <v>399</v>
@@ -5304,7 +5481,7 @@
         <v>231</v>
       </c>
       <c r="D100" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F100">
         <v>27.95</v>
@@ -5347,7 +5524,7 @@
         <v>235</v>
       </c>
       <c r="D101" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F101">
         <v>499</v>
@@ -5384,7 +5561,7 @@
         <v>151</v>
       </c>
       <c r="D102" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F102">
         <v>59.95</v>
@@ -5424,7 +5601,7 @@
         <v>240</v>
       </c>
       <c r="D103" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G103">
         <v>69.95</v>
@@ -5461,7 +5638,7 @@
         <v>242</v>
       </c>
       <c r="D104" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G104">
         <v>799</v>
@@ -5492,7 +5669,7 @@
         <v>245</v>
       </c>
       <c r="D105" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G105">
         <v>69.95</v>
@@ -5526,7 +5703,7 @@
         <v>248</v>
       </c>
       <c r="D106" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G106">
         <v>6.95</v>
@@ -5569,7 +5746,7 @@
         <v>251</v>
       </c>
       <c r="D107" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G107">
         <v>599</v>
@@ -5600,7 +5777,7 @@
         <v>253</v>
       </c>
       <c r="D108" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G108">
         <v>69.95</v>
@@ -5631,7 +5808,7 @@
         <v>87</v>
       </c>
       <c r="D109" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F109">
         <v>259.95</v>
@@ -5671,7 +5848,7 @@
         <v>87</v>
       </c>
       <c r="D110" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F110">
         <v>249.95</v>
@@ -5717,7 +5894,7 @@
         <v>249</v>
       </c>
       <c r="I111" t="s">
-        <v>279</v>
+        <v>384</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -5763,7 +5940,7 @@
         <v>299</v>
       </c>
       <c r="I112" t="s">
-        <v>280</v>
+        <v>385</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -5803,7 +5980,7 @@
         <v>263</v>
       </c>
       <c r="D113" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G113">
         <v>399</v>
@@ -5830,7 +6007,7 @@
         <v>266</v>
       </c>
       <c r="D114" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F114">
         <v>59.95</v>
@@ -5872,7 +6049,7 @@
         <v>266</v>
       </c>
       <c r="D115" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F115">
         <v>24.95</v>
@@ -5911,7 +6088,7 @@
         <v>268</v>
       </c>
       <c r="D116" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G116">
         <v>19.95</v>
@@ -5950,7 +6127,7 @@
         <v>193</v>
       </c>
       <c r="D117" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F117">
         <v>99.95</v>

--- a/excel/producten.xlsx
+++ b/excel/producten.xlsx
@@ -1668,8 +1668,8 @@
   <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1798,15 +1798,20 @@
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
-      <c r="O2" s="2">
+      <c r="N2"/>
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="P2"/>
+      <c r="Q2">
         <v>1</v>
       </c>
-      <c r="R2" s="2">
-        <v>1</v>
-      </c>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
       <c r="X2" s="2" t="s">
         <v>29</v>
       </c>
@@ -1837,13 +1842,10 @@
         <v>24</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>29</v>
@@ -1883,13 +1885,10 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>29</v>
@@ -1926,13 +1925,10 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="X5" s="2" t="s">
         <v>29</v>
@@ -1963,13 +1959,19 @@
         <v>19</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="R6">
+        <v>13</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="U6">
+        <v>13</v>
       </c>
       <c r="X6" s="2" t="s">
         <v>29</v>
@@ -1997,16 +1999,19 @@
         <v>29.95</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="U7">
+        <v>16</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>29</v>
@@ -2034,16 +2039,16 @@
         <v>44.95</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>29</v>
@@ -2074,19 +2079,19 @@
         <v>43</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>29</v>
@@ -2120,19 +2125,19 @@
         <v>47</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>29</v>
@@ -2158,17 +2163,23 @@
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1">
-        <v>1</v>
-      </c>
-      <c r="W11" s="1">
-        <v>1</v>
+      <c r="N11">
+        <v>28</v>
+      </c>
+      <c r="O11">
+        <v>28</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11">
+        <v>28</v>
+      </c>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11">
+        <v>28</v>
       </c>
       <c r="X11" s="2" t="s">
         <v>29</v>
@@ -2205,10 +2216,10 @@
         <v>1</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>71</v>
@@ -2242,19 +2253,19 @@
         <v>388</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="X13" s="2" t="s">
         <v>71</v>
@@ -2288,19 +2299,19 @@
         <v>389</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>71</v>
@@ -2334,13 +2345,16 @@
         <v>390</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="T15">
+        <v>40</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>71</v>
@@ -2374,13 +2388,16 @@
         <v>390</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="T16">
+        <v>43</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>71</v>
@@ -2414,13 +2431,16 @@
         <v>390</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="T17">
+        <v>46</v>
       </c>
       <c r="X17" s="2" t="s">
         <v>71</v>
@@ -2454,13 +2474,16 @@
         <v>43</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="T18">
+        <v>49</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>71</v>
@@ -2491,19 +2514,19 @@
         <v>15</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="X19" s="2" t="s">
         <v>71</v>
@@ -2543,10 +2566,13 @@
         <v>1</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="U20">
+        <v>55</v>
       </c>
       <c r="X20" s="2" t="s">
         <v>71</v>
@@ -2586,10 +2612,13 @@
         <v>1</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="U21">
+        <v>58</v>
       </c>
       <c r="X21" s="2" t="s">
         <v>71</v>
@@ -2626,10 +2655,10 @@
         <v>1</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="X22" s="2" t="s">
         <v>71</v>
@@ -2657,13 +2686,13 @@
         <v>19.95</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="X23" s="2" t="s">
         <v>71</v>
@@ -2697,28 +2726,28 @@
         <v>394</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="X24" s="2" t="s">
         <v>81</v>
@@ -2749,19 +2778,19 @@
         <v>395</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="X25" s="2" t="s">
         <v>81</v>
@@ -2789,16 +2818,16 @@
         <v>49.95</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="R26">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="X26" s="2" t="s">
         <v>81</v>
@@ -2832,16 +2861,16 @@
         <v>278</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="X27" s="2" t="s">
         <v>81</v>
@@ -2869,22 +2898,25 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="U28">
+        <v>79</v>
       </c>
       <c r="X28" s="2" t="s">
         <v>81</v>
@@ -2918,22 +2950,22 @@
         <v>47</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="S29">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="X29" s="2" t="s">
         <v>81</v>
@@ -2965,24 +2997,28 @@
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="2">
-        <v>1</v>
-      </c>
-      <c r="O30" s="2">
-        <v>1</v>
-      </c>
-      <c r="P30" s="2">
-        <v>1</v>
-      </c>
-      <c r="R30" s="2">
-        <v>1</v>
-      </c>
-      <c r="S30" s="2">
-        <v>1</v>
-      </c>
-      <c r="T30" s="2">
-        <v>1</v>
-      </c>
+      <c r="N30">
+        <v>85</v>
+      </c>
+      <c r="O30">
+        <v>85</v>
+      </c>
+      <c r="P30">
+        <v>85</v>
+      </c>
+      <c r="Q30"/>
+      <c r="R30">
+        <v>85</v>
+      </c>
+      <c r="S30">
+        <v>85</v>
+      </c>
+      <c r="T30">
+        <v>85</v>
+      </c>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
       <c r="X30" s="2" t="s">
         <v>81</v>
       </c>
@@ -3011,19 +3047,19 @@
         <v>25</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="R31" s="2">
-        <v>1</v>
-      </c>
-      <c r="S31" s="2">
-        <v>1</v>
-      </c>
-      <c r="T31" s="2">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="R31">
+        <v>88</v>
+      </c>
+      <c r="S31">
+        <v>88</v>
+      </c>
+      <c r="T31">
+        <v>88</v>
       </c>
       <c r="X31" s="2" t="s">
         <v>81</v>
@@ -3058,10 +3094,10 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="V32">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="X32" s="2" t="s">
         <v>105</v>
@@ -3096,10 +3132,10 @@
         <v>1</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="X33" s="2" t="s">
         <v>105</v>
@@ -3134,10 +3170,10 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="X34" s="2" t="s">
         <v>105</v>
@@ -3172,10 +3208,10 @@
         <v>1</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="X35" s="2" t="s">
         <v>105</v>
@@ -3210,10 +3246,10 @@
         <v>1</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="X36" s="2" t="s">
         <v>105</v>
@@ -3245,10 +3281,13 @@
         <v>397</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="Q37">
+        <v>106</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="X37" s="2" t="s">
         <v>105</v>
@@ -3277,10 +3316,13 @@
         <v>120</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="Q38">
+        <v>109</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>105</v>
@@ -3309,10 +3351,10 @@
         <v>15</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="X39" s="2" t="s">
         <v>105</v>
@@ -3341,10 +3383,10 @@
         <v>120</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="X40" s="2" t="s">
         <v>105</v>
@@ -3362,12 +3404,24 @@
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="4"/>
-      <c r="P41" s="1">
-        <v>1</v>
-      </c>
-      <c r="V41" s="1">
-        <v>1</v>
-      </c>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41">
+        <v>118</v>
+      </c>
+      <c r="Q41">
+        <v>118</v>
+      </c>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41">
+        <v>118</v>
+      </c>
+      <c r="V41">
+        <v>118</v>
+      </c>
+      <c r="W41"/>
       <c r="X41" s="2" t="s">
         <v>105</v>
       </c>
@@ -3401,13 +3455,19 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="Q42">
+        <v>121</v>
+      </c>
+      <c r="R42">
+        <v>121</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="X42" s="2" t="s">
         <v>131</v>
@@ -3439,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="X43" s="2" t="s">
         <v>131</v>
@@ -3477,10 +3537,13 @@
         <v>1</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="Q44">
+        <v>127</v>
       </c>
       <c r="U44">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="X44" s="2" t="s">
         <v>131</v>
@@ -3514,10 +3577,10 @@
         <v>1</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="U45">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="X45" s="2" t="s">
         <v>131</v>
@@ -3550,8 +3613,11 @@
       <c r="I46" t="s">
         <v>24</v>
       </c>
+      <c r="N46">
+        <v>133</v>
+      </c>
       <c r="U46">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="X46" s="2" t="s">
         <v>131</v>
@@ -3585,10 +3651,13 @@
         <v>1</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>136</v>
+      </c>
+      <c r="Q47">
+        <v>136</v>
       </c>
       <c r="U47">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="X47" s="2" t="s">
         <v>131</v>
@@ -3622,10 +3691,10 @@
         <v>1</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="U48">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="X48" s="2" t="s">
         <v>131</v>
@@ -3642,9 +3711,18 @@
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="4"/>
-      <c r="U49" s="1">
-        <v>1</v>
-      </c>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49">
+        <v>142</v>
+      </c>
+      <c r="V49"/>
+      <c r="W49"/>
       <c r="X49" s="2" t="s">
         <v>131</v>
       </c>
@@ -3661,9 +3739,18 @@
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="4"/>
-      <c r="U50" s="1">
-        <v>1</v>
-      </c>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50">
+        <v>145</v>
+      </c>
+      <c r="V50"/>
+      <c r="W50"/>
       <c r="X50" s="2" t="s">
         <v>131</v>
       </c>
@@ -3694,10 +3781,10 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="R51">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="X51" s="2" t="s">
         <v>152</v>
@@ -3728,10 +3815,7 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="R52">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="X52" s="2" t="s">
         <v>152</v>
@@ -3765,10 +3849,7 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="R53">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="X53" s="2" t="s">
         <v>152</v>
@@ -3802,10 +3883,7 @@
         <v>1</v>
       </c>
       <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="R54">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="X54" s="2" t="s">
         <v>152</v>
@@ -3839,10 +3917,7 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="X55" s="2" t="s">
         <v>152</v>
@@ -3876,10 +3951,7 @@
         <v>1</v>
       </c>
       <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="R56">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="X56" s="2" t="s">
         <v>152</v>
@@ -3910,10 +3982,7 @@
         <v>1</v>
       </c>
       <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="R57">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="X57" s="2" t="s">
         <v>152</v>
@@ -3944,10 +4013,7 @@
         <v>1</v>
       </c>
       <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="R58">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="X58" s="2" t="s">
         <v>152</v>
@@ -3981,10 +4047,7 @@
         <v>1</v>
       </c>
       <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="R59">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="X59" s="2" t="s">
         <v>152</v>
@@ -4018,10 +4081,7 @@
         <v>1</v>
       </c>
       <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="R60">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="X60" s="2" t="s">
         <v>152</v>
@@ -4052,10 +4112,7 @@
         <v>1</v>
       </c>
       <c r="O61">
-        <v>1</v>
-      </c>
-      <c r="R61">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="X61" s="2" t="s">
         <v>152</v>
@@ -4086,10 +4143,7 @@
         <v>1</v>
       </c>
       <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="R62">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="X62" s="2" t="s">
         <v>152</v>
@@ -4120,10 +4174,7 @@
         <v>1</v>
       </c>
       <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="R63">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="X63" s="2" t="s">
         <v>152</v>
@@ -4154,10 +4205,7 @@
         <v>1</v>
       </c>
       <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="R64">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="X64" s="2" t="s">
         <v>152</v>
@@ -4191,10 +4239,7 @@
         <v>1</v>
       </c>
       <c r="O65">
-        <v>1</v>
-      </c>
-      <c r="R65">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="X65" s="2" t="s">
         <v>152</v>
@@ -4225,10 +4270,7 @@
         <v>1</v>
       </c>
       <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="R66">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="X66" s="2" t="s">
         <v>152</v>
@@ -4259,10 +4301,7 @@
         <v>1</v>
       </c>
       <c r="O67">
-        <v>1</v>
-      </c>
-      <c r="R67">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="X67" s="2" t="s">
         <v>152</v>
@@ -4293,10 +4332,7 @@
         <v>1</v>
       </c>
       <c r="O68">
-        <v>1</v>
-      </c>
-      <c r="R68">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="X68" s="2" t="s">
         <v>152</v>
@@ -4327,10 +4363,7 @@
         <v>1</v>
       </c>
       <c r="O69">
-        <v>1</v>
-      </c>
-      <c r="R69">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="X69" s="2" t="s">
         <v>152</v>
@@ -4364,10 +4397,7 @@
         <v>1</v>
       </c>
       <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="R70">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="X70" s="2" t="s">
         <v>152</v>
@@ -4401,10 +4431,7 @@
         <v>1</v>
       </c>
       <c r="O71">
-        <v>1</v>
-      </c>
-      <c r="R71">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="X71" s="2" t="s">
         <v>152</v>
@@ -4435,10 +4462,7 @@
         <v>1</v>
       </c>
       <c r="O72">
-        <v>1</v>
-      </c>
-      <c r="R72">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="X72" s="2" t="s">
         <v>152</v>
@@ -4469,13 +4493,10 @@
         <v>1</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="Q73">
-        <v>1</v>
-      </c>
-      <c r="R73">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="X73" s="2" t="s">
         <v>152</v>
@@ -4506,13 +4527,10 @@
         <v>1</v>
       </c>
       <c r="O74">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="Q74">
-        <v>1</v>
-      </c>
-      <c r="R74">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="X74" s="2" t="s">
         <v>152</v>
@@ -4543,13 +4561,10 @@
         <v>1</v>
       </c>
       <c r="O75">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="Q75">
-        <v>1</v>
-      </c>
-      <c r="R75">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="X75" s="2" t="s">
         <v>152</v>
@@ -4580,13 +4595,10 @@
         <v>1</v>
       </c>
       <c r="O76">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="Q76">
-        <v>1</v>
-      </c>
-      <c r="R76">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="X76" s="2" t="s">
         <v>152</v>
@@ -4617,13 +4629,10 @@
         <v>1</v>
       </c>
       <c r="O77">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="Q77">
-        <v>1</v>
-      </c>
-      <c r="R77">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="X77" s="2" t="s">
         <v>152</v>
@@ -4654,13 +4663,10 @@
         <v>1</v>
       </c>
       <c r="O78">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="Q78">
-        <v>1</v>
-      </c>
-      <c r="R78">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="X78" s="2" t="s">
         <v>152</v>
@@ -4691,13 +4697,10 @@
         <v>1</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="Q79">
-        <v>1</v>
-      </c>
-      <c r="R79">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="X79" s="2" t="s">
         <v>152</v>
@@ -4728,13 +4731,10 @@
         <v>1</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="Q80">
-        <v>1</v>
-      </c>
-      <c r="R80">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>152</v>
@@ -4768,13 +4768,19 @@
         <v>1</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>238</v>
+      </c>
+      <c r="Q81">
+        <v>238</v>
       </c>
       <c r="R81">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="T81">
-        <v>1</v>
+        <v>238</v>
+      </c>
+      <c r="U81">
+        <v>238</v>
       </c>
       <c r="X81" s="2" t="s">
         <v>189</v>
@@ -4808,13 +4814,19 @@
         <v>1</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>241</v>
+      </c>
+      <c r="Q82">
+        <v>241</v>
       </c>
       <c r="R82">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="T82">
-        <v>1</v>
+        <v>241</v>
+      </c>
+      <c r="U82">
+        <v>241</v>
       </c>
       <c r="X82" s="2" t="s">
         <v>189</v>
@@ -4848,13 +4860,19 @@
         <v>1</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>244</v>
+      </c>
+      <c r="Q83">
+        <v>244</v>
       </c>
       <c r="R83">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="T83">
-        <v>1</v>
+        <v>244</v>
+      </c>
+      <c r="U83">
+        <v>244</v>
       </c>
       <c r="X83" s="2" t="s">
         <v>189</v>
@@ -4885,13 +4903,19 @@
         <v>1</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>247</v>
+      </c>
+      <c r="Q84">
+        <v>247</v>
       </c>
       <c r="R84">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="T84">
-        <v>1</v>
+        <v>247</v>
+      </c>
+      <c r="U84">
+        <v>247</v>
       </c>
       <c r="X84" s="2" t="s">
         <v>189</v>
@@ -4906,19 +4930,26 @@
       <c r="A85" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="N85" s="1">
-        <v>1</v>
-      </c>
+      <c r="N85">
+        <v>250</v>
+      </c>
+      <c r="O85"/>
       <c r="P85"/>
-      <c r="R85" s="1">
-        <v>1</v>
-      </c>
-      <c r="T85" s="1">
-        <v>1</v>
-      </c>
-      <c r="U85" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q85">
+        <v>250</v>
+      </c>
+      <c r="R85">
+        <v>250</v>
+      </c>
+      <c r="S85"/>
+      <c r="T85">
+        <v>250</v>
+      </c>
+      <c r="U85">
+        <v>250</v>
+      </c>
+      <c r="V85"/>
+      <c r="W85"/>
       <c r="X85" s="2" t="s">
         <v>189</v>
       </c>
@@ -4933,19 +4964,26 @@
       <c r="A86" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O86" s="1">
-        <v>1</v>
+      <c r="N86"/>
+      <c r="O86">
+        <v>253</v>
       </c>
       <c r="P86"/>
-      <c r="R86" s="1">
-        <v>1</v>
-      </c>
-      <c r="T86" s="1">
-        <v>1</v>
-      </c>
-      <c r="U86" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q86">
+        <v>253</v>
+      </c>
+      <c r="R86">
+        <v>253</v>
+      </c>
+      <c r="S86"/>
+      <c r="T86">
+        <v>253</v>
+      </c>
+      <c r="U86">
+        <v>253</v>
+      </c>
+      <c r="V86"/>
+      <c r="W86"/>
       <c r="X86" s="2" t="s">
         <v>189</v>
       </c>
@@ -4976,22 +5014,22 @@
         <v>25</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="O87">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="R87">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="T87">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="U87">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="X87" s="2" t="s">
         <v>189</v>
@@ -5025,10 +5063,10 @@
         <v>1</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>259</v>
       </c>
       <c r="R88">
-        <v>1</v>
+        <v>259</v>
       </c>
       <c r="X88" s="2" t="s">
         <v>203</v>
@@ -5062,10 +5100,10 @@
         <v>1</v>
       </c>
       <c r="O89">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="R89">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="X89" s="2" t="s">
         <v>203</v>
@@ -5099,10 +5137,10 @@
         <v>1</v>
       </c>
       <c r="O90">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="R90">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="X90" s="2" t="s">
         <v>203</v>
@@ -5136,10 +5174,10 @@
         <v>1</v>
       </c>
       <c r="O91">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="R91">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="X91" s="2" t="s">
         <v>203</v>
@@ -5169,6 +5207,15 @@
       <c r="G92">
         <v>85</v>
       </c>
+      <c r="N92">
+        <v>271</v>
+      </c>
+      <c r="O92">
+        <v>271</v>
+      </c>
+      <c r="T92">
+        <v>271</v>
+      </c>
       <c r="X92" s="2" t="s">
         <v>203</v>
       </c>
@@ -5195,19 +5242,19 @@
         <v>89</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="O93">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="R93">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="S93">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="T93">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="X93" s="2" t="s">
         <v>203</v>
@@ -5238,19 +5285,19 @@
         <v>69</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="O94">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="R94">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="S94">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="T94">
-        <v>1</v>
+        <v>277</v>
       </c>
       <c r="X94" s="2" t="s">
         <v>203</v>
@@ -5281,13 +5328,13 @@
         <v>5</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="O95">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="R95">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="X95" s="2" t="s">
         <v>203</v>
@@ -5318,19 +5365,19 @@
         <v>25</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="R96">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="S96">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="T96">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="X96" s="2" t="s">
         <v>203</v>
@@ -5361,16 +5408,16 @@
         <v>119</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>286</v>
       </c>
       <c r="O97">
-        <v>1</v>
+        <v>286</v>
       </c>
       <c r="R97">
-        <v>1</v>
+        <v>286</v>
       </c>
       <c r="S97">
-        <v>1</v>
+        <v>286</v>
       </c>
       <c r="X97" s="2" t="s">
         <v>203</v>
@@ -5401,22 +5448,22 @@
         <v>24</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>289</v>
       </c>
       <c r="O98">
-        <v>1</v>
+        <v>289</v>
       </c>
       <c r="P98">
-        <v>1</v>
+        <v>289</v>
       </c>
       <c r="R98">
-        <v>1</v>
+        <v>289</v>
       </c>
       <c r="S98">
-        <v>1</v>
+        <v>289</v>
       </c>
       <c r="T98">
-        <v>1</v>
+        <v>289</v>
       </c>
       <c r="X98" s="2" t="s">
         <v>203</v>
@@ -5450,16 +5497,16 @@
         <v>228</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="O99">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="R99">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="S99">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="X99" s="2" t="s">
         <v>203</v>
@@ -5490,19 +5537,19 @@
         <v>19</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="O100">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="P100">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="S100">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="X100" t="s">
         <v>232</v>
@@ -5533,13 +5580,16 @@
         <v>349</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>298</v>
       </c>
       <c r="O101">
-        <v>1</v>
+        <v>298</v>
+      </c>
+      <c r="S101">
+        <v>298</v>
       </c>
       <c r="W101">
-        <v>1</v>
+        <v>298</v>
       </c>
       <c r="X101" t="s">
         <v>232</v>
@@ -5570,16 +5620,16 @@
         <v>39</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="O102">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="S102">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="X102" t="s">
         <v>232</v>
@@ -5607,16 +5657,16 @@
         <v>69.95</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="O103">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="S103">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="W103">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="X103" t="s">
         <v>232</v>
@@ -5644,10 +5694,13 @@
         <v>799</v>
       </c>
       <c r="O104">
-        <v>1</v>
+        <v>307</v>
+      </c>
+      <c r="S104">
+        <v>307</v>
       </c>
       <c r="W104">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="X104" t="s">
         <v>232</v>
@@ -5675,13 +5728,13 @@
         <v>69.95</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="S105">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="X105" t="s">
         <v>232</v>
@@ -5712,19 +5765,19 @@
         <v>120</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="O106">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="P106">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="S106">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="X106" t="s">
         <v>232</v>
@@ -5752,10 +5805,13 @@
         <v>599</v>
       </c>
       <c r="N107">
-        <v>1</v>
+        <v>316</v>
+      </c>
+      <c r="S107">
+        <v>316</v>
       </c>
       <c r="W107">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="X107" t="s">
         <v>232</v>
@@ -5783,10 +5839,10 @@
         <v>69.95</v>
       </c>
       <c r="N108">
-        <v>1</v>
+        <v>319</v>
       </c>
       <c r="W108">
-        <v>1</v>
+        <v>319</v>
       </c>
       <c r="X108" t="s">
         <v>232</v>
@@ -5817,16 +5873,16 @@
         <v>179</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="R109">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="S109">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="T109">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="X109" t="s">
         <v>258</v>
@@ -5857,16 +5913,16 @@
         <v>175</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="R110">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="S110">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="T110">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="X110" t="s">
         <v>258</v>
@@ -5897,22 +5953,22 @@
         <v>384</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="O111">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="P111">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="R111">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="S111">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="T111">
-        <v>1</v>
+        <v>328</v>
       </c>
       <c r="X111" t="s">
         <v>258</v>
@@ -5943,22 +5999,22 @@
         <v>385</v>
       </c>
       <c r="N112">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="O112">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="P112">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="R112">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="S112">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="T112">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="X112" t="s">
         <v>258</v>
@@ -5986,7 +6042,13 @@
         <v>399</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>334</v>
+      </c>
+      <c r="S113">
+        <v>334</v>
+      </c>
+      <c r="U113">
+        <v>334</v>
       </c>
       <c r="X113" t="s">
         <v>258</v>
@@ -6016,19 +6078,22 @@
         <v>45</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="O114">
-        <v>1</v>
+        <v>337</v>
+      </c>
+      <c r="Q114">
+        <v>337</v>
       </c>
       <c r="R114">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="S114">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="T114">
-        <v>1</v>
+        <v>337</v>
       </c>
       <c r="X114" t="s">
         <v>258</v>
@@ -6058,19 +6123,25 @@
         <v>19</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="O115">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="P115">
-        <v>1</v>
+        <v>340</v>
+      </c>
+      <c r="Q115">
+        <v>340</v>
+      </c>
+      <c r="R115">
+        <v>340</v>
       </c>
       <c r="S115">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="T115">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="X115" t="s">
         <v>258</v>
@@ -6094,19 +6165,22 @@
         <v>19.95</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>343</v>
       </c>
       <c r="O116">
-        <v>1</v>
+        <v>343</v>
       </c>
       <c r="P116">
-        <v>1</v>
+        <v>343</v>
+      </c>
+      <c r="R116">
+        <v>343</v>
       </c>
       <c r="S116">
-        <v>1</v>
+        <v>343</v>
       </c>
       <c r="T116">
-        <v>1</v>
+        <v>343</v>
       </c>
       <c r="X116" t="s">
         <v>258</v>
@@ -6136,19 +6210,19 @@
         <v>69</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>346</v>
       </c>
       <c r="O117">
-        <v>1</v>
+        <v>346</v>
       </c>
       <c r="R117">
-        <v>1</v>
+        <v>346</v>
       </c>
       <c r="S117">
-        <v>1</v>
+        <v>346</v>
       </c>
       <c r="T117">
-        <v>1</v>
+        <v>346</v>
       </c>
       <c r="X117" t="s">
         <v>258</v>

--- a/excel/producten.xlsx
+++ b/excel/producten.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25580" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="25580" yWindow="0" windowWidth="25600" windowHeight="13180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="496">
   <si>
     <t>productnaam</t>
   </si>
@@ -291,12 +291,6 @@
     <t>Fox 30</t>
   </si>
   <si>
-    <t>/deuter-rugzak-fox-30-1213c30001?id_colour=1595</t>
-  </si>
-  <si>
-    <t>/luckies-gadget-smart-phone-projector-2h41c52060?id_colour=4123</t>
-  </si>
-  <si>
     <t>Travelset</t>
   </si>
   <si>
@@ -561,9 +555,6 @@
     <t>Polo Heren</t>
   </si>
   <si>
-    <t>Bikerrace</t>
-  </si>
-  <si>
     <t>Recycle</t>
   </si>
   <si>
@@ -1246,6 +1237,276 @@
   </si>
   <si>
     <t>#524F56 #0F61A4</t>
+  </si>
+  <si>
+    <t>/jack-jones-t-shirt-original-crew-4312c52207</t>
+  </si>
+  <si>
+    <t>/jack-jones-short-camo-4365c52002</t>
+  </si>
+  <si>
+    <t>/only-short-berot-4181c52025</t>
+  </si>
+  <si>
+    <t>/black-eye-e-gadget-the-original-180-fisheye-lens-2h61c52007</t>
+  </si>
+  <si>
+    <t>/black-eye-e-gadget-clipper-wide-angle-2h61c52008</t>
+  </si>
+  <si>
+    <t>/black-diamond-lantaarn-moji-light-2931c52002</t>
+  </si>
+  <si>
+    <t>/the-north-face-trolley-refractor-duffle-pack-2261c52001</t>
+  </si>
+  <si>
+    <t>/the-north-face-dagrugzak-flyweight-2111C10013</t>
+  </si>
+  <si>
+    <t>/outdoor-tech-oplader-kodiak-mini-2g32c52001</t>
+  </si>
+  <si>
+    <t>/luckies-gadget-smartphone-projector-2h41c52060</t>
+  </si>
+  <si>
+    <t>/amazonas-hangmat-lazy-afternoon-1311c30001</t>
+  </si>
+  <si>
+    <t>/ayacucho-slaapzak-woodstock-1322c40002</t>
+  </si>
+  <si>
+    <t>/ayacucho-slaapzak-junior-vario-1321c20001</t>
+  </si>
+  <si>
+    <t>/deuter-rugzak-fox-30-1213c30001</t>
+  </si>
+  <si>
+    <t>/care-plus-diverse-travelset-minispray-4x8ml-2a23c32001</t>
+  </si>
+  <si>
+    <t>/varta-zaklamp-led-day-light-2921c32017</t>
+  </si>
+  <si>
+    <t>/coleman-tent-darwin-2-1121c50013</t>
+  </si>
+  <si>
+    <t>/led-lenser-hoofdlamp-seo-3-2911c32005</t>
+  </si>
+  <si>
+    <t>/rumbl-zwemshort-flowers-8422c52033</t>
+  </si>
+  <si>
+    <t>/rumbl-zwemshort-palm-tree-8422c52034</t>
+  </si>
+  <si>
+    <t>/lingadore-bikini-happy-hippie-8331c52055</t>
+  </si>
+  <si>
+    <t>/molo-kids-lycra-shark-8441c52002</t>
+  </si>
+  <si>
+    <t>/name-it-jumpsuit-vigga-5284c52010</t>
+  </si>
+  <si>
+    <t>/julbo?&amp;flt_type_gender=junior&amp;filters=type_gender</t>
+  </si>
+  <si>
+    <t>/speedo-lifestyle-speelgoed-glide-junior-snorkel-set-2i21c42001</t>
+  </si>
+  <si>
+    <t>/quut</t>
+  </si>
+  <si>
+    <t>/jack-jones-tech-t-shirt-kachon-8231c52015</t>
+  </si>
+  <si>
+    <t>/lingadore-bikini-happie-hippie-8131c52020</t>
+  </si>
+  <si>
+    <t>/lingadore-jurk-mahalo-8154c52003</t>
+  </si>
+  <si>
+    <t>/jack-wolfskin-slaapzak-smoozip-3-1324c50006</t>
+  </si>
+  <si>
+    <t>/lalay-diverse-picknick-deken-1475c52004</t>
+  </si>
+  <si>
+    <t>/camel-active-bags-toilettas-19743-2351c52007</t>
+  </si>
+  <si>
+    <t>/camel-active-bags-reistas-19644-2211c52009</t>
+  </si>
+  <si>
+    <t>/tomtom-video-bandit-2e21c52003</t>
+  </si>
+  <si>
+    <t>/coleman-tent-vespucci-6-1152c52001</t>
+  </si>
+  <si>
+    <t>/coleman-tent-vespucci-4-1142c52001</t>
+  </si>
+  <si>
+    <t>/deuter-rugzak-act-pro-55-15sl-dames-1231c30006</t>
+  </si>
+  <si>
+    <t>/deuter-rugzak-aircontact-pro-60-15-1232c30014</t>
+  </si>
+  <si>
+    <t>/odlo-t-shirt-ride-9112c52003</t>
+  </si>
+  <si>
+    <t>/cortina-citybike-transport-u4-jeans-dames-a223c52049</t>
+  </si>
+  <si>
+    <t>/liix-fietsbel-vintage-a391c52008</t>
+  </si>
+  <si>
+    <t>/clarijs-covers-fietstas-achter-ichi-krikke-a513c52013</t>
+  </si>
+  <si>
+    <t>/batavus-citybike-dinsdag-comfort-7v-heren-a213c52060</t>
+  </si>
+  <si>
+    <t>/casco-fietshelm-activ-tc-a122c22004?id_colour=4168</t>
+  </si>
+  <si>
+    <t>/vaude-fietsrugzak-cluster-10-3l-a511c52002</t>
+  </si>
+  <si>
+    <t>/dahon-vouwfiets-vybe-d7-a216c32001?id_colour=4168</t>
+  </si>
+  <si>
+    <t>/abus-slot-ugrip-chain-a381c52008</t>
+  </si>
+  <si>
+    <t>/suunto-hoogtemeter-ambit-2s-grapphite-2545c32008</t>
+  </si>
+  <si>
+    <t>/suunto-hoogtemeter-ambit-2s-grapphite-2545c32008?id_colour=4123</t>
+  </si>
+  <si>
+    <t>/kite-optics-verrekijker-compact-8x25-2b13d32044</t>
+  </si>
+  <si>
+    <t>/sea-to-summit-diverse-tek-towel-wash-kit-large-2a1bc52001</t>
+  </si>
+  <si>
+    <t>/overstim-s-gels-sportvoeding-3-pack-2d13c42009</t>
+  </si>
+  <si>
+    <t>/deuter-dagrugzak-futura-22-1212c50015</t>
+  </si>
+  <si>
+    <t>/millet-slaapzak-caucasus-long-1325c40003?id_colour=4284</t>
+  </si>
+  <si>
+    <t>/millet-slaapzak-caucasus-regular-1325c40002?id_colour=4284</t>
+  </si>
+  <si>
+    <t>Damesschoen</t>
+  </si>
+  <si>
+    <t>timberland-schoen-corliss-gore-tex-3712c52013</t>
+  </si>
+  <si>
+    <t>/timberland-schoen-bridgeton-low-waterproof-3722c52015</t>
+  </si>
+  <si>
+    <t>/jack-wolfskin-short-rotorua-3332c12004?id_colour=4324</t>
+  </si>
+  <si>
+    <t>/sinner-bril-prime-2412a82003?id_colour=704</t>
+  </si>
+  <si>
+    <t>/ayacucho-jurk-flora-3136c52012</t>
+  </si>
+  <si>
+    <t>/royal-robbins-jurk-sookie-3136c52003</t>
+  </si>
+  <si>
+    <t>/patagonia-jurk-margot-3136c32002?id_colour=283</t>
+  </si>
+  <si>
+    <t>/uax-t-shirt-re-cycle-3312c50075</t>
+  </si>
+  <si>
+    <t>/uax-polo-fast-bike-3318c52008</t>
+  </si>
+  <si>
+    <t>/uax-t-shirt-ecologica-3312c50074</t>
+  </si>
+  <si>
+    <t>/uax-t-shirt-scubahuba-3312c00023</t>
+  </si>
+  <si>
+    <t>/uax-t-shirt-deer-3312c40047</t>
+  </si>
+  <si>
+    <t>/uax-t-shirt-you-decide-3312c50073</t>
+  </si>
+  <si>
+    <t>/uax-t-shirt-recycle-3312c40043</t>
+  </si>
+  <si>
+    <t>/uax-t-shirt-bikerace-3312a90032</t>
+  </si>
+  <si>
+    <t>Bikerace</t>
+  </si>
+  <si>
+    <t>/ayacucho-t-shirt-mud-racer-3312C50066</t>
+  </si>
+  <si>
+    <t>/ayacucho-polo-benny-3318c42011</t>
+  </si>
+  <si>
+    <t>/ayacucho-t-shirt-dots-3312c40035</t>
+  </si>
+  <si>
+    <t>/ayacucho-t-shirt-owl-3312c50065</t>
+  </si>
+  <si>
+    <t>/ayacucho-t-shirt-fish-3312c40036</t>
+  </si>
+  <si>
+    <t>/ayacucho-t-shirt-hummingbird-3312c30023</t>
+  </si>
+  <si>
+    <t>/ayacucho-t-shirt-rhino-3312c40034</t>
+  </si>
+  <si>
+    <t>/ayacucho-t-shirt-beat-the-mountain-3312c50064</t>
+  </si>
+  <si>
+    <t>/ayacucho-t-shirt-tumi-3312c50063</t>
+  </si>
+  <si>
+    <t>/the-north-face-t-shirt-company-car-3312c40018</t>
+  </si>
+  <si>
+    <t>/columbia-t-shirt-mountain-tech-iii-3312c30044</t>
+  </si>
+  <si>
+    <t>/columbia-t-shirt-zero-rules-3312c40087</t>
+  </si>
+  <si>
+    <t>/sprayway-t-shirt-ridge-3313c50001</t>
+  </si>
+  <si>
+    <t>/ayacucho-polo-betty-3119c42002</t>
+  </si>
+  <si>
+    <t>/ayacucho-top-simona-3114c30012</t>
+  </si>
+  <si>
+    <t>/ayacucho-t-shirt-elena-3112c32001</t>
+  </si>
+  <si>
+    <t>/ayacucho-top-zambesi-dames-3114c40006</t>
+  </si>
+  <si>
+    <t>/ayacucho-t-shirt-masai-mara-dames-3112c40021</t>
   </si>
 </sst>
 </file>
@@ -1667,17 +1928,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="4" max="4" width="51.1640625" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="10" max="11" width="5.83203125" customWidth="1"/>
@@ -1726,13 +1987,13 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -1765,13 +2026,13 @@
         <v>20</v>
       </c>
       <c r="X1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Y1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Z1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="2" customFormat="1">
@@ -1785,13 +2046,16 @@
         <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="G2" s="2">
         <v>17.95</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>24</v>
@@ -1830,13 +2094,16 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="E3" t="s">
+        <v>407</v>
       </c>
       <c r="G3">
         <v>39.950000000000003</v>
       </c>
       <c r="H3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -1867,7 +2134,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F4">
         <v>59.95</v>
@@ -1876,7 +2143,7 @@
         <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1910,16 +2177,19 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="E5" t="s">
+        <v>408</v>
       </c>
       <c r="G5">
         <v>16.95</v>
       </c>
       <c r="H5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1950,7 +2220,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F6">
         <v>24.95</v>
@@ -1993,7 +2263,10 @@
         <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>284</v>
+        <v>281</v>
+      </c>
+      <c r="E7" t="s">
+        <v>409</v>
       </c>
       <c r="G7">
         <v>29.95</v>
@@ -2033,7 +2306,10 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>283</v>
+        <v>280</v>
+      </c>
+      <c r="E8" t="s">
+        <v>410</v>
       </c>
       <c r="G8">
         <v>44.95</v>
@@ -2061,10 +2337,10 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -2113,13 +2389,16 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>272</v>
+      </c>
+      <c r="E10" t="s">
+        <v>411</v>
       </c>
       <c r="G10">
         <v>19.95</v>
       </c>
       <c r="H10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I10" t="s">
         <v>47</v>
@@ -2159,7 +2438,7 @@
         <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
@@ -2201,7 +2480,7 @@
         <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F12">
         <v>64.95</v>
@@ -2210,7 +2489,7 @@
         <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L12" s="3">
         <v>1</v>
@@ -2241,7 +2520,10 @@
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>286</v>
+        <v>283</v>
+      </c>
+      <c r="E13" t="s">
+        <v>412</v>
       </c>
       <c r="F13">
         <v>164.95</v>
@@ -2250,7 +2532,7 @@
         <v>99</v>
       </c>
       <c r="H13" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N13">
         <v>34</v>
@@ -2287,7 +2569,10 @@
         <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>287</v>
+        <v>284</v>
+      </c>
+      <c r="E14" t="s">
+        <v>413</v>
       </c>
       <c r="F14">
         <v>44.95</v>
@@ -2296,7 +2581,7 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N14">
         <v>37</v>
@@ -2333,7 +2618,7 @@
         <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F15">
         <v>135</v>
@@ -2342,7 +2627,7 @@
         <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N15">
         <v>40</v>
@@ -2376,7 +2661,7 @@
         <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F16">
         <v>165</v>
@@ -2385,7 +2670,7 @@
         <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N16">
         <v>43</v>
@@ -2419,7 +2704,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F17">
         <v>185</v>
@@ -2428,7 +2713,7 @@
         <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N17">
         <v>46</v>
@@ -2468,7 +2753,7 @@
         <v>229</v>
       </c>
       <c r="H18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I18" t="s">
         <v>43</v>
@@ -2505,7 +2790,10 @@
         <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>291</v>
+        <v>288</v>
+      </c>
+      <c r="E19" t="s">
+        <v>414</v>
       </c>
       <c r="F19">
         <v>24.95</v>
@@ -2548,7 +2836,7 @@
         <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F20">
         <v>79.95</v>
@@ -2557,7 +2845,7 @@
         <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2594,7 +2882,7 @@
         <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F21">
         <v>79</v>
@@ -2603,7 +2891,7 @@
         <v>55</v>
       </c>
       <c r="H21" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2637,7 +2925,7 @@
         <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F22">
         <v>39.950000000000003</v>
@@ -2646,7 +2934,7 @@
         <v>25</v>
       </c>
       <c r="H22" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2677,10 +2965,10 @@
         <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>415</v>
       </c>
       <c r="G23">
         <v>19.95</v>
@@ -2714,7 +3002,10 @@
         <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>295</v>
+        <v>292</v>
+      </c>
+      <c r="E24" t="s">
+        <v>416</v>
       </c>
       <c r="F24">
         <v>29.95</v>
@@ -2723,7 +3014,7 @@
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N24">
         <v>67</v>
@@ -2769,13 +3060,16 @@
         <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>296</v>
+        <v>293</v>
+      </c>
+      <c r="E25" t="s">
+        <v>417</v>
       </c>
       <c r="G25">
         <v>29.95</v>
       </c>
       <c r="H25" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N25">
         <v>70</v>
@@ -2812,7 +3106,10 @@
         <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="E26" t="s">
+        <v>418</v>
       </c>
       <c r="G26">
         <v>49.95</v>
@@ -2849,16 +3146,16 @@
         <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>419</v>
       </c>
       <c r="G27">
         <v>94.95</v>
       </c>
       <c r="H27" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I27" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P27">
         <v>76</v>
@@ -2883,16 +3180,19 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="E28" t="s">
+        <v>420</v>
       </c>
       <c r="G28">
         <v>9.9499999999999993</v>
@@ -2929,16 +3229,19 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>299</v>
+        <v>296</v>
+      </c>
+      <c r="E29" t="s">
+        <v>421</v>
       </c>
       <c r="F29">
         <v>9.9499999999999993</v>
@@ -2978,16 +3281,19 @@
     </row>
     <row r="30" spans="1:27" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="F30" s="2">
         <v>74.95</v>
@@ -3029,16 +3335,19 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="B31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" t="s">
-        <v>102</v>
-      </c>
       <c r="D31" t="s">
-        <v>301</v>
+        <v>298</v>
+      </c>
+      <c r="E31" t="s">
+        <v>423</v>
       </c>
       <c r="F31">
         <v>39.950000000000003</v>
@@ -3073,16 +3382,19 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>377</v>
+        <v>374</v>
+      </c>
+      <c r="E32" t="s">
+        <v>424</v>
       </c>
       <c r="F32">
         <v>34.950000000000003</v>
@@ -3100,7 +3412,7 @@
         <v>91</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y32" s="2">
         <f>Y31+3</f>
@@ -3111,16 +3423,19 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>376</v>
+        <v>373</v>
+      </c>
+      <c r="E33" t="s">
+        <v>425</v>
       </c>
       <c r="F33">
         <v>34.950000000000003</v>
@@ -3138,7 +3453,7 @@
         <v>94</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" ref="Y33:Y96" si="1">Y32+3</f>
@@ -3149,16 +3464,19 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
         <v>106</v>
       </c>
-      <c r="B34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" t="s">
-        <v>108</v>
-      </c>
       <c r="D34" t="s">
-        <v>378</v>
+        <v>375</v>
+      </c>
+      <c r="E34" t="s">
+        <v>426</v>
       </c>
       <c r="F34">
         <v>24.95</v>
@@ -3176,7 +3494,7 @@
         <v>97</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y34" s="2">
         <f t="shared" si="1"/>
@@ -3187,16 +3505,16 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
         <v>109</v>
       </c>
-      <c r="B35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" t="s">
-        <v>111</v>
-      </c>
       <c r="D35" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F35">
         <v>27.95</v>
@@ -3214,7 +3532,7 @@
         <v>100</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y35" s="2">
         <f t="shared" si="1"/>
@@ -3225,16 +3543,19 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>373</v>
+        <v>370</v>
+      </c>
+      <c r="E36" t="s">
+        <v>427</v>
       </c>
       <c r="F36">
         <v>27.95</v>
@@ -3252,7 +3573,7 @@
         <v>103</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y36" s="2">
         <f t="shared" si="1"/>
@@ -3263,22 +3584,25 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
         <v>114</v>
       </c>
-      <c r="B37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" t="s">
-        <v>116</v>
-      </c>
       <c r="D37" t="s">
-        <v>371</v>
+        <v>368</v>
+      </c>
+      <c r="E37" t="s">
+        <v>428</v>
       </c>
       <c r="G37">
         <v>10.95</v>
       </c>
       <c r="H37" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P37">
         <v>106</v>
@@ -3290,7 +3614,7 @@
         <v>106</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y37" s="2">
         <f t="shared" si="1"/>
@@ -3301,19 +3625,22 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
         <v>117</v>
       </c>
-      <c r="B38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" t="s">
-        <v>119</v>
+      <c r="E38" t="s">
+        <v>429</v>
       </c>
       <c r="G38">
         <v>29.95</v>
       </c>
       <c r="I38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P38">
         <v>109</v>
@@ -3325,7 +3652,7 @@
         <v>109</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y38" s="2">
         <f t="shared" si="1"/>
@@ -3336,13 +3663,16 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
         <v>121</v>
       </c>
-      <c r="B39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" t="s">
-        <v>123</v>
+      <c r="E39" t="s">
+        <v>430</v>
       </c>
       <c r="F39">
         <v>21</v>
@@ -3357,7 +3687,7 @@
         <v>112</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y39" s="2">
         <f t="shared" si="1"/>
@@ -3368,19 +3698,22 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" t="s">
         <v>124</v>
       </c>
-      <c r="B40" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" t="s">
-        <v>126</v>
+      <c r="E40" t="s">
+        <v>431</v>
       </c>
       <c r="G40">
         <v>7.5</v>
       </c>
       <c r="I40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P40">
         <v>115</v>
@@ -3389,7 +3722,7 @@
         <v>115</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y40" s="2">
         <f t="shared" si="1"/>
@@ -3400,7 +3733,7 @@
     </row>
     <row r="41" spans="1:27" s="1" customFormat="1">
       <c r="A41" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="4"/>
@@ -3423,7 +3756,7 @@
       </c>
       <c r="W41"/>
       <c r="X41" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="1"/>
@@ -3434,16 +3767,16 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s">
         <v>128</v>
       </c>
-      <c r="B42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" t="s">
-        <v>130</v>
-      </c>
       <c r="D42" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F42">
         <v>34.99</v>
@@ -3470,7 +3803,7 @@
         <v>121</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" si="1"/>
@@ -3481,13 +3814,13 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" t="s">
         <v>132</v>
-      </c>
-      <c r="B43" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" t="s">
-        <v>134</v>
       </c>
       <c r="F43">
         <v>74.900000000000006</v>
@@ -3502,7 +3835,7 @@
         <v>124</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Y43" s="2">
         <f t="shared" si="1"/>
@@ -3513,16 +3846,19 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
         <v>135</v>
       </c>
-      <c r="B44" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" t="s">
-        <v>137</v>
-      </c>
       <c r="D44" t="s">
-        <v>303</v>
+        <v>300</v>
+      </c>
+      <c r="E44" t="s">
+        <v>432</v>
       </c>
       <c r="F44">
         <v>19.95</v>
@@ -3531,7 +3867,7 @@
         <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L44" s="3">
         <v>1</v>
@@ -3546,7 +3882,7 @@
         <v>127</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Y44" s="2">
         <f t="shared" si="1"/>
@@ -3556,16 +3892,19 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>370</v>
+        <v>367</v>
+      </c>
+      <c r="E45" t="s">
+        <v>433</v>
       </c>
       <c r="F45">
         <v>69.95</v>
@@ -3583,7 +3922,7 @@
         <v>130</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Y45" s="2">
         <f t="shared" si="1"/>
@@ -3593,22 +3932,25 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>369</v>
+        <v>366</v>
+      </c>
+      <c r="E46" t="s">
+        <v>434</v>
       </c>
       <c r="G46">
         <v>39.950000000000003</v>
       </c>
       <c r="H46" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
@@ -3620,7 +3962,7 @@
         <v>133</v>
       </c>
       <c r="X46" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Y46" s="2">
         <f t="shared" si="1"/>
@@ -3630,16 +3972,16 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
         <v>142</v>
       </c>
-      <c r="B47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" t="s">
-        <v>144</v>
-      </c>
       <c r="D47" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F47">
         <v>49.95</v>
@@ -3660,7 +4002,7 @@
         <v>136</v>
       </c>
       <c r="X47" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Y47" s="2">
         <f t="shared" si="1"/>
@@ -3670,16 +4012,16 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F48">
         <v>49.95</v>
@@ -3697,7 +4039,7 @@
         <v>139</v>
       </c>
       <c r="X48" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Y48" s="2">
         <f t="shared" si="1"/>
@@ -3707,7 +4049,7 @@
     </row>
     <row r="49" spans="1:27" s="1" customFormat="1">
       <c r="A49" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="4"/>
@@ -3724,7 +4066,7 @@
       <c r="V49"/>
       <c r="W49"/>
       <c r="X49" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Y49" s="2">
         <f t="shared" si="1"/>
@@ -3735,7 +4077,7 @@
     </row>
     <row r="50" spans="1:27" s="1" customFormat="1">
       <c r="A50" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="4"/>
@@ -3752,7 +4094,7 @@
       <c r="V50"/>
       <c r="W50"/>
       <c r="X50" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Y50" s="2">
         <f t="shared" si="1"/>
@@ -3763,16 +4105,16 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
         <v>149</v>
       </c>
-      <c r="B51" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" t="s">
-        <v>151</v>
-      </c>
       <c r="D51" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G51">
         <v>36.950000000000003</v>
@@ -3787,7 +4129,7 @@
         <v>148</v>
       </c>
       <c r="X51" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y51" s="2">
         <f t="shared" si="1"/>
@@ -3797,16 +4139,19 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C52" t="s">
         <v>84</v>
       </c>
       <c r="D52" t="s">
-        <v>338</v>
+        <v>335</v>
+      </c>
+      <c r="E52" t="s">
+        <v>495</v>
       </c>
       <c r="G52">
         <v>34.950000000000003</v>
@@ -3818,7 +4163,7 @@
         <v>151</v>
       </c>
       <c r="X52" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y52" s="2">
         <f t="shared" si="1"/>
@@ -3828,22 +4173,25 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
         <v>84</v>
       </c>
       <c r="D53" t="s">
-        <v>339</v>
+        <v>336</v>
+      </c>
+      <c r="E53" t="s">
+        <v>494</v>
       </c>
       <c r="G53">
         <v>29.95</v>
       </c>
       <c r="H53" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M53" s="4">
         <v>1</v>
@@ -3852,7 +4200,7 @@
         <v>154</v>
       </c>
       <c r="X53" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y53" s="2">
         <f t="shared" si="1"/>
@@ -3862,22 +4210,25 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
         <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="E54" t="s">
+        <v>493</v>
       </c>
       <c r="G54">
         <v>24.95</v>
       </c>
       <c r="H54" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M54" s="4">
         <v>1</v>
@@ -3886,7 +4237,7 @@
         <v>157</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y54" s="2">
         <f t="shared" si="1"/>
@@ -3896,22 +4247,25 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
         <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>341</v>
+        <v>338</v>
+      </c>
+      <c r="E55" t="s">
+        <v>492</v>
       </c>
       <c r="G55">
         <v>29.95</v>
       </c>
       <c r="H55" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M55" s="4">
         <v>1</v>
@@ -3920,7 +4274,7 @@
         <v>160</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y55" s="2">
         <f t="shared" si="1"/>
@@ -3930,22 +4284,25 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C56" t="s">
         <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>342</v>
+        <v>339</v>
+      </c>
+      <c r="E56" t="s">
+        <v>491</v>
       </c>
       <c r="G56">
         <v>29.95</v>
       </c>
       <c r="H56" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M56" s="4">
         <v>1</v>
@@ -3954,7 +4311,7 @@
         <v>163</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y56" s="2">
         <f t="shared" si="1"/>
@@ -3964,16 +4321,16 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G57">
         <v>44.95</v>
@@ -3985,7 +4342,7 @@
         <v>166</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y57" s="2">
         <f t="shared" si="1"/>
@@ -3995,16 +4352,19 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>344</v>
+        <v>341</v>
+      </c>
+      <c r="E58" t="s">
+        <v>490</v>
       </c>
       <c r="G58">
         <v>44.95</v>
@@ -4016,7 +4376,7 @@
         <v>169</v>
       </c>
       <c r="X58" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y58" s="2">
         <f t="shared" si="1"/>
@@ -4026,22 +4386,25 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D59" t="s">
-        <v>345</v>
+        <v>342</v>
+      </c>
+      <c r="E59" t="s">
+        <v>489</v>
       </c>
       <c r="G59">
         <v>34.950000000000003</v>
       </c>
       <c r="H59" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M59" s="4">
         <v>1</v>
@@ -4050,7 +4413,7 @@
         <v>172</v>
       </c>
       <c r="X59" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y59" s="2">
         <f t="shared" si="1"/>
@@ -4060,22 +4423,25 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D60" t="s">
-        <v>346</v>
+        <v>343</v>
+      </c>
+      <c r="E60" t="s">
+        <v>488</v>
       </c>
       <c r="G60">
         <v>30</v>
       </c>
       <c r="H60" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M60" s="4">
         <v>1</v>
@@ -4084,7 +4450,7 @@
         <v>175</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y60" s="2">
         <f t="shared" si="1"/>
@@ -4094,16 +4460,16 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C61" t="s">
         <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G61">
         <v>29.95</v>
@@ -4115,7 +4481,7 @@
         <v>178</v>
       </c>
       <c r="X61" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y61" s="2">
         <f t="shared" si="1"/>
@@ -4125,16 +4491,19 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
         <v>54</v>
       </c>
       <c r="D62" t="s">
-        <v>348</v>
+        <v>345</v>
+      </c>
+      <c r="E62" t="s">
+        <v>487</v>
       </c>
       <c r="G62">
         <v>29.95</v>
@@ -4146,7 +4515,7 @@
         <v>181</v>
       </c>
       <c r="X62" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y62" s="2">
         <f t="shared" si="1"/>
@@ -4156,16 +4525,16 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
         <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G63">
         <v>29.95</v>
@@ -4177,7 +4546,7 @@
         <v>184</v>
       </c>
       <c r="X63" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y63" s="2">
         <f t="shared" si="1"/>
@@ -4187,16 +4556,19 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
         <v>84</v>
       </c>
       <c r="D64" t="s">
-        <v>350</v>
+        <v>347</v>
+      </c>
+      <c r="E64" t="s">
+        <v>486</v>
       </c>
       <c r="G64">
         <v>34.950000000000003</v>
@@ -4208,7 +4580,7 @@
         <v>187</v>
       </c>
       <c r="X64" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y64" s="2">
         <f t="shared" si="1"/>
@@ -4218,22 +4590,25 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
         <v>84</v>
       </c>
       <c r="D65" t="s">
-        <v>351</v>
+        <v>348</v>
+      </c>
+      <c r="E65" t="s">
+        <v>485</v>
       </c>
       <c r="G65">
         <v>34.950000000000003</v>
       </c>
       <c r="H65" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M65" s="4">
         <v>1</v>
@@ -4242,7 +4617,7 @@
         <v>190</v>
       </c>
       <c r="X65" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y65" s="2">
         <f t="shared" si="1"/>
@@ -4252,16 +4627,19 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
         <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>352</v>
+        <v>349</v>
+      </c>
+      <c r="E66" t="s">
+        <v>484</v>
       </c>
       <c r="G66">
         <v>34.950000000000003</v>
@@ -4273,7 +4651,7 @@
         <v>193</v>
       </c>
       <c r="X66" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y66" s="2">
         <f t="shared" si="1"/>
@@ -4283,16 +4661,19 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
         <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>353</v>
+        <v>350</v>
+      </c>
+      <c r="E67" t="s">
+        <v>483</v>
       </c>
       <c r="G67">
         <v>29.95</v>
@@ -4304,7 +4685,7 @@
         <v>196</v>
       </c>
       <c r="X67" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y67" s="2">
         <f t="shared" si="1"/>
@@ -4314,16 +4695,19 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
         <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>354</v>
+        <v>351</v>
+      </c>
+      <c r="E68" t="s">
+        <v>482</v>
       </c>
       <c r="G68">
         <v>29.95</v>
@@ -4335,7 +4719,7 @@
         <v>199</v>
       </c>
       <c r="X68" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y68" s="2">
         <f t="shared" si="1"/>
@@ -4345,16 +4729,19 @@
     </row>
     <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>355</v>
+        <v>352</v>
+      </c>
+      <c r="E69" t="s">
+        <v>480</v>
       </c>
       <c r="G69">
         <v>29.95</v>
@@ -4366,7 +4753,7 @@
         <v>202</v>
       </c>
       <c r="X69" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y69" s="2">
         <f t="shared" si="1"/>
@@ -4376,22 +4763,25 @@
     </row>
     <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
         <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>356</v>
+        <v>353</v>
+      </c>
+      <c r="E70" t="s">
+        <v>481</v>
       </c>
       <c r="G70">
         <v>29.95</v>
       </c>
       <c r="H70" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M70" s="4">
         <v>1</v>
@@ -4400,7 +4790,7 @@
         <v>205</v>
       </c>
       <c r="X70" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y70" s="2">
         <f t="shared" si="1"/>
@@ -4410,22 +4800,25 @@
     </row>
     <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>357</v>
+        <v>354</v>
+      </c>
+      <c r="E71" t="s">
+        <v>478</v>
       </c>
       <c r="G71">
         <v>29.95</v>
       </c>
       <c r="H71" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M71" s="4">
         <v>1</v>
@@ -4434,7 +4827,7 @@
         <v>208</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y71" s="2">
         <f t="shared" si="1"/>
@@ -4444,16 +4837,19 @@
     </row>
     <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C72" t="s">
         <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>358</v>
+        <v>355</v>
+      </c>
+      <c r="E72" t="s">
+        <v>479</v>
       </c>
       <c r="G72">
         <v>29.95</v>
@@ -4465,7 +4861,7 @@
         <v>211</v>
       </c>
       <c r="X72" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y72" s="2">
         <f t="shared" si="1"/>
@@ -4475,16 +4871,19 @@
     </row>
     <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>477</v>
       </c>
       <c r="B73" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>359</v>
+        <v>356</v>
+      </c>
+      <c r="E73" t="s">
+        <v>476</v>
       </c>
       <c r="G73">
         <v>29.95</v>
@@ -4499,7 +4898,7 @@
         <v>214</v>
       </c>
       <c r="X73" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y73" s="2">
         <f t="shared" si="1"/>
@@ -4509,16 +4908,19 @@
     </row>
     <row r="74" spans="1:26">
       <c r="A74" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" t="s">
         <v>181</v>
       </c>
-      <c r="B74" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" t="s">
-        <v>184</v>
-      </c>
       <c r="D74" t="s">
-        <v>360</v>
+        <v>357</v>
+      </c>
+      <c r="E74" t="s">
+        <v>475</v>
       </c>
       <c r="G74">
         <v>29.95</v>
@@ -4533,7 +4935,7 @@
         <v>217</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y74" s="2">
         <f t="shared" si="1"/>
@@ -4543,16 +4945,19 @@
     </row>
     <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="E75" t="s">
+        <v>474</v>
       </c>
       <c r="G75">
         <v>29.95</v>
@@ -4567,7 +4972,7 @@
         <v>220</v>
       </c>
       <c r="X75" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y75" s="2">
         <f t="shared" si="1"/>
@@ -4577,16 +4982,19 @@
     </row>
     <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D76" t="s">
-        <v>362</v>
+        <v>359</v>
+      </c>
+      <c r="E76" t="s">
+        <v>473</v>
       </c>
       <c r="G76">
         <v>29.95</v>
@@ -4601,7 +5009,7 @@
         <v>223</v>
       </c>
       <c r="X76" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y76" s="2">
         <f t="shared" si="1"/>
@@ -4611,16 +5019,19 @@
     </row>
     <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C77" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D77" t="s">
-        <v>363</v>
+        <v>360</v>
+      </c>
+      <c r="E77" t="s">
+        <v>472</v>
       </c>
       <c r="G77">
         <v>29.95</v>
@@ -4635,7 +5046,7 @@
         <v>226</v>
       </c>
       <c r="X77" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y77" s="2">
         <f t="shared" si="1"/>
@@ -4645,16 +5056,19 @@
     </row>
     <row r="78" spans="1:26">
       <c r="A78" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B78" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D78" t="s">
-        <v>364</v>
+        <v>361</v>
+      </c>
+      <c r="E78" t="s">
+        <v>471</v>
       </c>
       <c r="G78">
         <v>29.95</v>
@@ -4669,7 +5083,7 @@
         <v>229</v>
       </c>
       <c r="X78" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y78" s="2">
         <f t="shared" si="1"/>
@@ -4679,16 +5093,19 @@
     </row>
     <row r="79" spans="1:26">
       <c r="A79" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B79" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D79" t="s">
-        <v>365</v>
+        <v>362</v>
+      </c>
+      <c r="E79" t="s">
+        <v>469</v>
       </c>
       <c r="G79">
         <v>29.95</v>
@@ -4703,7 +5120,7 @@
         <v>232</v>
       </c>
       <c r="X79" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y79" s="2">
         <f t="shared" si="1"/>
@@ -4713,16 +5130,19 @@
     </row>
     <row r="80" spans="1:26">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B80" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D80" t="s">
-        <v>366</v>
+        <v>363</v>
+      </c>
+      <c r="E80" t="s">
+        <v>470</v>
       </c>
       <c r="G80">
         <v>29.95</v>
@@ -4737,7 +5157,7 @@
         <v>235</v>
       </c>
       <c r="X80" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y80" s="2">
         <f t="shared" si="1"/>
@@ -4747,16 +5167,19 @@
     </row>
     <row r="81" spans="1:27">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s">
         <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D81" t="s">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="E81" t="s">
+        <v>468</v>
       </c>
       <c r="F81">
         <v>54.95</v>
@@ -4783,7 +5206,7 @@
         <v>238</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Y81" s="2">
         <f t="shared" si="1"/>
@@ -4793,16 +5216,16 @@
     </row>
     <row r="82" spans="1:27">
       <c r="A82" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s">
         <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F82">
         <v>65.95</v>
@@ -4829,7 +5252,7 @@
         <v>241</v>
       </c>
       <c r="X82" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Y82" s="2">
         <f t="shared" si="1"/>
@@ -4839,16 +5262,19 @@
     </row>
     <row r="83" spans="1:27">
       <c r="A83" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B83" t="s">
         <v>69</v>
       </c>
       <c r="C83" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="E83" t="s">
+        <v>467</v>
       </c>
       <c r="F83">
         <v>59.95</v>
@@ -4875,7 +5301,7 @@
         <v>244</v>
       </c>
       <c r="X83" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Y83" s="2">
         <f t="shared" si="1"/>
@@ -4885,7 +5311,7 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B84" t="s">
         <v>69</v>
@@ -4894,7 +5320,10 @@
         <v>84</v>
       </c>
       <c r="D84" t="s">
-        <v>310</v>
+        <v>307</v>
+      </c>
+      <c r="E84" t="s">
+        <v>466</v>
       </c>
       <c r="G84">
         <v>49.95</v>
@@ -4918,7 +5347,7 @@
         <v>247</v>
       </c>
       <c r="X84" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Y84" s="2">
         <f t="shared" si="1"/>
@@ -4928,7 +5357,7 @@
     </row>
     <row r="85" spans="1:27" s="1" customFormat="1">
       <c r="A85" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N85">
         <v>250</v>
@@ -4951,7 +5380,7 @@
       <c r="V85"/>
       <c r="W85"/>
       <c r="X85" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Y85" s="2">
         <f t="shared" si="1"/>
@@ -4962,7 +5391,7 @@
     </row>
     <row r="86" spans="1:27" s="1" customFormat="1">
       <c r="A86" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N86"/>
       <c r="O86">
@@ -4985,7 +5414,7 @@
       <c r="V86"/>
       <c r="W86"/>
       <c r="X86" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Y86" s="2">
         <f t="shared" si="1"/>
@@ -4996,16 +5425,19 @@
     </row>
     <row r="87" spans="1:27">
       <c r="A87" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B87" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D87" t="s">
-        <v>311</v>
+        <v>308</v>
+      </c>
+      <c r="E87" t="s">
+        <v>465</v>
       </c>
       <c r="F87">
         <v>34.950000000000003</v>
@@ -5032,7 +5464,7 @@
         <v>256</v>
       </c>
       <c r="X87" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Y87" s="2">
         <f t="shared" si="1"/>
@@ -5042,16 +5474,16 @@
     </row>
     <row r="88" spans="1:27">
       <c r="A88" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B88" t="s">
         <v>32</v>
       </c>
       <c r="C88" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D88" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F88">
         <v>55</v>
@@ -5069,7 +5501,7 @@
         <v>259</v>
       </c>
       <c r="X88" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y88" s="2">
         <f t="shared" si="1"/>
@@ -5079,16 +5511,19 @@
     </row>
     <row r="89" spans="1:27">
       <c r="A89" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D89" t="s">
-        <v>313</v>
+        <v>310</v>
+      </c>
+      <c r="E89" t="s">
+        <v>464</v>
       </c>
       <c r="F89">
         <v>55</v>
@@ -5106,7 +5541,7 @@
         <v>262</v>
       </c>
       <c r="X89" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y89" s="2">
         <f t="shared" si="1"/>
@@ -5116,16 +5551,19 @@
     </row>
     <row r="90" spans="1:27">
       <c r="A90" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D90" t="s">
-        <v>314</v>
+        <v>311</v>
+      </c>
+      <c r="E90" t="s">
+        <v>463</v>
       </c>
       <c r="F90">
         <v>109.95</v>
@@ -5143,7 +5581,7 @@
         <v>265</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y90" s="2">
         <f t="shared" si="1"/>
@@ -5153,16 +5591,19 @@
     </row>
     <row r="91" spans="1:27">
       <c r="A91" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>461</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D91" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="E91" t="s">
+        <v>462</v>
       </c>
       <c r="F91">
         <v>119.95</v>
@@ -5180,7 +5621,7 @@
         <v>268</v>
       </c>
       <c r="X91" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y91" s="2">
         <f t="shared" si="1"/>
@@ -5190,16 +5631,19 @@
     </row>
     <row r="92" spans="1:27">
       <c r="A92" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B92" t="s">
         <v>83</v>
       </c>
       <c r="C92" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D92" t="s">
-        <v>316</v>
+        <v>313</v>
+      </c>
+      <c r="E92" t="s">
+        <v>460</v>
       </c>
       <c r="F92">
         <v>124.95</v>
@@ -5217,7 +5661,7 @@
         <v>271</v>
       </c>
       <c r="X92" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y92" s="2">
         <f t="shared" si="1"/>
@@ -5227,13 +5671,16 @@
     </row>
     <row r="93" spans="1:27">
       <c r="A93" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B93" t="s">
         <v>83</v>
       </c>
       <c r="C93" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="E93" t="s">
+        <v>459</v>
       </c>
       <c r="F93">
         <v>129.94999999999999</v>
@@ -5257,7 +5704,7 @@
         <v>274</v>
       </c>
       <c r="X93" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y93" s="2">
         <f t="shared" si="1"/>
@@ -5267,16 +5714,19 @@
     </row>
     <row r="94" spans="1:27">
       <c r="A94" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B94" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C94" t="s">
         <v>87</v>
       </c>
       <c r="D94" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="E94" t="s">
+        <v>458</v>
       </c>
       <c r="F94">
         <v>99.95</v>
@@ -5300,7 +5750,7 @@
         <v>277</v>
       </c>
       <c r="X94" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y94" s="2">
         <f t="shared" si="1"/>
@@ -5310,16 +5760,19 @@
     </row>
     <row r="95" spans="1:27">
       <c r="A95" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C95" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D95" t="s">
-        <v>318</v>
+        <v>315</v>
+      </c>
+      <c r="E95" t="s">
+        <v>457</v>
       </c>
       <c r="F95">
         <v>6.9</v>
@@ -5337,7 +5790,7 @@
         <v>280</v>
       </c>
       <c r="X95" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y95" s="2">
         <f t="shared" si="1"/>
@@ -5347,16 +5800,19 @@
     </row>
     <row r="96" spans="1:27">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C96" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D96" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="E96" t="s">
+        <v>456</v>
       </c>
       <c r="F96">
         <v>34.950000000000003</v>
@@ -5380,7 +5836,7 @@
         <v>283</v>
       </c>
       <c r="X96" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y96" s="2">
         <f t="shared" si="1"/>
@@ -5390,16 +5846,19 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B97" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D97" t="s">
-        <v>320</v>
+        <v>317</v>
+      </c>
+      <c r="E97" t="s">
+        <v>455</v>
       </c>
       <c r="F97">
         <v>173</v>
@@ -5420,7 +5879,7 @@
         <v>286</v>
       </c>
       <c r="X97" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y97" s="2">
         <f t="shared" ref="Y97:Y117" si="2">Y96+3</f>
@@ -5430,16 +5889,19 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B98" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C98" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D98" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="E98" t="s">
+        <v>454</v>
       </c>
       <c r="G98">
         <v>199</v>
@@ -5466,7 +5928,7 @@
         <v>289</v>
       </c>
       <c r="X98" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y98" s="2">
         <f t="shared" si="2"/>
@@ -5476,16 +5938,19 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B99" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C99" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D99" t="s">
-        <v>322</v>
+        <v>319</v>
+      </c>
+      <c r="E99" t="s">
+        <v>453</v>
       </c>
       <c r="F99">
         <v>399</v>
@@ -5494,7 +5959,7 @@
         <v>249</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N99">
         <v>292</v>
@@ -5509,7 +5974,7 @@
         <v>292</v>
       </c>
       <c r="X99" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Y99" s="2">
         <f t="shared" si="2"/>
@@ -5519,16 +5984,19 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C100" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D100" t="s">
-        <v>323</v>
+        <v>320</v>
+      </c>
+      <c r="E100" t="s">
+        <v>452</v>
       </c>
       <c r="F100">
         <v>27.95</v>
@@ -5552,7 +6020,7 @@
         <v>295</v>
       </c>
       <c r="X100" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Y100" s="2">
         <f t="shared" si="2"/>
@@ -5562,16 +6030,19 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B101" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C101" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D101" t="s">
-        <v>324</v>
+        <v>321</v>
+      </c>
+      <c r="E101" t="s">
+        <v>451</v>
       </c>
       <c r="F101">
         <v>499</v>
@@ -5592,7 +6063,7 @@
         <v>298</v>
       </c>
       <c r="X101" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Y101" s="2">
         <f t="shared" si="2"/>
@@ -5602,16 +6073,19 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C102" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D102" t="s">
-        <v>305</v>
+        <v>302</v>
+      </c>
+      <c r="E102" t="s">
+        <v>450</v>
       </c>
       <c r="F102">
         <v>59.95</v>
@@ -5632,7 +6106,7 @@
         <v>301</v>
       </c>
       <c r="X102" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Y102" s="2">
         <f t="shared" si="2"/>
@@ -5642,16 +6116,19 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B103" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C103" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D103" t="s">
-        <v>325</v>
+        <v>322</v>
+      </c>
+      <c r="E103" t="s">
+        <v>449</v>
       </c>
       <c r="G103">
         <v>69.95</v>
@@ -5669,7 +6146,7 @@
         <v>304</v>
       </c>
       <c r="X103" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Y103" s="2">
         <f t="shared" si="2"/>
@@ -5679,16 +6156,19 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104" t="s">
         <v>241</v>
       </c>
-      <c r="B104" t="s">
-        <v>244</v>
-      </c>
       <c r="C104" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D104" t="s">
-        <v>326</v>
+        <v>323</v>
+      </c>
+      <c r="E104" t="s">
+        <v>448</v>
       </c>
       <c r="G104">
         <v>799</v>
@@ -5703,7 +6183,7 @@
         <v>307</v>
       </c>
       <c r="X104" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Y104" s="2">
         <f t="shared" si="2"/>
@@ -5716,13 +6196,16 @@
         <v>30</v>
       </c>
       <c r="B105" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C105" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D105" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="E105" t="s">
+        <v>447</v>
       </c>
       <c r="G105">
         <v>69.95</v>
@@ -5737,7 +6220,7 @@
         <v>310</v>
       </c>
       <c r="X105" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Y105" s="2">
         <f t="shared" si="2"/>
@@ -5747,22 +6230,25 @@
     </row>
     <row r="106" spans="1:26">
       <c r="A106" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B106" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C106" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D106" t="s">
-        <v>328</v>
+        <v>325</v>
+      </c>
+      <c r="E106" t="s">
+        <v>446</v>
       </c>
       <c r="G106">
         <v>6.95</v>
       </c>
       <c r="I106" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N106">
         <v>313</v>
@@ -5780,7 +6266,7 @@
         <v>313</v>
       </c>
       <c r="X106" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Y106" s="2">
         <f t="shared" si="2"/>
@@ -5790,16 +6276,19 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C107" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D107" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="E107" t="s">
+        <v>445</v>
       </c>
       <c r="G107">
         <v>599</v>
@@ -5814,7 +6303,7 @@
         <v>316</v>
       </c>
       <c r="X107" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Y107" s="2">
         <f t="shared" si="2"/>
@@ -5824,16 +6313,19 @@
     </row>
     <row r="108" spans="1:26" ht="17.5" customHeight="1">
       <c r="A108" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C108" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D108" t="s">
-        <v>330</v>
+        <v>327</v>
+      </c>
+      <c r="E108" t="s">
+        <v>444</v>
       </c>
       <c r="G108">
         <v>69.95</v>
@@ -5845,7 +6337,7 @@
         <v>319</v>
       </c>
       <c r="X108" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Y108" s="2">
         <f t="shared" si="2"/>
@@ -5855,16 +6347,19 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C109" t="s">
         <v>87</v>
       </c>
       <c r="D109" t="s">
-        <v>331</v>
+        <v>328</v>
+      </c>
+      <c r="E109" t="s">
+        <v>443</v>
       </c>
       <c r="F109">
         <v>259.95</v>
@@ -5885,7 +6380,7 @@
         <v>322</v>
       </c>
       <c r="X109" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Y109" s="2">
         <f t="shared" si="2"/>
@@ -5895,16 +6390,19 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B110" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C110" t="s">
         <v>87</v>
       </c>
       <c r="D110" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+      <c r="E110" t="s">
+        <v>442</v>
       </c>
       <c r="F110">
         <v>249.95</v>
@@ -5925,7 +6423,7 @@
         <v>325</v>
       </c>
       <c r="X110" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Y110" s="2">
         <f t="shared" si="2"/>
@@ -5935,14 +6433,17 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B111" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C111" t="s">
         <v>42</v>
       </c>
+      <c r="E111" t="s">
+        <v>441</v>
+      </c>
       <c r="F111">
         <v>349.95</v>
       </c>
@@ -5950,7 +6451,7 @@
         <v>249</v>
       </c>
       <c r="I111" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="N111">
         <v>328</v>
@@ -5971,7 +6472,7 @@
         <v>328</v>
       </c>
       <c r="X111" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Y111" s="2">
         <f t="shared" si="2"/>
@@ -5981,14 +6482,17 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B112" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C112" t="s">
         <v>42</v>
       </c>
+      <c r="E112" t="s">
+        <v>440</v>
+      </c>
       <c r="F112">
         <v>449.95</v>
       </c>
@@ -5996,7 +6500,7 @@
         <v>299</v>
       </c>
       <c r="I112" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N112">
         <v>331</v>
@@ -6017,7 +6521,7 @@
         <v>331</v>
       </c>
       <c r="X112" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Y112" s="2">
         <f t="shared" si="2"/>
@@ -6027,16 +6531,19 @@
     </row>
     <row r="113" spans="1:26">
       <c r="A113" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B113" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D113" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="E113" t="s">
+        <v>439</v>
       </c>
       <c r="G113">
         <v>399</v>
@@ -6051,7 +6558,7 @@
         <v>334</v>
       </c>
       <c r="X113" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Y113" s="2">
         <f t="shared" si="2"/>
@@ -6060,16 +6567,19 @@
     </row>
     <row r="114" spans="1:26">
       <c r="A114" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B114">
         <v>19644</v>
       </c>
       <c r="C114" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D114" t="s">
-        <v>334</v>
+        <v>331</v>
+      </c>
+      <c r="E114" t="s">
+        <v>438</v>
       </c>
       <c r="F114">
         <v>59.95</v>
@@ -6096,7 +6606,7 @@
         <v>337</v>
       </c>
       <c r="X114" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Y114" s="2">
         <f t="shared" si="2"/>
@@ -6105,16 +6615,19 @@
     </row>
     <row r="115" spans="1:26">
       <c r="A115" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B115">
         <v>19743</v>
       </c>
       <c r="C115" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D115" t="s">
-        <v>335</v>
+        <v>332</v>
+      </c>
+      <c r="E115" t="s">
+        <v>437</v>
       </c>
       <c r="F115">
         <v>24.95</v>
@@ -6144,7 +6657,7 @@
         <v>340</v>
       </c>
       <c r="X115" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Y115" s="2">
         <f t="shared" si="2"/>
@@ -6153,13 +6666,16 @@
     </row>
     <row r="116" spans="1:26">
       <c r="A116" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C116" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D116" t="s">
-        <v>336</v>
+        <v>333</v>
+      </c>
+      <c r="E116" t="s">
+        <v>436</v>
       </c>
       <c r="G116">
         <v>19.95</v>
@@ -6183,7 +6699,7 @@
         <v>343</v>
       </c>
       <c r="X116" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Y116" s="2">
         <f t="shared" si="2"/>
@@ -6192,16 +6708,19 @@
     </row>
     <row r="117" spans="1:26">
       <c r="A117" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B117" t="s">
         <v>83</v>
       </c>
       <c r="C117" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D117" t="s">
-        <v>337</v>
+        <v>334</v>
+      </c>
+      <c r="E117" t="s">
+        <v>435</v>
       </c>
       <c r="F117">
         <v>99.95</v>
@@ -6225,14 +6744,14 @@
         <v>346</v>
       </c>
       <c r="X117" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Y117" s="2">
         <f t="shared" si="2"/>
         <v>346</v>
       </c>
       <c r="Z117" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/excel/producten.xlsx
+++ b/excel/producten.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25580" yWindow="0" windowWidth="25600" windowHeight="13180" tabRatio="500"/>
+    <workbookView xWindow="2040" yWindow="980" windowWidth="48260" windowHeight="25280" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="producten.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="495">
   <si>
     <t>productnaam</t>
   </si>
@@ -75,15 +75,6 @@
     <t>camping</t>
   </si>
   <si>
-    <t>baybeachadults</t>
-  </si>
-  <si>
-    <t>baybeachkids</t>
-  </si>
-  <si>
-    <t>bike</t>
-  </si>
-  <si>
     <t>Or Crew</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t>Playsuit dames</t>
   </si>
   <si>
-    <t>festival</t>
-  </si>
-  <si>
     <t>Ichi</t>
   </si>
   <si>
@@ -234,9 +222,6 @@
     <t>King Louie</t>
   </si>
   <si>
-    <t>aankomst</t>
-  </si>
-  <si>
     <t>Esther</t>
   </si>
   <si>
@@ -264,9 +249,6 @@
     <t>Amazonas</t>
   </si>
   <si>
-    <t>kamp kids</t>
-  </si>
-  <si>
     <t>Woodstock</t>
   </si>
   <si>
@@ -330,9 +312,6 @@
     <t>Rumbl</t>
   </si>
   <si>
-    <t>Beach kids</t>
-  </si>
-  <si>
     <t>Happy Hippie</t>
   </si>
   <si>
@@ -366,15 +345,6 @@
     <t>Name it</t>
   </si>
   <si>
-    <t>Assortiment zonnebrillen</t>
-  </si>
-  <si>
-    <t>met gratis zonnebescherming</t>
-  </si>
-  <si>
-    <t>Julbo</t>
-  </si>
-  <si>
     <t>Vanaf</t>
   </si>
   <si>
@@ -408,9 +378,6 @@
     <t>Barts</t>
   </si>
   <si>
-    <t>Beach</t>
-  </si>
-  <si>
     <t>Ivy Jade</t>
   </si>
   <si>
@@ -471,9 +438,6 @@
     <t>Vaude</t>
   </si>
   <si>
-    <t>Trekking 2+1</t>
-  </si>
-  <si>
     <t>Masai Mara</t>
   </si>
   <si>
@@ -579,9 +543,6 @@
     <t>Fast Bike</t>
   </si>
   <si>
-    <t>Trekking jurken</t>
-  </si>
-  <si>
     <t>Margot</t>
   </si>
   <si>
@@ -621,9 +582,6 @@
     <t>Rotorua</t>
   </si>
   <si>
-    <t>Trekking Algemeen</t>
-  </si>
-  <si>
     <t>Bridgeton Low WP</t>
   </si>
   <si>
@@ -708,9 +666,6 @@
     <t>Abus</t>
   </si>
   <si>
-    <t>Bike</t>
-  </si>
-  <si>
     <t>Vybe D7</t>
   </si>
   <si>
@@ -786,9 +741,6 @@
     <t>Rugzak Dames</t>
   </si>
   <si>
-    <t>Camping</t>
-  </si>
-  <si>
     <t>Vespucci 4</t>
   </si>
   <si>
@@ -846,9 +798,6 @@
     <t>Gratis bundle t.w.v. &amp;euro;59,95</t>
   </si>
   <si>
-    <t>Gratis Camlebak Eddy Kids 0,4l t.w.v. &amp;euro;15,95</t>
-  </si>
-  <si>
     <t>J&amp;J_OR-CREW-NECK_4312C52207_1010.jpg</t>
   </si>
   <si>
@@ -1308,9 +1257,6 @@
     <t>/name-it-jumpsuit-vigga-5284c52010</t>
   </si>
   <si>
-    <t>/julbo?&amp;flt_type_gender=junior&amp;filters=type_gender</t>
-  </si>
-  <si>
     <t>/speedo-lifestyle-speelgoed-glide-junior-snorkel-set-2i21c42001</t>
   </si>
   <si>
@@ -1507,6 +1453,57 @@
   </si>
   <si>
     <t>/ayacucho-t-shirt-masai-mara-dames-3112c40021</t>
+  </si>
+  <si>
+    <t>Niveajulbo</t>
+  </si>
+  <si>
+    <t>fietsen</t>
+  </si>
+  <si>
+    <t>badmode</t>
+  </si>
+  <si>
+    <t>niveajulbo.jpg</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>/index.cfm/fuseaction/products.search/?searchvalue=julbo&amp;flt_type_gender=junior&amp;filters=type_gender|LIST</t>
+  </si>
+  <si>
+    <t>Gratis Nivea bij aankoop van Julbo zonnebril</t>
+  </si>
+  <si>
+    <t>trekking</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>Gratis Camlebak Eddy 0,4l t.w.v. &amp;euro;15,95</t>
+  </si>
+  <si>
+    <t>2+1</t>
+  </si>
+  <si>
+    <t>Outdoor t-shirts: 2 kopen, 1 gratis</t>
+  </si>
+  <si>
+    <t>Totally Royal</t>
+  </si>
+  <si>
+    <t>Bag</t>
+  </si>
+  <si>
+    <t>Pieces</t>
+  </si>
+  <si>
+    <t>/pieces-shopper-totally-royal-leather-travel-bag-2315c52003</t>
+  </si>
+  <si>
+    <t>2125c50003_6565_01.jpg</t>
   </si>
 </sst>
 </file>
@@ -1573,8 +1570,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1587,11 +1588,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1926,11 +1931,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:Z119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1951,11 +1956,10 @@
     <col min="19" max="19" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.1640625" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" customWidth="1"/>
-    <col min="23" max="23" width="6.1640625" customWidth="1"/>
+    <col min="22" max="22" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1987,13 +1991,13 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -2017,48 +2021,45 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
+        <v>480</v>
+      </c>
+      <c r="V1" t="s">
+        <v>479</v>
+      </c>
+      <c r="W1" t="s">
+        <v>253</v>
+      </c>
+      <c r="X1" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="2" customFormat="1">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="G2" s="2">
         <v>17.95</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
@@ -2075,38 +2076,37 @@
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="2">
+      <c r="W2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="G3">
         <v>39.950000000000003</v>
       </c>
       <c r="H3" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O3">
         <v>4</v>
@@ -2114,27 +2114,27 @@
       <c r="Q3">
         <v>4</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="2">
-        <f t="shared" ref="Y3:Y31" si="0">Y2+3</f>
+      <c r="W3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" ref="X3:X32" si="0">X2+3</f>
         <v>4</v>
       </c>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="F4">
         <v>59.95</v>
@@ -2143,7 +2143,7 @@
         <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -2157,39 +2157,39 @@
       <c r="Q4">
         <v>7</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y4" s="2">
+      <c r="W4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="E5" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="G5">
         <v>16.95</v>
       </c>
       <c r="H5" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="I5" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -2200,27 +2200,27 @@
       <c r="Q5">
         <v>10</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y5" s="2">
+      <c r="W5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="F6">
         <v>24.95</v>
@@ -2243,30 +2243,30 @@
       <c r="U6">
         <v>13</v>
       </c>
-      <c r="X6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y6" s="2">
+      <c r="W6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="G7">
         <v>29.95</v>
@@ -2286,30 +2286,30 @@
       <c r="U7">
         <v>16</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y7" s="2">
+      <c r="W7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X7" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="E8" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="G8">
         <v>44.95</v>
@@ -2326,24 +2326,24 @@
       <c r="S8">
         <v>19</v>
       </c>
-      <c r="X8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y8" s="2">
+      <c r="W8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X8" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>159.9</v>
@@ -2352,7 +2352,7 @@
         <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>22</v>
@@ -2369,39 +2369,39 @@
       <c r="T9">
         <v>22</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y9" s="2">
+      <c r="W9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="G10">
         <v>19.95</v>
       </c>
       <c r="H10" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>25</v>
@@ -2418,27 +2418,27 @@
       <c r="T10">
         <v>25</v>
       </c>
-      <c r="X10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y10" s="2">
+      <c r="W10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X10" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" s="1" customFormat="1">
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:25" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
@@ -2456,31 +2456,30 @@
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11">
+      <c r="V11">
         <v>28</v>
       </c>
-      <c r="X11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y11" s="2">
+      <c r="W11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="Y11" s="2"/>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F12">
         <v>64.95</v>
@@ -2489,7 +2488,7 @@
         <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="L12" s="3">
         <v>1</v>
@@ -2500,30 +2499,30 @@
       <c r="R12">
         <v>31</v>
       </c>
-      <c r="X12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y12" s="2">
+      <c r="W12" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X12" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="E13" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="F13">
         <v>164.95</v>
@@ -2532,7 +2531,7 @@
         <v>99</v>
       </c>
       <c r="H13" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="N13">
         <v>34</v>
@@ -2549,30 +2548,30 @@
       <c r="T13">
         <v>34</v>
       </c>
-      <c r="X13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y13" s="2">
+      <c r="W13" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X13" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="E14" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="F14">
         <v>44.95</v>
@@ -2581,7 +2580,7 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="N14">
         <v>37</v>
@@ -2598,27 +2597,27 @@
       <c r="T14">
         <v>37</v>
       </c>
-      <c r="X14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y14" s="2">
+      <c r="W14" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X14" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F15">
         <v>135</v>
@@ -2627,7 +2626,7 @@
         <v>85</v>
       </c>
       <c r="H15" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="N15">
         <v>40</v>
@@ -2641,27 +2640,27 @@
       <c r="T15">
         <v>40</v>
       </c>
-      <c r="X15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y15" s="2">
+      <c r="W15" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X15" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="F16">
         <v>165</v>
@@ -2670,7 +2669,7 @@
         <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="N16">
         <v>43</v>
@@ -2684,27 +2683,27 @@
       <c r="T16">
         <v>43</v>
       </c>
-      <c r="X16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y16" s="2">
+      <c r="W16" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X16" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F17">
         <v>185</v>
@@ -2713,7 +2712,7 @@
         <v>115</v>
       </c>
       <c r="H17" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="N17">
         <v>46</v>
@@ -2727,24 +2726,24 @@
       <c r="T17">
         <v>46</v>
       </c>
-      <c r="X17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y17" s="2">
+      <c r="W17" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X17" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F18">
         <v>485</v>
@@ -2753,10 +2752,10 @@
         <v>229</v>
       </c>
       <c r="H18" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>49</v>
@@ -2770,30 +2769,30 @@
       <c r="T18">
         <v>49</v>
       </c>
-      <c r="X18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y18" s="2">
+      <c r="W18" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X18" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="E19" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="F19">
         <v>24.95</v>
@@ -2816,82 +2815,75 @@
       <c r="T19">
         <v>52</v>
       </c>
-      <c r="X19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y19" s="2">
+      <c r="W19" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X19" s="2">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>490</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>491</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>492</v>
       </c>
       <c r="D20" t="s">
-        <v>289</v>
+        <v>494</v>
+      </c>
+      <c r="E20" t="s">
+        <v>493</v>
       </c>
       <c r="F20">
-        <v>79.95</v>
+        <v>134.94999999999999</v>
       </c>
       <c r="G20">
-        <v>55</v>
-      </c>
-      <c r="H20" t="s">
-        <v>388</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="L20" s="3">
         <v>1</v>
       </c>
       <c r="N20">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q20">
-        <v>55</v>
-      </c>
-      <c r="U20">
-        <v>55</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y20" s="2">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:27">
+        <v>53</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X20" s="2">
+        <v>53</v>
+      </c>
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>272</v>
       </c>
       <c r="F21">
-        <v>79</v>
+        <v>79.95</v>
       </c>
       <c r="G21">
         <v>55</v>
       </c>
       <c r="H21" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2900,542 +2892,543 @@
         <v>1</v>
       </c>
       <c r="N21">
+        <v>55</v>
+      </c>
+      <c r="Q21">
+        <v>55</v>
+      </c>
+      <c r="U21">
+        <v>55</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X21" s="2">
+        <f>X19+3</f>
+        <v>55</v>
+      </c>
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>359</v>
+      </c>
+      <c r="F22">
+        <v>79</v>
+      </c>
+      <c r="G22">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s">
+        <v>372</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>58</v>
       </c>
-      <c r="Q21">
+      <c r="Q22">
         <v>58</v>
       </c>
-      <c r="U21">
+      <c r="U22">
         <v>58</v>
       </c>
-      <c r="X21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y21" s="2">
+      <c r="W22" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X22" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:27">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>290</v>
-      </c>
-      <c r="F22">
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23">
         <v>39.950000000000003</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>25</v>
       </c>
-      <c r="H22" t="s">
-        <v>390</v>
-      </c>
-      <c r="J22">
+      <c r="H23" t="s">
+        <v>373</v>
+      </c>
+      <c r="J23">
         <v>1</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L23" s="3">
         <v>1</v>
       </c>
-      <c r="N22">
+      <c r="N23">
         <v>61</v>
       </c>
-      <c r="Q22">
+      <c r="Q23">
         <v>61</v>
       </c>
-      <c r="X22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y22" s="2">
+      <c r="W23" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X23" s="2">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:27">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" t="s">
-        <v>291</v>
-      </c>
-      <c r="E23" t="s">
-        <v>415</v>
-      </c>
-      <c r="G23">
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" t="s">
+        <v>398</v>
+      </c>
+      <c r="G24">
         <v>19.95</v>
       </c>
-      <c r="N23">
+      <c r="N24">
         <v>64</v>
       </c>
-      <c r="O23">
+      <c r="O24">
         <v>64</v>
       </c>
-      <c r="S23">
+      <c r="S24">
         <v>64</v>
       </c>
-      <c r="X23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y23" s="2">
+      <c r="W24" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X24" s="2">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:27">
-      <c r="A24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>292</v>
-      </c>
-      <c r="E24" t="s">
-        <v>416</v>
-      </c>
-      <c r="F24">
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>275</v>
+      </c>
+      <c r="E25" t="s">
+        <v>399</v>
+      </c>
+      <c r="F25">
         <v>29.95</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>19</v>
       </c>
-      <c r="H24" t="s">
-        <v>391</v>
-      </c>
-      <c r="N24">
+      <c r="H25" t="s">
+        <v>374</v>
+      </c>
+      <c r="N25">
         <v>67</v>
       </c>
-      <c r="O24">
+      <c r="O25">
         <v>67</v>
       </c>
-      <c r="P24">
+      <c r="P25">
         <v>67</v>
       </c>
-      <c r="R24">
+      <c r="R25">
         <v>67</v>
       </c>
-      <c r="S24">
+      <c r="S25">
         <v>67</v>
       </c>
-      <c r="T24">
+      <c r="T25">
         <v>67</v>
       </c>
-      <c r="U24">
+      <c r="U25">
         <v>67</v>
       </c>
-      <c r="V24">
-        <v>67</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y24" s="2">
+      <c r="W25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X25" s="2">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="1:27">
-      <c r="A25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" t="s">
-        <v>293</v>
-      </c>
-      <c r="E25" t="s">
-        <v>417</v>
-      </c>
-      <c r="G25">
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" t="s">
+        <v>400</v>
+      </c>
+      <c r="G26">
         <v>29.95</v>
       </c>
-      <c r="H25" t="s">
-        <v>392</v>
-      </c>
-      <c r="N25">
+      <c r="H26" t="s">
+        <v>375</v>
+      </c>
+      <c r="N26">
         <v>70</v>
       </c>
-      <c r="O25">
+      <c r="O26">
         <v>70</v>
       </c>
-      <c r="R25">
+      <c r="R26">
         <v>70</v>
       </c>
-      <c r="S25">
+      <c r="S26">
         <v>70</v>
       </c>
-      <c r="T25">
+      <c r="T26">
         <v>70</v>
       </c>
-      <c r="X25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y25" s="2">
+      <c r="W26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X26" s="2">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:27">
-      <c r="A26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" t="s">
-        <v>294</v>
-      </c>
-      <c r="E26" t="s">
-        <v>418</v>
-      </c>
-      <c r="G26">
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E27" t="s">
+        <v>401</v>
+      </c>
+      <c r="G27">
         <v>49.95</v>
       </c>
-      <c r="P26">
+      <c r="P27">
         <v>73</v>
       </c>
-      <c r="R26">
+      <c r="R27">
         <v>73</v>
       </c>
-      <c r="S26">
+      <c r="S27">
         <v>73</v>
       </c>
-      <c r="T26">
+      <c r="T27">
         <v>73</v>
       </c>
-      <c r="X26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y26" s="2">
+      <c r="W27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X27" s="2">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="1:27">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" t="s">
-        <v>419</v>
-      </c>
-      <c r="G27">
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>402</v>
+      </c>
+      <c r="G28">
         <v>94.95</v>
       </c>
-      <c r="H27" t="s">
-        <v>393</v>
-      </c>
-      <c r="I27" t="s">
-        <v>275</v>
-      </c>
-      <c r="P27">
+      <c r="H28" t="s">
+        <v>376</v>
+      </c>
+      <c r="I28" t="s">
+        <v>487</v>
+      </c>
+      <c r="P28">
         <v>76</v>
       </c>
-      <c r="R27">
+      <c r="R28">
         <v>76</v>
       </c>
-      <c r="S27">
+      <c r="S28">
         <v>76</v>
       </c>
-      <c r="T27">
+      <c r="T28">
         <v>76</v>
       </c>
-      <c r="X27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y27" s="2">
+      <c r="W28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X28" s="2">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="Z27" s="2"/>
-    </row>
-    <row r="28" spans="1:27">
-      <c r="A28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" t="s">
-        <v>295</v>
-      </c>
-      <c r="E28" t="s">
-        <v>420</v>
-      </c>
-      <c r="G28">
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E29" t="s">
+        <v>403</v>
+      </c>
+      <c r="G29">
         <v>9.9499999999999993</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>79</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <v>79</v>
       </c>
-      <c r="P28">
+      <c r="P29">
         <v>79</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>79</v>
       </c>
-      <c r="S28">
+      <c r="S29">
         <v>79</v>
       </c>
-      <c r="T28">
+      <c r="T29">
         <v>79</v>
       </c>
-      <c r="U28">
+      <c r="U29">
         <v>79</v>
       </c>
-      <c r="X28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y28" s="2">
+      <c r="W29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X29" s="2">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="Z28" s="2"/>
-    </row>
-    <row r="29" spans="1:27">
-      <c r="A29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" t="s">
-        <v>296</v>
-      </c>
-      <c r="E29" t="s">
-        <v>421</v>
-      </c>
-      <c r="F29">
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>279</v>
+      </c>
+      <c r="E30" t="s">
+        <v>404</v>
+      </c>
+      <c r="F30">
         <v>9.9499999999999993</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>6</v>
       </c>
-      <c r="I29" t="s">
-        <v>47</v>
-      </c>
-      <c r="N29">
+      <c r="I30" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30">
         <v>82</v>
       </c>
-      <c r="O29">
+      <c r="O30">
         <v>82</v>
       </c>
-      <c r="P29">
+      <c r="P30">
         <v>82</v>
       </c>
-      <c r="R29">
+      <c r="R30">
         <v>82</v>
       </c>
-      <c r="S29">
+      <c r="S30">
         <v>82</v>
       </c>
-      <c r="T29">
+      <c r="T30">
         <v>82</v>
       </c>
-      <c r="X29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y29" s="2">
+      <c r="W30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X30" s="2">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="Z29" s="2"/>
-    </row>
-    <row r="30" spans="1:27" s="2" customFormat="1">
-      <c r="A30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="Y30" s="2"/>
+    </row>
+    <row r="31" spans="1:26" s="2" customFormat="1">
+      <c r="A31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F31" s="2">
         <v>74.95</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G31" s="2">
         <v>49</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="4"/>
-      <c r="N30">
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+      <c r="N31">
         <v>85</v>
       </c>
-      <c r="O30">
+      <c r="O31">
         <v>85</v>
       </c>
-      <c r="P30">
+      <c r="P31">
         <v>85</v>
       </c>
-      <c r="Q30"/>
-      <c r="R30">
+      <c r="Q31"/>
+      <c r="R31">
         <v>85</v>
       </c>
-      <c r="S30">
+      <c r="S31">
         <v>85</v>
       </c>
-      <c r="T30">
+      <c r="T31">
         <v>85</v>
       </c>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y30" s="2">
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X31" s="2">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
-      <c r="A31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" t="s">
-        <v>298</v>
-      </c>
-      <c r="E31" t="s">
-        <v>423</v>
-      </c>
-      <c r="F31">
+    <row r="32" spans="1:26">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32" t="s">
+        <v>406</v>
+      </c>
+      <c r="F32">
         <v>39.950000000000003</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>25</v>
       </c>
-      <c r="N31">
+      <c r="N32">
         <v>88</v>
       </c>
-      <c r="O31">
+      <c r="O32">
         <v>88</v>
       </c>
-      <c r="R31">
+      <c r="R32">
         <v>88</v>
       </c>
-      <c r="S31">
+      <c r="S32">
         <v>88</v>
       </c>
-      <c r="T31">
+      <c r="T32">
         <v>88</v>
       </c>
-      <c r="X31" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y31" s="2">
+      <c r="W32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X32" s="2">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-    </row>
-    <row r="32" spans="1:27">
-      <c r="A32" t="s">
-        <v>372</v>
-      </c>
-      <c r="B32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D32" t="s">
-        <v>374</v>
-      </c>
-      <c r="E32" t="s">
-        <v>424</v>
-      </c>
-      <c r="F32">
-        <v>34.950000000000003</v>
-      </c>
-      <c r="G32">
-        <v>25</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>91</v>
-      </c>
-      <c r="V32">
-        <v>91</v>
-      </c>
-      <c r="X32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y32" s="2">
-        <f>Y31+3</f>
-        <v>91</v>
-      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-    </row>
-    <row r="33" spans="1:27">
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E33" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="F33">
         <v>34.950000000000003</v>
@@ -3447,637 +3440,640 @@
         <v>1</v>
       </c>
       <c r="P33">
-        <v>94</v>
-      </c>
-      <c r="V33">
-        <v>94</v>
-      </c>
-      <c r="X33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y33" s="2">
-        <f t="shared" ref="Y33:Y96" si="1">Y32+3</f>
-        <v>94</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="U33">
+        <v>91</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X33" s="2">
+        <f>X32+3</f>
+        <v>91</v>
+      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-    </row>
-    <row r="34" spans="1:27">
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>354</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="E34" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F34">
-        <v>24.95</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="G34">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L34" s="3">
         <v>1</v>
       </c>
       <c r="P34">
+        <v>94</v>
+      </c>
+      <c r="U34">
+        <v>94</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X34" s="2">
+        <f t="shared" ref="X34:X97" si="1">X33+3</f>
+        <v>94</v>
+      </c>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" t="s">
         <v>97</v>
       </c>
-      <c r="V34">
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>358</v>
+      </c>
+      <c r="E35" t="s">
+        <v>409</v>
+      </c>
+      <c r="F35">
+        <v>24.95</v>
+      </c>
+      <c r="G35">
+        <v>19</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1</v>
+      </c>
+      <c r="P35">
         <v>97</v>
       </c>
-      <c r="X34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y34" s="2">
+      <c r="U35">
+        <v>97</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X35" s="2">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-    </row>
-    <row r="35" spans="1:27">
-      <c r="A35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" t="s">
-        <v>369</v>
-      </c>
-      <c r="F35">
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>352</v>
+      </c>
+      <c r="F36">
         <v>27.95</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>19</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L36" s="3">
         <v>1</v>
       </c>
-      <c r="P35">
+      <c r="P36">
         <v>100</v>
       </c>
-      <c r="V35">
+      <c r="U36">
         <v>100</v>
       </c>
-      <c r="X35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y35" s="2">
+      <c r="W36" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-    </row>
-    <row r="36" spans="1:27">
-      <c r="A36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" t="s">
-        <v>370</v>
-      </c>
-      <c r="E36" t="s">
-        <v>427</v>
-      </c>
-      <c r="F36">
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" t="s">
+        <v>353</v>
+      </c>
+      <c r="E37" t="s">
+        <v>410</v>
+      </c>
+      <c r="F37">
         <v>27.95</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>19</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L37" s="3">
         <v>1</v>
       </c>
-      <c r="P36">
+      <c r="P37">
         <v>103</v>
       </c>
-      <c r="V36">
+      <c r="U37">
         <v>103</v>
       </c>
-      <c r="X36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y36" s="2">
+      <c r="W37" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X37" s="2">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-    </row>
-    <row r="37" spans="1:27">
-      <c r="A37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" t="s">
-        <v>368</v>
-      </c>
-      <c r="E37" t="s">
-        <v>428</v>
-      </c>
-      <c r="G37">
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
+        <v>351</v>
+      </c>
+      <c r="E38" t="s">
+        <v>411</v>
+      </c>
+      <c r="G38">
         <v>10.95</v>
       </c>
-      <c r="H37" t="s">
-        <v>394</v>
-      </c>
-      <c r="P37">
+      <c r="H38" t="s">
+        <v>377</v>
+      </c>
+      <c r="P38">
         <v>106</v>
       </c>
-      <c r="Q37">
+      <c r="Q38">
         <v>106</v>
       </c>
-      <c r="V37">
+      <c r="U38">
         <v>106</v>
       </c>
-      <c r="X37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y37" s="2">
+      <c r="W38" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X38" s="2">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-    </row>
-    <row r="38" spans="1:27">
-      <c r="A38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" t="s">
-        <v>429</v>
-      </c>
-      <c r="G38">
-        <v>29.95</v>
-      </c>
-      <c r="I38" t="s">
-        <v>118</v>
-      </c>
-      <c r="P38">
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" t="s">
         <v>109</v>
       </c>
-      <c r="Q38">
-        <v>109</v>
-      </c>
-      <c r="V38">
-        <v>109</v>
-      </c>
-      <c r="X38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y38" s="2">
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" t="s">
+        <v>412</v>
+      </c>
+      <c r="F39">
+        <v>21</v>
+      </c>
+      <c r="G39">
+        <v>15</v>
+      </c>
+      <c r="P39">
+        <v>112</v>
+      </c>
+      <c r="U39">
+        <v>112</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X39" s="2">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-    </row>
-    <row r="39" spans="1:27">
-      <c r="A39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" t="s">
-        <v>430</v>
-      </c>
-      <c r="F39">
-        <v>21</v>
-      </c>
-      <c r="G39">
-        <v>15</v>
-      </c>
-      <c r="P39">
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" t="s">
         <v>112</v>
       </c>
-      <c r="V39">
-        <v>112</v>
-      </c>
-      <c r="X39" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y39" s="2">
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" t="s">
+        <v>413</v>
+      </c>
+      <c r="G40">
+        <v>7.5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P40">
+        <v>115</v>
+      </c>
+      <c r="U40">
+        <v>115</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X40" s="2">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-    </row>
-    <row r="40" spans="1:27">
-      <c r="A40" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" t="s">
-        <v>431</v>
-      </c>
-      <c r="G40">
-        <v>7.5</v>
-      </c>
-      <c r="I40" t="s">
-        <v>118</v>
-      </c>
-      <c r="P40">
-        <v>115</v>
-      </c>
-      <c r="V40">
-        <v>115</v>
-      </c>
-      <c r="X40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y40" s="2">
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" t="s">
+        <v>478</v>
+      </c>
+      <c r="B41" t="s">
+        <v>484</v>
+      </c>
+      <c r="D41" t="s">
+        <v>481</v>
+      </c>
+      <c r="E41" t="s">
+        <v>483</v>
+      </c>
+      <c r="P41">
+        <v>117</v>
+      </c>
+      <c r="U41">
+        <v>117</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X41" s="2">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-    </row>
-    <row r="41" spans="1:27" s="1" customFormat="1">
-      <c r="A41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="4"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41">
+      <c r="Y41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="2"/>
+    </row>
+    <row r="42" spans="1:26" s="1" customFormat="1">
+      <c r="A42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="4"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42">
         <v>118</v>
       </c>
-      <c r="Q41">
+      <c r="Q42">
         <v>118</v>
       </c>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41">
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42">
         <v>118</v>
       </c>
-      <c r="V41">
-        <v>118</v>
-      </c>
-      <c r="W41"/>
-      <c r="X41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y41" s="2">
+      <c r="V42"/>
+      <c r="W42" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X42" s="2">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-    </row>
-    <row r="42" spans="1:27">
-      <c r="A42" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" t="s">
-        <v>299</v>
-      </c>
-      <c r="F42">
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" t="s">
+        <v>282</v>
+      </c>
+      <c r="F43">
         <v>34.99</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>25</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L43" s="3">
         <v>1</v>
       </c>
-      <c r="N42">
+      <c r="N43">
         <v>121</v>
       </c>
-      <c r="O42">
+      <c r="O43">
         <v>121</v>
       </c>
-      <c r="Q42">
+      <c r="Q43">
         <v>121</v>
       </c>
-      <c r="R42">
+      <c r="R43">
         <v>121</v>
       </c>
-      <c r="U42">
+      <c r="U43">
         <v>121</v>
       </c>
-      <c r="X42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y42" s="2">
+      <c r="W43" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X43" s="2">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-    </row>
-    <row r="43" spans="1:27">
-      <c r="A43" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43">
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44">
         <v>74.900000000000006</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>49</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L44" s="3">
         <v>1</v>
       </c>
-      <c r="U43">
+      <c r="U44">
         <v>124</v>
       </c>
-      <c r="X43" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y43" s="2">
+      <c r="W44" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X44" s="2">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-    </row>
-    <row r="44" spans="1:27">
-      <c r="A44" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" t="s">
-        <v>300</v>
-      </c>
-      <c r="E44" t="s">
-        <v>432</v>
-      </c>
-      <c r="F44">
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>283</v>
+      </c>
+      <c r="E45" t="s">
+        <v>414</v>
+      </c>
+      <c r="F45">
         <v>19.95</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>14</v>
       </c>
-      <c r="H44" t="s">
-        <v>395</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="H45" t="s">
+        <v>378</v>
+      </c>
+      <c r="L45" s="3">
         <v>1</v>
       </c>
-      <c r="O44">
+      <c r="O45">
         <v>127</v>
       </c>
-      <c r="Q44">
+      <c r="Q45">
         <v>127</v>
       </c>
-      <c r="U44">
+      <c r="U45">
         <v>127</v>
       </c>
-      <c r="X44" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y44" s="2">
+      <c r="W45" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X45" s="2">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="Z44" s="2"/>
-    </row>
-    <row r="45" spans="1:27">
-      <c r="A45" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" t="s">
-        <v>367</v>
-      </c>
-      <c r="E45" t="s">
-        <v>433</v>
-      </c>
-      <c r="F45">
+      <c r="Y45" s="2"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
+        <v>350</v>
+      </c>
+      <c r="E46" t="s">
+        <v>415</v>
+      </c>
+      <c r="F46">
         <v>69.95</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <v>49</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L46" s="3">
         <v>1</v>
       </c>
-      <c r="N45">
+      <c r="N46">
         <v>130</v>
       </c>
-      <c r="U45">
+      <c r="U46">
         <v>130</v>
       </c>
-      <c r="X45" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y45" s="2">
+      <c r="W46" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X46" s="2">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="Z45" s="2"/>
-    </row>
-    <row r="46" spans="1:27">
-      <c r="A46" t="s">
-        <v>138</v>
-      </c>
-      <c r="B46" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" t="s">
-        <v>366</v>
-      </c>
-      <c r="E46" t="s">
-        <v>434</v>
-      </c>
-      <c r="G46">
+      <c r="Y46" s="2"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E47" t="s">
+        <v>416</v>
+      </c>
+      <c r="G47">
         <v>39.950000000000003</v>
       </c>
-      <c r="H46" t="s">
-        <v>396</v>
-      </c>
-      <c r="I46" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46">
+      <c r="H47" t="s">
+        <v>379</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47">
         <v>133</v>
       </c>
-      <c r="U46">
+      <c r="U47">
         <v>133</v>
       </c>
-      <c r="X46" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y46" s="2">
+      <c r="W47" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X47" s="2">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="Z46" s="2"/>
-    </row>
-    <row r="47" spans="1:27">
-      <c r="A47" t="s">
-        <v>140</v>
-      </c>
-      <c r="B47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" t="s">
-        <v>365</v>
-      </c>
-      <c r="F47">
+      <c r="Y47" s="2"/>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" t="s">
+        <v>348</v>
+      </c>
+      <c r="F48">
         <v>49.95</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <v>35</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L48" s="3">
         <v>1</v>
       </c>
-      <c r="N47">
+      <c r="N48">
         <v>136</v>
       </c>
-      <c r="Q47">
+      <c r="Q48">
         <v>136</v>
       </c>
-      <c r="U47">
+      <c r="U48">
         <v>136</v>
       </c>
-      <c r="X47" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y47" s="2">
+      <c r="W48" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X48" s="2">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="Z47" s="2"/>
-    </row>
-    <row r="48" spans="1:27">
-      <c r="A48" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" t="s">
-        <v>301</v>
-      </c>
-      <c r="F48">
+      <c r="Y48" s="2"/>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" t="s">
+        <v>284</v>
+      </c>
+      <c r="F49">
         <v>49.95</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>35</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L49" s="3">
         <v>1</v>
       </c>
-      <c r="O48">
+      <c r="O49">
         <v>139</v>
       </c>
-      <c r="U48">
+      <c r="U49">
         <v>139</v>
       </c>
-      <c r="X48" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y48" s="2">
+      <c r="W49" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X49" s="2">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="Z48" s="2"/>
-    </row>
-    <row r="49" spans="1:27" s="1" customFormat="1">
-      <c r="A49" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="4"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49">
-        <v>142</v>
-      </c>
-      <c r="V49"/>
-      <c r="W49"/>
-      <c r="X49" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y49" s="2">
-        <f t="shared" si="1"/>
-        <v>142</v>
-      </c>
-      <c r="Z49" s="2"/>
-      <c r="AA49"/>
-    </row>
-    <row r="50" spans="1:27" s="1" customFormat="1">
+      <c r="Y49" s="2"/>
+    </row>
+    <row r="50" spans="1:26" s="1" customFormat="1">
       <c r="A50" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="4"/>
@@ -4089,2669 +4085,2691 @@
       <c r="S50"/>
       <c r="T50"/>
       <c r="U50">
+        <v>142</v>
+      </c>
+      <c r="V50"/>
+      <c r="W50" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X50" s="2">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="Y50" s="2"/>
+      <c r="Z50"/>
+    </row>
+    <row r="51" spans="1:26" s="1" customFormat="1">
+      <c r="A51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="4"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51">
         <v>145</v>
       </c>
-      <c r="V50"/>
-      <c r="W50"/>
-      <c r="X50" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y50" s="2">
+      <c r="V51"/>
+      <c r="W51" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="X51" s="2">
         <f t="shared" si="1"/>
         <v>145</v>
       </c>
-      <c r="Z50" s="2"/>
-      <c r="AA50"/>
-    </row>
-    <row r="51" spans="1:27">
-      <c r="A51" t="s">
-        <v>147</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="Y51" s="2"/>
+      <c r="Z51"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" t="s">
+        <v>286</v>
+      </c>
+      <c r="G52">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="M52" s="4">
+        <v>1</v>
+      </c>
+      <c r="N52">
         <v>148</v>
       </c>
-      <c r="C51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" t="s">
-        <v>303</v>
-      </c>
-      <c r="G51">
-        <v>36.950000000000003</v>
-      </c>
-      <c r="M51" s="4">
-        <v>1</v>
-      </c>
-      <c r="N51">
+      <c r="R52">
         <v>148</v>
       </c>
-      <c r="R51">
-        <v>148</v>
-      </c>
-      <c r="X51" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y51" s="2">
+      <c r="W52" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X52" s="2">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="Z51" s="2"/>
-    </row>
-    <row r="52" spans="1:27">
-      <c r="A52" t="s">
+      <c r="Y52" s="2"/>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" t="s">
+        <v>318</v>
+      </c>
+      <c r="E53" t="s">
+        <v>477</v>
+      </c>
+      <c r="G53">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="M53" s="4">
+        <v>1</v>
+      </c>
+      <c r="N53">
         <v>151</v>
       </c>
-      <c r="B52" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" t="s">
-        <v>335</v>
-      </c>
-      <c r="E52" t="s">
-        <v>495</v>
-      </c>
-      <c r="G52">
-        <v>34.950000000000003</v>
-      </c>
-      <c r="M52" s="4">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>151</v>
-      </c>
-      <c r="X52" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y52" s="2">
+      <c r="W53" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X53" s="2">
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
-      <c r="Z52" s="2"/>
-    </row>
-    <row r="53" spans="1:27">
-      <c r="A53" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" t="s">
-        <v>336</v>
-      </c>
-      <c r="E53" t="s">
-        <v>494</v>
-      </c>
-      <c r="G53">
+      <c r="Y53" s="2"/>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" t="s">
+        <v>319</v>
+      </c>
+      <c r="E54" t="s">
+        <v>476</v>
+      </c>
+      <c r="G54">
         <v>29.95</v>
       </c>
-      <c r="H53" t="s">
-        <v>403</v>
-      </c>
-      <c r="M53" s="4">
+      <c r="H54" t="s">
+        <v>386</v>
+      </c>
+      <c r="M54" s="4">
         <v>1</v>
       </c>
-      <c r="N53">
+      <c r="N54">
         <v>154</v>
       </c>
-      <c r="X53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y53" s="2">
+      <c r="W54" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X54" s="2">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="Z53" s="2"/>
-    </row>
-    <row r="54" spans="1:27">
-      <c r="A54" t="s">
-        <v>156</v>
-      </c>
-      <c r="B54" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" t="s">
-        <v>337</v>
-      </c>
-      <c r="E54" t="s">
-        <v>493</v>
-      </c>
-      <c r="G54">
+      <c r="Y54" s="2"/>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s">
+        <v>320</v>
+      </c>
+      <c r="E55" t="s">
+        <v>475</v>
+      </c>
+      <c r="G55">
         <v>24.95</v>
       </c>
-      <c r="H54" t="s">
-        <v>400</v>
-      </c>
-      <c r="M54" s="4">
+      <c r="H55" t="s">
+        <v>383</v>
+      </c>
+      <c r="M55" s="4">
         <v>1</v>
       </c>
-      <c r="N54">
+      <c r="N55">
         <v>157</v>
       </c>
-      <c r="X54" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y54" s="2">
+      <c r="W55" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X55" s="2">
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
-      <c r="Z54" s="2"/>
-    </row>
-    <row r="55" spans="1:27">
-      <c r="A55" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" t="s">
-        <v>338</v>
-      </c>
-      <c r="E55" t="s">
-        <v>492</v>
-      </c>
-      <c r="G55">
+      <c r="Y55" s="2"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" t="s">
+        <v>321</v>
+      </c>
+      <c r="E56" t="s">
+        <v>474</v>
+      </c>
+      <c r="G56">
         <v>29.95</v>
       </c>
-      <c r="H55" t="s">
-        <v>400</v>
-      </c>
-      <c r="M55" s="4">
+      <c r="H56" t="s">
+        <v>383</v>
+      </c>
+      <c r="M56" s="4">
         <v>1</v>
       </c>
-      <c r="N55">
+      <c r="N56">
         <v>160</v>
       </c>
-      <c r="X55" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y55" s="2">
+      <c r="W56" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X56" s="2">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="Z55" s="2"/>
-    </row>
-    <row r="56" spans="1:27">
-      <c r="A56" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" t="s">
-        <v>398</v>
-      </c>
-      <c r="C56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" t="s">
-        <v>339</v>
-      </c>
-      <c r="E56" t="s">
-        <v>491</v>
-      </c>
-      <c r="G56">
+      <c r="Y56" s="2"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" t="s">
+        <v>381</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" t="s">
+        <v>322</v>
+      </c>
+      <c r="E57" t="s">
+        <v>473</v>
+      </c>
+      <c r="G57">
         <v>29.95</v>
       </c>
-      <c r="H56" t="s">
-        <v>399</v>
-      </c>
-      <c r="M56" s="4">
+      <c r="H57" t="s">
+        <v>382</v>
+      </c>
+      <c r="M57" s="4">
         <v>1</v>
       </c>
-      <c r="N56">
+      <c r="N57">
         <v>163</v>
       </c>
-      <c r="X56" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y56" s="2">
+      <c r="W57" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X57" s="2">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
-      <c r="Z56" s="2"/>
-    </row>
-    <row r="57" spans="1:27">
-      <c r="A57" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" t="s">
-        <v>340</v>
-      </c>
-      <c r="G57">
+      <c r="Y57" s="2"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" t="s">
+        <v>323</v>
+      </c>
+      <c r="G58">
         <v>44.95</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M58" s="4">
         <v>1</v>
       </c>
-      <c r="O57">
+      <c r="O58">
         <v>166</v>
       </c>
-      <c r="X57" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y57" s="2">
+      <c r="W58" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X58" s="2">
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
-      <c r="Z57" s="2"/>
-    </row>
-    <row r="58" spans="1:27">
-      <c r="A58" t="s">
-        <v>161</v>
-      </c>
-      <c r="B58" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" t="s">
-        <v>341</v>
-      </c>
-      <c r="E58" t="s">
-        <v>490</v>
-      </c>
-      <c r="G58">
+      <c r="Y58" s="2"/>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" t="s">
+        <v>324</v>
+      </c>
+      <c r="E59" t="s">
+        <v>472</v>
+      </c>
+      <c r="G59">
         <v>44.95</v>
       </c>
-      <c r="M58" s="4">
+      <c r="M59" s="4">
         <v>1</v>
       </c>
-      <c r="O58">
+      <c r="O59">
         <v>169</v>
       </c>
-      <c r="X58" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y58" s="2">
+      <c r="W59" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X59" s="2">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="Z58" s="2"/>
-    </row>
-    <row r="59" spans="1:27">
-      <c r="A59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" t="s">
-        <v>163</v>
-      </c>
-      <c r="D59" t="s">
-        <v>342</v>
-      </c>
-      <c r="E59" t="s">
-        <v>489</v>
-      </c>
-      <c r="G59">
+      <c r="Y59" s="2"/>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
+        <v>325</v>
+      </c>
+      <c r="E60" t="s">
+        <v>471</v>
+      </c>
+      <c r="G60">
         <v>34.950000000000003</v>
       </c>
-      <c r="H59" t="s">
-        <v>405</v>
-      </c>
-      <c r="M59" s="4">
+      <c r="H60" t="s">
+        <v>388</v>
+      </c>
+      <c r="M60" s="4">
         <v>1</v>
       </c>
-      <c r="O59">
+      <c r="O60">
         <v>172</v>
       </c>
-      <c r="X59" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y59" s="2">
+      <c r="W60" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X60" s="2">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="Z59" s="2"/>
-    </row>
-    <row r="60" spans="1:27">
-      <c r="A60" t="s">
-        <v>164</v>
-      </c>
-      <c r="B60" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" t="s">
-        <v>163</v>
-      </c>
-      <c r="D60" t="s">
-        <v>343</v>
-      </c>
-      <c r="E60" t="s">
-        <v>488</v>
-      </c>
-      <c r="G60">
+      <c r="Y60" s="2"/>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" t="s">
+        <v>326</v>
+      </c>
+      <c r="E61" t="s">
+        <v>470</v>
+      </c>
+      <c r="G61">
         <v>30</v>
       </c>
-      <c r="H60" t="s">
-        <v>404</v>
-      </c>
-      <c r="M60" s="4">
+      <c r="H61" t="s">
+        <v>387</v>
+      </c>
+      <c r="M61" s="4">
         <v>1</v>
       </c>
-      <c r="O60">
+      <c r="O61">
         <v>175</v>
       </c>
-      <c r="X60" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y60" s="2">
+      <c r="W61" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X61" s="2">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="Z60" s="2"/>
-    </row>
-    <row r="61" spans="1:27">
-      <c r="A61" t="s">
-        <v>165</v>
-      </c>
-      <c r="B61" t="s">
-        <v>134</v>
-      </c>
-      <c r="C61" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" t="s">
-        <v>344</v>
-      </c>
-      <c r="G61">
+      <c r="Y61" s="2"/>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>327</v>
+      </c>
+      <c r="G62">
         <v>29.95</v>
       </c>
-      <c r="M61" s="4">
+      <c r="M62" s="4">
         <v>1</v>
       </c>
-      <c r="O61">
+      <c r="O62">
         <v>178</v>
       </c>
-      <c r="X61" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y61" s="2">
+      <c r="W62" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X62" s="2">
         <f t="shared" si="1"/>
         <v>178</v>
       </c>
-      <c r="Z61" s="2"/>
-    </row>
-    <row r="62" spans="1:27">
-      <c r="A62" t="s">
-        <v>166</v>
-      </c>
-      <c r="B62" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" t="s">
-        <v>345</v>
-      </c>
-      <c r="E62" t="s">
-        <v>487</v>
-      </c>
-      <c r="G62">
+      <c r="Y62" s="2"/>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>328</v>
+      </c>
+      <c r="E63" t="s">
+        <v>469</v>
+      </c>
+      <c r="G63">
         <v>29.95</v>
       </c>
-      <c r="M62" s="4">
+      <c r="M63" s="4">
         <v>1</v>
       </c>
-      <c r="O62">
+      <c r="O63">
         <v>181</v>
       </c>
-      <c r="X62" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y62" s="2">
+      <c r="W63" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X63" s="2">
         <f t="shared" si="1"/>
         <v>181</v>
       </c>
-      <c r="Z62" s="2"/>
-    </row>
-    <row r="63" spans="1:27">
-      <c r="A63" t="s">
-        <v>167</v>
-      </c>
-      <c r="B63" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" t="s">
-        <v>346</v>
-      </c>
-      <c r="G63">
+      <c r="Y63" s="2"/>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>329</v>
+      </c>
+      <c r="G64">
         <v>29.95</v>
       </c>
-      <c r="M63" s="4">
+      <c r="M64" s="4">
         <v>1</v>
       </c>
-      <c r="O63">
+      <c r="O64">
         <v>184</v>
       </c>
-      <c r="X63" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y63" s="2">
+      <c r="W64" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X64" s="2">
         <f t="shared" si="1"/>
         <v>184</v>
       </c>
-      <c r="Z63" s="2"/>
-    </row>
-    <row r="64" spans="1:27">
-      <c r="A64" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" t="s">
-        <v>347</v>
-      </c>
-      <c r="E64" t="s">
-        <v>486</v>
-      </c>
-      <c r="G64">
+      <c r="Y64" s="2"/>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="A65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" t="s">
+        <v>330</v>
+      </c>
+      <c r="E65" t="s">
+        <v>468</v>
+      </c>
+      <c r="G65">
         <v>34.950000000000003</v>
       </c>
-      <c r="M64" s="4">
+      <c r="M65" s="4">
         <v>1</v>
       </c>
-      <c r="O64">
+      <c r="O65">
         <v>187</v>
       </c>
-      <c r="X64" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y64" s="2">
+      <c r="W65" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X65" s="2">
         <f t="shared" si="1"/>
         <v>187</v>
       </c>
-      <c r="Z64" s="2"/>
-    </row>
-    <row r="65" spans="1:26">
-      <c r="A65" t="s">
-        <v>169</v>
-      </c>
-      <c r="B65" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" t="s">
-        <v>348</v>
-      </c>
-      <c r="E65" t="s">
-        <v>485</v>
-      </c>
-      <c r="G65">
+      <c r="Y65" s="2"/>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" t="s">
+        <v>331</v>
+      </c>
+      <c r="E66" t="s">
+        <v>467</v>
+      </c>
+      <c r="G66">
         <v>34.950000000000003</v>
       </c>
-      <c r="H65" t="s">
-        <v>397</v>
-      </c>
-      <c r="M65" s="4">
+      <c r="H66" t="s">
+        <v>380</v>
+      </c>
+      <c r="M66" s="4">
         <v>1</v>
       </c>
-      <c r="O65">
+      <c r="O66">
         <v>190</v>
       </c>
-      <c r="X65" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y65" s="2">
+      <c r="W66" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X66" s="2">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="Z65" s="2"/>
-    </row>
-    <row r="66" spans="1:26">
-      <c r="A66" t="s">
-        <v>170</v>
-      </c>
-      <c r="B66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" t="s">
-        <v>349</v>
-      </c>
-      <c r="E66" t="s">
-        <v>484</v>
-      </c>
-      <c r="G66">
+      <c r="Y66" s="2"/>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" t="s">
+        <v>332</v>
+      </c>
+      <c r="E67" t="s">
+        <v>466</v>
+      </c>
+      <c r="G67">
         <v>34.950000000000003</v>
       </c>
-      <c r="M66" s="4">
+      <c r="M67" s="4">
         <v>1</v>
       </c>
-      <c r="O66">
+      <c r="O67">
         <v>193</v>
       </c>
-      <c r="X66" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y66" s="2">
+      <c r="W67" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X67" s="2">
         <f t="shared" si="1"/>
         <v>193</v>
       </c>
-      <c r="Z66" s="2"/>
-    </row>
-    <row r="67" spans="1:26">
-      <c r="A67" t="s">
-        <v>171</v>
-      </c>
-      <c r="B67" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" t="s">
-        <v>350</v>
-      </c>
-      <c r="E67" t="s">
-        <v>483</v>
-      </c>
-      <c r="G67">
+      <c r="Y67" s="2"/>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" t="s">
+        <v>333</v>
+      </c>
+      <c r="E68" t="s">
+        <v>465</v>
+      </c>
+      <c r="G68">
         <v>29.95</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M68" s="4">
         <v>1</v>
       </c>
-      <c r="O67">
+      <c r="O68">
         <v>196</v>
       </c>
-      <c r="X67" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y67" s="2">
+      <c r="W68" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X68" s="2">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
-      <c r="Z67" s="2"/>
-    </row>
-    <row r="68" spans="1:26">
-      <c r="A68" t="s">
-        <v>172</v>
-      </c>
-      <c r="B68" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" t="s">
-        <v>351</v>
-      </c>
-      <c r="E68" t="s">
-        <v>482</v>
-      </c>
-      <c r="G68">
+      <c r="Y68" s="2"/>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="A69" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" t="s">
+        <v>334</v>
+      </c>
+      <c r="E69" t="s">
+        <v>464</v>
+      </c>
+      <c r="G69">
         <v>29.95</v>
       </c>
-      <c r="M68" s="4">
+      <c r="M69" s="4">
         <v>1</v>
       </c>
-      <c r="O68">
+      <c r="O69">
         <v>199</v>
       </c>
-      <c r="X68" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y68" s="2">
+      <c r="W69" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X69" s="2">
         <f t="shared" si="1"/>
         <v>199</v>
       </c>
-      <c r="Z68" s="2"/>
-    </row>
-    <row r="69" spans="1:26">
-      <c r="A69" t="s">
-        <v>173</v>
-      </c>
-      <c r="B69" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" t="s">
-        <v>352</v>
-      </c>
-      <c r="E69" t="s">
-        <v>480</v>
-      </c>
-      <c r="G69">
+      <c r="Y69" s="2"/>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" t="s">
+        <v>335</v>
+      </c>
+      <c r="E70" t="s">
+        <v>462</v>
+      </c>
+      <c r="G70">
         <v>29.95</v>
       </c>
-      <c r="M69" s="4">
+      <c r="M70" s="4">
         <v>1</v>
       </c>
-      <c r="O69">
+      <c r="O70">
         <v>202</v>
       </c>
-      <c r="X69" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y69" s="2">
+      <c r="W70" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X70" s="2">
         <f t="shared" si="1"/>
         <v>202</v>
       </c>
-      <c r="Z69" s="2"/>
-    </row>
-    <row r="70" spans="1:26">
-      <c r="A70" t="s">
-        <v>174</v>
-      </c>
-      <c r="B70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" t="s">
-        <v>353</v>
-      </c>
-      <c r="E70" t="s">
-        <v>481</v>
-      </c>
-      <c r="G70">
+      <c r="Y70" s="2"/>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="A71" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" t="s">
+        <v>336</v>
+      </c>
+      <c r="E71" t="s">
+        <v>463</v>
+      </c>
+      <c r="G71">
         <v>29.95</v>
       </c>
-      <c r="H70" t="s">
-        <v>402</v>
-      </c>
-      <c r="M70" s="4">
+      <c r="H71" t="s">
+        <v>385</v>
+      </c>
+      <c r="M71" s="4">
         <v>1</v>
       </c>
-      <c r="O70">
+      <c r="O71">
         <v>205</v>
       </c>
-      <c r="X70" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y70" s="2">
+      <c r="W71" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X71" s="2">
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
-      <c r="Z70" s="2"/>
-    </row>
-    <row r="71" spans="1:26">
-      <c r="A71" t="s">
-        <v>175</v>
-      </c>
-      <c r="B71" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" t="s">
-        <v>354</v>
-      </c>
-      <c r="E71" t="s">
-        <v>478</v>
-      </c>
-      <c r="G71">
+      <c r="Y71" s="2"/>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="A72" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" t="s">
+        <v>337</v>
+      </c>
+      <c r="E72" t="s">
+        <v>460</v>
+      </c>
+      <c r="G72">
         <v>29.95</v>
       </c>
-      <c r="H71" t="s">
-        <v>401</v>
-      </c>
-      <c r="M71" s="4">
+      <c r="H72" t="s">
+        <v>384</v>
+      </c>
+      <c r="M72" s="4">
         <v>1</v>
       </c>
-      <c r="O71">
+      <c r="O72">
         <v>208</v>
       </c>
-      <c r="X71" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y71" s="2">
+      <c r="W72" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X72" s="2">
         <f t="shared" si="1"/>
         <v>208</v>
       </c>
-      <c r="Z71" s="2"/>
-    </row>
-    <row r="72" spans="1:26">
-      <c r="A72" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72" t="s">
-        <v>177</v>
-      </c>
-      <c r="C72" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" t="s">
-        <v>355</v>
-      </c>
-      <c r="E72" t="s">
-        <v>479</v>
-      </c>
-      <c r="G72">
+      <c r="Y72" s="2"/>
+    </row>
+    <row r="73" spans="1:25">
+      <c r="A73" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" t="s">
+        <v>338</v>
+      </c>
+      <c r="E73" t="s">
+        <v>461</v>
+      </c>
+      <c r="G73">
         <v>29.95</v>
       </c>
-      <c r="M72" s="4">
+      <c r="M73" s="4">
         <v>1</v>
       </c>
-      <c r="O72">
+      <c r="O73">
         <v>211</v>
       </c>
-      <c r="X72" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y72" s="2">
+      <c r="W73" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X73" s="2">
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="Z72" s="2"/>
-    </row>
-    <row r="73" spans="1:26">
-      <c r="A73" t="s">
-        <v>477</v>
-      </c>
-      <c r="B73" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" t="s">
-        <v>181</v>
-      </c>
-      <c r="D73" t="s">
-        <v>356</v>
-      </c>
-      <c r="E73" t="s">
-        <v>476</v>
-      </c>
-      <c r="G73">
+      <c r="Y73" s="2"/>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" t="s">
+        <v>459</v>
+      </c>
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" t="s">
+        <v>339</v>
+      </c>
+      <c r="E74" t="s">
+        <v>458</v>
+      </c>
+      <c r="G74">
         <v>29.95</v>
       </c>
-      <c r="M73" s="4">
+      <c r="M74" s="4">
         <v>1</v>
       </c>
-      <c r="O73">
+      <c r="O74">
         <v>214</v>
       </c>
-      <c r="Q73">
-        <v>214</v>
-      </c>
-      <c r="X73" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y73" s="2">
+      <c r="W74" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X74" s="2">
         <f t="shared" si="1"/>
         <v>214</v>
       </c>
-      <c r="Z73" s="2"/>
-    </row>
-    <row r="74" spans="1:26">
-      <c r="A74" t="s">
-        <v>178</v>
-      </c>
-      <c r="B74" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" t="s">
-        <v>181</v>
-      </c>
-      <c r="D74" t="s">
-        <v>357</v>
-      </c>
-      <c r="E74" t="s">
-        <v>475</v>
-      </c>
-      <c r="G74">
+      <c r="Y74" s="2"/>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" t="s">
+        <v>340</v>
+      </c>
+      <c r="E75" t="s">
+        <v>457</v>
+      </c>
+      <c r="G75">
         <v>29.95</v>
       </c>
-      <c r="M74" s="4">
+      <c r="M75" s="4">
         <v>1</v>
       </c>
-      <c r="O74">
+      <c r="O75">
         <v>217</v>
       </c>
-      <c r="Q74">
-        <v>217</v>
-      </c>
-      <c r="X74" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y74" s="2">
+      <c r="W75" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X75" s="2">
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="Z74" s="2"/>
-    </row>
-    <row r="75" spans="1:26">
-      <c r="A75" t="s">
-        <v>179</v>
-      </c>
-      <c r="B75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" t="s">
-        <v>181</v>
-      </c>
-      <c r="D75" t="s">
-        <v>358</v>
-      </c>
-      <c r="E75" t="s">
-        <v>474</v>
-      </c>
-      <c r="G75">
+      <c r="Y75" s="2"/>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" t="s">
+        <v>341</v>
+      </c>
+      <c r="E76" t="s">
+        <v>456</v>
+      </c>
+      <c r="G76">
         <v>29.95</v>
       </c>
-      <c r="M75" s="4">
+      <c r="M76" s="4">
         <v>1</v>
       </c>
-      <c r="O75">
+      <c r="O76">
         <v>220</v>
       </c>
-      <c r="Q75">
-        <v>220</v>
-      </c>
-      <c r="X75" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y75" s="2">
+      <c r="W76" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X76" s="2">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="Z75" s="2"/>
-    </row>
-    <row r="76" spans="1:26">
-      <c r="A76" t="s">
-        <v>180</v>
-      </c>
-      <c r="B76" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" t="s">
-        <v>181</v>
-      </c>
-      <c r="D76" t="s">
-        <v>359</v>
-      </c>
-      <c r="E76" t="s">
-        <v>473</v>
-      </c>
-      <c r="G76">
+      <c r="Y76" s="2"/>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="A77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" t="s">
+        <v>342</v>
+      </c>
+      <c r="E77" t="s">
+        <v>455</v>
+      </c>
+      <c r="G77">
         <v>29.95</v>
       </c>
-      <c r="M76" s="4">
+      <c r="M77" s="4">
         <v>1</v>
       </c>
-      <c r="O76">
+      <c r="O77">
         <v>223</v>
       </c>
-      <c r="Q76">
-        <v>223</v>
-      </c>
-      <c r="X76" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y76" s="2">
+      <c r="W77" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X77" s="2">
         <f t="shared" si="1"/>
         <v>223</v>
       </c>
-      <c r="Z76" s="2"/>
-    </row>
-    <row r="77" spans="1:26">
-      <c r="A77" t="s">
-        <v>182</v>
-      </c>
-      <c r="B77" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" t="s">
-        <v>181</v>
-      </c>
-      <c r="D77" t="s">
-        <v>360</v>
-      </c>
-      <c r="E77" t="s">
-        <v>472</v>
-      </c>
-      <c r="G77">
+      <c r="Y77" s="2"/>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="A78" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" t="s">
+        <v>343</v>
+      </c>
+      <c r="E78" t="s">
+        <v>454</v>
+      </c>
+      <c r="G78">
         <v>29.95</v>
       </c>
-      <c r="M77" s="4">
+      <c r="M78" s="4">
         <v>1</v>
       </c>
-      <c r="O77">
+      <c r="O78">
         <v>226</v>
       </c>
-      <c r="Q77">
-        <v>226</v>
-      </c>
-      <c r="X77" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y77" s="2">
+      <c r="W78" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X78" s="2">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="Z77" s="2"/>
-    </row>
-    <row r="78" spans="1:26">
-      <c r="A78" t="s">
-        <v>183</v>
-      </c>
-      <c r="B78" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" t="s">
-        <v>181</v>
-      </c>
-      <c r="D78" t="s">
-        <v>361</v>
-      </c>
-      <c r="E78" t="s">
-        <v>471</v>
-      </c>
-      <c r="G78">
+      <c r="Y78" s="2"/>
+    </row>
+    <row r="79" spans="1:25">
+      <c r="A79" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" t="s">
+        <v>344</v>
+      </c>
+      <c r="E79" t="s">
+        <v>453</v>
+      </c>
+      <c r="G79">
         <v>29.95</v>
       </c>
-      <c r="M78" s="4">
+      <c r="M79" s="4">
         <v>1</v>
       </c>
-      <c r="O78">
+      <c r="O79">
         <v>229</v>
       </c>
-      <c r="Q78">
-        <v>229</v>
-      </c>
-      <c r="X78" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y78" s="2">
+      <c r="W79" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X79" s="2">
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
-      <c r="Z78" s="2"/>
-    </row>
-    <row r="79" spans="1:26">
-      <c r="A79" t="s">
-        <v>184</v>
-      </c>
-      <c r="B79" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" t="s">
-        <v>181</v>
-      </c>
-      <c r="D79" t="s">
-        <v>362</v>
-      </c>
-      <c r="E79" t="s">
-        <v>469</v>
-      </c>
-      <c r="G79">
+      <c r="Y79" s="2"/>
+    </row>
+    <row r="80" spans="1:25">
+      <c r="A80" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" t="s">
+        <v>345</v>
+      </c>
+      <c r="E80" t="s">
+        <v>451</v>
+      </c>
+      <c r="G80">
         <v>29.95</v>
       </c>
-      <c r="M79" s="4">
+      <c r="M80" s="4">
         <v>1</v>
       </c>
-      <c r="O79">
+      <c r="O80">
         <v>232</v>
       </c>
-      <c r="Q79">
-        <v>232</v>
-      </c>
-      <c r="X79" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y79" s="2">
+      <c r="W80" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X80" s="2">
         <f t="shared" si="1"/>
         <v>232</v>
       </c>
-      <c r="Z79" s="2"/>
-    </row>
-    <row r="80" spans="1:26">
-      <c r="A80" t="s">
-        <v>185</v>
-      </c>
-      <c r="B80" t="s">
-        <v>134</v>
-      </c>
-      <c r="C80" t="s">
-        <v>181</v>
-      </c>
-      <c r="D80" t="s">
-        <v>363</v>
-      </c>
-      <c r="E80" t="s">
-        <v>470</v>
-      </c>
-      <c r="G80">
+      <c r="Y80" s="2"/>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s">
+        <v>346</v>
+      </c>
+      <c r="E81" t="s">
+        <v>452</v>
+      </c>
+      <c r="G81">
         <v>29.95</v>
       </c>
-      <c r="M80" s="4">
+      <c r="M81" s="4">
         <v>1</v>
       </c>
-      <c r="O80">
+      <c r="O81">
         <v>235</v>
       </c>
-      <c r="Q80">
-        <v>235</v>
-      </c>
-      <c r="X80" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y80" s="2">
+      <c r="W81" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="X81" s="2">
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="Z80" s="2"/>
-    </row>
-    <row r="81" spans="1:27">
-      <c r="A81" t="s">
-        <v>187</v>
-      </c>
-      <c r="B81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" t="s">
-        <v>188</v>
-      </c>
-      <c r="D81" t="s">
-        <v>304</v>
-      </c>
-      <c r="E81" t="s">
-        <v>468</v>
-      </c>
-      <c r="F81">
+      <c r="Y81" s="2"/>
+    </row>
+    <row r="82" spans="1:26">
+      <c r="A82" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" t="s">
+        <v>175</v>
+      </c>
+      <c r="D82" t="s">
+        <v>287</v>
+      </c>
+      <c r="E82" t="s">
+        <v>450</v>
+      </c>
+      <c r="F82">
         <v>54.95</v>
       </c>
-      <c r="G81">
+      <c r="G82">
         <v>39</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L82" s="3">
         <v>1</v>
       </c>
-      <c r="N81">
+      <c r="N82">
         <v>238</v>
       </c>
-      <c r="Q81">
+      <c r="Q82">
         <v>238</v>
       </c>
-      <c r="R81">
+      <c r="R82">
         <v>238</v>
       </c>
-      <c r="T81">
+      <c r="T82">
         <v>238</v>
       </c>
-      <c r="U81">
+      <c r="U82">
         <v>238</v>
       </c>
-      <c r="X81" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y81" s="2">
+      <c r="W82" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X82" s="2">
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
-      <c r="Z81" s="2"/>
-    </row>
-    <row r="82" spans="1:27">
-      <c r="A82" t="s">
-        <v>189</v>
-      </c>
-      <c r="B82" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" t="s">
-        <v>190</v>
-      </c>
-      <c r="D82" t="s">
-        <v>305</v>
-      </c>
-      <c r="F82">
+      <c r="Y82" s="2"/>
+    </row>
+    <row r="83" spans="1:26">
+      <c r="A83" t="s">
+        <v>176</v>
+      </c>
+      <c r="B83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" t="s">
+        <v>288</v>
+      </c>
+      <c r="F83">
         <v>65.95</v>
       </c>
-      <c r="G82">
+      <c r="G83">
         <v>45</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L83" s="3">
         <v>1</v>
       </c>
-      <c r="N82">
+      <c r="N83">
         <v>241</v>
       </c>
-      <c r="Q82">
+      <c r="Q83">
         <v>241</v>
       </c>
-      <c r="R82">
+      <c r="R83">
         <v>241</v>
       </c>
-      <c r="T82">
+      <c r="T83">
         <v>241</v>
       </c>
-      <c r="U82">
+      <c r="U83">
         <v>241</v>
       </c>
-      <c r="X82" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y82" s="2">
+      <c r="W83" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X83" s="2">
         <f t="shared" si="1"/>
         <v>241</v>
       </c>
-      <c r="Z82" s="2"/>
-    </row>
-    <row r="83" spans="1:27">
-      <c r="A83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" t="s">
-        <v>192</v>
-      </c>
-      <c r="D83" t="s">
-        <v>306</v>
-      </c>
-      <c r="E83" t="s">
-        <v>467</v>
-      </c>
-      <c r="F83">
+      <c r="Y83" s="2"/>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" t="s">
+        <v>179</v>
+      </c>
+      <c r="D84" t="s">
+        <v>289</v>
+      </c>
+      <c r="E84" t="s">
+        <v>449</v>
+      </c>
+      <c r="F84">
         <v>59.95</v>
       </c>
-      <c r="G83">
+      <c r="G84">
         <v>39</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L84" s="3">
         <v>1</v>
       </c>
-      <c r="N83">
+      <c r="N84">
         <v>244</v>
       </c>
-      <c r="Q83">
+      <c r="Q84">
         <v>244</v>
       </c>
-      <c r="R83">
+      <c r="R84">
         <v>244</v>
       </c>
-      <c r="T83">
+      <c r="T84">
         <v>244</v>
       </c>
-      <c r="U83">
+      <c r="U84">
         <v>244</v>
       </c>
-      <c r="X83" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y83" s="2">
+      <c r="W84" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X84" s="2">
         <f t="shared" si="1"/>
         <v>244</v>
       </c>
-      <c r="Z83" s="2"/>
-    </row>
-    <row r="84" spans="1:27">
-      <c r="A84" t="s">
-        <v>193</v>
-      </c>
-      <c r="B84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" t="s">
-        <v>307</v>
-      </c>
-      <c r="E84" t="s">
-        <v>466</v>
-      </c>
-      <c r="G84">
+      <c r="Y84" s="2"/>
+    </row>
+    <row r="85" spans="1:26">
+      <c r="A85" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" t="s">
+        <v>290</v>
+      </c>
+      <c r="E85" t="s">
+        <v>448</v>
+      </c>
+      <c r="G85">
         <v>49.95</v>
       </c>
-      <c r="L84" s="3">
+      <c r="L85" s="3">
         <v>1</v>
       </c>
-      <c r="N84">
+      <c r="N85">
         <v>247</v>
       </c>
-      <c r="Q84">
+      <c r="Q85">
         <v>247</v>
       </c>
-      <c r="R84">
+      <c r="R85">
         <v>247</v>
       </c>
-      <c r="T84">
+      <c r="T85">
         <v>247</v>
       </c>
-      <c r="U84">
+      <c r="U85">
         <v>247</v>
       </c>
-      <c r="X84" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y84" s="2">
+      <c r="W85" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X85" s="2">
         <f t="shared" si="1"/>
         <v>247</v>
       </c>
-      <c r="Z84" s="2"/>
-    </row>
-    <row r="85" spans="1:27" s="1" customFormat="1">
-      <c r="A85" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="N85">
+      <c r="Y85" s="2"/>
+    </row>
+    <row r="86" spans="1:26" s="1" customFormat="1">
+      <c r="A86" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N86">
         <v>250</v>
       </c>
-      <c r="O85"/>
-      <c r="P85"/>
-      <c r="Q85">
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86">
         <v>250</v>
       </c>
-      <c r="R85">
+      <c r="R86">
         <v>250</v>
       </c>
-      <c r="S85"/>
-      <c r="T85">
+      <c r="S86"/>
+      <c r="T86">
         <v>250</v>
       </c>
-      <c r="U85">
+      <c r="U86">
         <v>250</v>
       </c>
-      <c r="V85"/>
-      <c r="W85"/>
-      <c r="X85" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y85" s="2">
+      <c r="V86"/>
+      <c r="W86" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X86" s="2">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="Z85" s="2"/>
-      <c r="AA85"/>
-    </row>
-    <row r="86" spans="1:27" s="1" customFormat="1">
-      <c r="A86" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="N86"/>
-      <c r="O86">
+      <c r="Y86" s="2"/>
+      <c r="Z86"/>
+    </row>
+    <row r="87" spans="1:26" s="1" customFormat="1">
+      <c r="A87" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N87"/>
+      <c r="O87">
         <v>253</v>
       </c>
-      <c r="P86"/>
-      <c r="Q86">
+      <c r="P87"/>
+      <c r="Q87">
         <v>253</v>
       </c>
-      <c r="R86">
+      <c r="R87">
         <v>253</v>
       </c>
-      <c r="S86"/>
-      <c r="T86">
+      <c r="S87"/>
+      <c r="T87">
         <v>253</v>
       </c>
-      <c r="U86">
+      <c r="U87">
         <v>253</v>
       </c>
-      <c r="V86"/>
-      <c r="W86"/>
-      <c r="X86" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y86" s="2">
+      <c r="V87"/>
+      <c r="W87" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X87" s="2">
         <f t="shared" si="1"/>
         <v>253</v>
       </c>
-      <c r="Z86" s="2"/>
-      <c r="AA86"/>
-    </row>
-    <row r="87" spans="1:27">
-      <c r="A87" t="s">
-        <v>196</v>
-      </c>
-      <c r="B87" t="s">
-        <v>197</v>
-      </c>
-      <c r="C87" t="s">
-        <v>198</v>
-      </c>
-      <c r="D87" t="s">
-        <v>308</v>
-      </c>
-      <c r="E87" t="s">
-        <v>465</v>
-      </c>
-      <c r="F87">
+      <c r="Y87" s="2"/>
+      <c r="Z87"/>
+    </row>
+    <row r="88" spans="1:26">
+      <c r="A88" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88" t="s">
+        <v>185</v>
+      </c>
+      <c r="D88" t="s">
+        <v>291</v>
+      </c>
+      <c r="E88" t="s">
+        <v>447</v>
+      </c>
+      <c r="F88">
         <v>34.950000000000003</v>
       </c>
-      <c r="G87">
+      <c r="G88">
         <v>25</v>
       </c>
-      <c r="N87">
+      <c r="N88">
         <v>256</v>
       </c>
-      <c r="O87">
+      <c r="O88">
         <v>256</v>
       </c>
-      <c r="Q87">
+      <c r="Q88">
         <v>256</v>
       </c>
-      <c r="R87">
+      <c r="R88">
         <v>256</v>
       </c>
-      <c r="T87">
+      <c r="T88">
         <v>256</v>
       </c>
-      <c r="U87">
+      <c r="U88">
         <v>256</v>
       </c>
-      <c r="X87" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y87" s="2">
+      <c r="W88" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="X88" s="2">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="Z87" s="2"/>
-    </row>
-    <row r="88" spans="1:27">
-      <c r="A88" t="s">
-        <v>199</v>
-      </c>
-      <c r="B88" t="s">
-        <v>32</v>
-      </c>
-      <c r="C88" t="s">
-        <v>190</v>
-      </c>
-      <c r="D88" t="s">
-        <v>309</v>
-      </c>
-      <c r="F88">
+      <c r="Y88" s="2"/>
+    </row>
+    <row r="89" spans="1:26">
+      <c r="A89" t="s">
+        <v>186</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" t="s">
+        <v>292</v>
+      </c>
+      <c r="F89">
         <v>55</v>
       </c>
-      <c r="G88">
+      <c r="G89">
         <v>39</v>
       </c>
-      <c r="L88" s="3">
+      <c r="L89" s="3">
         <v>1</v>
       </c>
-      <c r="N88">
+      <c r="N89">
         <v>259</v>
       </c>
-      <c r="R88">
+      <c r="R89">
         <v>259</v>
       </c>
-      <c r="X88" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y88" s="2">
+      <c r="W89" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="X89" s="2">
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
-      <c r="Z88" s="2"/>
-    </row>
-    <row r="89" spans="1:27">
-      <c r="A89" t="s">
-        <v>199</v>
-      </c>
-      <c r="B89" t="s">
-        <v>26</v>
-      </c>
-      <c r="C89" t="s">
-        <v>190</v>
-      </c>
-      <c r="D89" t="s">
-        <v>310</v>
-      </c>
-      <c r="E89" t="s">
-        <v>464</v>
-      </c>
-      <c r="F89">
+      <c r="Y89" s="2"/>
+    </row>
+    <row r="90" spans="1:26">
+      <c r="A90" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" t="s">
+        <v>293</v>
+      </c>
+      <c r="E90" t="s">
+        <v>446</v>
+      </c>
+      <c r="F90">
         <v>55</v>
       </c>
-      <c r="G89">
+      <c r="G90">
         <v>39</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L90" s="3">
         <v>1</v>
       </c>
-      <c r="O89">
+      <c r="O90">
         <v>262</v>
       </c>
-      <c r="R89">
+      <c r="R90">
         <v>262</v>
       </c>
-      <c r="X89" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y89" s="2">
+      <c r="W90" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="X90" s="2">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="Z89" s="2"/>
-    </row>
-    <row r="90" spans="1:27">
-      <c r="A90" t="s">
-        <v>201</v>
-      </c>
-      <c r="B90" t="s">
-        <v>202</v>
-      </c>
-      <c r="C90" t="s">
-        <v>203</v>
-      </c>
-      <c r="D90" t="s">
-        <v>311</v>
-      </c>
-      <c r="E90" t="s">
-        <v>463</v>
-      </c>
-      <c r="F90">
+      <c r="Y90" s="2"/>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91" t="s">
+        <v>187</v>
+      </c>
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" t="s">
+        <v>294</v>
+      </c>
+      <c r="E91" t="s">
+        <v>445</v>
+      </c>
+      <c r="F91">
         <v>109.95</v>
       </c>
-      <c r="G90">
+      <c r="G91">
         <v>79</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L91" s="3">
         <v>1</v>
       </c>
-      <c r="O90">
+      <c r="O91">
         <v>265</v>
       </c>
-      <c r="R90">
+      <c r="R91">
         <v>265</v>
       </c>
-      <c r="X90" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y90" s="2">
+      <c r="W91" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="X91" s="2">
         <f t="shared" si="1"/>
         <v>265</v>
       </c>
-      <c r="Z90" s="2"/>
-    </row>
-    <row r="91" spans="1:27">
-      <c r="A91" t="s">
-        <v>204</v>
-      </c>
-      <c r="B91" t="s">
-        <v>461</v>
-      </c>
-      <c r="C91" t="s">
-        <v>203</v>
-      </c>
-      <c r="D91" t="s">
-        <v>312</v>
-      </c>
-      <c r="E91" t="s">
-        <v>462</v>
-      </c>
-      <c r="F91">
+      <c r="Y91" s="2"/>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="A92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s">
+        <v>443</v>
+      </c>
+      <c r="C92" t="s">
+        <v>189</v>
+      </c>
+      <c r="D92" t="s">
+        <v>295</v>
+      </c>
+      <c r="E92" t="s">
+        <v>444</v>
+      </c>
+      <c r="F92">
         <v>119.95</v>
       </c>
-      <c r="G91">
+      <c r="G92">
         <v>79</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L92" s="3">
         <v>1</v>
       </c>
-      <c r="O91">
+      <c r="O92">
         <v>268</v>
       </c>
-      <c r="R91">
+      <c r="R92">
         <v>268</v>
       </c>
-      <c r="X91" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y91" s="2">
+      <c r="W92" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="X92" s="2">
         <f t="shared" si="1"/>
         <v>268</v>
       </c>
-      <c r="Z91" s="2"/>
-    </row>
-    <row r="92" spans="1:27">
-      <c r="A92" t="s">
-        <v>205</v>
-      </c>
-      <c r="B92" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" t="s">
-        <v>206</v>
-      </c>
-      <c r="D92" t="s">
-        <v>313</v>
-      </c>
-      <c r="E92" t="s">
-        <v>460</v>
-      </c>
-      <c r="F92">
+      <c r="Y92" s="2"/>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" t="s">
+        <v>296</v>
+      </c>
+      <c r="E93" t="s">
+        <v>442</v>
+      </c>
+      <c r="F93">
         <v>124.95</v>
       </c>
-      <c r="G92">
+      <c r="G93">
         <v>85</v>
       </c>
-      <c r="N92">
+      <c r="N93">
         <v>271</v>
       </c>
-      <c r="O92">
+      <c r="O93">
         <v>271</v>
       </c>
-      <c r="T92">
+      <c r="T93">
         <v>271</v>
       </c>
-      <c r="X92" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y92" s="2">
+      <c r="W93" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="X93" s="2">
         <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="Z92" s="2"/>
-    </row>
-    <row r="93" spans="1:27">
-      <c r="A93" t="s">
-        <v>207</v>
-      </c>
-      <c r="B93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93" t="s">
-        <v>206</v>
-      </c>
-      <c r="E93" t="s">
-        <v>459</v>
-      </c>
-      <c r="F93">
+      <c r="Y93" s="2"/>
+    </row>
+    <row r="94" spans="1:26">
+      <c r="A94" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" t="s">
+        <v>192</v>
+      </c>
+      <c r="E94" t="s">
+        <v>441</v>
+      </c>
+      <c r="F94">
         <v>129.94999999999999</v>
       </c>
-      <c r="G93">
+      <c r="G94">
         <v>89</v>
       </c>
-      <c r="N93">
+      <c r="N94">
         <v>274</v>
       </c>
-      <c r="O93">
+      <c r="O94">
         <v>274</v>
       </c>
-      <c r="R93">
+      <c r="R94">
         <v>274</v>
       </c>
-      <c r="S93">
+      <c r="S94">
         <v>274</v>
       </c>
-      <c r="T93">
+      <c r="T94">
         <v>274</v>
       </c>
-      <c r="X93" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y93" s="2">
+      <c r="W94" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="X94" s="2">
         <f t="shared" si="1"/>
         <v>274</v>
       </c>
-      <c r="Z93" s="2"/>
-    </row>
-    <row r="94" spans="1:27">
-      <c r="A94" t="s">
-        <v>208</v>
-      </c>
-      <c r="B94" t="s">
-        <v>209</v>
-      </c>
-      <c r="C94" t="s">
-        <v>87</v>
-      </c>
-      <c r="D94" t="s">
-        <v>314</v>
-      </c>
-      <c r="E94" t="s">
-        <v>458</v>
-      </c>
-      <c r="F94">
+      <c r="Y94" s="2"/>
+    </row>
+    <row r="95" spans="1:26">
+      <c r="A95" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D95" t="s">
+        <v>297</v>
+      </c>
+      <c r="E95" t="s">
+        <v>440</v>
+      </c>
+      <c r="F95">
         <v>99.95</v>
       </c>
-      <c r="G94">
+      <c r="G95">
         <v>69</v>
       </c>
-      <c r="N94">
+      <c r="N95">
         <v>277</v>
       </c>
-      <c r="O94">
+      <c r="O95">
         <v>277</v>
       </c>
-      <c r="R94">
+      <c r="R95">
         <v>277</v>
       </c>
-      <c r="S94">
+      <c r="S95">
         <v>277</v>
       </c>
-      <c r="T94">
+      <c r="T95">
         <v>277</v>
       </c>
-      <c r="X94" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y94" s="2">
+      <c r="W95" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="X95" s="2">
         <f t="shared" si="1"/>
         <v>277</v>
       </c>
-      <c r="Z94" s="2"/>
-    </row>
-    <row r="95" spans="1:27">
-      <c r="A95" t="s">
-        <v>210</v>
-      </c>
-      <c r="B95" t="s">
-        <v>211</v>
-      </c>
-      <c r="C95" t="s">
-        <v>212</v>
-      </c>
-      <c r="D95" t="s">
-        <v>315</v>
-      </c>
-      <c r="E95" t="s">
-        <v>457</v>
-      </c>
-      <c r="F95">
+      <c r="Y95" s="2"/>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" t="s">
+        <v>298</v>
+      </c>
+      <c r="E96" t="s">
+        <v>439</v>
+      </c>
+      <c r="F96">
         <v>6.9</v>
       </c>
-      <c r="G95">
+      <c r="G96">
         <v>5</v>
       </c>
-      <c r="N95">
+      <c r="N96">
         <v>280</v>
       </c>
-      <c r="O95">
+      <c r="O96">
         <v>280</v>
       </c>
-      <c r="R95">
+      <c r="R96">
         <v>280</v>
       </c>
-      <c r="X95" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y95" s="2">
+      <c r="W96" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="X96" s="2">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="Z95" s="2"/>
-    </row>
-    <row r="96" spans="1:27">
-      <c r="A96" t="s">
-        <v>213</v>
-      </c>
-      <c r="B96" t="s">
-        <v>214</v>
-      </c>
-      <c r="C96" t="s">
-        <v>215</v>
-      </c>
-      <c r="D96" t="s">
-        <v>316</v>
-      </c>
-      <c r="E96" t="s">
-        <v>456</v>
-      </c>
-      <c r="F96">
+      <c r="Y96" s="2"/>
+    </row>
+    <row r="97" spans="1:25">
+      <c r="A97" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" t="s">
+        <v>201</v>
+      </c>
+      <c r="D97" t="s">
+        <v>299</v>
+      </c>
+      <c r="E97" t="s">
+        <v>438</v>
+      </c>
+      <c r="F97">
         <v>34.950000000000003</v>
       </c>
-      <c r="G96">
+      <c r="G97">
         <v>25</v>
       </c>
-      <c r="N96">
+      <c r="N97">
         <v>283</v>
       </c>
-      <c r="O96">
+      <c r="O97">
         <v>283</v>
       </c>
-      <c r="R96">
+      <c r="R97">
         <v>283</v>
       </c>
-      <c r="S96">
+      <c r="S97">
         <v>283</v>
       </c>
-      <c r="T96">
+      <c r="T97">
         <v>283</v>
       </c>
-      <c r="X96" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y96" s="2">
+      <c r="W97" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="X97" s="2">
         <f t="shared" si="1"/>
         <v>283</v>
       </c>
-      <c r="Z96" s="2"/>
-    </row>
-    <row r="97" spans="1:26">
-      <c r="A97" t="s">
-        <v>216</v>
-      </c>
-      <c r="B97" t="s">
-        <v>217</v>
-      </c>
-      <c r="C97" t="s">
-        <v>218</v>
-      </c>
-      <c r="D97" t="s">
-        <v>317</v>
-      </c>
-      <c r="E97" t="s">
-        <v>455</v>
-      </c>
-      <c r="F97">
+      <c r="Y97" s="2"/>
+    </row>
+    <row r="98" spans="1:25">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" t="s">
+        <v>204</v>
+      </c>
+      <c r="D98" t="s">
+        <v>300</v>
+      </c>
+      <c r="E98" t="s">
+        <v>437</v>
+      </c>
+      <c r="F98">
         <v>173</v>
       </c>
-      <c r="G97">
+      <c r="G98">
         <v>119</v>
       </c>
-      <c r="N97">
+      <c r="N98">
         <v>286</v>
       </c>
-      <c r="O97">
+      <c r="O98">
         <v>286</v>
       </c>
-      <c r="R97">
+      <c r="R98">
         <v>286</v>
       </c>
-      <c r="S97">
+      <c r="S98">
         <v>286</v>
       </c>
-      <c r="X97" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y97" s="2">
-        <f t="shared" ref="Y97:Y117" si="2">Y96+3</f>
+      <c r="W98" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="X98" s="2">
+        <f t="shared" ref="X98:X119" si="2">X97+3</f>
         <v>286</v>
       </c>
-      <c r="Z97" s="2"/>
-    </row>
-    <row r="98" spans="1:26">
-      <c r="A98" t="s">
-        <v>219</v>
-      </c>
-      <c r="B98" t="s">
-        <v>220</v>
-      </c>
-      <c r="C98" t="s">
-        <v>221</v>
-      </c>
-      <c r="D98" t="s">
-        <v>318</v>
-      </c>
-      <c r="E98" t="s">
-        <v>454</v>
-      </c>
-      <c r="G98">
+      <c r="Y98" s="2"/>
+    </row>
+    <row r="99" spans="1:25">
+      <c r="A99" t="s">
+        <v>205</v>
+      </c>
+      <c r="B99" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" t="s">
+        <v>207</v>
+      </c>
+      <c r="D99" t="s">
+        <v>301</v>
+      </c>
+      <c r="E99" t="s">
+        <v>436</v>
+      </c>
+      <c r="G99">
         <v>199</v>
       </c>
-      <c r="I98" t="s">
-        <v>24</v>
-      </c>
-      <c r="N98">
+      <c r="I99" t="s">
+        <v>21</v>
+      </c>
+      <c r="N99">
         <v>289</v>
       </c>
-      <c r="O98">
+      <c r="O99">
         <v>289</v>
       </c>
-      <c r="P98">
+      <c r="P99">
         <v>289</v>
       </c>
-      <c r="R98">
+      <c r="R99">
         <v>289</v>
       </c>
-      <c r="S98">
+      <c r="S99">
         <v>289</v>
       </c>
-      <c r="T98">
+      <c r="T99">
         <v>289</v>
       </c>
-      <c r="X98" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y98" s="2">
+      <c r="W99" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="X99" s="2">
         <f t="shared" si="2"/>
         <v>289</v>
       </c>
-      <c r="Z98" s="2"/>
-    </row>
-    <row r="99" spans="1:26">
-      <c r="A99" t="s">
-        <v>222</v>
-      </c>
-      <c r="B99" t="s">
-        <v>223</v>
-      </c>
-      <c r="C99" t="s">
-        <v>224</v>
-      </c>
-      <c r="D99" t="s">
-        <v>319</v>
-      </c>
-      <c r="E99" t="s">
-        <v>453</v>
-      </c>
-      <c r="F99">
-        <v>399</v>
-      </c>
-      <c r="G99">
-        <v>249</v>
-      </c>
-      <c r="I99" t="s">
-        <v>225</v>
-      </c>
-      <c r="N99">
-        <v>292</v>
-      </c>
-      <c r="O99">
-        <v>292</v>
-      </c>
-      <c r="R99">
-        <v>292</v>
-      </c>
-      <c r="S99">
-        <v>292</v>
-      </c>
-      <c r="X99" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y99" s="2">
+      <c r="Y99" s="2"/>
+    </row>
+    <row r="100" spans="1:25">
+      <c r="A100" t="s">
+        <v>488</v>
+      </c>
+      <c r="B100" t="s">
+        <v>489</v>
+      </c>
+      <c r="N100">
+        <v>290</v>
+      </c>
+      <c r="O100">
+        <v>290</v>
+      </c>
+      <c r="S100">
+        <v>290</v>
+      </c>
+      <c r="W100" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="X100" s="2">
         <f t="shared" si="2"/>
         <v>292</v>
       </c>
-      <c r="Z99" s="2"/>
-    </row>
-    <row r="100" spans="1:26">
-      <c r="A100" t="s">
-        <v>226</v>
-      </c>
-      <c r="B100" t="s">
-        <v>227</v>
-      </c>
-      <c r="C100" t="s">
-        <v>228</v>
-      </c>
-      <c r="D100" t="s">
-        <v>320</v>
-      </c>
-      <c r="E100" t="s">
-        <v>452</v>
-      </c>
-      <c r="F100">
-        <v>27.95</v>
-      </c>
-      <c r="G100">
-        <v>19</v>
-      </c>
-      <c r="N100">
-        <v>295</v>
-      </c>
-      <c r="O100">
-        <v>295</v>
-      </c>
-      <c r="P100">
-        <v>295</v>
-      </c>
-      <c r="S100">
-        <v>295</v>
-      </c>
-      <c r="W100">
-        <v>295</v>
-      </c>
-      <c r="X100" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y100" s="2">
+      <c r="Y100" s="2"/>
+    </row>
+    <row r="101" spans="1:25">
+      <c r="A101" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" t="s">
+        <v>210</v>
+      </c>
+      <c r="D101" t="s">
+        <v>302</v>
+      </c>
+      <c r="E101" t="s">
+        <v>435</v>
+      </c>
+      <c r="F101">
+        <v>399</v>
+      </c>
+      <c r="G101">
+        <v>249</v>
+      </c>
+      <c r="I101" t="s">
+        <v>211</v>
+      </c>
+      <c r="N101">
+        <v>292</v>
+      </c>
+      <c r="O101">
+        <v>292</v>
+      </c>
+      <c r="R101">
+        <v>292</v>
+      </c>
+      <c r="S101">
+        <v>292</v>
+      </c>
+      <c r="W101" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="X101" s="2">
         <f t="shared" si="2"/>
         <v>295</v>
       </c>
-      <c r="Z100" s="2"/>
-    </row>
-    <row r="101" spans="1:26">
-      <c r="A101" t="s">
-        <v>230</v>
-      </c>
-      <c r="B101" t="s">
-        <v>231</v>
-      </c>
-      <c r="C101" t="s">
-        <v>232</v>
-      </c>
-      <c r="D101" t="s">
-        <v>321</v>
-      </c>
-      <c r="E101" t="s">
-        <v>451</v>
-      </c>
-      <c r="F101">
-        <v>499</v>
-      </c>
-      <c r="G101">
-        <v>349</v>
-      </c>
-      <c r="N101">
-        <v>298</v>
-      </c>
-      <c r="O101">
-        <v>298</v>
-      </c>
-      <c r="S101">
-        <v>298</v>
-      </c>
-      <c r="W101">
-        <v>298</v>
-      </c>
-      <c r="X101" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y101" s="2">
+      <c r="Y101" s="2"/>
+    </row>
+    <row r="102" spans="1:25">
+      <c r="A102" t="s">
+        <v>212</v>
+      </c>
+      <c r="B102" t="s">
+        <v>213</v>
+      </c>
+      <c r="C102" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102" t="s">
+        <v>303</v>
+      </c>
+      <c r="E102" t="s">
+        <v>434</v>
+      </c>
+      <c r="F102">
+        <v>27.95</v>
+      </c>
+      <c r="G102">
+        <v>19</v>
+      </c>
+      <c r="N102">
+        <v>295</v>
+      </c>
+      <c r="O102">
+        <v>295</v>
+      </c>
+      <c r="P102">
+        <v>295</v>
+      </c>
+      <c r="S102">
+        <v>295</v>
+      </c>
+      <c r="V102">
+        <v>295</v>
+      </c>
+      <c r="W102" t="s">
+        <v>479</v>
+      </c>
+      <c r="X102" s="2">
         <f t="shared" si="2"/>
         <v>298</v>
       </c>
-      <c r="Z101" s="2"/>
-    </row>
-    <row r="102" spans="1:26">
-      <c r="A102" t="s">
-        <v>233</v>
-      </c>
-      <c r="B102" t="s">
-        <v>234</v>
-      </c>
-      <c r="C102" t="s">
-        <v>149</v>
-      </c>
-      <c r="D102" t="s">
-        <v>302</v>
-      </c>
-      <c r="E102" t="s">
-        <v>450</v>
-      </c>
-      <c r="F102">
-        <v>59.95</v>
-      </c>
-      <c r="G102">
-        <v>39</v>
-      </c>
-      <c r="N102">
-        <v>301</v>
-      </c>
-      <c r="O102">
-        <v>301</v>
-      </c>
-      <c r="S102">
-        <v>301</v>
-      </c>
-      <c r="W102">
-        <v>301</v>
-      </c>
-      <c r="X102" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y102" s="2">
+      <c r="Y102" s="2"/>
+    </row>
+    <row r="103" spans="1:25">
+      <c r="A103" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" t="s">
+        <v>217</v>
+      </c>
+      <c r="D103" t="s">
+        <v>304</v>
+      </c>
+      <c r="E103" t="s">
+        <v>433</v>
+      </c>
+      <c r="F103">
+        <v>499</v>
+      </c>
+      <c r="G103">
+        <v>349</v>
+      </c>
+      <c r="N103">
+        <v>298</v>
+      </c>
+      <c r="O103">
+        <v>298</v>
+      </c>
+      <c r="S103">
+        <v>298</v>
+      </c>
+      <c r="V103">
+        <v>298</v>
+      </c>
+      <c r="W103" t="s">
+        <v>479</v>
+      </c>
+      <c r="X103" s="2">
         <f t="shared" si="2"/>
         <v>301</v>
       </c>
-      <c r="Z102" s="2"/>
-    </row>
-    <row r="103" spans="1:26">
-      <c r="A103" t="s">
-        <v>235</v>
-      </c>
-      <c r="B103" t="s">
-        <v>236</v>
-      </c>
-      <c r="C103" t="s">
-        <v>237</v>
-      </c>
-      <c r="D103" t="s">
-        <v>322</v>
-      </c>
-      <c r="E103" t="s">
-        <v>449</v>
-      </c>
-      <c r="G103">
-        <v>69.95</v>
-      </c>
-      <c r="N103">
-        <v>304</v>
-      </c>
-      <c r="O103">
-        <v>304</v>
-      </c>
-      <c r="S103">
-        <v>304</v>
-      </c>
-      <c r="W103">
-        <v>304</v>
-      </c>
-      <c r="X103" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y103" s="2">
+      <c r="Y103" s="2"/>
+    </row>
+    <row r="104" spans="1:25">
+      <c r="A104" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" t="s">
+        <v>219</v>
+      </c>
+      <c r="C104" t="s">
+        <v>138</v>
+      </c>
+      <c r="D104" t="s">
+        <v>285</v>
+      </c>
+      <c r="E104" t="s">
+        <v>432</v>
+      </c>
+      <c r="F104">
+        <v>59.95</v>
+      </c>
+      <c r="G104">
+        <v>39</v>
+      </c>
+      <c r="N104">
+        <v>301</v>
+      </c>
+      <c r="O104">
+        <v>301</v>
+      </c>
+      <c r="S104">
+        <v>301</v>
+      </c>
+      <c r="V104">
+        <v>301</v>
+      </c>
+      <c r="W104" t="s">
+        <v>479</v>
+      </c>
+      <c r="X104" s="2">
         <f t="shared" si="2"/>
         <v>304</v>
       </c>
-      <c r="Z103" s="2"/>
-    </row>
-    <row r="104" spans="1:26">
-      <c r="A104" t="s">
-        <v>238</v>
-      </c>
-      <c r="B104" t="s">
-        <v>241</v>
-      </c>
-      <c r="C104" t="s">
-        <v>239</v>
-      </c>
-      <c r="D104" t="s">
-        <v>323</v>
-      </c>
-      <c r="E104" t="s">
-        <v>448</v>
-      </c>
-      <c r="G104">
-        <v>799</v>
-      </c>
-      <c r="O104">
-        <v>307</v>
-      </c>
-      <c r="S104">
-        <v>307</v>
-      </c>
-      <c r="W104">
-        <v>307</v>
-      </c>
-      <c r="X104" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y104" s="2">
+      <c r="Y104" s="2"/>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" t="s">
+        <v>222</v>
+      </c>
+      <c r="D105" t="s">
+        <v>305</v>
+      </c>
+      <c r="E105" t="s">
+        <v>431</v>
+      </c>
+      <c r="G105">
+        <v>69.95</v>
+      </c>
+      <c r="N105">
+        <v>304</v>
+      </c>
+      <c r="O105">
+        <v>304</v>
+      </c>
+      <c r="S105">
+        <v>304</v>
+      </c>
+      <c r="V105">
+        <v>304</v>
+      </c>
+      <c r="W105" t="s">
+        <v>479</v>
+      </c>
+      <c r="X105" s="2">
         <f t="shared" si="2"/>
         <v>307</v>
       </c>
-      <c r="Z104" s="2"/>
-    </row>
-    <row r="105" spans="1:26">
-      <c r="A105" t="s">
-        <v>30</v>
-      </c>
-      <c r="B105" t="s">
-        <v>240</v>
-      </c>
-      <c r="C105" t="s">
-        <v>242</v>
-      </c>
-      <c r="D105" t="s">
-        <v>324</v>
-      </c>
-      <c r="E105" t="s">
-        <v>447</v>
-      </c>
-      <c r="G105">
-        <v>69.95</v>
-      </c>
-      <c r="N105">
-        <v>310</v>
-      </c>
-      <c r="S105">
-        <v>310</v>
-      </c>
-      <c r="W105">
-        <v>310</v>
-      </c>
-      <c r="X105" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y105" s="2">
+      <c r="Y105" s="2"/>
+    </row>
+    <row r="106" spans="1:25">
+      <c r="A106" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" t="s">
+        <v>224</v>
+      </c>
+      <c r="D106" t="s">
+        <v>306</v>
+      </c>
+      <c r="E106" t="s">
+        <v>430</v>
+      </c>
+      <c r="G106">
+        <v>799</v>
+      </c>
+      <c r="O106">
+        <v>307</v>
+      </c>
+      <c r="S106">
+        <v>307</v>
+      </c>
+      <c r="V106">
+        <v>307</v>
+      </c>
+      <c r="W106" t="s">
+        <v>479</v>
+      </c>
+      <c r="X106" s="2">
         <f t="shared" si="2"/>
         <v>310</v>
       </c>
-      <c r="Z105" s="2"/>
-    </row>
-    <row r="106" spans="1:26">
-      <c r="A106" t="s">
-        <v>243</v>
-      </c>
-      <c r="B106" t="s">
-        <v>244</v>
-      </c>
-      <c r="C106" t="s">
-        <v>245</v>
-      </c>
-      <c r="D106" t="s">
-        <v>325</v>
-      </c>
-      <c r="E106" t="s">
-        <v>446</v>
-      </c>
-      <c r="G106">
-        <v>6.95</v>
-      </c>
-      <c r="I106" t="s">
-        <v>118</v>
-      </c>
-      <c r="N106">
-        <v>313</v>
-      </c>
-      <c r="O106">
-        <v>313</v>
-      </c>
-      <c r="P106">
-        <v>313</v>
-      </c>
-      <c r="S106">
-        <v>313</v>
-      </c>
-      <c r="W106">
-        <v>313</v>
-      </c>
-      <c r="X106" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y106" s="2">
+      <c r="Y106" s="2"/>
+    </row>
+    <row r="107" spans="1:25">
+      <c r="A107" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" t="s">
+        <v>225</v>
+      </c>
+      <c r="C107" t="s">
+        <v>227</v>
+      </c>
+      <c r="D107" t="s">
+        <v>307</v>
+      </c>
+      <c r="E107" t="s">
+        <v>429</v>
+      </c>
+      <c r="G107">
+        <v>69.95</v>
+      </c>
+      <c r="N107">
+        <v>310</v>
+      </c>
+      <c r="S107">
+        <v>310</v>
+      </c>
+      <c r="V107">
+        <v>310</v>
+      </c>
+      <c r="W107" t="s">
+        <v>479</v>
+      </c>
+      <c r="X107" s="2">
         <f t="shared" si="2"/>
         <v>313</v>
       </c>
-      <c r="Z106" s="2"/>
-    </row>
-    <row r="107" spans="1:26">
-      <c r="A107" t="s">
-        <v>246</v>
-      </c>
-      <c r="B107" t="s">
-        <v>247</v>
-      </c>
-      <c r="C107" t="s">
-        <v>248</v>
-      </c>
-      <c r="D107" t="s">
-        <v>326</v>
-      </c>
-      <c r="E107" t="s">
-        <v>445</v>
-      </c>
-      <c r="G107">
-        <v>599</v>
-      </c>
-      <c r="N107">
-        <v>316</v>
-      </c>
-      <c r="S107">
-        <v>316</v>
-      </c>
-      <c r="W107">
-        <v>316</v>
-      </c>
-      <c r="X107" t="s">
+      <c r="Y107" s="2"/>
+    </row>
+    <row r="108" spans="1:25">
+      <c r="A108" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" t="s">
         <v>229</v>
       </c>
-      <c r="Y107" s="2">
+      <c r="C108" t="s">
+        <v>230</v>
+      </c>
+      <c r="D108" t="s">
+        <v>308</v>
+      </c>
+      <c r="E108" t="s">
+        <v>428</v>
+      </c>
+      <c r="G108">
+        <v>6.95</v>
+      </c>
+      <c r="I108" t="s">
+        <v>108</v>
+      </c>
+      <c r="N108">
+        <v>313</v>
+      </c>
+      <c r="O108">
+        <v>313</v>
+      </c>
+      <c r="P108">
+        <v>313</v>
+      </c>
+      <c r="S108">
+        <v>313</v>
+      </c>
+      <c r="V108">
+        <v>313</v>
+      </c>
+      <c r="W108" t="s">
+        <v>479</v>
+      </c>
+      <c r="X108" s="2">
         <f t="shared" si="2"/>
         <v>316</v>
       </c>
-      <c r="Z107" s="2"/>
-    </row>
-    <row r="108" spans="1:26" ht="17.5" customHeight="1">
-      <c r="A108" t="s">
-        <v>249</v>
-      </c>
-      <c r="B108" t="s">
-        <v>148</v>
-      </c>
-      <c r="C108" t="s">
-        <v>250</v>
-      </c>
-      <c r="D108" t="s">
-        <v>327</v>
-      </c>
-      <c r="E108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G108">
-        <v>69.95</v>
-      </c>
-      <c r="N108">
-        <v>319</v>
-      </c>
-      <c r="W108">
-        <v>319</v>
-      </c>
-      <c r="X108" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y108" s="2">
+      <c r="Y108" s="2"/>
+    </row>
+    <row r="109" spans="1:25">
+      <c r="A109" t="s">
+        <v>231</v>
+      </c>
+      <c r="B109" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" t="s">
+        <v>233</v>
+      </c>
+      <c r="D109" t="s">
+        <v>309</v>
+      </c>
+      <c r="E109" t="s">
+        <v>427</v>
+      </c>
+      <c r="G109">
+        <v>599</v>
+      </c>
+      <c r="N109">
+        <v>316</v>
+      </c>
+      <c r="S109">
+        <v>316</v>
+      </c>
+      <c r="V109">
+        <v>316</v>
+      </c>
+      <c r="W109" t="s">
+        <v>479</v>
+      </c>
+      <c r="X109" s="2">
         <f t="shared" si="2"/>
         <v>319</v>
       </c>
-      <c r="Z108" s="2"/>
-    </row>
-    <row r="109" spans="1:26">
-      <c r="A109" t="s">
-        <v>251</v>
-      </c>
-      <c r="B109" t="s">
-        <v>253</v>
-      </c>
-      <c r="C109" t="s">
-        <v>87</v>
-      </c>
-      <c r="D109" t="s">
-        <v>328</v>
-      </c>
-      <c r="E109" t="s">
-        <v>443</v>
-      </c>
-      <c r="F109">
-        <v>259.95</v>
-      </c>
-      <c r="G109">
-        <v>179</v>
-      </c>
-      <c r="N109">
-        <v>322</v>
-      </c>
-      <c r="R109">
-        <v>322</v>
-      </c>
-      <c r="S109">
-        <v>322</v>
-      </c>
-      <c r="T109">
-        <v>322</v>
-      </c>
-      <c r="X109" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y109" s="2">
+      <c r="Y109" s="2"/>
+    </row>
+    <row r="110" spans="1:25" ht="17.5" customHeight="1">
+      <c r="A110" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" t="s">
+        <v>235</v>
+      </c>
+      <c r="D110" t="s">
+        <v>310</v>
+      </c>
+      <c r="E110" t="s">
+        <v>426</v>
+      </c>
+      <c r="G110">
+        <v>69.95</v>
+      </c>
+      <c r="N110">
+        <v>319</v>
+      </c>
+      <c r="V110">
+        <v>319</v>
+      </c>
+      <c r="W110" t="s">
+        <v>479</v>
+      </c>
+      <c r="X110" s="2">
         <f t="shared" si="2"/>
         <v>322</v>
       </c>
-      <c r="Z109" s="2"/>
-    </row>
-    <row r="110" spans="1:26">
-      <c r="A110" t="s">
-        <v>252</v>
-      </c>
-      <c r="B110" t="s">
-        <v>254</v>
-      </c>
-      <c r="C110" t="s">
-        <v>87</v>
-      </c>
-      <c r="D110" t="s">
-        <v>329</v>
-      </c>
-      <c r="E110" t="s">
-        <v>442</v>
-      </c>
-      <c r="F110">
-        <v>249.95</v>
-      </c>
-      <c r="G110">
-        <v>175</v>
-      </c>
-      <c r="N110">
-        <v>325</v>
-      </c>
-      <c r="R110">
-        <v>325</v>
-      </c>
-      <c r="S110">
-        <v>325</v>
-      </c>
-      <c r="T110">
-        <v>325</v>
-      </c>
-      <c r="X110" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y110" s="2">
+      <c r="Y110" s="2"/>
+    </row>
+    <row r="111" spans="1:25">
+      <c r="A111" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" t="s">
+        <v>311</v>
+      </c>
+      <c r="E111" t="s">
+        <v>425</v>
+      </c>
+      <c r="F111">
+        <v>259.95</v>
+      </c>
+      <c r="G111">
+        <v>179</v>
+      </c>
+      <c r="N111">
+        <v>322</v>
+      </c>
+      <c r="R111">
+        <v>322</v>
+      </c>
+      <c r="S111">
+        <v>322</v>
+      </c>
+      <c r="T111">
+        <v>322</v>
+      </c>
+      <c r="W111" t="s">
+        <v>17</v>
+      </c>
+      <c r="X111" s="2">
         <f t="shared" si="2"/>
         <v>325</v>
       </c>
-      <c r="Z110" s="2"/>
-    </row>
-    <row r="111" spans="1:26">
-      <c r="A111" t="s">
-        <v>256</v>
-      </c>
-      <c r="B111" t="s">
-        <v>97</v>
-      </c>
-      <c r="C111" t="s">
-        <v>42</v>
-      </c>
-      <c r="E111" t="s">
-        <v>441</v>
-      </c>
-      <c r="F111">
-        <v>349.95</v>
-      </c>
-      <c r="G111">
-        <v>249</v>
-      </c>
-      <c r="I111" t="s">
-        <v>381</v>
-      </c>
-      <c r="N111">
-        <v>328</v>
-      </c>
-      <c r="O111">
-        <v>328</v>
-      </c>
-      <c r="P111">
-        <v>328</v>
-      </c>
-      <c r="R111">
-        <v>328</v>
-      </c>
-      <c r="S111">
-        <v>328</v>
-      </c>
-      <c r="T111">
-        <v>328</v>
-      </c>
-      <c r="X111" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y111" s="2">
+      <c r="Y111" s="2"/>
+    </row>
+    <row r="112" spans="1:25">
+      <c r="A112" t="s">
+        <v>237</v>
+      </c>
+      <c r="B112" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112" t="s">
+        <v>312</v>
+      </c>
+      <c r="E112" t="s">
+        <v>424</v>
+      </c>
+      <c r="F112">
+        <v>249.95</v>
+      </c>
+      <c r="G112">
+        <v>175</v>
+      </c>
+      <c r="N112">
+        <v>325</v>
+      </c>
+      <c r="R112">
+        <v>325</v>
+      </c>
+      <c r="S112">
+        <v>325</v>
+      </c>
+      <c r="T112">
+        <v>325</v>
+      </c>
+      <c r="W112" t="s">
+        <v>17</v>
+      </c>
+      <c r="X112" s="2">
         <f t="shared" si="2"/>
         <v>328</v>
       </c>
-      <c r="Z111" s="2"/>
-    </row>
-    <row r="112" spans="1:26">
-      <c r="A112" t="s">
-        <v>257</v>
-      </c>
-      <c r="B112" t="s">
-        <v>97</v>
-      </c>
-      <c r="C112" t="s">
-        <v>42</v>
-      </c>
-      <c r="E112" t="s">
-        <v>440</v>
-      </c>
-      <c r="F112">
-        <v>449.95</v>
-      </c>
-      <c r="G112">
-        <v>299</v>
-      </c>
-      <c r="I112" t="s">
-        <v>382</v>
-      </c>
-      <c r="N112">
-        <v>331</v>
-      </c>
-      <c r="O112">
-        <v>331</v>
-      </c>
-      <c r="P112">
-        <v>331</v>
-      </c>
-      <c r="R112">
-        <v>331</v>
-      </c>
-      <c r="S112">
-        <v>331</v>
-      </c>
-      <c r="T112">
-        <v>331</v>
-      </c>
-      <c r="X112" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y112" s="2">
+      <c r="Y112" s="2"/>
+    </row>
+    <row r="113" spans="1:25">
+      <c r="A113" t="s">
+        <v>240</v>
+      </c>
+      <c r="B113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C113" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" t="s">
+        <v>423</v>
+      </c>
+      <c r="F113">
+        <v>349.95</v>
+      </c>
+      <c r="G113">
+        <v>249</v>
+      </c>
+      <c r="I113" t="s">
+        <v>364</v>
+      </c>
+      <c r="N113">
+        <v>328</v>
+      </c>
+      <c r="O113">
+        <v>328</v>
+      </c>
+      <c r="P113">
+        <v>328</v>
+      </c>
+      <c r="R113">
+        <v>328</v>
+      </c>
+      <c r="S113">
+        <v>328</v>
+      </c>
+      <c r="T113">
+        <v>328</v>
+      </c>
+      <c r="W113" t="s">
+        <v>17</v>
+      </c>
+      <c r="X113" s="2">
         <f t="shared" si="2"/>
         <v>331</v>
       </c>
-      <c r="Z112" s="2"/>
-    </row>
-    <row r="113" spans="1:26">
-      <c r="A113" t="s">
-        <v>258</v>
-      </c>
-      <c r="B113" t="s">
-        <v>259</v>
-      </c>
-      <c r="C113" t="s">
-        <v>260</v>
-      </c>
-      <c r="D113" t="s">
-        <v>330</v>
-      </c>
-      <c r="E113" t="s">
-        <v>439</v>
-      </c>
-      <c r="G113">
-        <v>399</v>
-      </c>
-      <c r="N113">
-        <v>334</v>
-      </c>
-      <c r="S113">
-        <v>334</v>
-      </c>
-      <c r="U113">
-        <v>334</v>
-      </c>
-      <c r="X113" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y113" s="2">
+      <c r="Y113" s="2"/>
+    </row>
+    <row r="114" spans="1:25">
+      <c r="A114" t="s">
+        <v>241</v>
+      </c>
+      <c r="B114" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" t="s">
+        <v>422</v>
+      </c>
+      <c r="F114">
+        <v>449.95</v>
+      </c>
+      <c r="G114">
+        <v>299</v>
+      </c>
+      <c r="I114" t="s">
+        <v>365</v>
+      </c>
+      <c r="N114">
+        <v>331</v>
+      </c>
+      <c r="O114">
+        <v>331</v>
+      </c>
+      <c r="P114">
+        <v>331</v>
+      </c>
+      <c r="R114">
+        <v>331</v>
+      </c>
+      <c r="S114">
+        <v>331</v>
+      </c>
+      <c r="T114">
+        <v>331</v>
+      </c>
+      <c r="W114" t="s">
+        <v>17</v>
+      </c>
+      <c r="X114" s="2">
         <f t="shared" si="2"/>
         <v>334</v>
       </c>
-    </row>
-    <row r="114" spans="1:26">
-      <c r="A114" t="s">
-        <v>262</v>
-      </c>
-      <c r="B114">
-        <v>19644</v>
-      </c>
-      <c r="C114" t="s">
-        <v>263</v>
-      </c>
-      <c r="D114" t="s">
-        <v>331</v>
-      </c>
-      <c r="E114" t="s">
-        <v>438</v>
-      </c>
-      <c r="F114">
-        <v>59.95</v>
-      </c>
-      <c r="G114">
-        <v>45</v>
-      </c>
-      <c r="N114">
-        <v>337</v>
-      </c>
-      <c r="O114">
-        <v>337</v>
-      </c>
-      <c r="Q114">
-        <v>337</v>
-      </c>
-      <c r="R114">
-        <v>337</v>
-      </c>
-      <c r="S114">
-        <v>337</v>
-      </c>
-      <c r="T114">
-        <v>337</v>
-      </c>
-      <c r="X114" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y114" s="2">
+      <c r="Y114" s="2"/>
+    </row>
+    <row r="115" spans="1:25">
+      <c r="A115" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" t="s">
+        <v>244</v>
+      </c>
+      <c r="D115" t="s">
+        <v>313</v>
+      </c>
+      <c r="E115" t="s">
+        <v>421</v>
+      </c>
+      <c r="G115">
+        <v>399</v>
+      </c>
+      <c r="N115">
+        <v>334</v>
+      </c>
+      <c r="S115">
+        <v>334</v>
+      </c>
+      <c r="U115">
+        <v>334</v>
+      </c>
+      <c r="W115" t="s">
+        <v>17</v>
+      </c>
+      <c r="X115" s="2">
         <f t="shared" si="2"/>
         <v>337</v>
       </c>
     </row>
-    <row r="115" spans="1:26">
-      <c r="A115" t="s">
-        <v>261</v>
-      </c>
-      <c r="B115">
-        <v>19743</v>
-      </c>
-      <c r="C115" t="s">
-        <v>263</v>
-      </c>
-      <c r="D115" t="s">
-        <v>332</v>
-      </c>
-      <c r="E115" t="s">
-        <v>437</v>
-      </c>
-      <c r="F115">
-        <v>24.95</v>
-      </c>
-      <c r="G115">
-        <v>19</v>
-      </c>
-      <c r="N115">
-        <v>340</v>
-      </c>
-      <c r="O115">
-        <v>340</v>
-      </c>
-      <c r="P115">
-        <v>340</v>
-      </c>
-      <c r="Q115">
-        <v>340</v>
-      </c>
-      <c r="R115">
-        <v>340</v>
-      </c>
-      <c r="S115">
-        <v>340</v>
-      </c>
-      <c r="T115">
-        <v>340</v>
-      </c>
-      <c r="X115" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y115" s="2">
+    <row r="116" spans="1:25">
+      <c r="A116" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116">
+        <v>19644</v>
+      </c>
+      <c r="C116" t="s">
+        <v>247</v>
+      </c>
+      <c r="D116" t="s">
+        <v>314</v>
+      </c>
+      <c r="E116" t="s">
+        <v>420</v>
+      </c>
+      <c r="F116">
+        <v>59.95</v>
+      </c>
+      <c r="G116">
+        <v>45</v>
+      </c>
+      <c r="N116">
+        <v>337</v>
+      </c>
+      <c r="O116">
+        <v>337</v>
+      </c>
+      <c r="Q116">
+        <v>337</v>
+      </c>
+      <c r="R116">
+        <v>337</v>
+      </c>
+      <c r="S116">
+        <v>337</v>
+      </c>
+      <c r="T116">
+        <v>337</v>
+      </c>
+      <c r="W116" t="s">
+        <v>17</v>
+      </c>
+      <c r="X116" s="2">
         <f t="shared" si="2"/>
         <v>340</v>
       </c>
     </row>
-    <row r="116" spans="1:26">
-      <c r="A116" t="s">
-        <v>264</v>
-      </c>
-      <c r="C116" t="s">
-        <v>265</v>
-      </c>
-      <c r="D116" t="s">
-        <v>333</v>
-      </c>
-      <c r="E116" t="s">
-        <v>436</v>
-      </c>
-      <c r="G116">
-        <v>19.95</v>
-      </c>
-      <c r="N116">
-        <v>343</v>
-      </c>
-      <c r="O116">
-        <v>343</v>
-      </c>
-      <c r="P116">
-        <v>343</v>
-      </c>
-      <c r="R116">
-        <v>343</v>
-      </c>
-      <c r="S116">
-        <v>343</v>
-      </c>
-      <c r="T116">
-        <v>343</v>
-      </c>
-      <c r="X116" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y116" s="2">
+    <row r="117" spans="1:25">
+      <c r="A117" t="s">
+        <v>245</v>
+      </c>
+      <c r="B117">
+        <v>19743</v>
+      </c>
+      <c r="C117" t="s">
+        <v>247</v>
+      </c>
+      <c r="D117" t="s">
+        <v>315</v>
+      </c>
+      <c r="E117" t="s">
+        <v>419</v>
+      </c>
+      <c r="F117">
+        <v>24.95</v>
+      </c>
+      <c r="G117">
+        <v>19</v>
+      </c>
+      <c r="N117">
+        <v>340</v>
+      </c>
+      <c r="O117">
+        <v>340</v>
+      </c>
+      <c r="Q117">
+        <v>340</v>
+      </c>
+      <c r="R117">
+        <v>340</v>
+      </c>
+      <c r="S117">
+        <v>340</v>
+      </c>
+      <c r="T117">
+        <v>340</v>
+      </c>
+      <c r="W117" t="s">
+        <v>17</v>
+      </c>
+      <c r="X117" s="2">
         <f t="shared" si="2"/>
         <v>343</v>
       </c>
     </row>
-    <row r="117" spans="1:26">
-      <c r="A117" t="s">
-        <v>266</v>
-      </c>
-      <c r="B117" t="s">
-        <v>83</v>
-      </c>
-      <c r="C117" t="s">
-        <v>190</v>
-      </c>
-      <c r="D117" t="s">
-        <v>334</v>
-      </c>
-      <c r="E117" t="s">
-        <v>435</v>
-      </c>
-      <c r="F117">
-        <v>99.95</v>
-      </c>
-      <c r="G117">
-        <v>69</v>
-      </c>
-      <c r="N117">
-        <v>346</v>
-      </c>
-      <c r="O117">
-        <v>346</v>
-      </c>
-      <c r="R117">
-        <v>346</v>
-      </c>
-      <c r="S117">
-        <v>346</v>
-      </c>
-      <c r="T117">
-        <v>346</v>
-      </c>
-      <c r="X117" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y117" s="2">
+    <row r="118" spans="1:25">
+      <c r="A118" t="s">
+        <v>248</v>
+      </c>
+      <c r="C118" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" t="s">
+        <v>316</v>
+      </c>
+      <c r="E118" t="s">
+        <v>418</v>
+      </c>
+      <c r="G118">
+        <v>19.95</v>
+      </c>
+      <c r="N118">
+        <v>343</v>
+      </c>
+      <c r="O118">
+        <v>343</v>
+      </c>
+      <c r="P118">
+        <v>343</v>
+      </c>
+      <c r="R118">
+        <v>343</v>
+      </c>
+      <c r="S118">
+        <v>343</v>
+      </c>
+      <c r="T118">
+        <v>343</v>
+      </c>
+      <c r="W118" t="s">
+        <v>17</v>
+      </c>
+      <c r="X118" s="2">
         <f t="shared" si="2"/>
         <v>346</v>
       </c>
-      <c r="Z117" t="s">
-        <v>155</v>
+    </row>
+    <row r="119" spans="1:25">
+      <c r="A119" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119" t="s">
+        <v>177</v>
+      </c>
+      <c r="D119" t="s">
+        <v>317</v>
+      </c>
+      <c r="E119" t="s">
+        <v>417</v>
+      </c>
+      <c r="F119">
+        <v>99.95</v>
+      </c>
+      <c r="G119">
+        <v>69</v>
+      </c>
+      <c r="N119">
+        <v>346</v>
+      </c>
+      <c r="O119">
+        <v>346</v>
+      </c>
+      <c r="R119">
+        <v>346</v>
+      </c>
+      <c r="S119">
+        <v>346</v>
+      </c>
+      <c r="T119">
+        <v>346</v>
+      </c>
+      <c r="W119" t="s">
+        <v>17</v>
+      </c>
+      <c r="X119" s="2">
+        <f t="shared" si="2"/>
+        <v>349</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
